--- a/c/materials.xlsx
+++ b/c/materials.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="644">
   <si>
     <t>姓名</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>游武毅</t>
+  </si>
+  <si>
+    <t>2026/2/1官宣分手</t>
   </si>
   <si>
     <t>崔宇臣</t>
@@ -3270,6 +3273,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -3285,12 +3294,6 @@
       <sz val="11"/>
       <name val="黑体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5080,8 +5083,8 @@
   </sheetPr>
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -5467,93 +5470,96 @@
       <c r="A42" s="72" t="s">
         <v>95</v>
       </c>
+      <c r="H42" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="72" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B43" s="221" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" ht="26" spans="1:9">
       <c r="A44" s="72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44" s="221" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" ht="26" spans="1:9">
       <c r="A45" s="72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C45" s="221" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D45" s="221" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="72" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D47" s="221" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="72" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C48" s="221" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D48" s="221" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="72" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" ht="78" spans="1:7">
       <c r="A50" s="72" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C50" s="221" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="72" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" ht="26" spans="1:7">
       <c r="A52" s="72" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B52" s="221" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C52" s="221" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" ht="26" spans="1:7">
       <c r="A53" s="71" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B53" s="221" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D53" s="223"/>
       <c r="E53" s="223"/>
@@ -5562,13 +5568,13 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="71" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B54" s="221" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C54" s="221" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D54" s="223"/>
       <c r="E54" s="223"/>
@@ -5577,46 +5583,46 @@
     </row>
     <row r="55" ht="65" spans="1:7">
       <c r="A55" s="71" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B55" s="223"/>
       <c r="C55" s="223"/>
       <c r="D55" s="221" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" ht="65" spans="1:7">
       <c r="A56" s="71" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B56" s="78" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C56" s="78"/>
       <c r="D56" s="221" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" ht="117" spans="1:7">
       <c r="A57" s="71" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B57" s="78" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C57" s="78" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D57" s="221" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="71" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B58" s="221" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C58" s="223"/>
       <c r="D58" s="223"/>
@@ -5626,11 +5632,11 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="71" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B59" s="223"/>
       <c r="C59" s="221" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D59" s="223"/>
       <c r="E59" s="223"/>
@@ -5639,22 +5645,22 @@
     </row>
     <row r="60" ht="52" spans="1:7">
       <c r="A60" s="71" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B60" s="223" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C60" s="223"/>
       <c r="D60" s="221" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="71" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B61" s="78" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C61" s="78"/>
       <c r="D61" s="223"/>
@@ -5664,23 +5670,23 @@
     </row>
     <row r="62" ht="39" spans="1:7">
       <c r="A62" s="71" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B62" s="223"/>
       <c r="C62" s="223"/>
       <c r="D62" s="221" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" ht="26" spans="1:7">
       <c r="A63" s="71" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B63" s="78" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C63" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D63" s="223"/>
       <c r="E63" s="223"/>
@@ -5689,20 +5695,20 @@
     </row>
     <row r="64" ht="26" spans="1:7">
       <c r="A64" s="71" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B64" s="223"/>
       <c r="C64" s="223"/>
       <c r="D64" s="221" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" ht="26" spans="1:7">
       <c r="A65" s="71" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B65" s="225" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C65" s="223"/>
       <c r="D65" s="223"/>
@@ -5712,11 +5718,11 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B66" s="223"/>
       <c r="C66" s="221" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D66" s="223"/>
       <c r="E66" s="223"/>
@@ -5725,36 +5731,36 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="71" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B67" s="223"/>
       <c r="C67" s="223"/>
     </row>
     <row r="68" ht="65" spans="1:7">
       <c r="A68" s="71" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B68" s="223"/>
       <c r="C68" s="223"/>
       <c r="D68" s="221" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B69" s="78" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C69" s="78"/>
     </row>
     <row r="70" ht="26" spans="1:7">
       <c r="A70" s="71" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B70" s="78" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C70" s="78"/>
       <c r="D70" s="223"/>
@@ -5764,20 +5770,20 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="71" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B71" s="223"/>
       <c r="C71" s="223"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="71" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B72" s="221" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C72" s="221" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D72" s="223"/>
       <c r="E72" s="223"/>
@@ -5786,11 +5792,11 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="71" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B73" s="223"/>
       <c r="C73" s="221" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D73" s="223"/>
       <c r="E73" s="223"/>
@@ -5799,12 +5805,12 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="71" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D75" s="223"/>
       <c r="E75" s="223"/>
@@ -5813,27 +5819,27 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="71" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B76" s="223"/>
       <c r="C76" s="223"/>
       <c r="D76" s="221" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="71" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B77" s="78"/>
       <c r="C77" s="78"/>
     </row>
     <row r="78" ht="26" spans="1:7">
       <c r="A78" s="226" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B78" s="221" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5891,16 +5897,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="67" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B1" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5914,7 +5920,7 @@
         <v>20111216</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5928,7 +5934,7 @@
         <v>20111227</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5942,7 +5948,7 @@
         <v>20120518</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:4">
@@ -5970,7 +5976,7 @@
         <v>20120504</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5984,7 +5990,7 @@
         <v>20120809</v>
       </c>
       <c r="D7" s="66" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5998,7 +6004,7 @@
         <v>20120227</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6012,7 +6018,7 @@
         <v>20120127</v>
       </c>
       <c r="D9" s="66" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6026,7 +6032,7 @@
         <v>20111202</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:4">
@@ -6052,7 +6058,7 @@
         <v>20111024</v>
       </c>
       <c r="D12" s="66" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6066,7 +6072,7 @@
         <v>20110908</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6080,7 +6086,7 @@
         <v>20120228</v>
       </c>
       <c r="D14" s="66" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:4">
@@ -6106,7 +6112,7 @@
         <v>20111201</v>
       </c>
       <c r="D16" s="66" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6120,7 +6126,7 @@
         <v>20120722</v>
       </c>
       <c r="D17" s="66" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:4">
@@ -6158,7 +6164,7 @@
         <v>20120530</v>
       </c>
       <c r="D20" s="66" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6172,7 +6178,7 @@
         <v>20120827</v>
       </c>
       <c r="D21" s="66" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:4">
@@ -6198,7 +6204,7 @@
         <v>20120518</v>
       </c>
       <c r="D23" s="66" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6212,7 +6218,7 @@
         <v>20120413</v>
       </c>
       <c r="D24" s="66" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6226,7 +6232,7 @@
         <v>20120629</v>
       </c>
       <c r="D25" s="66" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6240,7 +6246,7 @@
         <v>20111105</v>
       </c>
       <c r="D26" s="66" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6254,7 +6260,7 @@
         <v>20120112</v>
       </c>
       <c r="D27" s="66" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6268,7 +6274,7 @@
         <v>20111119</v>
       </c>
       <c r="D28" s="66" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:4">
@@ -6294,7 +6300,7 @@
         <v>20120331</v>
       </c>
       <c r="D30" s="66" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6308,7 +6314,7 @@
         <v>20111109</v>
       </c>
       <c r="D31" s="66" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6322,7 +6328,7 @@
         <v>20120824</v>
       </c>
       <c r="D32" s="66" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:5">
@@ -6348,7 +6354,7 @@
         <v>20120624</v>
       </c>
       <c r="D34" s="66" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:5">
@@ -6374,7 +6380,7 @@
         <v>20120603</v>
       </c>
       <c r="D36" s="66" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -6388,7 +6394,7 @@
         <v>20120326</v>
       </c>
       <c r="D37" s="66" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6402,10 +6408,10 @@
         <v>20111106</v>
       </c>
       <c r="D38" s="77" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E38" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -6419,7 +6425,7 @@
         <v>20120811</v>
       </c>
       <c r="D39" s="78" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -6433,7 +6439,7 @@
         <v>20111217</v>
       </c>
       <c r="D40" s="78" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -6447,10 +6453,10 @@
         <v>20111013</v>
       </c>
       <c r="D41" s="66" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E41" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:5">
@@ -6470,13 +6476,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="72" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C43" s="74">
         <v>20120207</v>
       </c>
       <c r="D43" s="66" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:5">
@@ -6484,7 +6490,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44" s="73">
         <v>20120508</v>
@@ -6496,13 +6502,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C45" s="74">
         <v>20110929</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:5">
@@ -6510,7 +6516,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C46" s="74">
         <v>20111205</v>
@@ -6522,16 +6528,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="72" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C47" s="74">
         <v>20120108</v>
       </c>
       <c r="D47" s="66" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E47" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -6539,13 +6545,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="72" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C48" s="74">
         <v>20120311</v>
       </c>
       <c r="D48" s="66" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:4">
@@ -6553,7 +6559,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="72" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C49" s="74">
         <v>20110902</v>
@@ -6565,13 +6571,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="72" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C50" s="74">
         <v>20120723</v>
       </c>
       <c r="D50" s="66" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:4">
@@ -6579,7 +6585,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="72" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C51" s="74">
         <v>20120101</v>
@@ -6591,13 +6597,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="72" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C52" s="74">
         <v>20111220</v>
       </c>
       <c r="D52" s="66" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -6635,34 +6641,34 @@
   <sheetData>
     <row r="1" s="27" customFormat="1" spans="1:5">
       <c r="A1" s="34" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="38" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" s="28" customFormat="1" ht="409" customHeight="1" spans="1:5">
       <c r="A2" s="39" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" s="28" customFormat="1" ht="56" spans="1:5">
@@ -6670,10 +6676,10 @@
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="32" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" s="28" customFormat="1" spans="1:5">
@@ -6681,10 +6687,10 @@
       <c r="B4" s="43"/>
       <c r="C4" s="44"/>
       <c r="D4" s="32" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" s="28" customFormat="1" ht="56" spans="1:5">
@@ -6692,10 +6698,10 @@
       <c r="B5" s="43"/>
       <c r="C5" s="44"/>
       <c r="D5" s="32" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" s="28" customFormat="1" ht="238" spans="1:5">
@@ -6703,23 +6709,23 @@
       <c r="B6" s="43"/>
       <c r="C6" s="44"/>
       <c r="D6" s="32" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" s="28" customFormat="1" ht="238" spans="1:5">
       <c r="A7" s="42"/>
       <c r="B7" s="43"/>
       <c r="C7" s="41" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" s="28" customFormat="1" ht="56" spans="1:5">
@@ -6727,10 +6733,10 @@
       <c r="B8" s="43"/>
       <c r="C8" s="44"/>
       <c r="D8" s="32" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" s="28" customFormat="1" ht="84" spans="1:5">
@@ -6738,10 +6744,10 @@
       <c r="B9" s="43"/>
       <c r="C9" s="44"/>
       <c r="D9" s="32" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" s="28" customFormat="1" ht="28" spans="1:5">
@@ -6749,10 +6755,10 @@
       <c r="B10" s="43"/>
       <c r="C10" s="44"/>
       <c r="D10" s="32" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" s="28" customFormat="1" spans="1:5">
@@ -6760,10 +6766,10 @@
       <c r="B11" s="43"/>
       <c r="C11" s="45"/>
       <c r="D11" s="32" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" s="28" customFormat="1" ht="154" spans="1:5">
@@ -6771,50 +6777,50 @@
       <c r="B12" s="43"/>
       <c r="C12" s="31"/>
       <c r="D12" s="32" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" s="28" customFormat="1" ht="56" spans="1:5">
       <c r="A13" s="42"/>
       <c r="B13" s="43"/>
       <c r="C13" s="46" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="33" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" s="28" customFormat="1" ht="84" spans="1:5">
       <c r="A14" s="42"/>
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="33" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" s="28" customFormat="1" ht="28" spans="1:5">
       <c r="A15" s="42"/>
       <c r="B15" s="43"/>
       <c r="C15" s="46" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="33" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" s="28" customFormat="1" spans="1:5">
       <c r="A16" s="42"/>
       <c r="B16" s="43"/>
       <c r="C16" s="46" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="33"/>
@@ -6823,24 +6829,24 @@
       <c r="A17" s="42"/>
       <c r="B17" s="43"/>
       <c r="C17" s="46" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="33" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" s="28" customFormat="1" spans="1:5">
       <c r="A18" s="42"/>
       <c r="B18" s="43"/>
       <c r="C18" s="41" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" s="28" customFormat="1" spans="1:5">
@@ -6848,17 +6854,17 @@
       <c r="B19" s="43"/>
       <c r="C19" s="45"/>
       <c r="D19" s="32" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" s="28" customFormat="1" spans="1:5">
       <c r="A20" s="42"/>
       <c r="B20" s="43"/>
       <c r="C20" s="46" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="33"/>
@@ -6867,61 +6873,61 @@
       <c r="A21" s="42"/>
       <c r="B21" s="43"/>
       <c r="C21" s="46" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="33" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="22" s="28" customFormat="1" ht="28" spans="1:5">
       <c r="A22" s="42"/>
       <c r="B22" s="43"/>
       <c r="C22" s="46" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D22" s="47"/>
       <c r="E22" s="33" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" s="28" customFormat="1" spans="1:5">
       <c r="A23" s="42"/>
       <c r="B23" s="43"/>
       <c r="C23" s="31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="33" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" s="28" customFormat="1" spans="1:5">
       <c r="A24" s="42"/>
       <c r="B24" s="43"/>
       <c r="C24" s="31" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="33" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="25" s="28" customFormat="1" ht="28" spans="1:5">
       <c r="A25" s="39" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="26" s="28" customFormat="1" spans="1:5">
@@ -6929,10 +6935,10 @@
       <c r="B26" s="43"/>
       <c r="C26" s="44"/>
       <c r="D26" s="32" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="27" s="28" customFormat="1" ht="28" spans="1:5">
@@ -6940,10 +6946,10 @@
       <c r="B27" s="43"/>
       <c r="C27" s="44"/>
       <c r="D27" s="32" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" s="28" customFormat="1" ht="42" spans="1:5">
@@ -6951,27 +6957,27 @@
       <c r="B28" s="43"/>
       <c r="C28" s="44"/>
       <c r="D28" s="32" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="29" s="28" customFormat="1" ht="42" spans="1:5">
       <c r="A29" s="39" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="30" s="28" customFormat="1" ht="70" spans="1:5">
@@ -6979,10 +6985,10 @@
       <c r="B30" s="43"/>
       <c r="C30" s="44"/>
       <c r="D30" s="32" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="31" s="28" customFormat="1" spans="1:5">
@@ -6990,10 +6996,10 @@
       <c r="B31" s="43"/>
       <c r="C31" s="44"/>
       <c r="D31" s="32" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="32" s="28" customFormat="1" ht="28" spans="1:5">
@@ -7001,99 +7007,99 @@
       <c r="B32" s="43"/>
       <c r="C32" s="45"/>
       <c r="D32" s="32" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" s="28" customFormat="1" ht="42" spans="1:5">
       <c r="A33" s="42"/>
       <c r="B33" s="49"/>
       <c r="C33" s="46" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D33" s="47"/>
       <c r="E33" s="33" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" s="28" customFormat="1" ht="42" spans="1:5">
       <c r="A34" s="42"/>
       <c r="B34" s="50" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D34" s="51"/>
       <c r="E34" s="52" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="35" s="28" customFormat="1" ht="42" spans="1:5">
       <c r="A35" s="53"/>
       <c r="B35" s="54"/>
       <c r="C35" s="36" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D35" s="51"/>
       <c r="E35" s="52" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" s="28" customFormat="1" spans="1:5">
       <c r="A36" s="39" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C36" s="56"/>
       <c r="D36" s="57"/>
       <c r="E36" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" s="28" customFormat="1" spans="1:5">
       <c r="A37" s="53"/>
       <c r="B37" s="58" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C37" s="59"/>
       <c r="D37" s="60"/>
       <c r="E37" s="33" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="38" s="28" customFormat="1" spans="1:5">
       <c r="A38" s="29" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B38" s="58" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C38" s="59"/>
       <c r="D38" s="60"/>
       <c r="E38" s="33" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="39" s="28" customFormat="1" spans="1:5">
       <c r="A39" s="39" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="40" s="28" customFormat="1" spans="1:5">
@@ -7101,83 +7107,83 @@
       <c r="B40" s="43"/>
       <c r="C40" s="45"/>
       <c r="D40" s="32" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="41" s="28" customFormat="1" spans="1:5">
       <c r="A41" s="42"/>
       <c r="B41" s="43"/>
       <c r="C41" s="46" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D41" s="47"/>
       <c r="E41" s="33" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="42" s="28" customFormat="1" spans="1:5">
       <c r="A42" s="53"/>
       <c r="B42" s="49"/>
       <c r="C42" s="46" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D42" s="47"/>
       <c r="E42" s="33" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" s="28" customFormat="1" spans="1:5">
       <c r="A43" s="39" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D43" s="62"/>
       <c r="E43" s="52" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="44" s="28" customFormat="1" ht="28" spans="1:5">
       <c r="A44" s="42"/>
       <c r="B44" s="54"/>
       <c r="C44" s="61" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D44" s="62"/>
       <c r="E44" s="52" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" s="28" customFormat="1" spans="1:5">
       <c r="A45" s="53"/>
       <c r="B45" s="58" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C45" s="59"/>
       <c r="D45" s="60"/>
       <c r="E45" s="33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" s="28" customFormat="1" spans="1:5">
       <c r="A46" s="39" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E46" s="33"/>
     </row>
@@ -7186,7 +7192,7 @@
       <c r="B47" s="43"/>
       <c r="C47" s="44"/>
       <c r="D47" s="32" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E47" s="33"/>
     </row>
@@ -7195,55 +7201,55 @@
       <c r="B48" s="49"/>
       <c r="C48" s="45"/>
       <c r="D48" s="32" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="49" s="28" customFormat="1" spans="1:5">
       <c r="A49" s="29" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B49" s="58" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60"/>
       <c r="E49" s="33" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="50" s="28" customFormat="1" spans="1:5">
       <c r="A50" s="39" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B50" s="58" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60"/>
       <c r="E50" s="33" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="51" s="28" customFormat="1" spans="1:5">
       <c r="A51" s="53"/>
       <c r="B51" s="58" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60"/>
       <c r="E51" s="33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" s="28" customFormat="1" spans="1:5">
       <c r="A52" s="29" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B52" s="58" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60"/>
@@ -7251,10 +7257,10 @@
     </row>
     <row r="53" s="28" customFormat="1" spans="1:5">
       <c r="A53" s="39" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B53" s="58" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60"/>
@@ -7266,18 +7272,18 @@
       <c r="C54" s="59"/>
       <c r="D54" s="60"/>
       <c r="E54" s="33" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="55" s="28" customFormat="1" spans="1:5">
       <c r="A55" s="29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B55" s="30"/>
       <c r="C55" s="31"/>
       <c r="D55" s="32"/>
       <c r="E55" s="33" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -7390,7 +7396,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
@@ -7404,7 +7410,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
@@ -7428,7 +7434,7 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
@@ -7441,7 +7447,7 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="22" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
@@ -7454,7 +7460,7 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
@@ -7488,7 +7494,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
@@ -7534,7 +7540,7 @@
         <v>33</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
@@ -7570,7 +7576,7 @@
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="22" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
@@ -7604,10 +7610,10 @@
         <v>44</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11"/>
@@ -7619,10 +7625,10 @@
         <v>47</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
@@ -7645,7 +7651,7 @@
         <v>52</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
@@ -7658,10 +7664,10 @@
         <v>54</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
@@ -7695,10 +7701,10 @@
         <v>60</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="11"/>
@@ -7710,10 +7716,10 @@
         <v>63</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
@@ -7737,7 +7743,7 @@
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="22" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
@@ -7804,7 +7810,7 @@
         <v>76</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
@@ -7818,7 +7824,7 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="22" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
@@ -7830,7 +7836,7 @@
         <v>81</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="26"/>
@@ -7844,7 +7850,7 @@
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="22" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
@@ -7856,10 +7862,10 @@
         <v>86</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
@@ -7872,7 +7878,7 @@
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="22" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
@@ -7892,10 +7898,10 @@
     </row>
     <row r="43" s="6" customFormat="1" spans="1:7">
       <c r="A43" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
@@ -7905,7 +7911,7 @@
     </row>
     <row r="44" s="6" customFormat="1" spans="1:7">
       <c r="A44" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
@@ -7916,10 +7922,10 @@
     </row>
     <row r="45" s="6" customFormat="1" ht="387" spans="1:7">
       <c r="A45" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -7929,7 +7935,7 @@
     </row>
     <row r="46" s="6" customFormat="1" spans="1:7">
       <c r="A46" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
@@ -7940,7 +7946,7 @@
     </row>
     <row r="47" s="6" customFormat="1" spans="1:7">
       <c r="A47" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
@@ -7951,11 +7957,11 @@
     </row>
     <row r="48" s="6" customFormat="1" spans="1:7">
       <c r="A48" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="22" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
@@ -7964,7 +7970,7 @@
     </row>
     <row r="49" s="6" customFormat="1" spans="1:7">
       <c r="A49" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
@@ -7975,11 +7981,11 @@
     </row>
     <row r="50" s="6" customFormat="1" ht="322" spans="1:7">
       <c r="A50" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="22" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="11"/>
@@ -7988,7 +7994,7 @@
     </row>
     <row r="51" s="6" customFormat="1" spans="1:7">
       <c r="A51" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
@@ -7999,13 +8005,13 @@
     </row>
     <row r="52" s="6" customFormat="1" ht="224" spans="1:7">
       <c r="A52" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="11"/>
@@ -8046,27 +8052,27 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C2" s="4">
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F2" s="4">
         <v>6</v>
@@ -8074,13 +8080,13 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C3" s="4">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F3" s="4">
         <v>13</v>
@@ -8088,13 +8094,13 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C4" s="4">
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F4" s="4">
         <v>4</v>
@@ -8102,13 +8108,13 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F5" s="4">
         <v>6</v>
@@ -8116,13 +8122,13 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F6" s="4">
         <v>4</v>
@@ -8130,13 +8136,13 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -8144,13 +8150,13 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F8" s="4">
         <v>3</v>
@@ -8158,7 +8164,7 @@
     </row>
     <row r="9" spans="2:6">
       <c r="E9" s="4" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -8166,7 +8172,7 @@
     </row>
     <row r="10" spans="2:6">
       <c r="E10" s="4" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F10" s="4">
         <v>5</v>
@@ -8174,7 +8180,7 @@
     </row>
     <row r="11" spans="2:6">
       <c r="E11" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -8182,7 +8188,7 @@
     </row>
     <row r="12" spans="2:6">
       <c r="E12" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F12" s="4">
         <v>2</v>
@@ -8236,12 +8242,12 @@
     </row>
     <row r="2" s="214" customFormat="1" ht="39" spans="1:7">
       <c r="A2" s="218" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
       <c r="D2" s="78" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E2" s="78"/>
       <c r="F2" s="78"/>
@@ -8249,57 +8255,57 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="219" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="219" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="219" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="219" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="219" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="219"/>
       <c r="D8" s="66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8308,7 +8314,7 @@
     <row r="10" spans="1:7">
       <c r="A10" s="219"/>
       <c r="B10" s="66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -8317,43 +8323,43 @@
     <row r="12" spans="1:7">
       <c r="A12" s="219"/>
       <c r="B12" s="66" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="219"/>
       <c r="B13" s="66" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="219"/>
       <c r="B14" s="66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="219"/>
       <c r="B15" s="66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="219"/>
       <c r="B16" s="66" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="219"/>
       <c r="B17" s="66" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="219"/>
       <c r="B18" s="66" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8496,77 +8502,77 @@
   <sheetData>
     <row r="1" s="204" customFormat="1" ht="15" spans="1:3">
       <c r="A1" s="206" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B1" s="206" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C1" s="206" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="207" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B2" s="207" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C2" s="207" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="207" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B3" s="207" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C3" s="207" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="207" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B4" s="207" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C4" s="207" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" ht="56" spans="1:3">
       <c r="A5" s="208" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B5" s="207" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C5" s="207" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" ht="28" spans="1:3">
       <c r="A6" s="209"/>
       <c r="B6" s="207" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C6" s="207" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="207" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B7" s="207" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C7" s="207" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8574,82 +8580,82 @@
         <v>90</v>
       </c>
       <c r="B8" s="207" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C8" s="207" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="211"/>
       <c r="B9" s="207" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C9" s="207" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="211"/>
       <c r="B10" s="207" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C10" s="207" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="211"/>
       <c r="B11" s="207" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C11" s="207" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="211"/>
       <c r="B12" s="207" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C12" s="207" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" ht="140" spans="1:3">
       <c r="A13" s="211"/>
       <c r="B13" s="207" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C13" s="207" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="211"/>
       <c r="B14" s="207" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C14" s="207" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="211"/>
       <c r="B15" s="207" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C15" s="207" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="211"/>
       <c r="B16" s="207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C16" s="207" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8659,32 +8665,32 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="207" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B18" s="207" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C18" s="207" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="207" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B19" s="207" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C19" s="207" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="207" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B20" s="207" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C20" s="213">
         <v>0.440972222222222</v>
@@ -8695,86 +8701,86 @@
         <v>63</v>
       </c>
       <c r="B21" s="207" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C21" s="207" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="211"/>
       <c r="B22" s="207" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C22" s="207" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="211"/>
       <c r="B23" s="207" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C23" s="207" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" ht="56" spans="1:3">
       <c r="A24" s="211"/>
       <c r="B24" s="207" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C24" s="207" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="208" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B25" s="207" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C25" s="207" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="209"/>
       <c r="B26" s="207" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C26" s="207" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:3">
       <c r="A27" s="210" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B27" s="207" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C27" s="207" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="211"/>
       <c r="B28" s="207" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C28" s="207" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="211"/>
       <c r="B29" s="207" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C29" s="207" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8784,22 +8790,22 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="208" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B31" s="207" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C31" s="207" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="209"/>
       <c r="B32" s="207" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C32" s="207" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" ht="28" spans="1:3">
@@ -8807,39 +8813,39 @@
         <v>47</v>
       </c>
       <c r="B33" s="207" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C33" s="207" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="212"/>
       <c r="B34" s="205" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C34" s="205" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" ht="98" spans="1:3">
       <c r="A35" s="210" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B35" s="205" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C35" s="205" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" ht="84" spans="1:3">
       <c r="A36" s="212"/>
       <c r="B36" s="205" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C36" s="205" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8847,41 +8853,41 @@
         <v>38</v>
       </c>
       <c r="B37" s="205" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C37" s="205" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" ht="28" spans="1:3">
       <c r="A38" s="205" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B38" s="205" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C38" s="205" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="210" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B39" s="205" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C39" s="205" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="212"/>
       <c r="B40" s="205" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C40" s="205" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8889,32 +8895,32 @@
         <v>54</v>
       </c>
       <c r="B41" s="205" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C41" s="205" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="205" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B42" s="205" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C42" s="205" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="205" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B43" s="205" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C43" s="205" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -8922,43 +8928,43 @@
         <v>10</v>
       </c>
       <c r="B44" s="205" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C44" s="205" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="205" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B45" s="205" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C45" s="205" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="205" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B46" s="205" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C46" s="205" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="205" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B47" s="205" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C47" s="205" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -9005,33 +9011,33 @@
   <sheetData>
     <row r="1" s="191" customFormat="1" ht="15" spans="1:7">
       <c r="A1" s="194" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B1" s="195"/>
       <c r="C1" s="195"/>
       <c r="D1" s="196"/>
       <c r="E1" s="197"/>
       <c r="F1" s="191" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" s="192" customFormat="1" spans="1:7">
       <c r="A2" s="198" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B2" s="199"/>
       <c r="C2" s="192" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D2" s="192" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E2" s="141"/>
       <c r="F2" s="192" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G2" s="192" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9046,10 +9052,10 @@
       </c>
       <c r="D3" s="119"/>
       <c r="F3" s="119" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G3" s="119" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9062,10 +9068,10 @@
       </c>
       <c r="D4" s="119"/>
       <c r="F4" s="119" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G4" s="119" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9078,10 +9084,10 @@
       </c>
       <c r="D5" s="119"/>
       <c r="F5" s="119" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G5" s="119" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9094,10 +9100,10 @@
       </c>
       <c r="D6" s="119"/>
       <c r="F6" s="202" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G6" s="119" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -9111,7 +9117,7 @@
       <c r="D7" s="119"/>
       <c r="F7" s="203"/>
       <c r="G7" s="119" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9248,7 +9254,7 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="175" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B1" s="176">
         <v>45992</v>
@@ -9289,7 +9295,7 @@
       <c r="AH1" s="179"/>
       <c r="AI1" s="179"/>
       <c r="AJ1" s="180" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AK1" s="181"/>
       <c r="AL1" s="181"/>
@@ -9403,25 +9409,25 @@
         <v>23</v>
       </c>
       <c r="AJ2" s="184" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK2" s="184" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL2" s="184" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM2" s="184" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN2" s="185" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO2" s="185" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AP2" s="185" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:42">
@@ -13756,9 +13762,9 @@
   <pageSetup paperSize="9" scale="80" orientation="landscape"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="X41 AD9:AF9 Z9:AB9 A9:X9" unlockedFormula="1"/>
-    <ignoredError sqref="A10:X10 Z41:AE42 AN4:AP8 AO9:AP9 Z10:AF10 AN11:AP39 A45:AF45 Z49:AF49 A11:Z11 AB11:AC11 AE11 A12:X15 AB15:AE15 Z15 Z15 Z14:AF14 Z14:AF14 AB13:AF13 AB13:AF13 Z13 Z13 Z12:AF12 A16:AF16 A17:X18 A17:X18 Z17:AF18 Z17:AF18 A19:AF21 A19:AF21 A22:X22 A22:X22 AA22:AD22 AA22:AD22 AF22 AF22 A23:AF23 A23:AF23 A24:X25 A24:X25 Z24:AF25 Z24:AF25 A26:AF27 A26:AF27 A28:X33 A28:X33 Z28:AF33 Z28:AF33 A34:AF35 A34:AF35 A36:X36 A36:X36 Z36:AF36 Z36:AF36 A37:AF37 A37:AF37 A38:X38 AD38:AF38 Z38:AB38 A39:AF39 A3:X4 AJ1:AP2 A1:AF2 AO3:AP3 AO3:AP3 Z3:AF3 AC40:AD40 A40:V40 A42:X42 A43:AF43 A44:W44 Z44:AD44 Z44:AD44 AF44 A46:X46 AA46 AA46 AC46:AD46 AC46:AD46 AF46 AF46 A47:AF47 A48:X49 Z48:AB48 AE48 A51:AF53 A50:AD50 AF50 A5:AF7 X8:AF8 A8:V8 Z4:AE4" formulaRange="1" unlockedFormula="1"/>
-    <ignoredError sqref="AG43:AM45 AG49:AM53 AF42:AM42 AH41:AM41 AG5:AM8 AA11 AD11 AF11:AM11 Y13:AM14 Y15:AA15 AF15:AM15 Y12 AG12:AM12 AG16:AM16 A17:AM37 Y38 AC38 AG38:AM39 Y3:Y4 AG1:AI2 AG3:AP3 W40:AB40 Y42 X44:AE44 Y46:AM46 AG47:AM47 Y48:Y49 AC48:AD48 AF48:AM48 AE50 W8 AF4:AM4" formulaRange="1"/>
+    <ignoredError sqref="Z9:AB9 AD9:AF9 X41 A9:X9" unlockedFormula="1"/>
+    <ignoredError sqref="Z4:AE4 A8:V8 X8:AF8 A5:AF7 AF50 A50:AD50 A51:AF53 AE48 Z48:AB48 A48:X49 A47:AF47 AF46 AC46:AD46 AA46 A46:X46 AF44 Z44:AD44 A44:W44 A43:AF43 A42:X42 A40:V40 AC40:AD40 Z3:AF3 AO3:AP3 A1:AF2 AJ1:AP2 A3:X4 A39:AF39 Z38:AB38 AD38:AF38 A38:X38 A37:AF37 Z36:AF36 A36:X36 A34:AF35 Z28:AF33 A28:X33 A26:AF27 Z24:AF25 A24:X25 A23:AF23 AF22 AA22:AD22 A22:X22 A19:AF21 Z17:AF18 A17:X18 A16:AF16 Z12:AF12 Z13 AB13:AF13 Z14:AF14 Z15 AB15:AE15 A12:X15 AE11 AB11:AC11 A11:Z11 Z49:AF49 A45:AF45 AN11:AP39 Z10:AF10 AO9:AP9 AN4:AP8 Z41:AE42 A10:X10" formulaRange="1" unlockedFormula="1"/>
+    <ignoredError sqref="AG37:AM39 Y12:Y13 AG5:AM8 AH41:AM41 AF42:AM42 AG49:AM53 AG43:AM46 AF4:AM4 A5:AF7 W8:AF8 A50:AE50 A51:AF53 AF48:AM48 AC48:AD48 Y48:Y49 AG47:AM47 A46:AE46 A43:AF43 A44:AE44 A45:AF45 Y42 W40:AD40 AG1:AP3 Y3:Y4 AC38:AF38 Y38 A17:AM36 AG16:AM16 AG12:AM12 AA13:AM13 Y14:AM14 Y15 AA15 AF15:AM15 AF11:AM11 AD11 AA11" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -13810,21 +13816,21 @@
     </row>
     <row r="2" ht="16.5" spans="1:10">
       <c r="A2" s="148" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B2" s="152" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C2" s="153" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D2" s="154"/>
       <c r="E2" s="152" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F2" s="152"/>
       <c r="G2" s="155" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H2" s="147"/>
       <c r="I2" s="147"/>
@@ -13832,10 +13838,10 @@
     </row>
     <row r="3" ht="16.5" spans="1:10">
       <c r="A3" s="148" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B3" s="157" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C3" s="157"/>
       <c r="D3" s="157"/>
@@ -13848,10 +13854,10 @@
     </row>
     <row r="4" ht="16.5" spans="1:10">
       <c r="A4" s="148" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B4" s="158" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C4" s="158"/>
       <c r="D4" s="158"/>
@@ -13864,7 +13870,7 @@
     </row>
     <row r="5" ht="16.5" spans="1:10">
       <c r="A5" s="148" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B5" s="159">
         <v>1</v>
@@ -13884,7 +13890,7 @@
     </row>
     <row r="6" ht="16.5" spans="1:10">
       <c r="A6" s="148" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B6" s="161">
         <v>1</v>
@@ -13894,7 +13900,7 @@
       <c r="E6" s="161"/>
       <c r="F6" s="161"/>
       <c r="G6" s="162" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H6" s="147"/>
       <c r="I6" s="147"/>
@@ -13902,10 +13908,10 @@
     </row>
     <row r="7" ht="16.5" spans="1:10">
       <c r="A7" s="148" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B7" s="163" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C7" s="163"/>
       <c r="D7" s="163"/>
@@ -13920,14 +13926,14 @@
     </row>
     <row r="8" ht="16.5" spans="1:10">
       <c r="A8" s="148" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B8" s="165">
         <v>1</v>
       </c>
       <c r="C8" s="165"/>
       <c r="D8" s="166" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E8" s="166"/>
       <c r="F8" s="166"/>
@@ -13938,10 +13944,10 @@
     </row>
     <row r="9" ht="16.5" spans="1:10">
       <c r="A9" s="148" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B9" s="152" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C9" s="152"/>
       <c r="D9" s="152"/>
@@ -13954,23 +13960,23 @@
     </row>
     <row r="10" ht="16.5" spans="1:10">
       <c r="A10" s="148" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B10" s="157">
         <v>1</v>
       </c>
       <c r="C10" s="157"/>
       <c r="D10" s="167" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E10" s="157">
         <v>1</v>
       </c>
       <c r="F10" s="167" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G10" s="147" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H10" s="147"/>
       <c r="I10" s="147"/>
@@ -13978,7 +13984,7 @@
     </row>
     <row r="11" ht="16.5" spans="1:10">
       <c r="A11" s="148" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B11" s="158">
         <v>1</v>
@@ -13994,7 +14000,7 @@
     </row>
     <row r="12" ht="16.5" spans="1:10">
       <c r="A12" s="148" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B12" s="159">
         <v>1</v>
@@ -14012,17 +14018,17 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" spans="1:10">
       <c r="A13" s="148" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="168" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -14030,10 +14036,10 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="16.5" spans="1:10">
       <c r="A14" s="148" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B14" s="170" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C14" s="170"/>
       <c r="D14" s="170"/>
@@ -14113,7 +14119,7 @@
   <sheetData>
     <row r="1" s="117" customFormat="1" spans="1:9">
       <c r="A1" s="121" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B1" s="122"/>
       <c r="C1" s="117" t="s">
@@ -14138,10 +14144,10 @@
     </row>
     <row r="2" s="118" customFormat="1" spans="1:9">
       <c r="A2" s="125" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B2" s="126" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C2" s="127" t="s">
         <v>7</v>
@@ -14153,7 +14159,7 @@
     <row r="3" s="118" customFormat="1" spans="1:9">
       <c r="A3" s="130"/>
       <c r="B3" s="126" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C3" s="127" t="s">
         <v>30</v>
@@ -14175,7 +14181,7 @@
     <row r="5" s="118" customFormat="1" spans="1:9">
       <c r="A5" s="130"/>
       <c r="B5" s="126" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C5" s="127" t="s">
         <v>33</v>
@@ -14187,13 +14193,13 @@
     <row r="6" s="118" customFormat="1" spans="1:9">
       <c r="A6" s="130"/>
       <c r="B6" s="126" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="131" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E6" s="132"/>
       <c r="F6" s="133"/>
@@ -14215,7 +14221,7 @@
     <row r="8" s="118" customFormat="1" spans="1:9">
       <c r="A8" s="130"/>
       <c r="B8" s="126" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>15</v>
@@ -14229,7 +14235,7 @@
     <row r="9" s="118" customFormat="1" spans="1:9">
       <c r="A9" s="130"/>
       <c r="B9" s="126" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C9" s="127" t="s">
         <v>26</v>
@@ -14241,7 +14247,7 @@
     <row r="10" s="118" customFormat="1" spans="1:9">
       <c r="A10" s="130"/>
       <c r="B10" s="126" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C10" s="127" t="s">
         <v>36</v>
@@ -14253,7 +14259,7 @@
     <row r="11" s="118" customFormat="1" spans="1:9">
       <c r="A11" s="134"/>
       <c r="B11" s="126" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C11" s="127" t="s">
         <v>71</v>
@@ -14264,10 +14270,10 @@
     </row>
     <row r="12" s="119" customFormat="1" spans="1:9">
       <c r="A12" s="135" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B12" s="136" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C12" s="137" t="s">
         <v>90</v>
@@ -14291,10 +14297,10 @@
     <row r="14" s="119" customFormat="1" spans="1:9">
       <c r="A14" s="141"/>
       <c r="B14" s="136" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C14" s="137" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D14" s="142"/>
       <c r="E14" s="138"/>
@@ -14305,7 +14311,7 @@
     <row r="15" s="119" customFormat="1" spans="1:9">
       <c r="A15" s="141"/>
       <c r="B15" s="136" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C15" s="137" t="s">
         <v>10</v>
@@ -14327,7 +14333,7 @@
     <row r="17" s="119" customFormat="1" spans="1:7">
       <c r="A17" s="141"/>
       <c r="B17" s="136" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C17" s="137" t="s">
         <v>29</v>
@@ -14339,7 +14345,7 @@
     <row r="18" s="119" customFormat="1" spans="1:7">
       <c r="A18" s="141"/>
       <c r="B18" s="136" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C18" s="137" t="s">
         <v>44</v>
@@ -14351,7 +14357,7 @@
     <row r="19" s="119" customFormat="1" spans="1:7">
       <c r="A19" s="141"/>
       <c r="B19" s="136" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C19" s="137" t="s">
         <v>83</v>
@@ -14363,7 +14369,7 @@
     <row r="20" s="119" customFormat="1" spans="1:7">
       <c r="A20" s="141"/>
       <c r="B20" s="136" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C20" s="137" t="s">
         <v>86</v>
@@ -14375,7 +14381,7 @@
     <row r="21" s="119" customFormat="1" spans="1:7">
       <c r="A21" s="141"/>
       <c r="B21" s="136" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C21" s="143"/>
       <c r="D21" s="144"/>
@@ -14387,7 +14393,7 @@
     <row r="22" s="119" customFormat="1" spans="1:7">
       <c r="A22" s="145"/>
       <c r="B22" s="136" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C22" s="143"/>
       <c r="D22" s="146"/>
@@ -14454,7 +14460,7 @@
   <sheetData>
     <row r="1" s="91" customFormat="1" customHeight="1" spans="1:16">
       <c r="A1" s="94" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -14485,7 +14491,7 @@
     </row>
     <row r="3" s="93" customFormat="1" customHeight="1" spans="1:16">
       <c r="A3" s="100" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B3" s="101"/>
       <c r="C3" s="102"/>
@@ -14493,7 +14499,7 @@
         <v>44</v>
       </c>
       <c r="E3" s="103" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F3" s="104"/>
       <c r="G3" s="104"/>
@@ -14521,7 +14527,7 @@
         <v>78</v>
       </c>
       <c r="H4" s="105" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I4" s="105" t="s">
         <v>90</v>
@@ -14536,7 +14542,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="103" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E5" s="103" t="s">
         <v>81</v>
@@ -14578,7 +14584,7 @@
         <v>36</v>
       </c>
       <c r="I6" s="105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" s="93" customFormat="1" customHeight="1" spans="1:16">
@@ -14599,7 +14605,7 @@
         <v>86</v>
       </c>
       <c r="G7" s="104" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H7" s="105" t="s">
         <v>63</v>
@@ -14611,7 +14617,7 @@
     <row r="8" s="93" customFormat="1" customHeight="1" spans="1:16">
       <c r="A8" s="106"/>
       <c r="B8" s="102" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="102" t="s">
         <v>33</v>
@@ -14632,13 +14638,13 @@
         <v>76</v>
       </c>
       <c r="I8" s="105" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" s="93" customFormat="1" customHeight="1" spans="1:16">
       <c r="A9" s="106"/>
       <c r="B9" s="102" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" s="102" t="s">
         <v>58</v>
@@ -14647,13 +14653,13 @@
         <v>68</v>
       </c>
       <c r="E9" s="103" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F9" s="104" t="s">
         <v>47</v>
       </c>
       <c r="G9" s="104" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H9" s="105" t="s">
         <v>54</v>
@@ -14667,7 +14673,7 @@
       <c r="B10" s="108"/>
       <c r="C10" s="109"/>
       <c r="D10" s="110" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="112"/>
@@ -14677,7 +14683,7 @@
     </row>
     <row r="11" s="93" customFormat="1" customHeight="1" spans="1:16">
       <c r="A11" s="100" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B11" s="101"/>
       <c r="C11" s="102"/>
@@ -14685,7 +14691,7 @@
         <v>44</v>
       </c>
       <c r="E11" s="103" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F11" s="104"/>
       <c r="G11" s="104"/>
@@ -14704,7 +14710,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="103" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F12" s="104" t="s">
         <v>15</v>
@@ -14758,10 +14764,10 @@
         <v>36</v>
       </c>
       <c r="E14" s="103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F14" s="104" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G14" s="104" t="s">
         <v>73</v>
@@ -14806,10 +14812,10 @@
         <v>33</v>
       </c>
       <c r="C16" s="102" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D16" s="103" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E16" s="103" t="s">
         <v>95</v>
@@ -14830,16 +14836,16 @@
     <row r="17" s="93" customFormat="1" customHeight="1" spans="1:9">
       <c r="A17" s="106"/>
       <c r="B17" s="102" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C17" s="102" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="103" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E17" s="103" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F17" s="104" t="s">
         <v>47</v>
@@ -14848,7 +14854,7 @@
         <v>68</v>
       </c>
       <c r="H17" s="105" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I17" s="105" t="s">
         <v>83</v>
@@ -14869,7 +14875,7 @@
     </row>
     <row r="19" s="93" customFormat="1" customHeight="1" spans="1:9">
       <c r="A19" s="100" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B19" s="101"/>
       <c r="C19" s="102"/>
@@ -14878,7 +14884,7 @@
       </c>
       <c r="E19" s="103"/>
       <c r="F19" s="104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G19" s="104"/>
       <c r="H19" s="105"/>
@@ -14893,7 +14899,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="103" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E20" s="103" t="s">
         <v>78</v>
@@ -14980,7 +14986,7 @@
         <v>63</v>
       </c>
       <c r="F23" s="104" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G23" s="104" t="s">
         <v>95</v>
@@ -14998,7 +15004,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D24" s="103" t="s">
         <v>74</v>
@@ -15007,7 +15013,7 @@
         <v>33</v>
       </c>
       <c r="F24" s="104" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G24" s="104" t="s">
         <v>10</v>
@@ -15022,7 +15028,7 @@
     <row r="25" s="93" customFormat="1" customHeight="1" spans="1:9">
       <c r="A25" s="106"/>
       <c r="B25" s="102" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C25" s="102" t="s">
         <v>83</v>
@@ -15037,10 +15043,10 @@
         <v>74</v>
       </c>
       <c r="G25" s="104" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H25" s="105" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I25" s="105" t="s">
         <v>47</v>
@@ -15051,7 +15057,7 @@
       <c r="B26" s="115"/>
       <c r="C26" s="116"/>
       <c r="D26" s="110" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E26" s="111"/>
       <c r="F26" s="112"/>
@@ -15101,13 +15107,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="82" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C1" s="84" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -15115,208 +15121,208 @@
         <v>1</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="85"/>
       <c r="B3" s="80" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="85"/>
       <c r="B4" s="80" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="85"/>
       <c r="B5" s="80" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C5" s="81" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="85"/>
       <c r="B6" s="80" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C6" s="81" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="85"/>
       <c r="B7" s="80" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="85"/>
       <c r="B8" s="80" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C8" s="81" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="85"/>
       <c r="B9" s="80" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="85"/>
       <c r="B10" s="80" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C10" s="81" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="85"/>
       <c r="B11" s="80" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="85"/>
       <c r="B12" s="80" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C12" s="81" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="85"/>
       <c r="B13" s="80" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C13" s="81" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="85"/>
       <c r="B14" s="80" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C14" s="81" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="85"/>
       <c r="B15" s="80" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C15" s="81" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="85"/>
       <c r="B16" s="80" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C16" s="81" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="85"/>
       <c r="B17" s="80" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="85"/>
       <c r="B18" s="80" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C18" s="81" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="85"/>
       <c r="B19" s="80" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C19" s="81" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="85"/>
       <c r="B20" s="80" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C20" s="81" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="85"/>
       <c r="B21" s="80" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C21" s="81" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="85"/>
       <c r="B22" s="80" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C22" s="81" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="85"/>
       <c r="B23" s="80" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C23" s="81" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="85"/>
       <c r="B24" s="80" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C24" s="81" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -15324,118 +15330,118 @@
         <v>2</v>
       </c>
       <c r="B25" s="80" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C25" s="81" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="86"/>
       <c r="B26" s="80" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C26" s="81" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="86"/>
       <c r="B27" s="80" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C27" s="81" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="86"/>
       <c r="B28" s="80" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="86"/>
       <c r="B29" s="80" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C29" s="81" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="86"/>
       <c r="B30" s="80" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C30" s="81" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="86"/>
       <c r="B31" s="80" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C31" s="81" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="86"/>
       <c r="B32" s="80" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C32" s="81" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="86"/>
       <c r="B33" s="80" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C33" s="81" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="86"/>
       <c r="B34" s="80" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C34" s="81" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="86"/>
       <c r="B35" s="80" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C35" s="81" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="86"/>
       <c r="B36" s="80" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C36" s="81" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="87"/>
       <c r="B37" s="80" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C37" s="81" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -15443,138 +15449,138 @@
         <v>3</v>
       </c>
       <c r="B38" s="80" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C38" s="81" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="89"/>
       <c r="B39" s="80" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C39" s="81" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="89"/>
       <c r="B40" s="80" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C40" s="81" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="89"/>
       <c r="B41" s="80" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C41" s="81" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="89"/>
       <c r="B42" s="80" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C42" s="81" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="89"/>
       <c r="B43" s="80" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C43" s="81" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="89"/>
       <c r="B44" s="80" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C44" s="81" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="89"/>
       <c r="B45" s="80" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C45" s="81" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="89"/>
       <c r="B46" s="80" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C46" s="81" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="89"/>
       <c r="B47" s="80" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C47" s="81" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="89"/>
       <c r="B48" s="80" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C48" s="81" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="89"/>
       <c r="B49" s="80" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C49" s="81" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="90"/>
       <c r="B50" s="80" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C50" s="81" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:3">
       <c r="A51" s="79"/>
       <c r="B51" s="80" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C51" s="81"/>
     </row>
     <row r="52" customFormat="1" spans="1:3">
       <c r="A52" s="79"/>
       <c r="B52" s="80" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C52" s="81"/>
     </row>
     <row r="53" customFormat="1" spans="1:3">
       <c r="A53" s="79"/>
       <c r="B53" s="80" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C53" s="81"/>
     </row>

--- a/c/materials.xlsx
+++ b/c/materials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20750" windowHeight="10480" tabRatio="724"/>
+    <workbookView windowWidth="7790" windowHeight="10480" tabRatio="724"/>
   </bookViews>
   <sheets>
     <sheet name="师生" sheetId="5" r:id="rId1"/>
@@ -355,13 +355,13 @@
     <t>游武毅</t>
   </si>
   <si>
+    <t>崔宇臣</t>
+  </si>
+  <si>
+    <t>起立时小动作</t>
+  </si>
+  <si>
     <t>2026/2/1官宣分手</t>
-  </si>
-  <si>
-    <t>崔宇臣</t>
-  </si>
-  <si>
-    <t>起立时小动作</t>
   </si>
   <si>
     <t>曾好</t>
@@ -3273,14 +3273,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="黑体"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
+      <sz val="11"/>
+      <name val="华文仿宋"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3290,14 +3296,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="华文仿宋"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -5083,8 +5083,8 @@
   </sheetPr>
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -5470,15 +5470,15 @@
       <c r="A42" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="H42" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="221" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="221" t="s">
+      <c r="H43" t="s">
         <v>98</v>
       </c>
     </row>
@@ -6476,7 +6476,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C43" s="74">
         <v>20120207</v>
@@ -7898,7 +7898,7 @@
     </row>
     <row r="43" s="6" customFormat="1" spans="1:7">
       <c r="A43" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B43" s="23" t="s">
         <v>619</v>
@@ -13762,9 +13762,9 @@
   <pageSetup paperSize="9" scale="80" orientation="landscape"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="Z9:AB9 AD9:AF9 X41 A9:X9" unlockedFormula="1"/>
-    <ignoredError sqref="Z4:AE4 A8:V8 X8:AF8 A5:AF7 AF50 A50:AD50 A51:AF53 AE48 Z48:AB48 A48:X49 A47:AF47 AF46 AC46:AD46 AA46 A46:X46 AF44 Z44:AD44 A44:W44 A43:AF43 A42:X42 A40:V40 AC40:AD40 Z3:AF3 AO3:AP3 A1:AF2 AJ1:AP2 A3:X4 A39:AF39 Z38:AB38 AD38:AF38 A38:X38 A37:AF37 Z36:AF36 A36:X36 A34:AF35 Z28:AF33 A28:X33 A26:AF27 Z24:AF25 A24:X25 A23:AF23 AF22 AA22:AD22 A22:X22 A19:AF21 Z17:AF18 A17:X18 A16:AF16 Z12:AF12 Z13 AB13:AF13 Z14:AF14 Z15 AB15:AE15 A12:X15 AE11 AB11:AC11 A11:Z11 Z49:AF49 A45:AF45 AN11:AP39 Z10:AF10 AO9:AP9 AN4:AP8 Z41:AE42 A10:X10" formulaRange="1" unlockedFormula="1"/>
-    <ignoredError sqref="AG37:AM39 Y12:Y13 AG5:AM8 AH41:AM41 AF42:AM42 AG49:AM53 AG43:AM46 AF4:AM4 A5:AF7 W8:AF8 A50:AE50 A51:AF53 AF48:AM48 AC48:AD48 Y48:Y49 AG47:AM47 A46:AE46 A43:AF43 A44:AE44 A45:AF45 Y42 W40:AD40 AG1:AP3 Y3:Y4 AC38:AF38 Y38 A17:AM36 AG16:AM16 AG12:AM12 AA13:AM13 Y14:AM14 Y15 AA15 AF15:AM15 AF11:AM11 AD11 AA11" formulaRange="1"/>
+    <ignoredError sqref="AF11:AM11 Y15 AF48:AM48 AG43:AM47 AG49:AM53 AF42:AM42 AH41:AM41 AG5:AM8 Y12:Y13 AG37:AM39 AA11:AC11 AD11 AF15:AM15 AA15 Y14 AG14:AM14 Z13:AA13 AG13:AM13 AG12:AM12 AG16:AM16 Y17:AM18 A19:AM36 Y38:AB38 AC38 Y3:Y4 AG1:AI2 AG3:AP3 A40:AB40 Y42 X44:AF44 Y46:AF46 A47:AF47 Y48:Y49 AC48:AE48 AE50:AF50 A8:W8 AF4:AM4" formulaRange="1"/>
+    <ignoredError sqref="A11:Z11 AB11:AC11 AE11 AB15:AE15 Z15 Z14:AF14 AB13:AF13 Z13 Z12:AF12 A16:AF16 A17:X18 Z17:AF18 A19:AF21 A22:X22 AA22:AD22 AF22 A23:AF23 A24:X25 Z24:AF25 A26:AF27 A28:X33 Z28:AF33 A34:AF35 A36:X36 Z36:AF36 A38:X38 Z38:AB38 AD38:AF38 A3:X4 AJ1:AP2 AO3:AP3 AC40:AD40 A40:V40 A42:X42 A45:AF45 A44:W44 Z44:AD44 AF44 A43:AF43 A46:X46 AA46 AC46:AD46 AF46 A47:AF47 A48:X49 Z48:AB48 AE48 A51:AF53 A50:AD50 AF50 X8:AF8 A8:V8 A5:AF7 Z4:AE4 A10:X10 Z41:AE42 AN4:AP8 AO9:AP9 Z10:AF10 AN11:AP39 Z49:AF49 A12:X15 A37:AF37 A39:AF39 A1:AF2 Z3:AF3" formulaRange="1" unlockedFormula="1"/>
+    <ignoredError sqref="X41 AD9:AF9 Z9:AB9 A9:X9" unlockedFormula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -14638,7 +14638,7 @@
         <v>76</v>
       </c>
       <c r="I8" s="105" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" s="93" customFormat="1" customHeight="1" spans="1:16">
@@ -14815,7 +14815,7 @@
         <v>99</v>
       </c>
       <c r="D16" s="103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="103" t="s">
         <v>95</v>
@@ -15043,7 +15043,7 @@
         <v>74</v>
       </c>
       <c r="G25" s="104" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H25" s="105" t="s">
         <v>110</v>

--- a/c/materials.xlsx
+++ b/c/materials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="7790" windowHeight="10480" tabRatio="724"/>
+    <workbookView windowWidth="20750" windowHeight="10480" tabRatio="724" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="师生" sheetId="5" r:id="rId1"/>
@@ -3273,6 +3273,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <strike/>
       <sz val="11"/>
       <name val="黑体"/>
@@ -3286,18 +3291,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="华文仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="黑体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
+      <sz val="11"/>
+      <name val="华文仿宋"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4064,7 +4064,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4607,6 +4607,9 @@
     <xf numFmtId="57" fontId="24" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="57" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4639,6 +4642,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5083,37 +5089,37 @@
   </sheetPr>
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="7.59090909090909" style="71" customWidth="1"/>
-    <col min="2" max="7" width="25.8727272727273" style="221" customWidth="1"/>
+    <col min="2" max="7" width="25.8727272727273" style="223" customWidth="1"/>
     <col min="9" max="9" width="18.9181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="220" customFormat="1" spans="1:7">
+    <row r="1" s="222" customFormat="1" spans="1:7">
       <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="222" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="222" t="s">
+      <c r="B1" s="224" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="222" t="s">
+      <c r="D1" s="224" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="222" t="s">
+      <c r="E1" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="222" t="s">
+      <c r="F1" s="224" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="222" t="s">
+      <c r="G1" s="224" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5121,10 +5127,10 @@
       <c r="A2" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="223" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="221" t="s">
+      <c r="C2" s="223" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5132,10 +5138,10 @@
       <c r="A3" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="221" t="s">
+      <c r="C3" s="223" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="221" t="s">
+      <c r="D3" s="223" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5143,7 +5149,7 @@
       <c r="A4" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="221" t="s">
+      <c r="D4" s="223" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5151,10 +5157,10 @@
       <c r="A5" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="221" t="s">
+      <c r="C5" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="221" t="s">
+      <c r="D5" s="223" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5162,7 +5168,7 @@
       <c r="A6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="221" t="s">
+      <c r="C6" s="223" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5170,13 +5176,13 @@
       <c r="A7" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="221" t="s">
+      <c r="B7" s="223" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="221" t="s">
+      <c r="C7" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="221" t="s">
+      <c r="D7" s="223" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5184,7 +5190,7 @@
       <c r="A8" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="221" t="s">
+      <c r="D8" s="223" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5197,7 +5203,7 @@
       <c r="A10" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="221" t="s">
+      <c r="B10" s="223" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5215,7 +5221,7 @@
       <c r="A13" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="221" t="s">
+      <c r="D13" s="223" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5223,7 +5229,7 @@
       <c r="A14" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="221" t="s">
+      <c r="B14" s="223" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5236,7 +5242,7 @@
       <c r="A16" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="221" t="s">
+      <c r="C16" s="223" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5244,7 +5250,7 @@
       <c r="A17" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="221" t="s">
+      <c r="C17" s="223" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5252,7 +5258,7 @@
       <c r="A18" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="221" t="s">
+      <c r="D18" s="223" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5260,7 +5266,7 @@
       <c r="A19" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="221" t="s">
+      <c r="D19" s="223" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5268,10 +5274,10 @@
       <c r="A20" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="221" t="s">
+      <c r="B20" s="223" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="221" t="s">
+      <c r="C20" s="223" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5279,13 +5285,13 @@
       <c r="A21" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="221" t="s">
+      <c r="B21" s="223" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="221" t="s">
+      <c r="C21" s="223" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="221" t="s">
+      <c r="D21" s="223" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5298,7 +5304,7 @@
       <c r="A23" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="221" t="s">
+      <c r="B23" s="223" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5306,13 +5312,13 @@
       <c r="A24" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="221" t="s">
+      <c r="B24" s="223" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="221" t="s">
+      <c r="C24" s="223" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="221" t="s">
+      <c r="D24" s="223" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5330,10 +5336,10 @@
       <c r="A27" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="221" t="s">
+      <c r="B27" s="223" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="221" t="s">
+      <c r="C27" s="223" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5341,13 +5347,13 @@
       <c r="A28" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="221" t="s">
+      <c r="B28" s="223" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="221" t="s">
+      <c r="C28" s="223" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="221" t="s">
+      <c r="D28" s="223" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5360,10 +5366,10 @@
       <c r="A30" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="221" t="s">
+      <c r="B30" s="223" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="221" t="s">
+      <c r="C30" s="223" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5396,7 +5402,7 @@
       <c r="A36" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="221" t="s">
+      <c r="B36" s="223" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5404,10 +5410,10 @@
       <c r="A37" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="221" t="s">
+      <c r="C37" s="223" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="221" t="s">
+      <c r="D37" s="223" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5415,23 +5421,23 @@
       <c r="A38" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="221" t="s">
+      <c r="B38" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="223"/>
-      <c r="D38" s="223"/>
-      <c r="E38" s="223"/>
-      <c r="F38" s="223"/>
-      <c r="G38" s="223"/>
+      <c r="C38" s="225"/>
+      <c r="D38" s="225"/>
+      <c r="E38" s="225"/>
+      <c r="F38" s="225"/>
+      <c r="G38" s="225"/>
     </row>
     <row r="39" ht="26" spans="1:9">
       <c r="A39" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="221" t="s">
+      <c r="C39" s="223" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="221" t="s">
+      <c r="D39" s="223" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5439,13 +5445,13 @@
       <c r="A40" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="221" t="s">
+      <c r="B40" s="223" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="221" t="s">
+      <c r="C40" s="223" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="221" t="s">
+      <c r="D40" s="223" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5453,16 +5459,16 @@
       <c r="A41" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="221" t="s">
+      <c r="C41" s="223" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="221" t="s">
+      <c r="D41" s="223" t="s">
         <v>92</v>
       </c>
-      <c r="H41" s="224" t="s">
+      <c r="H41" s="226" t="s">
         <v>93</v>
       </c>
-      <c r="I41" s="224" t="s">
+      <c r="I41" s="226" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5475,7 +5481,7 @@
       <c r="A43" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="221" t="s">
+      <c r="B43" s="223" t="s">
         <v>97</v>
       </c>
       <c r="H43" t="s">
@@ -5486,7 +5492,7 @@
       <c r="A44" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="221" t="s">
+      <c r="B44" s="223" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5494,10 +5500,10 @@
       <c r="A45" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="221" t="s">
+      <c r="C45" s="223" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="221" t="s">
+      <c r="D45" s="223" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5510,7 +5516,7 @@
       <c r="A47" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="221" t="s">
+      <c r="D47" s="223" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5518,10 +5524,10 @@
       <c r="A48" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="221" t="s">
+      <c r="C48" s="223" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="221" t="s">
+      <c r="D48" s="223" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5534,7 +5540,7 @@
       <c r="A50" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="221" t="s">
+      <c r="C50" s="223" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5547,10 +5553,10 @@
       <c r="A52" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="221" t="s">
+      <c r="B52" s="223" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="221" t="s">
+      <c r="C52" s="223" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5558,36 +5564,36 @@
       <c r="A53" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="221" t="s">
+      <c r="B53" s="223" t="s">
         <v>118</v>
       </c>
-      <c r="D53" s="223"/>
-      <c r="E53" s="223"/>
-      <c r="F53" s="223"/>
-      <c r="G53" s="223"/>
+      <c r="D53" s="225"/>
+      <c r="E53" s="225"/>
+      <c r="F53" s="225"/>
+      <c r="G53" s="225"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="221" t="s">
+      <c r="B54" s="223" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="221" t="s">
+      <c r="C54" s="223" t="s">
         <v>121</v>
       </c>
-      <c r="D54" s="223"/>
-      <c r="E54" s="223"/>
-      <c r="F54" s="223"/>
-      <c r="G54" s="223"/>
+      <c r="D54" s="225"/>
+      <c r="E54" s="225"/>
+      <c r="F54" s="225"/>
+      <c r="G54" s="225"/>
     </row>
     <row r="55" ht="65" spans="1:7">
       <c r="A55" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="223"/>
-      <c r="C55" s="223"/>
-      <c r="D55" s="221" t="s">
+      <c r="B55" s="225"/>
+      <c r="C55" s="225"/>
+      <c r="D55" s="223" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5599,7 +5605,7 @@
         <v>125</v>
       </c>
       <c r="C56" s="78"/>
-      <c r="D56" s="221" t="s">
+      <c r="D56" s="223" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5613,7 +5619,7 @@
       <c r="C57" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="D57" s="221" t="s">
+      <c r="D57" s="223" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5621,37 +5627,37 @@
       <c r="A58" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="221" t="s">
+      <c r="B58" s="223" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="223"/>
-      <c r="D58" s="223"/>
-      <c r="E58" s="223"/>
-      <c r="F58" s="223"/>
-      <c r="G58" s="223"/>
+      <c r="C58" s="225"/>
+      <c r="D58" s="225"/>
+      <c r="E58" s="225"/>
+      <c r="F58" s="225"/>
+      <c r="G58" s="225"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="223"/>
-      <c r="C59" s="221" t="s">
+      <c r="B59" s="225"/>
+      <c r="C59" s="223" t="s">
         <v>134</v>
       </c>
-      <c r="D59" s="223"/>
-      <c r="E59" s="223"/>
-      <c r="F59" s="223"/>
-      <c r="G59" s="223"/>
+      <c r="D59" s="225"/>
+      <c r="E59" s="225"/>
+      <c r="F59" s="225"/>
+      <c r="G59" s="225"/>
     </row>
     <row r="60" ht="52" spans="1:7">
       <c r="A60" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="223" t="s">
+      <c r="B60" s="225" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="223"/>
-      <c r="D60" s="221" t="s">
+      <c r="C60" s="225"/>
+      <c r="D60" s="223" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5663,18 +5669,18 @@
         <v>139</v>
       </c>
       <c r="C61" s="78"/>
-      <c r="D61" s="223"/>
-      <c r="E61" s="223"/>
-      <c r="F61" s="223"/>
-      <c r="G61" s="223"/>
+      <c r="D61" s="225"/>
+      <c r="E61" s="225"/>
+      <c r="F61" s="225"/>
+      <c r="G61" s="225"/>
     </row>
     <row r="62" ht="39" spans="1:7">
       <c r="A62" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="223"/>
-      <c r="C62" s="223"/>
-      <c r="D62" s="221" t="s">
+      <c r="B62" s="225"/>
+      <c r="C62" s="225"/>
+      <c r="D62" s="223" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5688,18 +5694,18 @@
       <c r="C63" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="D63" s="223"/>
-      <c r="E63" s="223"/>
-      <c r="F63" s="223"/>
-      <c r="G63" s="223"/>
+      <c r="D63" s="225"/>
+      <c r="E63" s="225"/>
+      <c r="F63" s="225"/>
+      <c r="G63" s="225"/>
     </row>
     <row r="64" ht="26" spans="1:7">
       <c r="A64" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="B64" s="223"/>
-      <c r="C64" s="223"/>
-      <c r="D64" s="221" t="s">
+      <c r="B64" s="225"/>
+      <c r="C64" s="225"/>
+      <c r="D64" s="223" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5707,42 +5713,42 @@
       <c r="A65" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="B65" s="225" t="s">
+      <c r="B65" s="227" t="s">
         <v>148</v>
       </c>
-      <c r="C65" s="223"/>
-      <c r="D65" s="223"/>
-      <c r="E65" s="223"/>
-      <c r="F65" s="223"/>
-      <c r="G65" s="223"/>
+      <c r="C65" s="225"/>
+      <c r="D65" s="225"/>
+      <c r="E65" s="225"/>
+      <c r="F65" s="225"/>
+      <c r="G65" s="225"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="B66" s="223"/>
-      <c r="C66" s="221" t="s">
+      <c r="B66" s="225"/>
+      <c r="C66" s="223" t="s">
         <v>150</v>
       </c>
-      <c r="D66" s="223"/>
-      <c r="E66" s="223"/>
-      <c r="F66" s="223"/>
-      <c r="G66" s="223"/>
+      <c r="D66" s="225"/>
+      <c r="E66" s="225"/>
+      <c r="F66" s="225"/>
+      <c r="G66" s="225"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="B67" s="223"/>
-      <c r="C67" s="223"/>
+      <c r="B67" s="225"/>
+      <c r="C67" s="225"/>
     </row>
     <row r="68" ht="65" spans="1:7">
       <c r="A68" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="B68" s="223"/>
-      <c r="C68" s="223"/>
-      <c r="D68" s="221" t="s">
+      <c r="B68" s="225"/>
+      <c r="C68" s="225"/>
+      <c r="D68" s="223" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5763,45 +5769,45 @@
         <v>157</v>
       </c>
       <c r="C70" s="78"/>
-      <c r="D70" s="223"/>
-      <c r="E70" s="223"/>
-      <c r="F70" s="223"/>
-      <c r="G70" s="223"/>
+      <c r="D70" s="225"/>
+      <c r="E70" s="225"/>
+      <c r="F70" s="225"/>
+      <c r="G70" s="225"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="B71" s="223"/>
-      <c r="C71" s="223"/>
+      <c r="B71" s="225"/>
+      <c r="C71" s="225"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="B72" s="221" t="s">
+      <c r="B72" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="C72" s="221" t="s">
+      <c r="C72" s="223" t="s">
         <v>161</v>
       </c>
-      <c r="D72" s="223"/>
-      <c r="E72" s="223"/>
-      <c r="F72" s="223"/>
-      <c r="G72" s="223"/>
+      <c r="D72" s="225"/>
+      <c r="E72" s="225"/>
+      <c r="F72" s="225"/>
+      <c r="G72" s="225"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="B73" s="223"/>
-      <c r="C73" s="221" t="s">
+      <c r="B73" s="225"/>
+      <c r="C73" s="223" t="s">
         <v>163</v>
       </c>
-      <c r="D73" s="223"/>
-      <c r="E73" s="223"/>
-      <c r="F73" s="223"/>
-      <c r="G73" s="223"/>
+      <c r="D73" s="225"/>
+      <c r="E73" s="225"/>
+      <c r="F73" s="225"/>
+      <c r="G73" s="225"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="71" t="s">
@@ -5812,18 +5818,18 @@
       <c r="A75" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="D75" s="223"/>
-      <c r="E75" s="223"/>
-      <c r="F75" s="223"/>
-      <c r="G75" s="223"/>
+      <c r="D75" s="225"/>
+      <c r="E75" s="225"/>
+      <c r="F75" s="225"/>
+      <c r="G75" s="225"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="B76" s="223"/>
-      <c r="C76" s="223"/>
-      <c r="D76" s="221" t="s">
+      <c r="B76" s="225"/>
+      <c r="C76" s="225"/>
+      <c r="D76" s="223" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5835,10 +5841,10 @@
       <c r="C77" s="78"/>
     </row>
     <row r="78" ht="26" spans="1:7">
-      <c r="A78" s="226" t="s">
+      <c r="A78" s="228" t="s">
         <v>169</v>
       </c>
-      <c r="B78" s="221" t="s">
+      <c r="B78" s="223" t="s">
         <v>170</v>
       </c>
     </row>
@@ -8213,14 +8219,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.64545454545455" style="215" customWidth="1"/>
+    <col min="1" max="1" width="6.64545454545455" style="217" customWidth="1"/>
     <col min="2" max="2" width="32.6181818181818" style="66" customWidth="1"/>
     <col min="3" max="7" width="16.4909090909091" style="66" customWidth="1"/>
-    <col min="8" max="16384" width="8.72727272727273" style="216"/>
+    <col min="8" max="16384" width="8.72727272727273" style="218"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="217"/>
+      <c r="A1" s="219"/>
       <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
@@ -8240,8 +8246,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="214" customFormat="1" ht="39" spans="1:7">
-      <c r="A2" s="218" t="s">
+    <row r="2" s="216" customFormat="1" ht="39" spans="1:7">
+      <c r="A2" s="220" t="s">
         <v>171</v>
       </c>
       <c r="B2" s="78"/>
@@ -8254,7 +8260,7 @@
       <c r="G2" s="78"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="219" t="s">
+      <c r="A3" s="221" t="s">
         <v>173</v>
       </c>
       <c r="C3" s="66" t="s">
@@ -8262,7 +8268,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="219" t="s">
+      <c r="A4" s="221" t="s">
         <v>175</v>
       </c>
       <c r="B4" s="66" t="s">
@@ -8273,7 +8279,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="219" t="s">
+      <c r="A5" s="221" t="s">
         <v>178</v>
       </c>
       <c r="C5" s="66" t="s">
@@ -8284,7 +8290,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="219" t="s">
+      <c r="A6" s="221" t="s">
         <v>181</v>
       </c>
       <c r="B6" s="66" t="s">
@@ -8295,7 +8301,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="219" t="s">
+      <c r="A7" s="221" t="s">
         <v>184</v>
       </c>
       <c r="B7" s="66" t="s">
@@ -8303,124 +8309,124 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="219"/>
+      <c r="A8" s="221"/>
       <c r="D8" s="66" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="219"/>
+      <c r="A9" s="221"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="219"/>
+      <c r="A10" s="221"/>
       <c r="B10" s="66" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="219"/>
+      <c r="A11" s="221"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="219"/>
+      <c r="A12" s="221"/>
       <c r="B12" s="66" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="219"/>
+      <c r="A13" s="221"/>
       <c r="B13" s="66" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="219"/>
+      <c r="A14" s="221"/>
       <c r="B14" s="66" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="219"/>
+      <c r="A15" s="221"/>
       <c r="B15" s="66" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="219"/>
+      <c r="A16" s="221"/>
       <c r="B16" s="66" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="219"/>
+      <c r="A17" s="221"/>
       <c r="B17" s="66" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="219"/>
+      <c r="A18" s="221"/>
       <c r="B18" s="66" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="219"/>
+      <c r="A19" s="221"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="219"/>
+      <c r="A20" s="221"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="219"/>
+      <c r="A21" s="221"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="219"/>
+      <c r="A22" s="221"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="219"/>
+      <c r="A23" s="221"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="219"/>
+      <c r="A24" s="221"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="219"/>
+      <c r="A25" s="221"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="219"/>
+      <c r="A26" s="221"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="219"/>
+      <c r="A27" s="221"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="219"/>
+      <c r="A28" s="221"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="219"/>
+      <c r="A29" s="221"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="219"/>
+      <c r="A30" s="221"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="219"/>
+      <c r="A31" s="221"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="219"/>
+      <c r="A32" s="221"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="219"/>
+      <c r="A33" s="221"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="219"/>
+      <c r="A34" s="221"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="219"/>
+      <c r="A35" s="221"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="219"/>
+      <c r="A36" s="221"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="219"/>
+      <c r="A37" s="221"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="219"/>
+      <c r="A38" s="221"/>
       <c r="B38" s="78"/>
       <c r="C38" s="78"/>
       <c r="D38" s="78"/>
@@ -8429,7 +8435,7 @@
       <c r="G38" s="78"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="219"/>
+      <c r="A39" s="221"/>
       <c r="B39" s="78"/>
       <c r="C39" s="78"/>
       <c r="D39" s="78"/>
@@ -8438,40 +8444,40 @@
       <c r="G39" s="78"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="219"/>
+      <c r="A40" s="221"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="219"/>
+      <c r="A41" s="221"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="219"/>
+      <c r="A42" s="221"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="219"/>
+      <c r="A43" s="221"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="219"/>
+      <c r="A44" s="221"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="219"/>
+      <c r="A45" s="221"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="219"/>
+      <c r="A46" s="221"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="219"/>
+      <c r="A47" s="221"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="219"/>
+      <c r="A48" s="221"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="219"/>
+      <c r="A49" s="221"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="219"/>
+      <c r="A50" s="221"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="219"/>
+      <c r="A51" s="221"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8494,476 +8500,476 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="24" style="205" customWidth="1"/>
-    <col min="2" max="2" width="10.6363636363636" style="205" customWidth="1"/>
-    <col min="3" max="3" width="91.3636363636364" style="205" customWidth="1"/>
+    <col min="1" max="1" width="24" style="207" customWidth="1"/>
+    <col min="2" max="2" width="10.6363636363636" style="207" customWidth="1"/>
+    <col min="3" max="3" width="91.3636363636364" style="207" customWidth="1"/>
     <col min="4" max="16384" width="8.72727272727273" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" s="204" customFormat="1" ht="15" spans="1:3">
-      <c r="A1" s="206" t="s">
+    <row r="1" s="206" customFormat="1" ht="15" spans="1:3">
+      <c r="A1" s="208" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="206" t="s">
+      <c r="B1" s="208" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="206" t="s">
+      <c r="C1" s="208" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="209" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="209" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="207" t="s">
+      <c r="C2" s="209" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="209" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="209" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="207" t="s">
+      <c r="C3" s="209" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="209" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="209" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="207" t="s">
+      <c r="C4" s="209" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="5" ht="56" spans="1:3">
-      <c r="A5" s="208" t="s">
+      <c r="A5" s="210" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="207" t="s">
+      <c r="B5" s="209" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="207" t="s">
+      <c r="C5" s="209" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="6" ht="28" spans="1:3">
-      <c r="A6" s="209"/>
-      <c r="B6" s="207" t="s">
+      <c r="A6" s="211"/>
+      <c r="B6" s="209" t="s">
         <v>209</v>
       </c>
-      <c r="C6" s="207" t="s">
+      <c r="C6" s="209" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="207" t="s">
+      <c r="A7" s="209" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="209" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="207" t="s">
+      <c r="C7" s="209" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="210" t="s">
+      <c r="A8" s="212" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="207" t="s">
+      <c r="B8" s="209" t="s">
         <v>214</v>
       </c>
-      <c r="C8" s="207" t="s">
+      <c r="C8" s="209" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="211"/>
-      <c r="B9" s="207" t="s">
+      <c r="A9" s="213"/>
+      <c r="B9" s="209" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="207" t="s">
+      <c r="C9" s="209" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="211"/>
-      <c r="B10" s="207" t="s">
+      <c r="A10" s="213"/>
+      <c r="B10" s="209" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="207" t="s">
+      <c r="C10" s="209" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="211"/>
-      <c r="B11" s="207" t="s">
+      <c r="A11" s="213"/>
+      <c r="B11" s="209" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="207" t="s">
+      <c r="C11" s="209" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="211"/>
-      <c r="B12" s="207" t="s">
+      <c r="A12" s="213"/>
+      <c r="B12" s="209" t="s">
         <v>221</v>
       </c>
-      <c r="C12" s="207" t="s">
+      <c r="C12" s="209" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13" ht="140" spans="1:3">
-      <c r="A13" s="211"/>
-      <c r="B13" s="207" t="s">
+      <c r="A13" s="213"/>
+      <c r="B13" s="209" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="207" t="s">
+      <c r="C13" s="209" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="211"/>
-      <c r="B14" s="207" t="s">
+      <c r="A14" s="213"/>
+      <c r="B14" s="209" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="207" t="s">
+      <c r="C14" s="209" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="211"/>
-      <c r="B15" s="207" t="s">
+      <c r="A15" s="213"/>
+      <c r="B15" s="209" t="s">
         <v>227</v>
       </c>
-      <c r="C15" s="207" t="s">
+      <c r="C15" s="209" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="211"/>
-      <c r="B16" s="207" t="s">
+      <c r="A16" s="213"/>
+      <c r="B16" s="209" t="s">
         <v>229</v>
       </c>
-      <c r="C16" s="207" t="s">
+      <c r="C16" s="209" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="212"/>
-      <c r="B17" s="207"/>
-      <c r="C17" s="207"/>
+      <c r="A17" s="214"/>
+      <c r="B17" s="209"/>
+      <c r="C17" s="209"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="207" t="s">
+      <c r="A18" s="209" t="s">
         <v>231</v>
       </c>
-      <c r="B18" s="207" t="s">
+      <c r="B18" s="209" t="s">
         <v>232</v>
       </c>
-      <c r="C18" s="207" t="s">
+      <c r="C18" s="209" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="207" t="s">
+      <c r="A19" s="209" t="s">
         <v>234</v>
       </c>
-      <c r="B19" s="207" t="s">
+      <c r="B19" s="209" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="207" t="s">
+      <c r="C19" s="209" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="207" t="s">
+      <c r="A20" s="209" t="s">
         <v>237</v>
       </c>
-      <c r="B20" s="207" t="s">
+      <c r="B20" s="209" t="s">
         <v>238</v>
       </c>
-      <c r="C20" s="213">
+      <c r="C20" s="215">
         <v>0.440972222222222</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="210" t="s">
+      <c r="A21" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="207" t="s">
+      <c r="B21" s="209" t="s">
         <v>239</v>
       </c>
-      <c r="C21" s="207" t="s">
+      <c r="C21" s="209" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="211"/>
-      <c r="B22" s="207" t="s">
+      <c r="A22" s="213"/>
+      <c r="B22" s="209" t="s">
         <v>241</v>
       </c>
-      <c r="C22" s="207" t="s">
+      <c r="C22" s="209" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="211"/>
-      <c r="B23" s="207" t="s">
+      <c r="A23" s="213"/>
+      <c r="B23" s="209" t="s">
         <v>243</v>
       </c>
-      <c r="C23" s="207" t="s">
+      <c r="C23" s="209" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="24" ht="56" spans="1:3">
-      <c r="A24" s="211"/>
-      <c r="B24" s="207" t="s">
+      <c r="A24" s="213"/>
+      <c r="B24" s="209" t="s">
         <v>245</v>
       </c>
-      <c r="C24" s="207" t="s">
+      <c r="C24" s="209" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="208" t="s">
+      <c r="A25" s="210" t="s">
         <v>247</v>
       </c>
-      <c r="B25" s="207" t="s">
+      <c r="B25" s="209" t="s">
         <v>241</v>
       </c>
-      <c r="C25" s="207" t="s">
+      <c r="C25" s="209" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="209"/>
-      <c r="B26" s="207" t="s">
+      <c r="A26" s="211"/>
+      <c r="B26" s="209" t="s">
         <v>249</v>
       </c>
-      <c r="C26" s="207" t="s">
+      <c r="C26" s="209" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:3">
-      <c r="A27" s="210" t="s">
+      <c r="A27" s="212" t="s">
         <v>251</v>
       </c>
-      <c r="B27" s="207" t="s">
+      <c r="B27" s="209" t="s">
         <v>252</v>
       </c>
-      <c r="C27" s="207" t="s">
+      <c r="C27" s="209" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="211"/>
-      <c r="B28" s="207" t="s">
+      <c r="A28" s="213"/>
+      <c r="B28" s="209" t="s">
         <v>223</v>
       </c>
-      <c r="C28" s="207" t="s">
+      <c r="C28" s="209" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="211"/>
-      <c r="B29" s="207" t="s">
+      <c r="A29" s="213"/>
+      <c r="B29" s="209" t="s">
         <v>227</v>
       </c>
-      <c r="C29" s="207" t="s">
+      <c r="C29" s="209" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="211"/>
-      <c r="B30" s="207"/>
-      <c r="C30" s="207"/>
+      <c r="A30" s="213"/>
+      <c r="B30" s="209"/>
+      <c r="C30" s="209"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="208" t="s">
+      <c r="A31" s="210" t="s">
         <v>256</v>
       </c>
-      <c r="B31" s="207" t="s">
+      <c r="B31" s="209" t="s">
         <v>257</v>
       </c>
-      <c r="C31" s="207" t="s">
+      <c r="C31" s="209" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="209"/>
-      <c r="B32" s="207" t="s">
+      <c r="A32" s="211"/>
+      <c r="B32" s="209" t="s">
         <v>218</v>
       </c>
-      <c r="C32" s="207" t="s">
+      <c r="C32" s="209" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="33" ht="28" spans="1:3">
-      <c r="A33" s="210" t="s">
+      <c r="A33" s="212" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="207" t="s">
+      <c r="B33" s="209" t="s">
         <v>218</v>
       </c>
-      <c r="C33" s="207" t="s">
+      <c r="C33" s="209" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="212"/>
-      <c r="B34" s="205" t="s">
+      <c r="A34" s="214"/>
+      <c r="B34" s="207" t="s">
         <v>261</v>
       </c>
-      <c r="C34" s="205" t="s">
+      <c r="C34" s="207" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="35" ht="98" spans="1:3">
-      <c r="A35" s="210" t="s">
+      <c r="A35" s="212" t="s">
         <v>263</v>
       </c>
-      <c r="B35" s="205" t="s">
+      <c r="B35" s="207" t="s">
         <v>218</v>
       </c>
-      <c r="C35" s="205" t="s">
+      <c r="C35" s="207" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="36" ht="84" spans="1:3">
-      <c r="A36" s="212"/>
-      <c r="B36" s="205" t="s">
+      <c r="A36" s="214"/>
+      <c r="B36" s="207" t="s">
         <v>265</v>
       </c>
-      <c r="C36" s="205" t="s">
+      <c r="C36" s="207" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="205" t="s">
+      <c r="A37" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="205" t="s">
+      <c r="B37" s="207" t="s">
         <v>267</v>
       </c>
-      <c r="C37" s="205" t="s">
+      <c r="C37" s="207" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="38" ht="28" spans="1:3">
-      <c r="A38" s="205" t="s">
+      <c r="A38" s="207" t="s">
         <v>269</v>
       </c>
-      <c r="B38" s="205" t="s">
+      <c r="B38" s="207" t="s">
         <v>261</v>
       </c>
-      <c r="C38" s="205" t="s">
+      <c r="C38" s="207" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="210" t="s">
+      <c r="A39" s="212" t="s">
         <v>271</v>
       </c>
-      <c r="B39" s="205" t="s">
+      <c r="B39" s="207" t="s">
         <v>223</v>
       </c>
-      <c r="C39" s="205" t="s">
+      <c r="C39" s="207" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="212"/>
-      <c r="B40" s="205" t="s">
+      <c r="A40" s="214"/>
+      <c r="B40" s="207" t="s">
         <v>265</v>
       </c>
-      <c r="C40" s="205" t="s">
+      <c r="C40" s="207" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="205" t="s">
+      <c r="A41" s="207" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="205" t="s">
+      <c r="B41" s="207" t="s">
         <v>225</v>
       </c>
-      <c r="C41" s="205" t="s">
+      <c r="C41" s="207" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="205" t="s">
+      <c r="A42" s="207" t="s">
         <v>275</v>
       </c>
-      <c r="B42" s="205" t="s">
+      <c r="B42" s="207" t="s">
         <v>276</v>
       </c>
-      <c r="C42" s="205" t="s">
+      <c r="C42" s="207" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="205" t="s">
+      <c r="A43" s="207" t="s">
         <v>278</v>
       </c>
-      <c r="B43" s="205" t="s">
+      <c r="B43" s="207" t="s">
         <v>229</v>
       </c>
-      <c r="C43" s="205" t="s">
+      <c r="C43" s="207" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="205" t="s">
+      <c r="A44" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="205" t="s">
+      <c r="B44" s="207" t="s">
         <v>265</v>
       </c>
-      <c r="C44" s="205" t="s">
+      <c r="C44" s="207" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="205" t="s">
+      <c r="A45" s="207" t="s">
         <v>281</v>
       </c>
-      <c r="B45" s="205" t="s">
+      <c r="B45" s="207" t="s">
         <v>243</v>
       </c>
-      <c r="C45" s="205" t="s">
+      <c r="C45" s="207" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="205" t="s">
+      <c r="A46" s="207" t="s">
         <v>283</v>
       </c>
-      <c r="B46" s="205" t="s">
+      <c r="B46" s="207" t="s">
         <v>284</v>
       </c>
-      <c r="C46" s="205" t="s">
+      <c r="C46" s="207" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="205" t="s">
+      <c r="A47" s="207" t="s">
         <v>286</v>
       </c>
-      <c r="B47" s="205" t="s">
+      <c r="B47" s="207" t="s">
         <v>284</v>
       </c>
-      <c r="C47" s="205" t="s">
+      <c r="C47" s="207" t="s">
         <v>287</v>
       </c>
     </row>
@@ -9003,45 +9009,45 @@
     <col min="2" max="2" width="3.54545454545455" style="4" customWidth="1"/>
     <col min="3" max="3" width="4.27272727272727" style="4" customWidth="1"/>
     <col min="4" max="4" width="3.45454545454545" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.72727272727273" style="193"/>
+    <col min="5" max="5" width="8.72727272727273" style="195"/>
     <col min="6" max="6" width="9.52727272727273" style="4" customWidth="1"/>
     <col min="7" max="7" width="22.8181818181818" style="4" customWidth="1"/>
     <col min="8" max="16384" width="8.72727272727273" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="191" customFormat="1" ht="15" spans="1:7">
-      <c r="A1" s="194" t="s">
+    <row r="1" s="193" customFormat="1" ht="15" spans="1:7">
+      <c r="A1" s="196" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="191" t="s">
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="193" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="2" s="192" customFormat="1" spans="1:7">
-      <c r="A2" s="198" t="s">
+    <row r="2" s="194" customFormat="1" spans="1:7">
+      <c r="A2" s="200" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="192" t="s">
+      <c r="B2" s="201"/>
+      <c r="C2" s="194" t="s">
         <v>290</v>
       </c>
-      <c r="D2" s="192" t="s">
+      <c r="D2" s="194" t="s">
         <v>291</v>
       </c>
       <c r="E2" s="141"/>
-      <c r="F2" s="192" t="s">
+      <c r="F2" s="194" t="s">
         <v>196</v>
       </c>
-      <c r="G2" s="192" t="s">
+      <c r="G2" s="194" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="200">
+      <c r="A3" s="202">
         <v>2025.1</v>
       </c>
       <c r="B3" s="119">
@@ -9059,7 +9065,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="201"/>
+      <c r="A4" s="203"/>
       <c r="B4" s="119">
         <v>15</v>
       </c>
@@ -9075,7 +9081,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="201"/>
+      <c r="A5" s="203"/>
       <c r="B5" s="119">
         <v>17</v>
       </c>
@@ -9091,7 +9097,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="201"/>
+      <c r="A6" s="203"/>
       <c r="B6" s="119">
         <v>22</v>
       </c>
@@ -9099,7 +9105,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="119"/>
-      <c r="F6" s="202" t="s">
+      <c r="F6" s="204" t="s">
         <v>299</v>
       </c>
       <c r="G6" s="119" t="s">
@@ -9107,7 +9113,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="201"/>
+      <c r="A7" s="203"/>
       <c r="B7" s="119">
         <v>24</v>
       </c>
@@ -9115,13 +9121,13 @@
         <v>180</v>
       </c>
       <c r="D7" s="119"/>
-      <c r="F7" s="203"/>
+      <c r="F7" s="205"/>
       <c r="G7" s="119" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="201"/>
+      <c r="A8" s="203"/>
       <c r="B8" s="119">
         <v>29</v>
       </c>
@@ -9133,7 +9139,7 @@
       <c r="G8" s="119"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="203"/>
+      <c r="A9" s="205"/>
       <c r="B9" s="119">
         <v>31</v>
       </c>
@@ -9145,7 +9151,7 @@
       <c r="G9" s="119"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="202">
+      <c r="A10" s="204">
         <v>2025.11</v>
       </c>
       <c r="B10" s="119">
@@ -9159,7 +9165,7 @@
       <c r="G10" s="119"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="201"/>
+      <c r="A11" s="203"/>
       <c r="B11" s="119">
         <v>7</v>
       </c>
@@ -9171,7 +9177,7 @@
       <c r="G11" s="119"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="203"/>
+      <c r="A12" s="205"/>
       <c r="B12" s="119">
         <v>14</v>
       </c>
@@ -9183,7 +9189,7 @@
       <c r="G12" s="119"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="202">
+      <c r="A13" s="204">
         <v>2025.12</v>
       </c>
       <c r="B13" s="119">
@@ -9199,7 +9205,7 @@
       <c r="G13" s="119"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="203"/>
+      <c r="A14" s="205"/>
       <c r="B14" s="119">
         <v>31</v>
       </c>
@@ -9233,26 +9239,27 @@
     <tabColor theme="5" tint="0.8"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP53"/>
+  <dimension ref="A1:BJ53"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH43" sqref="AH43"/>
+      <selection pane="bottomRight" activeCell="AP10" sqref="AP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="4.07272727272727" customWidth="1"/>
     <col min="2" max="35" width="3.23636363636364" customWidth="1"/>
-    <col min="36" max="38" width="4.81818181818182" style="174" customWidth="1"/>
-    <col min="39" max="39" width="7.18181818181818" style="174" customWidth="1"/>
-    <col min="40" max="42" width="4.81818181818182" style="174" customWidth="1"/>
+    <col min="36" max="55" width="3.23636363636364" customWidth="1"/>
+    <col min="56" max="58" width="4.81818181818182" style="174" customWidth="1"/>
+    <col min="59" max="59" width="7.18181818181818" style="174" customWidth="1"/>
+    <col min="60" max="62" width="4.81818181818182" style="174" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:62">
       <c r="A1" s="175" t="s">
         <v>302</v>
       </c>
@@ -9294,143 +9301,187 @@
       <c r="AG1" s="179"/>
       <c r="AH1" s="179"/>
       <c r="AI1" s="179"/>
-      <c r="AJ1" s="180" t="s">
+      <c r="AJ1" s="180">
+        <v>46054</v>
+      </c>
+      <c r="AK1" s="180"/>
+      <c r="AL1" s="180"/>
+      <c r="AM1" s="180"/>
+      <c r="AN1" s="180"/>
+      <c r="AO1" s="180"/>
+      <c r="AP1" s="180"/>
+      <c r="AQ1" s="180"/>
+      <c r="AR1" s="180"/>
+      <c r="AS1" s="180"/>
+      <c r="AT1" s="180"/>
+      <c r="AU1" s="180"/>
+      <c r="AV1" s="180"/>
+      <c r="AW1" s="180"/>
+      <c r="AX1" s="180"/>
+      <c r="AY1" s="180"/>
+      <c r="AZ1" s="180"/>
+      <c r="BA1" s="180"/>
+      <c r="BB1" s="180"/>
+      <c r="BC1" s="180"/>
+      <c r="BD1" s="181" t="s">
         <v>303</v>
       </c>
-      <c r="AK1" s="181"/>
-      <c r="AL1" s="181"/>
-      <c r="AM1" s="181"/>
-      <c r="AN1" s="181"/>
-      <c r="AO1" s="181"/>
-      <c r="AP1" s="182"/>
-    </row>
-    <row r="2" s="173" customFormat="1" ht="28" spans="1:42">
+      <c r="BE1" s="182"/>
+      <c r="BF1" s="182"/>
+      <c r="BG1" s="182"/>
+      <c r="BH1" s="182"/>
+      <c r="BI1" s="182"/>
+      <c r="BJ1" s="183"/>
+    </row>
+    <row r="2" s="173" customFormat="1" ht="28" spans="1:62">
       <c r="A2" s="175"/>
-      <c r="B2" s="183">
+      <c r="B2" s="184">
         <v>5</v>
       </c>
-      <c r="C2" s="183">
+      <c r="C2" s="184">
         <v>6</v>
       </c>
-      <c r="D2" s="183">
+      <c r="D2" s="184">
         <v>9</v>
       </c>
-      <c r="E2" s="183">
+      <c r="E2" s="184">
         <v>10</v>
       </c>
-      <c r="F2" s="183">
+      <c r="F2" s="184">
         <v>11</v>
       </c>
-      <c r="G2" s="183">
+      <c r="G2" s="184">
         <v>12</v>
       </c>
-      <c r="H2" s="183">
+      <c r="H2" s="184">
         <v>15</v>
       </c>
-      <c r="I2" s="183">
+      <c r="I2" s="184">
         <v>16</v>
       </c>
-      <c r="J2" s="183">
+      <c r="J2" s="184">
         <v>17</v>
       </c>
-      <c r="K2" s="183">
+      <c r="K2" s="184">
         <v>18</v>
       </c>
-      <c r="L2" s="183">
+      <c r="L2" s="184">
         <v>19</v>
       </c>
-      <c r="M2" s="183">
+      <c r="M2" s="184">
         <v>22</v>
       </c>
-      <c r="N2" s="183">
+      <c r="N2" s="184">
         <v>23</v>
       </c>
-      <c r="O2" s="183">
+      <c r="O2" s="184">
         <v>25</v>
       </c>
-      <c r="P2" s="183">
+      <c r="P2" s="184">
         <v>26</v>
       </c>
-      <c r="Q2" s="183">
+      <c r="Q2" s="184">
         <v>29</v>
       </c>
-      <c r="R2" s="183">
+      <c r="R2" s="184">
         <v>30</v>
       </c>
-      <c r="S2" s="183">
+      <c r="S2" s="184">
         <v>31</v>
       </c>
-      <c r="T2" s="183">
+      <c r="T2" s="184">
         <v>4</v>
       </c>
-      <c r="U2" s="183">
+      <c r="U2" s="184">
         <v>5</v>
       </c>
-      <c r="V2" s="183">
+      <c r="V2" s="184">
         <v>6</v>
       </c>
-      <c r="W2" s="183">
+      <c r="W2" s="184">
         <v>7</v>
       </c>
-      <c r="X2" s="183">
+      <c r="X2" s="184">
         <v>8</v>
       </c>
-      <c r="Y2" s="183">
+      <c r="Y2" s="184">
         <v>11</v>
       </c>
-      <c r="Z2" s="183">
+      <c r="Z2" s="184">
         <v>12</v>
       </c>
-      <c r="AA2" s="183">
+      <c r="AA2" s="184">
         <v>13</v>
       </c>
-      <c r="AB2" s="183">
+      <c r="AB2" s="184">
         <v>14</v>
       </c>
-      <c r="AC2" s="183">
+      <c r="AC2" s="184">
         <v>15</v>
       </c>
-      <c r="AD2" s="183">
+      <c r="AD2" s="184">
         <v>16</v>
       </c>
-      <c r="AE2" s="183">
+      <c r="AE2" s="184">
         <v>19</v>
       </c>
-      <c r="AF2" s="183">
+      <c r="AF2" s="184">
         <v>20</v>
       </c>
-      <c r="AG2" s="183">
+      <c r="AG2" s="184">
         <v>21</v>
       </c>
-      <c r="AH2" s="183">
+      <c r="AH2" s="184">
         <v>22</v>
       </c>
-      <c r="AI2" s="183">
+      <c r="AI2" s="184">
         <v>23</v>
       </c>
-      <c r="AJ2" s="184" t="s">
+      <c r="AJ2" s="184">
+        <v>26</v>
+      </c>
+      <c r="AK2" s="184"/>
+      <c r="AL2" s="184"/>
+      <c r="AM2" s="184"/>
+      <c r="AN2" s="184"/>
+      <c r="AO2" s="184"/>
+      <c r="AP2" s="184"/>
+      <c r="AQ2" s="184"/>
+      <c r="AR2" s="184"/>
+      <c r="AS2" s="184"/>
+      <c r="AT2" s="184"/>
+      <c r="AU2" s="184"/>
+      <c r="AV2" s="184"/>
+      <c r="AW2" s="184"/>
+      <c r="AX2" s="184"/>
+      <c r="AY2" s="184"/>
+      <c r="AZ2" s="184"/>
+      <c r="BA2" s="184"/>
+      <c r="BB2" s="184"/>
+      <c r="BC2" s="184"/>
+      <c r="BD2" s="185" t="s">
         <v>304</v>
       </c>
-      <c r="AK2" s="184" t="s">
+      <c r="BE2" s="185" t="s">
         <v>305</v>
       </c>
-      <c r="AL2" s="184" t="s">
+      <c r="BF2" s="185" t="s">
         <v>306</v>
       </c>
-      <c r="AM2" s="184" t="s">
+      <c r="BG2" s="185" t="s">
         <v>307</v>
       </c>
-      <c r="AN2" s="185" t="s">
+      <c r="BH2" s="186" t="s">
         <v>308</v>
       </c>
-      <c r="AO2" s="185" t="s">
+      <c r="BI2" s="186" t="s">
         <v>309</v>
       </c>
-      <c r="AP2" s="185" t="s">
+      <c r="BJ2" s="186" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:42">
+    <row r="3" customHeight="1" spans="1:62">
       <c r="A3" s="120">
         <v>1</v>
       </c>
@@ -9470,36 +9521,56 @@
       <c r="AG3" s="120"/>
       <c r="AH3" s="120"/>
       <c r="AI3" s="120"/>
-      <c r="AJ3" s="186">
-        <f>SUM(B3:AI3)</f>
-        <v>1</v>
-      </c>
-      <c r="AK3" s="186" cm="1">
-        <f t="array" ref="AK3">SUMPRODUCT(--(B3:AI3=INT(B3:AI3)),--(B3:AI3&gt;0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL3" s="186" cm="1">
-        <f t="array" ref="AL3">MAX(FREQUENCY(IF((B3:AI3=INT(B3:AI3))*(B3:AI3&gt;0),COLUMN(B3:AI3)),IF((B3:AI3&lt;&gt;INT(B3:AI3))+(B3:AI3&lt;=0),COLUMN(B3:AI3))))</f>
-        <v>1</v>
-      </c>
-      <c r="AM3" s="187" cm="1">
-        <f t="array" ref="AM3">SUMPRODUCT(--(B3:AI3=INT(B3:AI3)),--(B3:AI3&gt;0))/34*100%</f>
+      <c r="AJ3" s="120"/>
+      <c r="AK3" s="120"/>
+      <c r="AL3" s="120"/>
+      <c r="AM3" s="120"/>
+      <c r="AN3" s="120"/>
+      <c r="AO3" s="120"/>
+      <c r="AP3" s="120"/>
+      <c r="AQ3" s="120"/>
+      <c r="AR3" s="120"/>
+      <c r="AS3" s="120"/>
+      <c r="AT3" s="120"/>
+      <c r="AU3" s="120"/>
+      <c r="AV3" s="120"/>
+      <c r="AW3" s="120"/>
+      <c r="AX3" s="120"/>
+      <c r="AY3" s="120"/>
+      <c r="AZ3" s="120"/>
+      <c r="BA3" s="120"/>
+      <c r="BB3" s="120"/>
+      <c r="BC3" s="120"/>
+      <c r="BD3" s="187">
+        <f>SUM(B3:BC3)</f>
+        <v>1</v>
+      </c>
+      <c r="BE3" s="187" cm="1">
+        <f t="array" ref="BE3">SUMPRODUCT(--(B3:BC3=INT(B3:BC3)),--(B3:BC3&gt;0))</f>
+        <v>1</v>
+      </c>
+      <c r="BF3" s="187" cm="1">
+        <f t="array" ref="BF3">MAX(FREQUENCY(IF((B3:BC3=INT(B3:BC3))*(B3:BC3&gt;0),COLUMN(B3:BC3)),IF((B3:BC3&lt;&gt;INT(B3:BC3))+(B3:BC3&lt;=0),COLUMN(B3:BC3))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG3" s="188" cm="1">
+        <f t="array" ref="BG3">SUMPRODUCT(--(B3:AI3=INT(B3:AI3)),--(B3:AI3&gt;0))/34*100%</f>
         <v>0.0294117647058824</v>
       </c>
-      <c r="AN3" s="188">
-        <f>RANK(AJ3,AJ$3:AJ$53,0)</f>
+      <c r="BH3" s="189">
+        <f>RANK(BD3,BD$3:BD$53,0)</f>
         <v>34</v>
       </c>
-      <c r="AO3" s="188">
-        <f>RANK(AK3,AK$3:AK$53,0)</f>
+      <c r="BI3" s="189">
+        <f>RANK(BE3,BE$3:BE$53,0)</f>
         <v>34</v>
       </c>
-      <c r="AP3" s="188">
-        <f>RANK(AL3,AL$3:AL$53,0)</f>
+      <c r="BJ3" s="189">
+        <f>RANK(BF3,BF$3:BF$53,0)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:42">
+    <row r="4" customHeight="1" spans="1:62">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -9559,36 +9630,56 @@
       <c r="AG4" s="120"/>
       <c r="AH4" s="120"/>
       <c r="AI4" s="120"/>
-      <c r="AJ4" s="186">
-        <f t="shared" ref="AJ4:AJ35" si="0">SUM(B4:AI4)</f>
+      <c r="AJ4" s="120"/>
+      <c r="AK4" s="120"/>
+      <c r="AL4" s="120"/>
+      <c r="AM4" s="120"/>
+      <c r="AN4" s="120"/>
+      <c r="AO4" s="120"/>
+      <c r="AP4" s="120"/>
+      <c r="AQ4" s="120"/>
+      <c r="AR4" s="120"/>
+      <c r="AS4" s="120"/>
+      <c r="AT4" s="120"/>
+      <c r="AU4" s="120"/>
+      <c r="AV4" s="120"/>
+      <c r="AW4" s="120"/>
+      <c r="AX4" s="120"/>
+      <c r="AY4" s="120"/>
+      <c r="AZ4" s="120"/>
+      <c r="BA4" s="120"/>
+      <c r="BB4" s="120"/>
+      <c r="BC4" s="120"/>
+      <c r="BD4" s="187">
+        <f t="shared" ref="BD4:BD35" si="0">SUM(B4:BC4)</f>
         <v>12</v>
       </c>
-      <c r="AK4" s="186" cm="1">
-        <f t="array" ref="AK4">SUMPRODUCT(--(B4:AI4=INT(B4:AI4)),--(B4:AI4&gt;0))</f>
+      <c r="BE4" s="187" cm="1">
+        <f t="array" ref="BE4">SUMPRODUCT(--(B4:BC4=INT(B4:BC4)),--(B4:BC4&gt;0))</f>
         <v>11</v>
       </c>
-      <c r="AL4" s="186" cm="1">
-        <f t="array" ref="AL4">MAX(FREQUENCY(IF((B4:AI4=INT(B4:AI4))*(B4:AI4&gt;0),COLUMN(B4:AI4)),IF((B4:AI4&lt;&gt;INT(B4:AI4))+(B4:AI4&lt;=0),COLUMN(B4:AI4))))</f>
+      <c r="BF4" s="187" cm="1">
+        <f t="array" ref="BF4">MAX(FREQUENCY(IF((B4:BC4=INT(B4:BC4))*(B4:BC4&gt;0),COLUMN(B4:BC4)),IF((B4:BC4&lt;&gt;INT(B4:BC4))+(B4:BC4&lt;=0),COLUMN(B4:BC4))))</f>
         <v>3</v>
       </c>
-      <c r="AM4" s="187" cm="1">
-        <f t="array" ref="AM4">SUMPRODUCT(--(B4:AI4=INT(B4:AI4)),--(B4:AI4&gt;0))/34*100%</f>
+      <c r="BG4" s="188" cm="1">
+        <f t="array" ref="BG4">SUMPRODUCT(--(B4:AI4=INT(B4:AI4)),--(B4:AI4&gt;0))/34*100%</f>
         <v>0.323529411764706</v>
       </c>
-      <c r="AN4" s="188">
-        <f t="shared" ref="AN4:AP4" si="1">RANK(AJ4,AJ$3:AJ$53,0)</f>
-        <v>6</v>
-      </c>
-      <c r="AO4" s="188">
+      <c r="BH4" s="189">
+        <f t="shared" ref="BH4:BJ4" si="1">RANK(BD4,BD$3:BD$53,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BI4" s="189">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AP4" s="188">
+      <c r="BJ4" s="189">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:42">
+    <row r="5" customHeight="1" spans="1:62">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -9630,36 +9721,56 @@
       <c r="AG5" s="120"/>
       <c r="AH5" s="120"/>
       <c r="AI5" s="120"/>
-      <c r="AJ5" s="186">
+      <c r="AJ5" s="120"/>
+      <c r="AK5" s="120"/>
+      <c r="AL5" s="120"/>
+      <c r="AM5" s="120"/>
+      <c r="AN5" s="120"/>
+      <c r="AO5" s="120"/>
+      <c r="AP5" s="120"/>
+      <c r="AQ5" s="120"/>
+      <c r="AR5" s="120"/>
+      <c r="AS5" s="120"/>
+      <c r="AT5" s="120"/>
+      <c r="AU5" s="120"/>
+      <c r="AV5" s="120"/>
+      <c r="AW5" s="120"/>
+      <c r="AX5" s="120"/>
+      <c r="AY5" s="120"/>
+      <c r="AZ5" s="120"/>
+      <c r="BA5" s="120"/>
+      <c r="BB5" s="120"/>
+      <c r="BC5" s="120"/>
+      <c r="BD5" s="187">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AK5" s="186" cm="1">
-        <f t="array" ref="AK5">SUMPRODUCT(--(B5:AI5=INT(B5:AI5)),--(B5:AI5&gt;0))</f>
+      <c r="BE5" s="187" cm="1">
+        <f t="array" ref="BE5">SUMPRODUCT(--(B5:BC5=INT(B5:BC5)),--(B5:BC5&gt;0))</f>
         <v>2</v>
       </c>
-      <c r="AL5" s="186" cm="1">
-        <f t="array" ref="AL5">MAX(FREQUENCY(IF((B5:AI5=INT(B5:AI5))*(B5:AI5&gt;0),COLUMN(B5:AI5)),IF((B5:AI5&lt;&gt;INT(B5:AI5))+(B5:AI5&lt;=0),COLUMN(B5:AI5))))</f>
-        <v>1</v>
-      </c>
-      <c r="AM5" s="187" cm="1">
-        <f t="array" ref="AM5">SUMPRODUCT(--(B5:AI5=INT(B5:AI5)),--(B5:AI5&gt;0))/34*100%</f>
+      <c r="BF5" s="187" cm="1">
+        <f t="array" ref="BF5">MAX(FREQUENCY(IF((B5:BC5=INT(B5:BC5))*(B5:BC5&gt;0),COLUMN(B5:BC5)),IF((B5:BC5&lt;&gt;INT(B5:BC5))+(B5:BC5&lt;=0),COLUMN(B5:BC5))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG5" s="188" cm="1">
+        <f t="array" ref="BG5">SUMPRODUCT(--(B5:AI5=INT(B5:AI5)),--(B5:AI5&gt;0))/34*100%</f>
         <v>0.0588235294117647</v>
       </c>
-      <c r="AN5" s="188">
-        <f t="shared" ref="AN5:AP5" si="2">RANK(AJ5,AJ$3:AJ$53,0)</f>
-        <v>28</v>
-      </c>
-      <c r="AO5" s="188">
+      <c r="BH5" s="189">
+        <f t="shared" ref="BH5:BJ5" si="2">RANK(BD5,BD$3:BD$53,0)</f>
+        <v>29</v>
+      </c>
+      <c r="BI5" s="189">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="AP5" s="188">
+        <v>29</v>
+      </c>
+      <c r="BJ5" s="189">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:42">
+    <row r="6" customHeight="1" spans="1:62">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -9701,36 +9812,58 @@
       <c r="AG6" s="120"/>
       <c r="AH6" s="120"/>
       <c r="AI6" s="120"/>
-      <c r="AJ6" s="186">
+      <c r="AJ6" s="120">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="120"/>
+      <c r="AL6" s="120"/>
+      <c r="AM6" s="120"/>
+      <c r="AN6" s="120"/>
+      <c r="AO6" s="120"/>
+      <c r="AP6" s="120"/>
+      <c r="AQ6" s="120"/>
+      <c r="AR6" s="120"/>
+      <c r="AS6" s="120"/>
+      <c r="AT6" s="120"/>
+      <c r="AU6" s="120"/>
+      <c r="AV6" s="120"/>
+      <c r="AW6" s="120"/>
+      <c r="AX6" s="120"/>
+      <c r="AY6" s="120"/>
+      <c r="AZ6" s="120"/>
+      <c r="BA6" s="120"/>
+      <c r="BB6" s="120"/>
+      <c r="BC6" s="120"/>
+      <c r="BD6" s="187">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AK6" s="186" cm="1">
-        <f t="array" ref="AK6">SUMPRODUCT(--(B6:AI6=INT(B6:AI6)),--(B6:AI6&gt;0))</f>
-        <v>2</v>
-      </c>
-      <c r="AL6" s="186" cm="1">
-        <f t="array" ref="AL6">MAX(FREQUENCY(IF((B6:AI6=INT(B6:AI6))*(B6:AI6&gt;0),COLUMN(B6:AI6)),IF((B6:AI6&lt;&gt;INT(B6:AI6))+(B6:AI6&lt;=0),COLUMN(B6:AI6))))</f>
-        <v>1</v>
-      </c>
-      <c r="AM6" s="187" cm="1">
-        <f t="array" ref="AM6">SUMPRODUCT(--(B6:AI6=INT(B6:AI6)),--(B6:AI6&gt;0))/34*100%</f>
+        <v>3</v>
+      </c>
+      <c r="BE6" s="187" cm="1">
+        <f t="array" ref="BE6">SUMPRODUCT(--(B6:BC6=INT(B6:BC6)),--(B6:BC6&gt;0))</f>
+        <v>3</v>
+      </c>
+      <c r="BF6" s="187" cm="1">
+        <f t="array" ref="BF6">MAX(FREQUENCY(IF((B6:BC6=INT(B6:BC6))*(B6:BC6&gt;0),COLUMN(B6:BC6)),IF((B6:BC6&lt;&gt;INT(B6:BC6))+(B6:BC6&lt;=0),COLUMN(B6:BC6))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG6" s="188" cm="1">
+        <f t="array" ref="BG6">SUMPRODUCT(--(B6:AI6=INT(B6:AI6)),--(B6:AI6&gt;0))/34*100%</f>
         <v>0.0588235294117647</v>
       </c>
-      <c r="AN6" s="188">
-        <f t="shared" ref="AN6:AP6" si="3">RANK(AJ6,AJ$3:AJ$53,0)</f>
+      <c r="BH6" s="189">
+        <f t="shared" ref="BH6:BJ6" si="3">RANK(BD6,BD$3:BD$53,0)</f>
         <v>28</v>
       </c>
-      <c r="AO6" s="188">
+      <c r="BI6" s="189">
         <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="AP6" s="188">
+        <v>26</v>
+      </c>
+      <c r="BJ6" s="189">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:42">
+    <row r="7" customHeight="1" spans="1:62">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -9774,36 +9907,56 @@
       <c r="AG7" s="120"/>
       <c r="AH7" s="120"/>
       <c r="AI7" s="120"/>
-      <c r="AJ7" s="186">
+      <c r="AJ7" s="120"/>
+      <c r="AK7" s="120"/>
+      <c r="AL7" s="120"/>
+      <c r="AM7" s="120"/>
+      <c r="AN7" s="120"/>
+      <c r="AO7" s="120"/>
+      <c r="AP7" s="120"/>
+      <c r="AQ7" s="120"/>
+      <c r="AR7" s="120"/>
+      <c r="AS7" s="120"/>
+      <c r="AT7" s="120"/>
+      <c r="AU7" s="120"/>
+      <c r="AV7" s="120"/>
+      <c r="AW7" s="120"/>
+      <c r="AX7" s="120"/>
+      <c r="AY7" s="120"/>
+      <c r="AZ7" s="120"/>
+      <c r="BA7" s="120"/>
+      <c r="BB7" s="120"/>
+      <c r="BC7" s="120"/>
+      <c r="BD7" s="187">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AK7" s="186" cm="1">
-        <f t="array" ref="AK7">SUMPRODUCT(--(B7:AI7=INT(B7:AI7)),--(B7:AI7&gt;0))</f>
+      <c r="BE7" s="187" cm="1">
+        <f t="array" ref="BE7">SUMPRODUCT(--(B7:BC7=INT(B7:BC7)),--(B7:BC7&gt;0))</f>
         <v>3</v>
       </c>
-      <c r="AL7" s="186" cm="1">
-        <f t="array" ref="AL7">MAX(FREQUENCY(IF((B7:AI7=INT(B7:AI7))*(B7:AI7&gt;0),COLUMN(B7:AI7)),IF((B7:AI7&lt;&gt;INT(B7:AI7))+(B7:AI7&lt;=0),COLUMN(B7:AI7))))</f>
-        <v>1</v>
-      </c>
-      <c r="AM7" s="187" cm="1">
-        <f t="array" ref="AM7">SUMPRODUCT(--(B7:AI7=INT(B7:AI7)),--(B7:AI7&gt;0))/34*100%</f>
+      <c r="BF7" s="187" cm="1">
+        <f t="array" ref="BF7">MAX(FREQUENCY(IF((B7:BC7=INT(B7:BC7))*(B7:BC7&gt;0),COLUMN(B7:BC7)),IF((B7:BC7&lt;&gt;INT(B7:BC7))+(B7:BC7&lt;=0),COLUMN(B7:BC7))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG7" s="188" cm="1">
+        <f t="array" ref="BG7">SUMPRODUCT(--(B7:AI7=INT(B7:AI7)),--(B7:AI7&gt;0))/34*100%</f>
         <v>0.0882352941176471</v>
       </c>
-      <c r="AN7" s="188">
-        <f t="shared" ref="AN7:AP7" si="4">RANK(AJ7,AJ$3:AJ$53,0)</f>
-        <v>21</v>
-      </c>
-      <c r="AO7" s="188">
+      <c r="BH7" s="189">
+        <f t="shared" ref="BH7:BJ7" si="4">RANK(BD7,BD$3:BD$53,0)</f>
+        <v>23</v>
+      </c>
+      <c r="BI7" s="189">
         <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="AP7" s="188">
+        <v>26</v>
+      </c>
+      <c r="BJ7" s="189">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:42">
+    <row r="8" customHeight="1" spans="1:62">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -9873,36 +10026,58 @@
       <c r="AG8" s="120"/>
       <c r="AH8" s="120"/>
       <c r="AI8" s="120"/>
-      <c r="AJ8" s="186">
+      <c r="AJ8" s="120">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="120"/>
+      <c r="AL8" s="120"/>
+      <c r="AM8" s="120"/>
+      <c r="AN8" s="120"/>
+      <c r="AO8" s="120"/>
+      <c r="AP8" s="120"/>
+      <c r="AQ8" s="120"/>
+      <c r="AR8" s="120"/>
+      <c r="AS8" s="120"/>
+      <c r="AT8" s="120"/>
+      <c r="AU8" s="120"/>
+      <c r="AV8" s="120"/>
+      <c r="AW8" s="120"/>
+      <c r="AX8" s="120"/>
+      <c r="AY8" s="120"/>
+      <c r="AZ8" s="120"/>
+      <c r="BA8" s="120"/>
+      <c r="BB8" s="120"/>
+      <c r="BC8" s="120"/>
+      <c r="BD8" s="187">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AK8" s="186" cm="1">
-        <f t="array" ref="AK8">SUMPRODUCT(--(B8:AI8=INT(B8:AI8)),--(B8:AI8&gt;0))</f>
-        <v>16</v>
-      </c>
-      <c r="AL8" s="186" cm="1">
-        <f t="array" ref="AL8">MAX(FREQUENCY(IF((B8:AI8=INT(B8:AI8))*(B8:AI8&gt;0),COLUMN(B8:AI8)),IF((B8:AI8&lt;&gt;INT(B8:AI8))+(B8:AI8&lt;=0),COLUMN(B8:AI8))))</f>
+        <v>17</v>
+      </c>
+      <c r="BE8" s="187" cm="1">
+        <f t="array" ref="BE8">SUMPRODUCT(--(B8:BC8=INT(B8:BC8)),--(B8:BC8&gt;0))</f>
+        <v>17</v>
+      </c>
+      <c r="BF8" s="187" cm="1">
+        <f t="array" ref="BF8">MAX(FREQUENCY(IF((B8:BC8=INT(B8:BC8))*(B8:BC8&gt;0),COLUMN(B8:BC8)),IF((B8:BC8&lt;&gt;INT(B8:BC8))+(B8:BC8&lt;=0),COLUMN(B8:BC8))))</f>
         <v>5</v>
       </c>
-      <c r="AM8" s="187" cm="1">
-        <f t="array" ref="AM8">SUMPRODUCT(--(B8:AI8=INT(B8:AI8)),--(B8:AI8&gt;0))/34*100%</f>
+      <c r="BG8" s="188" cm="1">
+        <f t="array" ref="BG8">SUMPRODUCT(--(B8:AI8=INT(B8:AI8)),--(B8:AI8&gt;0))/34*100%</f>
         <v>0.470588235294118</v>
       </c>
-      <c r="AN8" s="188">
-        <f t="shared" ref="AN8:AP8" si="5">RANK(AJ8,AJ$3:AJ$53,0)</f>
-        <v>4</v>
-      </c>
-      <c r="AO8" s="188">
+      <c r="BH8" s="189">
+        <f t="shared" ref="BH8:BJ8" si="5">RANK(BD8,BD$3:BD$53,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BI8" s="189">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AP8" s="188">
+      <c r="BJ8" s="189">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:42">
+    <row r="9" customHeight="1" spans="1:62">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -9960,36 +10135,58 @@
       <c r="AG9" s="120"/>
       <c r="AH9" s="120"/>
       <c r="AI9" s="120"/>
-      <c r="AJ9" s="186">
+      <c r="AJ9" s="120">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="120"/>
+      <c r="AL9" s="120"/>
+      <c r="AM9" s="120"/>
+      <c r="AN9" s="120"/>
+      <c r="AO9" s="120"/>
+      <c r="AP9" s="120"/>
+      <c r="AQ9" s="120"/>
+      <c r="AR9" s="120"/>
+      <c r="AS9" s="120"/>
+      <c r="AT9" s="120"/>
+      <c r="AU9" s="120"/>
+      <c r="AV9" s="120"/>
+      <c r="AW9" s="120"/>
+      <c r="AX9" s="120"/>
+      <c r="AY9" s="120"/>
+      <c r="AZ9" s="120"/>
+      <c r="BA9" s="120"/>
+      <c r="BB9" s="120"/>
+      <c r="BC9" s="120"/>
+      <c r="BD9" s="187">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AK9" s="186" cm="1">
-        <f t="array" ref="AK9">SUMPRODUCT(--(B9:AI9=INT(B9:AI9)),--(B9:AI9&gt;0))</f>
-        <v>10</v>
-      </c>
-      <c r="AL9" s="186" cm="1">
-        <f t="array" ref="AL9">MAX(FREQUENCY(IF((B9:AI9=INT(B9:AI9))*(B9:AI9&gt;0),COLUMN(B9:AI9)),IF((B9:AI9&lt;&gt;INT(B9:AI9))+(B9:AI9&lt;=0),COLUMN(B9:AI9))))</f>
+        <v>11</v>
+      </c>
+      <c r="BE9" s="187" cm="1">
+        <f t="array" ref="BE9">SUMPRODUCT(--(B9:BC9=INT(B9:BC9)),--(B9:BC9&gt;0))</f>
+        <v>11</v>
+      </c>
+      <c r="BF9" s="187" cm="1">
+        <f t="array" ref="BF9">MAX(FREQUENCY(IF((B9:BC9=INT(B9:BC9))*(B9:BC9&gt;0),COLUMN(B9:BC9)),IF((B9:BC9&lt;&gt;INT(B9:BC9))+(B9:BC9&lt;=0),COLUMN(B9:BC9))))</f>
         <v>3</v>
       </c>
-      <c r="AM9" s="187" cm="1">
-        <f t="array" ref="AM9">SUMPRODUCT(--(B9:AI9=INT(B9:AI9)),--(B9:AI9&gt;0))/34*100%</f>
+      <c r="BG9" s="188" cm="1">
+        <f t="array" ref="BG9">SUMPRODUCT(--(B9:AI9=INT(B9:AI9)),--(B9:AI9&gt;0))/34*100%</f>
         <v>0.294117647058824</v>
       </c>
-      <c r="AN9" s="188">
-        <f>RANK(AJ9,AJ$3:AJ$53,0)</f>
+      <c r="BH9" s="189">
+        <f>RANK(BD9,BD$3:BD$53,0)</f>
         <v>9</v>
       </c>
-      <c r="AO9" s="188">
-        <f t="shared" ref="AN9:AP9" si="6">RANK(AK9,AK$3:AK$53,0)</f>
-        <v>7</v>
-      </c>
-      <c r="AP9" s="188">
+      <c r="BI9" s="189">
+        <f t="shared" ref="BH9:BJ9" si="6">RANK(BE9,BE$3:BE$53,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BJ9" s="189">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:42">
+    <row r="10" customHeight="1" spans="1:62">
       <c r="A10" s="120">
         <v>8</v>
       </c>
@@ -10029,36 +10226,56 @@
       <c r="AG10" s="120"/>
       <c r="AH10" s="120"/>
       <c r="AI10" s="120"/>
-      <c r="AJ10" s="186">
+      <c r="AJ10" s="120"/>
+      <c r="AK10" s="120"/>
+      <c r="AL10" s="120"/>
+      <c r="AM10" s="120"/>
+      <c r="AN10" s="120"/>
+      <c r="AO10" s="120"/>
+      <c r="AP10" s="120"/>
+      <c r="AQ10" s="120"/>
+      <c r="AR10" s="120"/>
+      <c r="AS10" s="120"/>
+      <c r="AT10" s="120"/>
+      <c r="AU10" s="120"/>
+      <c r="AV10" s="120"/>
+      <c r="AW10" s="120"/>
+      <c r="AX10" s="120"/>
+      <c r="AY10" s="120"/>
+      <c r="AZ10" s="120"/>
+      <c r="BA10" s="120"/>
+      <c r="BB10" s="120"/>
+      <c r="BC10" s="120"/>
+      <c r="BD10" s="187">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AK10" s="186" cm="1">
-        <f t="array" ref="AK10">SUMPRODUCT(--(B10:AI10=INT(B10:AI10)),--(B10:AI10&gt;0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL10" s="186" cm="1">
-        <f t="array" ref="AL10">MAX(FREQUENCY(IF((B10:AI10=INT(B10:AI10))*(B10:AI10&gt;0),COLUMN(B10:AI10)),IF((B10:AI10&lt;&gt;INT(B10:AI10))+(B10:AI10&lt;=0),COLUMN(B10:AI10))))</f>
-        <v>1</v>
-      </c>
-      <c r="AM10" s="187" cm="1">
-        <f t="array" ref="AM10">SUMPRODUCT(--(B10:AI10=INT(B10:AI10)),--(B10:AI10&gt;0))/34*100%</f>
+      <c r="BE10" s="187" cm="1">
+        <f t="array" ref="BE10">SUMPRODUCT(--(B10:BC10=INT(B10:BC10)),--(B10:BC10&gt;0))</f>
+        <v>1</v>
+      </c>
+      <c r="BF10" s="187" cm="1">
+        <f t="array" ref="BF10">MAX(FREQUENCY(IF((B10:BC10=INT(B10:BC10))*(B10:BC10&gt;0),COLUMN(B10:BC10)),IF((B10:BC10&lt;&gt;INT(B10:BC10))+(B10:BC10&lt;=0),COLUMN(B10:BC10))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG10" s="188" cm="1">
+        <f t="array" ref="BG10">SUMPRODUCT(--(B10:AI10=INT(B10:AI10)),--(B10:AI10&gt;0))/34*100%</f>
         <v>0.0294117647058824</v>
       </c>
-      <c r="AN10" s="188">
-        <f t="shared" ref="AN10:AP10" si="7">RANK(AJ10,AJ$3:AJ$53,0)</f>
+      <c r="BH10" s="189">
+        <f t="shared" ref="BH10:BJ10" si="7">RANK(BD10,BD$3:BD$53,0)</f>
         <v>34</v>
       </c>
-      <c r="AO10" s="188">
+      <c r="BI10" s="189">
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="AP10" s="188">
+      <c r="BJ10" s="189">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:42">
+    <row r="11" customHeight="1" spans="1:62">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -10110,36 +10327,56 @@
       <c r="AG11" s="120"/>
       <c r="AH11" s="120"/>
       <c r="AI11" s="120"/>
-      <c r="AJ11" s="186">
+      <c r="AJ11" s="120"/>
+      <c r="AK11" s="120"/>
+      <c r="AL11" s="120"/>
+      <c r="AM11" s="120"/>
+      <c r="AN11" s="120"/>
+      <c r="AO11" s="120"/>
+      <c r="AP11" s="120"/>
+      <c r="AQ11" s="120"/>
+      <c r="AR11" s="120"/>
+      <c r="AS11" s="120"/>
+      <c r="AT11" s="120"/>
+      <c r="AU11" s="120"/>
+      <c r="AV11" s="120"/>
+      <c r="AW11" s="120"/>
+      <c r="AX11" s="120"/>
+      <c r="AY11" s="120"/>
+      <c r="AZ11" s="120"/>
+      <c r="BA11" s="120"/>
+      <c r="BB11" s="120"/>
+      <c r="BC11" s="120"/>
+      <c r="BD11" s="187">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AK11" s="186" cm="1">
-        <f t="array" ref="AK11">SUMPRODUCT(--(B11:AI11=INT(B11:AI11)),--(B11:AI11&gt;0))</f>
+      <c r="BE11" s="187" cm="1">
+        <f t="array" ref="BE11">SUMPRODUCT(--(B11:BC11=INT(B11:BC11)),--(B11:BC11&gt;0))</f>
         <v>7</v>
       </c>
-      <c r="AL11" s="186" cm="1">
-        <f t="array" ref="AL11">MAX(FREQUENCY(IF((B11:AI11=INT(B11:AI11))*(B11:AI11&gt;0),COLUMN(B11:AI11)),IF((B11:AI11&lt;&gt;INT(B11:AI11))+(B11:AI11&lt;=0),COLUMN(B11:AI11))))</f>
-        <v>1</v>
-      </c>
-      <c r="AM11" s="187" cm="1">
-        <f t="array" ref="AM11">SUMPRODUCT(--(B11:AI11=INT(B11:AI11)),--(B11:AI11&gt;0))/34*100%</f>
+      <c r="BF11" s="187" cm="1">
+        <f t="array" ref="BF11">MAX(FREQUENCY(IF((B11:BC11=INT(B11:BC11))*(B11:BC11&gt;0),COLUMN(B11:BC11)),IF((B11:BC11&lt;&gt;INT(B11:BC11))+(B11:BC11&lt;=0),COLUMN(B11:BC11))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG11" s="188" cm="1">
+        <f t="array" ref="BG11">SUMPRODUCT(--(B11:AI11=INT(B11:AI11)),--(B11:AI11&gt;0))/34*100%</f>
         <v>0.205882352941176</v>
       </c>
-      <c r="AN11" s="188">
-        <f t="shared" ref="AN11:AP11" si="8">RANK(AJ11,AJ$3:AJ$53,0)</f>
+      <c r="BH11" s="189">
+        <f t="shared" ref="BH11:BJ11" si="8">RANK(BD11,BD$3:BD$53,0)</f>
         <v>18</v>
       </c>
-      <c r="AO11" s="188">
+      <c r="BI11" s="189">
         <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="AP11" s="188">
+        <v>17</v>
+      </c>
+      <c r="BJ11" s="189">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:42">
+    <row r="12" customHeight="1" spans="1:62">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -10181,36 +10418,56 @@
       <c r="AG12" s="120"/>
       <c r="AH12" s="120"/>
       <c r="AI12" s="120"/>
-      <c r="AJ12" s="186">
+      <c r="AJ12" s="120"/>
+      <c r="AK12" s="120"/>
+      <c r="AL12" s="120"/>
+      <c r="AM12" s="120"/>
+      <c r="AN12" s="120"/>
+      <c r="AO12" s="120"/>
+      <c r="AP12" s="120"/>
+      <c r="AQ12" s="120"/>
+      <c r="AR12" s="120"/>
+      <c r="AS12" s="120"/>
+      <c r="AT12" s="120"/>
+      <c r="AU12" s="120"/>
+      <c r="AV12" s="120"/>
+      <c r="AW12" s="120"/>
+      <c r="AX12" s="120"/>
+      <c r="AY12" s="120"/>
+      <c r="AZ12" s="120"/>
+      <c r="BA12" s="120"/>
+      <c r="BB12" s="120"/>
+      <c r="BC12" s="120"/>
+      <c r="BD12" s="187">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AK12" s="186" cm="1">
-        <f t="array" ref="AK12">SUMPRODUCT(--(B12:AI12=INT(B12:AI12)),--(B12:AI12&gt;0))</f>
+      <c r="BE12" s="187" cm="1">
+        <f t="array" ref="BE12">SUMPRODUCT(--(B12:BC12=INT(B12:BC12)),--(B12:BC12&gt;0))</f>
         <v>2</v>
       </c>
-      <c r="AL12" s="186" cm="1">
-        <f t="array" ref="AL12">MAX(FREQUENCY(IF((B12:AI12=INT(B12:AI12))*(B12:AI12&gt;0),COLUMN(B12:AI12)),IF((B12:AI12&lt;&gt;INT(B12:AI12))+(B12:AI12&lt;=0),COLUMN(B12:AI12))))</f>
-        <v>1</v>
-      </c>
-      <c r="AM12" s="187" cm="1">
-        <f t="array" ref="AM12">SUMPRODUCT(--(B12:AI12=INT(B12:AI12)),--(B12:AI12&gt;0))/34*100%</f>
+      <c r="BF12" s="187" cm="1">
+        <f t="array" ref="BF12">MAX(FREQUENCY(IF((B12:BC12=INT(B12:BC12))*(B12:BC12&gt;0),COLUMN(B12:BC12)),IF((B12:BC12&lt;&gt;INT(B12:BC12))+(B12:BC12&lt;=0),COLUMN(B12:BC12))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG12" s="188" cm="1">
+        <f t="array" ref="BG12">SUMPRODUCT(--(B12:AI12=INT(B12:AI12)),--(B12:AI12&gt;0))/34*100%</f>
         <v>0.0588235294117647</v>
       </c>
-      <c r="AN12" s="188">
-        <f t="shared" ref="AN12:AP12" si="9">RANK(AJ12,AJ$3:AJ$53,0)</f>
-        <v>28</v>
-      </c>
-      <c r="AO12" s="188">
+      <c r="BH12" s="189">
+        <f t="shared" ref="BH12:BJ12" si="9">RANK(BD12,BD$3:BD$53,0)</f>
+        <v>29</v>
+      </c>
+      <c r="BI12" s="189">
         <f t="shared" si="9"/>
-        <v>28</v>
-      </c>
-      <c r="AP12" s="188">
+        <v>29</v>
+      </c>
+      <c r="BJ12" s="189">
         <f t="shared" si="9"/>
         <v>19</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:42">
+    <row r="13" customHeight="1" spans="1:62">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -10264,36 +10521,58 @@
       <c r="AG13" s="120"/>
       <c r="AH13" s="120"/>
       <c r="AI13" s="120"/>
-      <c r="AJ13" s="186">
+      <c r="AJ13" s="120">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="120"/>
+      <c r="AL13" s="120"/>
+      <c r="AM13" s="120"/>
+      <c r="AN13" s="120"/>
+      <c r="AO13" s="120"/>
+      <c r="AP13" s="120"/>
+      <c r="AQ13" s="120"/>
+      <c r="AR13" s="120"/>
+      <c r="AS13" s="120"/>
+      <c r="AT13" s="120"/>
+      <c r="AU13" s="120"/>
+      <c r="AV13" s="120"/>
+      <c r="AW13" s="120"/>
+      <c r="AX13" s="120"/>
+      <c r="AY13" s="120"/>
+      <c r="AZ13" s="120"/>
+      <c r="BA13" s="120"/>
+      <c r="BB13" s="120"/>
+      <c r="BC13" s="120"/>
+      <c r="BD13" s="187">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AK13" s="186" cm="1">
-        <f t="array" ref="AK13">SUMPRODUCT(--(B13:AI13=INT(B13:AI13)),--(B13:AI13&gt;0))</f>
-        <v>8</v>
-      </c>
-      <c r="AL13" s="186" cm="1">
-        <f t="array" ref="AL13">MAX(FREQUENCY(IF((B13:AI13=INT(B13:AI13))*(B13:AI13&gt;0),COLUMN(B13:AI13)),IF((B13:AI13&lt;&gt;INT(B13:AI13))+(B13:AI13&lt;=0),COLUMN(B13:AI13))))</f>
-        <v>1</v>
-      </c>
-      <c r="AM13" s="187" cm="1">
-        <f t="array" ref="AM13">SUMPRODUCT(--(B13:AI13=INT(B13:AI13)),--(B13:AI13&gt;0))/34*100%</f>
+        <v>9</v>
+      </c>
+      <c r="BE13" s="187" cm="1">
+        <f t="array" ref="BE13">SUMPRODUCT(--(B13:BC13=INT(B13:BC13)),--(B13:BC13&gt;0))</f>
+        <v>9</v>
+      </c>
+      <c r="BF13" s="187" cm="1">
+        <f t="array" ref="BF13">MAX(FREQUENCY(IF((B13:BC13=INT(B13:BC13))*(B13:BC13&gt;0),COLUMN(B13:BC13)),IF((B13:BC13&lt;&gt;INT(B13:BC13))+(B13:BC13&lt;=0),COLUMN(B13:BC13))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG13" s="188" cm="1">
+        <f t="array" ref="BG13">SUMPRODUCT(--(B13:AI13=INT(B13:AI13)),--(B13:AI13&gt;0))/34*100%</f>
         <v>0.235294117647059</v>
       </c>
-      <c r="AN13" s="188">
-        <f t="shared" ref="AN13:AP13" si="10">RANK(AJ13,AJ$3:AJ$53,0)</f>
-        <v>13</v>
-      </c>
-      <c r="AO13" s="188">
+      <c r="BH13" s="189">
+        <f t="shared" ref="BH13:BJ13" si="10">RANK(BD13,BD$3:BD$53,0)</f>
+        <v>12</v>
+      </c>
+      <c r="BI13" s="189">
         <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="AP13" s="188">
+        <v>10</v>
+      </c>
+      <c r="BJ13" s="189">
         <f t="shared" si="10"/>
         <v>19</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:42">
+    <row r="14" customHeight="1" spans="1:62">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -10335,36 +10614,56 @@
       <c r="AG14" s="120"/>
       <c r="AH14" s="120"/>
       <c r="AI14" s="120"/>
-      <c r="AJ14" s="186">
+      <c r="AJ14" s="120"/>
+      <c r="AK14" s="120"/>
+      <c r="AL14" s="120"/>
+      <c r="AM14" s="120"/>
+      <c r="AN14" s="120"/>
+      <c r="AO14" s="120"/>
+      <c r="AP14" s="120"/>
+      <c r="AQ14" s="120"/>
+      <c r="AR14" s="120"/>
+      <c r="AS14" s="120"/>
+      <c r="AT14" s="120"/>
+      <c r="AU14" s="120"/>
+      <c r="AV14" s="120"/>
+      <c r="AW14" s="120"/>
+      <c r="AX14" s="120"/>
+      <c r="AY14" s="120"/>
+      <c r="AZ14" s="120"/>
+      <c r="BA14" s="120"/>
+      <c r="BB14" s="120"/>
+      <c r="BC14" s="120"/>
+      <c r="BD14" s="187">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AK14" s="186" cm="1">
-        <f t="array" ref="AK14">SUMPRODUCT(--(B14:AI14=INT(B14:AI14)),--(B14:AI14&gt;0))</f>
+      <c r="BE14" s="187" cm="1">
+        <f t="array" ref="BE14">SUMPRODUCT(--(B14:BC14=INT(B14:BC14)),--(B14:BC14&gt;0))</f>
         <v>2</v>
       </c>
-      <c r="AL14" s="186" cm="1">
-        <f t="array" ref="AL14">MAX(FREQUENCY(IF((B14:AI14=INT(B14:AI14))*(B14:AI14&gt;0),COLUMN(B14:AI14)),IF((B14:AI14&lt;&gt;INT(B14:AI14))+(B14:AI14&lt;=0),COLUMN(B14:AI14))))</f>
-        <v>1</v>
-      </c>
-      <c r="AM14" s="187" cm="1">
-        <f t="array" ref="AM14">SUMPRODUCT(--(B14:AI14=INT(B14:AI14)),--(B14:AI14&gt;0))/34*100%</f>
+      <c r="BF14" s="187" cm="1">
+        <f t="array" ref="BF14">MAX(FREQUENCY(IF((B14:BC14=INT(B14:BC14))*(B14:BC14&gt;0),COLUMN(B14:BC14)),IF((B14:BC14&lt;&gt;INT(B14:BC14))+(B14:BC14&lt;=0),COLUMN(B14:BC14))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG14" s="188" cm="1">
+        <f t="array" ref="BG14">SUMPRODUCT(--(B14:AI14=INT(B14:AI14)),--(B14:AI14&gt;0))/34*100%</f>
         <v>0.0588235294117647</v>
       </c>
-      <c r="AN14" s="188">
-        <f t="shared" ref="AN14:AP14" si="11">RANK(AJ14,AJ$3:AJ$53,0)</f>
-        <v>28</v>
-      </c>
-      <c r="AO14" s="188">
+      <c r="BH14" s="189">
+        <f t="shared" ref="BH14:BJ14" si="11">RANK(BD14,BD$3:BD$53,0)</f>
+        <v>29</v>
+      </c>
+      <c r="BI14" s="189">
         <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="AP14" s="188">
+        <v>29</v>
+      </c>
+      <c r="BJ14" s="189">
         <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:42">
+    <row r="15" customHeight="1" spans="1:62">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -10420,36 +10719,56 @@
       <c r="AG15" s="120"/>
       <c r="AH15" s="120"/>
       <c r="AI15" s="120"/>
-      <c r="AJ15" s="186">
+      <c r="AJ15" s="120"/>
+      <c r="AK15" s="120"/>
+      <c r="AL15" s="120"/>
+      <c r="AM15" s="120"/>
+      <c r="AN15" s="120"/>
+      <c r="AO15" s="120"/>
+      <c r="AP15" s="120"/>
+      <c r="AQ15" s="120"/>
+      <c r="AR15" s="120"/>
+      <c r="AS15" s="120"/>
+      <c r="AT15" s="120"/>
+      <c r="AU15" s="120"/>
+      <c r="AV15" s="120"/>
+      <c r="AW15" s="120"/>
+      <c r="AX15" s="120"/>
+      <c r="AY15" s="120"/>
+      <c r="AZ15" s="120"/>
+      <c r="BA15" s="120"/>
+      <c r="BB15" s="120"/>
+      <c r="BC15" s="120"/>
+      <c r="BD15" s="187">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AK15" s="186" cm="1">
-        <f t="array" ref="AK15">SUMPRODUCT(--(B15:AI15=INT(B15:AI15)),--(B15:AI15&gt;0))</f>
+      <c r="BE15" s="187" cm="1">
+        <f t="array" ref="BE15">SUMPRODUCT(--(B15:BC15=INT(B15:BC15)),--(B15:BC15&gt;0))</f>
         <v>9</v>
       </c>
-      <c r="AL15" s="186" cm="1">
-        <f t="array" ref="AL15">MAX(FREQUENCY(IF((B15:AI15=INT(B15:AI15))*(B15:AI15&gt;0),COLUMN(B15:AI15)),IF((B15:AI15&lt;&gt;INT(B15:AI15))+(B15:AI15&lt;=0),COLUMN(B15:AI15))))</f>
+      <c r="BF15" s="187" cm="1">
+        <f t="array" ref="BF15">MAX(FREQUENCY(IF((B15:BC15=INT(B15:BC15))*(B15:BC15&gt;0),COLUMN(B15:BC15)),IF((B15:BC15&lt;&gt;INT(B15:BC15))+(B15:BC15&lt;=0),COLUMN(B15:BC15))))</f>
         <v>2</v>
       </c>
-      <c r="AM15" s="187" cm="1">
-        <f t="array" ref="AM15">SUMPRODUCT(--(B15:AI15=INT(B15:AI15)),--(B15:AI15&gt;0))/34*100%</f>
+      <c r="BG15" s="188" cm="1">
+        <f t="array" ref="BG15">SUMPRODUCT(--(B15:AI15=INT(B15:AI15)),--(B15:AI15&gt;0))/34*100%</f>
         <v>0.264705882352941</v>
       </c>
-      <c r="AN15" s="188">
-        <f t="shared" ref="AN15:AP15" si="12">RANK(AJ15,AJ$3:AJ$53,0)</f>
-        <v>9</v>
-      </c>
-      <c r="AO15" s="188">
+      <c r="BH15" s="189">
+        <f t="shared" ref="BH15:BJ15" si="12">RANK(BD15,BD$3:BD$53,0)</f>
+        <v>11</v>
+      </c>
+      <c r="BI15" s="189">
         <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="AP15" s="188">
+        <v>10</v>
+      </c>
+      <c r="BJ15" s="189">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:42">
+    <row r="16" customHeight="1" spans="1:62">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -10491,36 +10810,56 @@
       <c r="AG16" s="120"/>
       <c r="AH16" s="120"/>
       <c r="AI16" s="120"/>
-      <c r="AJ16" s="186">
+      <c r="AJ16" s="120"/>
+      <c r="AK16" s="120"/>
+      <c r="AL16" s="120"/>
+      <c r="AM16" s="120"/>
+      <c r="AN16" s="120"/>
+      <c r="AO16" s="120"/>
+      <c r="AP16" s="120"/>
+      <c r="AQ16" s="120"/>
+      <c r="AR16" s="120"/>
+      <c r="AS16" s="120"/>
+      <c r="AT16" s="120"/>
+      <c r="AU16" s="120"/>
+      <c r="AV16" s="120"/>
+      <c r="AW16" s="120"/>
+      <c r="AX16" s="120"/>
+      <c r="AY16" s="120"/>
+      <c r="AZ16" s="120"/>
+      <c r="BA16" s="120"/>
+      <c r="BB16" s="120"/>
+      <c r="BC16" s="120"/>
+      <c r="BD16" s="187">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AK16" s="186" cm="1">
-        <f t="array" ref="AK16">SUMPRODUCT(--(B16:AI16=INT(B16:AI16)),--(B16:AI16&gt;0))</f>
+      <c r="BE16" s="187" cm="1">
+        <f t="array" ref="BE16">SUMPRODUCT(--(B16:BC16=INT(B16:BC16)),--(B16:BC16&gt;0))</f>
         <v>2</v>
       </c>
-      <c r="AL16" s="186" cm="1">
-        <f t="array" ref="AL16">MAX(FREQUENCY(IF((B16:AI16=INT(B16:AI16))*(B16:AI16&gt;0),COLUMN(B16:AI16)),IF((B16:AI16&lt;&gt;INT(B16:AI16))+(B16:AI16&lt;=0),COLUMN(B16:AI16))))</f>
-        <v>1</v>
-      </c>
-      <c r="AM16" s="187" cm="1">
-        <f t="array" ref="AM16">SUMPRODUCT(--(B16:AI16=INT(B16:AI16)),--(B16:AI16&gt;0))/34*100%</f>
+      <c r="BF16" s="187" cm="1">
+        <f t="array" ref="BF16">MAX(FREQUENCY(IF((B16:BC16=INT(B16:BC16))*(B16:BC16&gt;0),COLUMN(B16:BC16)),IF((B16:BC16&lt;&gt;INT(B16:BC16))+(B16:BC16&lt;=0),COLUMN(B16:BC16))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG16" s="188" cm="1">
+        <f t="array" ref="BG16">SUMPRODUCT(--(B16:AI16=INT(B16:AI16)),--(B16:AI16&gt;0))/34*100%</f>
         <v>0.0588235294117647</v>
       </c>
-      <c r="AN16" s="188">
-        <f t="shared" ref="AN16:AP16" si="13">RANK(AJ16,AJ$3:AJ$53,0)</f>
-        <v>28</v>
-      </c>
-      <c r="AO16" s="188">
+      <c r="BH16" s="189">
+        <f t="shared" ref="BH16:BJ16" si="13">RANK(BD16,BD$3:BD$53,0)</f>
+        <v>29</v>
+      </c>
+      <c r="BI16" s="189">
         <f t="shared" si="13"/>
-        <v>28</v>
-      </c>
-      <c r="AP16" s="188">
+        <v>29</v>
+      </c>
+      <c r="BJ16" s="189">
         <f t="shared" si="13"/>
         <v>19</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:42">
+    <row r="17" customHeight="1" spans="1:62">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -10564,36 +10903,58 @@
       <c r="AG17" s="120"/>
       <c r="AH17" s="120"/>
       <c r="AI17" s="120"/>
-      <c r="AJ17" s="186">
+      <c r="AJ17" s="120">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="120"/>
+      <c r="AL17" s="120"/>
+      <c r="AM17" s="120"/>
+      <c r="AN17" s="120"/>
+      <c r="AO17" s="120"/>
+      <c r="AP17" s="120"/>
+      <c r="AQ17" s="120"/>
+      <c r="AR17" s="120"/>
+      <c r="AS17" s="120"/>
+      <c r="AT17" s="120"/>
+      <c r="AU17" s="120"/>
+      <c r="AV17" s="120"/>
+      <c r="AW17" s="120"/>
+      <c r="AX17" s="120"/>
+      <c r="AY17" s="120"/>
+      <c r="AZ17" s="120"/>
+      <c r="BA17" s="120"/>
+      <c r="BB17" s="120"/>
+      <c r="BC17" s="120"/>
+      <c r="BD17" s="187">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AK17" s="186" cm="1">
-        <f t="array" ref="AK17">SUMPRODUCT(--(B17:AI17=INT(B17:AI17)),--(B17:AI17&gt;0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL17" s="186" cm="1">
-        <f t="array" ref="AL17">MAX(FREQUENCY(IF((B17:AI17=INT(B17:AI17))*(B17:AI17&gt;0),COLUMN(B17:AI17)),IF((B17:AI17&lt;&gt;INT(B17:AI17))+(B17:AI17&lt;=0),COLUMN(B17:AI17))))</f>
-        <v>1</v>
-      </c>
-      <c r="AM17" s="187" cm="1">
-        <f t="array" ref="AM17">SUMPRODUCT(--(B17:AI17=INT(B17:AI17)),--(B17:AI17&gt;0))/34*100%</f>
+        <v>4</v>
+      </c>
+      <c r="BE17" s="187" cm="1">
+        <f t="array" ref="BE17">SUMPRODUCT(--(B17:BC17=INT(B17:BC17)),--(B17:BC17&gt;0))</f>
+        <v>4</v>
+      </c>
+      <c r="BF17" s="187" cm="1">
+        <f t="array" ref="BF17">MAX(FREQUENCY(IF((B17:BC17=INT(B17:BC17))*(B17:BC17&gt;0),COLUMN(B17:BC17)),IF((B17:BC17&lt;&gt;INT(B17:BC17))+(B17:BC17&lt;=0),COLUMN(B17:BC17))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG17" s="188" cm="1">
+        <f t="array" ref="BG17">SUMPRODUCT(--(B17:AI17=INT(B17:AI17)),--(B17:AI17&gt;0))/34*100%</f>
         <v>0.0882352941176471</v>
       </c>
-      <c r="AN17" s="188">
-        <f t="shared" ref="AN17:AP17" si="14">RANK(AJ17,AJ$3:AJ$53,0)</f>
-        <v>25</v>
-      </c>
-      <c r="AO17" s="188">
+      <c r="BH17" s="189">
+        <f t="shared" ref="BH17:BJ17" si="14">RANK(BD17,BD$3:BD$53,0)</f>
+        <v>23</v>
+      </c>
+      <c r="BI17" s="189">
         <f t="shared" si="14"/>
         <v>23</v>
       </c>
-      <c r="AP17" s="188">
+      <c r="BJ17" s="189">
         <f t="shared" si="14"/>
         <v>19</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:42">
+    <row r="18" customHeight="1" spans="1:62">
       <c r="A18" s="120">
         <v>16</v>
       </c>
@@ -10633,36 +10994,56 @@
       <c r="AG18" s="120"/>
       <c r="AH18" s="120"/>
       <c r="AI18" s="120"/>
-      <c r="AJ18" s="186">
+      <c r="AJ18" s="120"/>
+      <c r="AK18" s="120"/>
+      <c r="AL18" s="120"/>
+      <c r="AM18" s="120"/>
+      <c r="AN18" s="120"/>
+      <c r="AO18" s="120"/>
+      <c r="AP18" s="120"/>
+      <c r="AQ18" s="120"/>
+      <c r="AR18" s="120"/>
+      <c r="AS18" s="120"/>
+      <c r="AT18" s="120"/>
+      <c r="AU18" s="120"/>
+      <c r="AV18" s="120"/>
+      <c r="AW18" s="120"/>
+      <c r="AX18" s="120"/>
+      <c r="AY18" s="120"/>
+      <c r="AZ18" s="120"/>
+      <c r="BA18" s="120"/>
+      <c r="BB18" s="120"/>
+      <c r="BC18" s="120"/>
+      <c r="BD18" s="187">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AK18" s="186" cm="1">
-        <f t="array" ref="AK18">SUMPRODUCT(--(B18:AI18=INT(B18:AI18)),--(B18:AI18&gt;0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL18" s="186" cm="1">
-        <f t="array" ref="AL18">MAX(FREQUENCY(IF((B18:AI18=INT(B18:AI18))*(B18:AI18&gt;0),COLUMN(B18:AI18)),IF((B18:AI18&lt;&gt;INT(B18:AI18))+(B18:AI18&lt;=0),COLUMN(B18:AI18))))</f>
-        <v>1</v>
-      </c>
-      <c r="AM18" s="187" cm="1">
-        <f t="array" ref="AM18">SUMPRODUCT(--(B18:AI18=INT(B18:AI18)),--(B18:AI18&gt;0))/34*100%</f>
+      <c r="BE18" s="187" cm="1">
+        <f t="array" ref="BE18">SUMPRODUCT(--(B18:BC18=INT(B18:BC18)),--(B18:BC18&gt;0))</f>
+        <v>1</v>
+      </c>
+      <c r="BF18" s="187" cm="1">
+        <f t="array" ref="BF18">MAX(FREQUENCY(IF((B18:BC18=INT(B18:BC18))*(B18:BC18&gt;0),COLUMN(B18:BC18)),IF((B18:BC18&lt;&gt;INT(B18:BC18))+(B18:BC18&lt;=0),COLUMN(B18:BC18))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG18" s="188" cm="1">
+        <f t="array" ref="BG18">SUMPRODUCT(--(B18:AI18=INT(B18:AI18)),--(B18:AI18&gt;0))/34*100%</f>
         <v>0.0294117647058824</v>
       </c>
-      <c r="AN18" s="188">
-        <f t="shared" ref="AN18:AP18" si="15">RANK(AJ18,AJ$3:AJ$53,0)</f>
+      <c r="BH18" s="189">
+        <f t="shared" ref="BH18:BJ18" si="15">RANK(BD18,BD$3:BD$53,0)</f>
         <v>34</v>
       </c>
-      <c r="AO18" s="188">
+      <c r="BI18" s="189">
         <f t="shared" si="15"/>
         <v>34</v>
       </c>
-      <c r="AP18" s="188">
+      <c r="BJ18" s="189">
         <f t="shared" si="15"/>
         <v>19</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:42">
+    <row r="19" customHeight="1" spans="1:62">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -10710,36 +11091,56 @@
       <c r="AG19" s="120"/>
       <c r="AH19" s="120"/>
       <c r="AI19" s="120"/>
-      <c r="AJ19" s="186">
+      <c r="AJ19" s="120"/>
+      <c r="AK19" s="120"/>
+      <c r="AL19" s="120"/>
+      <c r="AM19" s="120"/>
+      <c r="AN19" s="120"/>
+      <c r="AO19" s="120"/>
+      <c r="AP19" s="120"/>
+      <c r="AQ19" s="120"/>
+      <c r="AR19" s="120"/>
+      <c r="AS19" s="120"/>
+      <c r="AT19" s="120"/>
+      <c r="AU19" s="120"/>
+      <c r="AV19" s="120"/>
+      <c r="AW19" s="120"/>
+      <c r="AX19" s="120"/>
+      <c r="AY19" s="120"/>
+      <c r="AZ19" s="120"/>
+      <c r="BA19" s="120"/>
+      <c r="BB19" s="120"/>
+      <c r="BC19" s="120"/>
+      <c r="BD19" s="187">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AK19" s="186" cm="1">
-        <f t="array" ref="AK19">SUMPRODUCT(--(B19:AI19=INT(B19:AI19)),--(B19:AI19&gt;0))</f>
+      <c r="BE19" s="187" cm="1">
+        <f t="array" ref="BE19">SUMPRODUCT(--(B19:BC19=INT(B19:BC19)),--(B19:BC19&gt;0))</f>
         <v>5</v>
       </c>
-      <c r="AL19" s="186" cm="1">
-        <f t="array" ref="AL19">MAX(FREQUENCY(IF((B19:AI19=INT(B19:AI19))*(B19:AI19&gt;0),COLUMN(B19:AI19)),IF((B19:AI19&lt;&gt;INT(B19:AI19))+(B19:AI19&lt;=0),COLUMN(B19:AI19))))</f>
+      <c r="BF19" s="187" cm="1">
+        <f t="array" ref="BF19">MAX(FREQUENCY(IF((B19:BC19=INT(B19:BC19))*(B19:BC19&gt;0),COLUMN(B19:BC19)),IF((B19:BC19&lt;&gt;INT(B19:BC19))+(B19:BC19&lt;=0),COLUMN(B19:BC19))))</f>
         <v>2</v>
       </c>
-      <c r="AM19" s="187" cm="1">
-        <f t="array" ref="AM19">SUMPRODUCT(--(B19:AI19=INT(B19:AI19)),--(B19:AI19&gt;0))/34*100%</f>
+      <c r="BG19" s="188" cm="1">
+        <f t="array" ref="BG19">SUMPRODUCT(--(B19:AI19=INT(B19:AI19)),--(B19:AI19&gt;0))/34*100%</f>
         <v>0.147058823529412</v>
       </c>
-      <c r="AN19" s="188">
-        <f t="shared" ref="AN19:AP19" si="16">RANK(AJ19,AJ$3:AJ$53,0)</f>
+      <c r="BH19" s="189">
+        <f t="shared" ref="BH19:BJ19" si="16">RANK(BD19,BD$3:BD$53,0)</f>
         <v>20</v>
       </c>
-      <c r="AO19" s="188">
+      <c r="BI19" s="189">
         <f t="shared" si="16"/>
         <v>20</v>
       </c>
-      <c r="AP19" s="188">
+      <c r="BJ19" s="189">
         <f t="shared" si="16"/>
         <v>13</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:42">
+    <row r="20" customHeight="1" spans="1:62">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -10779,36 +11180,56 @@
       <c r="AG20" s="120"/>
       <c r="AH20" s="120"/>
       <c r="AI20" s="120"/>
-      <c r="AJ20" s="186">
+      <c r="AJ20" s="120"/>
+      <c r="AK20" s="120"/>
+      <c r="AL20" s="120"/>
+      <c r="AM20" s="120"/>
+      <c r="AN20" s="120"/>
+      <c r="AO20" s="120"/>
+      <c r="AP20" s="120"/>
+      <c r="AQ20" s="120"/>
+      <c r="AR20" s="120"/>
+      <c r="AS20" s="120"/>
+      <c r="AT20" s="120"/>
+      <c r="AU20" s="120"/>
+      <c r="AV20" s="120"/>
+      <c r="AW20" s="120"/>
+      <c r="AX20" s="120"/>
+      <c r="AY20" s="120"/>
+      <c r="AZ20" s="120"/>
+      <c r="BA20" s="120"/>
+      <c r="BB20" s="120"/>
+      <c r="BC20" s="120"/>
+      <c r="BD20" s="187">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AK20" s="186" cm="1">
-        <f t="array" ref="AK20">SUMPRODUCT(--(B20:AI20=INT(B20:AI20)),--(B20:AI20&gt;0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL20" s="186" cm="1">
-        <f t="array" ref="AL20">MAX(FREQUENCY(IF((B20:AI20=INT(B20:AI20))*(B20:AI20&gt;0),COLUMN(B20:AI20)),IF((B20:AI20&lt;&gt;INT(B20:AI20))+(B20:AI20&lt;=0),COLUMN(B20:AI20))))</f>
-        <v>1</v>
-      </c>
-      <c r="AM20" s="187" cm="1">
-        <f t="array" ref="AM20">SUMPRODUCT(--(B20:AI20=INT(B20:AI20)),--(B20:AI20&gt;0))/34*100%</f>
+      <c r="BE20" s="187" cm="1">
+        <f t="array" ref="BE20">SUMPRODUCT(--(B20:BC20=INT(B20:BC20)),--(B20:BC20&gt;0))</f>
+        <v>1</v>
+      </c>
+      <c r="BF20" s="187" cm="1">
+        <f t="array" ref="BF20">MAX(FREQUENCY(IF((B20:BC20=INT(B20:BC20))*(B20:BC20&gt;0),COLUMN(B20:BC20)),IF((B20:BC20&lt;&gt;INT(B20:BC20))+(B20:BC20&lt;=0),COLUMN(B20:BC20))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG20" s="188" cm="1">
+        <f t="array" ref="BG20">SUMPRODUCT(--(B20:AI20=INT(B20:AI20)),--(B20:AI20&gt;0))/34*100%</f>
         <v>0.0294117647058824</v>
       </c>
-      <c r="AN20" s="188">
-        <f t="shared" ref="AN20:AP20" si="17">RANK(AJ20,AJ$3:AJ$53,0)</f>
+      <c r="BH20" s="189">
+        <f t="shared" ref="BH20:BJ20" si="17">RANK(BD20,BD$3:BD$53,0)</f>
         <v>34</v>
       </c>
-      <c r="AO20" s="188">
+      <c r="BI20" s="189">
         <f t="shared" si="17"/>
         <v>34</v>
       </c>
-      <c r="AP20" s="188">
+      <c r="BJ20" s="189">
         <f t="shared" si="17"/>
         <v>19</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:42">
+    <row r="21" customHeight="1" spans="1:62">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -10850,36 +11271,56 @@
       <c r="AG21" s="120"/>
       <c r="AH21" s="120"/>
       <c r="AI21" s="120"/>
-      <c r="AJ21" s="186">
+      <c r="AJ21" s="120"/>
+      <c r="AK21" s="120"/>
+      <c r="AL21" s="120"/>
+      <c r="AM21" s="120"/>
+      <c r="AN21" s="120"/>
+      <c r="AO21" s="120"/>
+      <c r="AP21" s="120"/>
+      <c r="AQ21" s="120"/>
+      <c r="AR21" s="120"/>
+      <c r="AS21" s="120"/>
+      <c r="AT21" s="120"/>
+      <c r="AU21" s="120"/>
+      <c r="AV21" s="120"/>
+      <c r="AW21" s="120"/>
+      <c r="AX21" s="120"/>
+      <c r="AY21" s="120"/>
+      <c r="AZ21" s="120"/>
+      <c r="BA21" s="120"/>
+      <c r="BB21" s="120"/>
+      <c r="BC21" s="120"/>
+      <c r="BD21" s="187">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AK21" s="186" cm="1">
-        <f t="array" ref="AK21">SUMPRODUCT(--(B21:AI21=INT(B21:AI21)),--(B21:AI21&gt;0))</f>
+      <c r="BE21" s="187" cm="1">
+        <f t="array" ref="BE21">SUMPRODUCT(--(B21:BC21=INT(B21:BC21)),--(B21:BC21&gt;0))</f>
         <v>2</v>
       </c>
-      <c r="AL21" s="186" cm="1">
-        <f t="array" ref="AL21">MAX(FREQUENCY(IF((B21:AI21=INT(B21:AI21))*(B21:AI21&gt;0),COLUMN(B21:AI21)),IF((B21:AI21&lt;&gt;INT(B21:AI21))+(B21:AI21&lt;=0),COLUMN(B21:AI21))))</f>
-        <v>1</v>
-      </c>
-      <c r="AM21" s="187" cm="1">
-        <f t="array" ref="AM21">SUMPRODUCT(--(B21:AI21=INT(B21:AI21)),--(B21:AI21&gt;0))/34*100%</f>
+      <c r="BF21" s="187" cm="1">
+        <f t="array" ref="BF21">MAX(FREQUENCY(IF((B21:BC21=INT(B21:BC21))*(B21:BC21&gt;0),COLUMN(B21:BC21)),IF((B21:BC21&lt;&gt;INT(B21:BC21))+(B21:BC21&lt;=0),COLUMN(B21:BC21))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG21" s="188" cm="1">
+        <f t="array" ref="BG21">SUMPRODUCT(--(B21:AI21=INT(B21:AI21)),--(B21:AI21&gt;0))/34*100%</f>
         <v>0.0588235294117647</v>
       </c>
-      <c r="AN21" s="188">
-        <f t="shared" ref="AN21:AP21" si="18">RANK(AJ21,AJ$3:AJ$53,0)</f>
-        <v>28</v>
-      </c>
-      <c r="AO21" s="188">
+      <c r="BH21" s="189">
+        <f t="shared" ref="BH21:BJ21" si="18">RANK(BD21,BD$3:BD$53,0)</f>
+        <v>29</v>
+      </c>
+      <c r="BI21" s="189">
         <f t="shared" si="18"/>
-        <v>28</v>
-      </c>
-      <c r="AP21" s="188">
+        <v>29</v>
+      </c>
+      <c r="BJ21" s="189">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:42">
+    <row r="22" customHeight="1" spans="1:62">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -10937,37 +11378,59 @@
       <c r="AG22" s="120"/>
       <c r="AH22" s="120"/>
       <c r="AI22" s="120"/>
-      <c r="AJ22" s="186">
+      <c r="AJ22" s="120">
+        <v>2</v>
+      </c>
+      <c r="AK22" s="120"/>
+      <c r="AL22" s="120"/>
+      <c r="AM22" s="120"/>
+      <c r="AN22" s="120"/>
+      <c r="AO22" s="120"/>
+      <c r="AP22" s="120"/>
+      <c r="AQ22" s="120"/>
+      <c r="AR22" s="120"/>
+      <c r="AS22" s="120"/>
+      <c r="AT22" s="120"/>
+      <c r="AU22" s="120"/>
+      <c r="AV22" s="120"/>
+      <c r="AW22" s="120"/>
+      <c r="AX22" s="120"/>
+      <c r="AY22" s="120"/>
+      <c r="AZ22" s="120"/>
+      <c r="BA22" s="120"/>
+      <c r="BB22" s="120"/>
+      <c r="BC22" s="120"/>
+      <c r="BD22" s="187">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="AK22" s="186" cm="1">
-        <f t="array" ref="AK22">SUMPRODUCT(--(B22:AI22=INT(B22:AI22)),--(B22:AI22&gt;0))</f>
-        <v>10</v>
-      </c>
-      <c r="AL22" s="186" cm="1">
-        <f t="array" ref="AL22">MAX(FREQUENCY(IF((B22:AI22=INT(B22:AI22))*(B22:AI22&gt;0),COLUMN(B22:AI22)),IF((B22:AI22&lt;&gt;INT(B22:AI22))+(B22:AI22&lt;=0),COLUMN(B22:AI22))))</f>
+        <v>14</v>
+      </c>
+      <c r="BE22" s="187" cm="1">
+        <f t="array" ref="BE22">SUMPRODUCT(--(B22:BC22=INT(B22:BC22)),--(B22:BC22&gt;0))</f>
+        <v>11</v>
+      </c>
+      <c r="BF22" s="187" cm="1">
+        <f t="array" ref="BF22">MAX(FREQUENCY(IF((B22:BC22=INT(B22:BC22))*(B22:BC22&gt;0),COLUMN(B22:BC22)),IF((B22:BC22&lt;&gt;INT(B22:BC22))+(B22:BC22&lt;=0),COLUMN(B22:BC22))))</f>
         <v>4</v>
       </c>
-      <c r="AM22" s="187" cm="1">
-        <f t="array" ref="AM22">SUMPRODUCT(--(B22:AI22=INT(B22:AI22)),--(B22:AI22&gt;0))/34*100%</f>
+      <c r="BG22" s="188" cm="1">
+        <f t="array" ref="BG22">SUMPRODUCT(--(B22:AI22=INT(B22:AI22)),--(B22:AI22&gt;0))/34*100%</f>
         <v>0.294117647058824</v>
       </c>
-      <c r="AN22" s="188">
-        <f t="shared" ref="AN22:AP22" si="19">RANK(AJ22,AJ$3:AJ$53,0)</f>
+      <c r="BH22" s="189">
+        <f t="shared" ref="BH22:BJ22" si="19">RANK(BD22,BD$3:BD$53,0)</f>
         <v>6</v>
       </c>
-      <c r="AO22" s="188">
-        <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="AP22" s="188">
+      <c r="BI22" s="189">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:42">
-      <c r="A23" s="189">
+      <c r="BJ22" s="189">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:62">
+      <c r="A23" s="190">
         <v>21</v>
       </c>
       <c r="B23" s="120"/>
@@ -11004,36 +11467,56 @@
       <c r="AG23" s="120"/>
       <c r="AH23" s="120"/>
       <c r="AI23" s="120"/>
-      <c r="AJ23" s="186">
+      <c r="AJ23" s="120"/>
+      <c r="AK23" s="120"/>
+      <c r="AL23" s="120"/>
+      <c r="AM23" s="120"/>
+      <c r="AN23" s="120"/>
+      <c r="AO23" s="120"/>
+      <c r="AP23" s="120"/>
+      <c r="AQ23" s="120"/>
+      <c r="AR23" s="120"/>
+      <c r="AS23" s="120"/>
+      <c r="AT23" s="120"/>
+      <c r="AU23" s="120"/>
+      <c r="AV23" s="120"/>
+      <c r="AW23" s="120"/>
+      <c r="AX23" s="120"/>
+      <c r="AY23" s="120"/>
+      <c r="AZ23" s="120"/>
+      <c r="BA23" s="120"/>
+      <c r="BB23" s="120"/>
+      <c r="BC23" s="120"/>
+      <c r="BD23" s="187">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK23" s="186" cm="1">
-        <f t="array" ref="AK23">SUMPRODUCT(--(B23:AI23=INT(B23:AI23)),--(B23:AI23&gt;0))</f>
+      <c r="BE23" s="187" cm="1">
+        <f t="array" ref="BE23">SUMPRODUCT(--(B23:BC23=INT(B23:BC23)),--(B23:BC23&gt;0))</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="186" cm="1">
-        <f t="array" ref="AL23">MAX(FREQUENCY(IF((B23:AI23=INT(B23:AI23))*(B23:AI23&gt;0),COLUMN(B23:AI23)),IF((B23:AI23&lt;&gt;INT(B23:AI23))+(B23:AI23&lt;=0),COLUMN(B23:AI23))))</f>
+      <c r="BF23" s="187" cm="1">
+        <f t="array" ref="BF23">MAX(FREQUENCY(IF((B23:BC23=INT(B23:BC23))*(B23:BC23&gt;0),COLUMN(B23:BC23)),IF((B23:BC23&lt;&gt;INT(B23:BC23))+(B23:BC23&lt;=0),COLUMN(B23:BC23))))</f>
         <v>0</v>
       </c>
-      <c r="AM23" s="187" cm="1">
-        <f t="array" ref="AM23">SUMPRODUCT(--(B23:AI23=INT(B23:AI23)),--(B23:AI23&gt;0))/34*100%</f>
+      <c r="BG23" s="188" cm="1">
+        <f t="array" ref="BG23">SUMPRODUCT(--(B23:AI23=INT(B23:AI23)),--(B23:AI23&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="AN23" s="188">
-        <f t="shared" ref="AN23:AP23" si="20">RANK(AJ23,AJ$3:AJ$53,0)</f>
-        <v>40</v>
-      </c>
-      <c r="AO23" s="188">
+      <c r="BH23" s="189">
+        <f t="shared" ref="BH23:BJ23" si="20">RANK(BD23,BD$3:BD$53,0)</f>
+        <v>41</v>
+      </c>
+      <c r="BI23" s="189">
         <f t="shared" si="20"/>
-        <v>40</v>
-      </c>
-      <c r="AP23" s="188">
+        <v>41</v>
+      </c>
+      <c r="BJ23" s="189">
         <f t="shared" si="20"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:62">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -11087,36 +11570,56 @@
       <c r="AG24" s="120"/>
       <c r="AH24" s="120"/>
       <c r="AI24" s="120"/>
-      <c r="AJ24" s="186">
+      <c r="AJ24" s="120"/>
+      <c r="AK24" s="120"/>
+      <c r="AL24" s="120"/>
+      <c r="AM24" s="120"/>
+      <c r="AN24" s="120"/>
+      <c r="AO24" s="120"/>
+      <c r="AP24" s="120"/>
+      <c r="AQ24" s="120"/>
+      <c r="AR24" s="120"/>
+      <c r="AS24" s="120"/>
+      <c r="AT24" s="120"/>
+      <c r="AU24" s="120"/>
+      <c r="AV24" s="120"/>
+      <c r="AW24" s="120"/>
+      <c r="AX24" s="120"/>
+      <c r="AY24" s="120"/>
+      <c r="AZ24" s="120"/>
+      <c r="BA24" s="120"/>
+      <c r="BB24" s="120"/>
+      <c r="BC24" s="120"/>
+      <c r="BD24" s="187">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AK24" s="186" cm="1">
-        <f t="array" ref="AK24">SUMPRODUCT(--(B24:AI24=INT(B24:AI24)),--(B24:AI24&gt;0))</f>
+      <c r="BE24" s="187" cm="1">
+        <f t="array" ref="BE24">SUMPRODUCT(--(B24:BC24=INT(B24:BC24)),--(B24:BC24&gt;0))</f>
         <v>8</v>
       </c>
-      <c r="AL24" s="186" cm="1">
-        <f t="array" ref="AL24">MAX(FREQUENCY(IF((B24:AI24=INT(B24:AI24))*(B24:AI24&gt;0),COLUMN(B24:AI24)),IF((B24:AI24&lt;&gt;INT(B24:AI24))+(B24:AI24&lt;=0),COLUMN(B24:AI24))))</f>
+      <c r="BF24" s="187" cm="1">
+        <f t="array" ref="BF24">MAX(FREQUENCY(IF((B24:BC24=INT(B24:BC24))*(B24:BC24&gt;0),COLUMN(B24:BC24)),IF((B24:BC24&lt;&gt;INT(B24:BC24))+(B24:BC24&lt;=0),COLUMN(B24:BC24))))</f>
         <v>3</v>
       </c>
-      <c r="AM24" s="187" cm="1">
-        <f t="array" ref="AM24">SUMPRODUCT(--(B24:AI24=INT(B24:AI24)),--(B24:AI24&gt;0))/34*100%</f>
+      <c r="BG24" s="188" cm="1">
+        <f t="array" ref="BG24">SUMPRODUCT(--(B24:AI24=INT(B24:AI24)),--(B24:AI24&gt;0))/34*100%</f>
         <v>0.235294117647059</v>
       </c>
-      <c r="AN24" s="188">
-        <f t="shared" ref="AN24:AP24" si="21">RANK(AJ24,AJ$3:AJ$53,0)</f>
-        <v>13</v>
-      </c>
-      <c r="AO24" s="188">
+      <c r="BH24" s="189">
+        <f t="shared" ref="BH24:BJ24" si="21">RANK(BD24,BD$3:BD$53,0)</f>
+        <v>16</v>
+      </c>
+      <c r="BI24" s="189">
         <f t="shared" si="21"/>
-        <v>12</v>
-      </c>
-      <c r="AP24" s="188">
+        <v>15</v>
+      </c>
+      <c r="BJ24" s="189">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:42">
+    <row r="25" customHeight="1" spans="1:62">
       <c r="A25" s="120">
         <v>23</v>
       </c>
@@ -11156,37 +11659,57 @@
       <c r="AG25" s="120"/>
       <c r="AH25" s="120"/>
       <c r="AI25" s="120"/>
-      <c r="AJ25" s="186">
+      <c r="AJ25" s="120"/>
+      <c r="AK25" s="120"/>
+      <c r="AL25" s="120"/>
+      <c r="AM25" s="120"/>
+      <c r="AN25" s="120"/>
+      <c r="AO25" s="120"/>
+      <c r="AP25" s="120"/>
+      <c r="AQ25" s="120"/>
+      <c r="AR25" s="120"/>
+      <c r="AS25" s="120"/>
+      <c r="AT25" s="120"/>
+      <c r="AU25" s="120"/>
+      <c r="AV25" s="120"/>
+      <c r="AW25" s="120"/>
+      <c r="AX25" s="120"/>
+      <c r="AY25" s="120"/>
+      <c r="AZ25" s="120"/>
+      <c r="BA25" s="120"/>
+      <c r="BB25" s="120"/>
+      <c r="BC25" s="120"/>
+      <c r="BD25" s="187">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AK25" s="186" cm="1">
-        <f t="array" ref="AK25">SUMPRODUCT(--(B25:AI25=INT(B25:AI25)),--(B25:AI25&gt;0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL25" s="186" cm="1">
-        <f t="array" ref="AL25">MAX(FREQUENCY(IF((B25:AI25=INT(B25:AI25))*(B25:AI25&gt;0),COLUMN(B25:AI25)),IF((B25:AI25&lt;&gt;INT(B25:AI25))+(B25:AI25&lt;=0),COLUMN(B25:AI25))))</f>
-        <v>1</v>
-      </c>
-      <c r="AM25" s="187" cm="1">
-        <f t="array" ref="AM25">SUMPRODUCT(--(B25:AI25=INT(B25:AI25)),--(B25:AI25&gt;0))/34*100%</f>
+      <c r="BE25" s="187" cm="1">
+        <f t="array" ref="BE25">SUMPRODUCT(--(B25:BC25=INT(B25:BC25)),--(B25:BC25&gt;0))</f>
+        <v>1</v>
+      </c>
+      <c r="BF25" s="187" cm="1">
+        <f t="array" ref="BF25">MAX(FREQUENCY(IF((B25:BC25=INT(B25:BC25))*(B25:BC25&gt;0),COLUMN(B25:BC25)),IF((B25:BC25&lt;&gt;INT(B25:BC25))+(B25:BC25&lt;=0),COLUMN(B25:BC25))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG25" s="188" cm="1">
+        <f t="array" ref="BG25">SUMPRODUCT(--(B25:AI25=INT(B25:AI25)),--(B25:AI25&gt;0))/34*100%</f>
         <v>0.0294117647058824</v>
       </c>
-      <c r="AN25" s="188">
-        <f t="shared" ref="AN25:AP25" si="22">RANK(AJ25,AJ$3:AJ$53,0)</f>
+      <c r="BH25" s="189">
+        <f t="shared" ref="BH25:BJ25" si="22">RANK(BD25,BD$3:BD$53,0)</f>
         <v>34</v>
       </c>
-      <c r="AO25" s="188">
+      <c r="BI25" s="189">
         <f t="shared" si="22"/>
         <v>34</v>
       </c>
-      <c r="AP25" s="188">
+      <c r="BJ25" s="189">
         <f t="shared" si="22"/>
         <v>19</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:42">
-      <c r="A26" s="189">
+    <row r="26" customHeight="1" spans="1:62">
+      <c r="A26" s="190">
         <v>24</v>
       </c>
       <c r="B26" s="120"/>
@@ -11223,37 +11746,57 @@
       <c r="AG26" s="120"/>
       <c r="AH26" s="120"/>
       <c r="AI26" s="120"/>
-      <c r="AJ26" s="186">
+      <c r="AJ26" s="120"/>
+      <c r="AK26" s="120"/>
+      <c r="AL26" s="120"/>
+      <c r="AM26" s="120"/>
+      <c r="AN26" s="120"/>
+      <c r="AO26" s="120"/>
+      <c r="AP26" s="120"/>
+      <c r="AQ26" s="120"/>
+      <c r="AR26" s="120"/>
+      <c r="AS26" s="120"/>
+      <c r="AT26" s="120"/>
+      <c r="AU26" s="120"/>
+      <c r="AV26" s="120"/>
+      <c r="AW26" s="120"/>
+      <c r="AX26" s="120"/>
+      <c r="AY26" s="120"/>
+      <c r="AZ26" s="120"/>
+      <c r="BA26" s="120"/>
+      <c r="BB26" s="120"/>
+      <c r="BC26" s="120"/>
+      <c r="BD26" s="187">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK26" s="186" cm="1">
-        <f t="array" ref="AK26">SUMPRODUCT(--(B26:AI26=INT(B26:AI26)),--(B26:AI26&gt;0))</f>
+      <c r="BE26" s="187" cm="1">
+        <f t="array" ref="BE26">SUMPRODUCT(--(B26:BC26=INT(B26:BC26)),--(B26:BC26&gt;0))</f>
         <v>0</v>
       </c>
-      <c r="AL26" s="186" cm="1">
-        <f t="array" ref="AL26">MAX(FREQUENCY(IF((B26:AI26=INT(B26:AI26))*(B26:AI26&gt;0),COLUMN(B26:AI26)),IF((B26:AI26&lt;&gt;INT(B26:AI26))+(B26:AI26&lt;=0),COLUMN(B26:AI26))))</f>
+      <c r="BF26" s="187" cm="1">
+        <f t="array" ref="BF26">MAX(FREQUENCY(IF((B26:BC26=INT(B26:BC26))*(B26:BC26&gt;0),COLUMN(B26:BC26)),IF((B26:BC26&lt;&gt;INT(B26:BC26))+(B26:BC26&lt;=0),COLUMN(B26:BC26))))</f>
         <v>0</v>
       </c>
-      <c r="AM26" s="187" cm="1">
-        <f t="array" ref="AM26">SUMPRODUCT(--(B26:AI26=INT(B26:AI26)),--(B26:AI26&gt;0))/34*100%</f>
+      <c r="BG26" s="188" cm="1">
+        <f t="array" ref="BG26">SUMPRODUCT(--(B26:AI26=INT(B26:AI26)),--(B26:AI26&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="AN26" s="188">
-        <f t="shared" ref="AN26:AP26" si="23">RANK(AJ26,AJ$3:AJ$53,0)</f>
-        <v>40</v>
-      </c>
-      <c r="AO26" s="188">
+      <c r="BH26" s="189">
+        <f t="shared" ref="BH26:BJ26" si="23">RANK(BD26,BD$3:BD$53,0)</f>
+        <v>41</v>
+      </c>
+      <c r="BI26" s="189">
         <f t="shared" si="23"/>
-        <v>40</v>
-      </c>
-      <c r="AP26" s="188">
+        <v>41</v>
+      </c>
+      <c r="BJ26" s="189">
         <f t="shared" si="23"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:42">
-      <c r="A27" s="189">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:62">
+      <c r="A27" s="190">
         <v>25</v>
       </c>
       <c r="B27" s="120"/>
@@ -11290,36 +11833,56 @@
       <c r="AG27" s="120"/>
       <c r="AH27" s="120"/>
       <c r="AI27" s="120"/>
-      <c r="AJ27" s="186">
+      <c r="AJ27" s="120"/>
+      <c r="AK27" s="120"/>
+      <c r="AL27" s="120"/>
+      <c r="AM27" s="120"/>
+      <c r="AN27" s="120"/>
+      <c r="AO27" s="120"/>
+      <c r="AP27" s="120"/>
+      <c r="AQ27" s="120"/>
+      <c r="AR27" s="120"/>
+      <c r="AS27" s="120"/>
+      <c r="AT27" s="120"/>
+      <c r="AU27" s="120"/>
+      <c r="AV27" s="120"/>
+      <c r="AW27" s="120"/>
+      <c r="AX27" s="120"/>
+      <c r="AY27" s="120"/>
+      <c r="AZ27" s="120"/>
+      <c r="BA27" s="120"/>
+      <c r="BB27" s="120"/>
+      <c r="BC27" s="120"/>
+      <c r="BD27" s="187">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK27" s="186" cm="1">
-        <f t="array" ref="AK27">SUMPRODUCT(--(B27:AI27=INT(B27:AI27)),--(B27:AI27&gt;0))</f>
+      <c r="BE27" s="187" cm="1">
+        <f t="array" ref="BE27">SUMPRODUCT(--(B27:BC27=INT(B27:BC27)),--(B27:BC27&gt;0))</f>
         <v>0</v>
       </c>
-      <c r="AL27" s="186" cm="1">
-        <f t="array" ref="AL27">MAX(FREQUENCY(IF((B27:AI27=INT(B27:AI27))*(B27:AI27&gt;0),COLUMN(B27:AI27)),IF((B27:AI27&lt;&gt;INT(B27:AI27))+(B27:AI27&lt;=0),COLUMN(B27:AI27))))</f>
+      <c r="BF27" s="187" cm="1">
+        <f t="array" ref="BF27">MAX(FREQUENCY(IF((B27:BC27=INT(B27:BC27))*(B27:BC27&gt;0),COLUMN(B27:BC27)),IF((B27:BC27&lt;&gt;INT(B27:BC27))+(B27:BC27&lt;=0),COLUMN(B27:BC27))))</f>
         <v>0</v>
       </c>
-      <c r="AM27" s="187" cm="1">
-        <f t="array" ref="AM27">SUMPRODUCT(--(B27:AI27=INT(B27:AI27)),--(B27:AI27&gt;0))/34*100%</f>
+      <c r="BG27" s="188" cm="1">
+        <f t="array" ref="BG27">SUMPRODUCT(--(B27:AI27=INT(B27:AI27)),--(B27:AI27&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="AN27" s="188">
-        <f t="shared" ref="AN27:AP27" si="24">RANK(AJ27,AJ$3:AJ$53,0)</f>
-        <v>40</v>
-      </c>
-      <c r="AO27" s="188">
+      <c r="BH27" s="189">
+        <f t="shared" ref="BH27:BJ27" si="24">RANK(BD27,BD$3:BD$53,0)</f>
+        <v>41</v>
+      </c>
+      <c r="BI27" s="189">
         <f t="shared" si="24"/>
-        <v>40</v>
-      </c>
-      <c r="AP27" s="188">
+        <v>41</v>
+      </c>
+      <c r="BJ27" s="189">
         <f t="shared" si="24"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:62">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -11373,36 +11936,58 @@
       <c r="AG28" s="120"/>
       <c r="AH28" s="120"/>
       <c r="AI28" s="120"/>
-      <c r="AJ28" s="186">
+      <c r="AJ28" s="120">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="120"/>
+      <c r="AL28" s="120"/>
+      <c r="AM28" s="120"/>
+      <c r="AN28" s="120"/>
+      <c r="AO28" s="120"/>
+      <c r="AP28" s="120"/>
+      <c r="AQ28" s="120"/>
+      <c r="AR28" s="120"/>
+      <c r="AS28" s="120"/>
+      <c r="AT28" s="120"/>
+      <c r="AU28" s="120"/>
+      <c r="AV28" s="120"/>
+      <c r="AW28" s="120"/>
+      <c r="AX28" s="120"/>
+      <c r="AY28" s="120"/>
+      <c r="AZ28" s="120"/>
+      <c r="BA28" s="120"/>
+      <c r="BB28" s="120"/>
+      <c r="BC28" s="120"/>
+      <c r="BD28" s="187">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AK28" s="186" cm="1">
-        <f t="array" ref="AK28">SUMPRODUCT(--(B28:AI28=INT(B28:AI28)),--(B28:AI28&gt;0))</f>
-        <v>8</v>
-      </c>
-      <c r="AL28" s="186" cm="1">
-        <f t="array" ref="AL28">MAX(FREQUENCY(IF((B28:AI28=INT(B28:AI28))*(B28:AI28&gt;0),COLUMN(B28:AI28)),IF((B28:AI28&lt;&gt;INT(B28:AI28))+(B28:AI28&lt;=0),COLUMN(B28:AI28))))</f>
+        <v>9</v>
+      </c>
+      <c r="BE28" s="187" cm="1">
+        <f t="array" ref="BE28">SUMPRODUCT(--(B28:BC28=INT(B28:BC28)),--(B28:BC28&gt;0))</f>
+        <v>9</v>
+      </c>
+      <c r="BF28" s="187" cm="1">
+        <f t="array" ref="BF28">MAX(FREQUENCY(IF((B28:BC28=INT(B28:BC28))*(B28:BC28&gt;0),COLUMN(B28:BC28)),IF((B28:BC28&lt;&gt;INT(B28:BC28))+(B28:BC28&lt;=0),COLUMN(B28:BC28))))</f>
         <v>2</v>
       </c>
-      <c r="AM28" s="187" cm="1">
-        <f t="array" ref="AM28">SUMPRODUCT(--(B28:AI28=INT(B28:AI28)),--(B28:AI28&gt;0))/34*100%</f>
+      <c r="BG28" s="188" cm="1">
+        <f t="array" ref="BG28">SUMPRODUCT(--(B28:AI28=INT(B28:AI28)),--(B28:AI28&gt;0))/34*100%</f>
         <v>0.235294117647059</v>
       </c>
-      <c r="AN28" s="188">
-        <f t="shared" ref="AN28:AP28" si="25">RANK(AJ28,AJ$3:AJ$53,0)</f>
-        <v>13</v>
-      </c>
-      <c r="AO28" s="188">
+      <c r="BH28" s="189">
+        <f t="shared" ref="BH28:BJ28" si="25">RANK(BD28,BD$3:BD$53,0)</f>
+        <v>12</v>
+      </c>
+      <c r="BI28" s="189">
         <f t="shared" si="25"/>
-        <v>12</v>
-      </c>
-      <c r="AP28" s="188">
+        <v>10</v>
+      </c>
+      <c r="BJ28" s="189">
         <f t="shared" si="25"/>
         <v>13</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:42">
+    <row r="29" customHeight="1" spans="1:62">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -11448,36 +12033,58 @@
       <c r="AG29" s="120"/>
       <c r="AH29" s="120"/>
       <c r="AI29" s="120"/>
-      <c r="AJ29" s="186">
+      <c r="AJ29" s="120">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="120"/>
+      <c r="AL29" s="120"/>
+      <c r="AM29" s="120"/>
+      <c r="AN29" s="120"/>
+      <c r="AO29" s="120"/>
+      <c r="AP29" s="120"/>
+      <c r="AQ29" s="120"/>
+      <c r="AR29" s="120"/>
+      <c r="AS29" s="120"/>
+      <c r="AT29" s="120"/>
+      <c r="AU29" s="120"/>
+      <c r="AV29" s="120"/>
+      <c r="AW29" s="120"/>
+      <c r="AX29" s="120"/>
+      <c r="AY29" s="120"/>
+      <c r="AZ29" s="120"/>
+      <c r="BA29" s="120"/>
+      <c r="BB29" s="120"/>
+      <c r="BC29" s="120"/>
+      <c r="BD29" s="187">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AK29" s="186" cm="1">
-        <f t="array" ref="AK29">SUMPRODUCT(--(B29:AI29=INT(B29:AI29)),--(B29:AI29&gt;0))</f>
-        <v>4</v>
-      </c>
-      <c r="AL29" s="186" cm="1">
-        <f t="array" ref="AL29">MAX(FREQUENCY(IF((B29:AI29=INT(B29:AI29))*(B29:AI29&gt;0),COLUMN(B29:AI29)),IF((B29:AI29&lt;&gt;INT(B29:AI29))+(B29:AI29&lt;=0),COLUMN(B29:AI29))))</f>
-        <v>1</v>
-      </c>
-      <c r="AM29" s="187" cm="1">
-        <f t="array" ref="AM29">SUMPRODUCT(--(B29:AI29=INT(B29:AI29)),--(B29:AI29&gt;0))/34*100%</f>
+        <v>5</v>
+      </c>
+      <c r="BE29" s="187" cm="1">
+        <f t="array" ref="BE29">SUMPRODUCT(--(B29:BC29=INT(B29:BC29)),--(B29:BC29&gt;0))</f>
+        <v>5</v>
+      </c>
+      <c r="BF29" s="187" cm="1">
+        <f t="array" ref="BF29">MAX(FREQUENCY(IF((B29:BC29=INT(B29:BC29))*(B29:BC29&gt;0),COLUMN(B29:BC29)),IF((B29:BC29&lt;&gt;INT(B29:BC29))+(B29:BC29&lt;=0),COLUMN(B29:BC29))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG29" s="188" cm="1">
+        <f t="array" ref="BG29">SUMPRODUCT(--(B29:AI29=INT(B29:AI29)),--(B29:AI29&gt;0))/34*100%</f>
         <v>0.117647058823529</v>
       </c>
-      <c r="AN29" s="188">
-        <f t="shared" ref="AN29:AP29" si="26">RANK(AJ29,AJ$3:AJ$53,0)</f>
-        <v>21</v>
-      </c>
-      <c r="AO29" s="188">
+      <c r="BH29" s="189">
+        <f t="shared" ref="BH29:BJ29" si="26">RANK(BD29,BD$3:BD$53,0)</f>
+        <v>20</v>
+      </c>
+      <c r="BI29" s="189">
         <f t="shared" si="26"/>
-        <v>21</v>
-      </c>
-      <c r="AP29" s="188">
+        <v>20</v>
+      </c>
+      <c r="BJ29" s="189">
         <f t="shared" si="26"/>
         <v>19</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:42">
+    <row r="30" customHeight="1" spans="1:62">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -11529,36 +12136,56 @@
       <c r="AG30" s="120"/>
       <c r="AH30" s="120"/>
       <c r="AI30" s="120"/>
-      <c r="AJ30" s="186">
+      <c r="AJ30" s="120"/>
+      <c r="AK30" s="120"/>
+      <c r="AL30" s="120"/>
+      <c r="AM30" s="120"/>
+      <c r="AN30" s="120"/>
+      <c r="AO30" s="120"/>
+      <c r="AP30" s="120"/>
+      <c r="AQ30" s="120"/>
+      <c r="AR30" s="120"/>
+      <c r="AS30" s="120"/>
+      <c r="AT30" s="120"/>
+      <c r="AU30" s="120"/>
+      <c r="AV30" s="120"/>
+      <c r="AW30" s="120"/>
+      <c r="AX30" s="120"/>
+      <c r="AY30" s="120"/>
+      <c r="AZ30" s="120"/>
+      <c r="BA30" s="120"/>
+      <c r="BB30" s="120"/>
+      <c r="BC30" s="120"/>
+      <c r="BD30" s="187">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AK30" s="186" cm="1">
-        <f t="array" ref="AK30">SUMPRODUCT(--(B30:AI30=INT(B30:AI30)),--(B30:AI30&gt;0))</f>
+      <c r="BE30" s="187" cm="1">
+        <f t="array" ref="BE30">SUMPRODUCT(--(B30:BC30=INT(B30:BC30)),--(B30:BC30&gt;0))</f>
         <v>7</v>
       </c>
-      <c r="AL30" s="186" cm="1">
-        <f t="array" ref="AL30">MAX(FREQUENCY(IF((B30:AI30=INT(B30:AI30))*(B30:AI30&gt;0),COLUMN(B30:AI30)),IF((B30:AI30&lt;&gt;INT(B30:AI30))+(B30:AI30&lt;=0),COLUMN(B30:AI30))))</f>
+      <c r="BF30" s="187" cm="1">
+        <f t="array" ref="BF30">MAX(FREQUENCY(IF((B30:BC30=INT(B30:BC30))*(B30:BC30&gt;0),COLUMN(B30:BC30)),IF((B30:BC30&lt;&gt;INT(B30:BC30))+(B30:BC30&lt;=0),COLUMN(B30:BC30))))</f>
         <v>4</v>
       </c>
-      <c r="AM30" s="187" cm="1">
-        <f t="array" ref="AM30">SUMPRODUCT(--(B30:AI30=INT(B30:AI30)),--(B30:AI30&gt;0))/34*100%</f>
+      <c r="BG30" s="188" cm="1">
+        <f t="array" ref="BG30">SUMPRODUCT(--(B30:AI30=INT(B30:AI30)),--(B30:AI30&gt;0))/34*100%</f>
         <v>0.205882352941176</v>
       </c>
-      <c r="AN30" s="188">
-        <f t="shared" ref="AN30:AP30" si="27">RANK(AJ30,AJ$3:AJ$53,0)</f>
-        <v>13</v>
-      </c>
-      <c r="AO30" s="188">
+      <c r="BH30" s="189">
+        <f t="shared" ref="BH30:BJ30" si="27">RANK(BD30,BD$3:BD$53,0)</f>
+        <v>16</v>
+      </c>
+      <c r="BI30" s="189">
         <f t="shared" si="27"/>
-        <v>16</v>
-      </c>
-      <c r="AP30" s="188">
+        <v>17</v>
+      </c>
+      <c r="BJ30" s="189">
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:42">
+    <row r="31" customHeight="1" spans="1:62">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -11610,36 +12237,58 @@
       <c r="AG31" s="120"/>
       <c r="AH31" s="120"/>
       <c r="AI31" s="120"/>
-      <c r="AJ31" s="186">
+      <c r="AJ31" s="120">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="120"/>
+      <c r="AL31" s="120"/>
+      <c r="AM31" s="120"/>
+      <c r="AN31" s="120"/>
+      <c r="AO31" s="120"/>
+      <c r="AP31" s="120"/>
+      <c r="AQ31" s="120"/>
+      <c r="AR31" s="120"/>
+      <c r="AS31" s="120"/>
+      <c r="AT31" s="120"/>
+      <c r="AU31" s="120"/>
+      <c r="AV31" s="120"/>
+      <c r="AW31" s="120"/>
+      <c r="AX31" s="120"/>
+      <c r="AY31" s="120"/>
+      <c r="AZ31" s="120"/>
+      <c r="BA31" s="120"/>
+      <c r="BB31" s="120"/>
+      <c r="BC31" s="120"/>
+      <c r="BD31" s="187">
         <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BE31" s="187" cm="1">
+        <f t="array" ref="BE31">SUMPRODUCT(--(B31:BC31=INT(B31:BC31)),--(B31:BC31&gt;0))</f>
         <v>8</v>
       </c>
-      <c r="AK31" s="186" cm="1">
-        <f t="array" ref="AK31">SUMPRODUCT(--(B31:AI31=INT(B31:AI31)),--(B31:AI31&gt;0))</f>
-        <v>7</v>
-      </c>
-      <c r="AL31" s="186" cm="1">
-        <f t="array" ref="AL31">MAX(FREQUENCY(IF((B31:AI31=INT(B31:AI31))*(B31:AI31&gt;0),COLUMN(B31:AI31)),IF((B31:AI31&lt;&gt;INT(B31:AI31))+(B31:AI31&lt;=0),COLUMN(B31:AI31))))</f>
+      <c r="BF31" s="187" cm="1">
+        <f t="array" ref="BF31">MAX(FREQUENCY(IF((B31:BC31=INT(B31:BC31))*(B31:BC31&gt;0),COLUMN(B31:BC31)),IF((B31:BC31&lt;&gt;INT(B31:BC31))+(B31:BC31&lt;=0),COLUMN(B31:BC31))))</f>
         <v>2</v>
       </c>
-      <c r="AM31" s="187" cm="1">
-        <f t="array" ref="AM31">SUMPRODUCT(--(B31:AI31=INT(B31:AI31)),--(B31:AI31&gt;0))/34*100%</f>
+      <c r="BG31" s="188" cm="1">
+        <f t="array" ref="BG31">SUMPRODUCT(--(B31:AI31=INT(B31:AI31)),--(B31:AI31&gt;0))/34*100%</f>
         <v>0.205882352941176</v>
       </c>
-      <c r="AN31" s="188">
-        <f t="shared" ref="AN31:AP31" si="28">RANK(AJ31,AJ$3:AJ$53,0)</f>
-        <v>13</v>
-      </c>
-      <c r="AO31" s="188">
+      <c r="BH31" s="189">
+        <f t="shared" ref="BH31:BJ31" si="28">RANK(BD31,BD$3:BD$53,0)</f>
+        <v>12</v>
+      </c>
+      <c r="BI31" s="189">
         <f t="shared" si="28"/>
-        <v>16</v>
-      </c>
-      <c r="AP31" s="188">
+        <v>15</v>
+      </c>
+      <c r="BJ31" s="189">
         <f t="shared" si="28"/>
         <v>13</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:42">
+    <row r="32" customHeight="1" spans="1:62">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -11695,36 +12344,58 @@
       <c r="AG32" s="120"/>
       <c r="AH32" s="120"/>
       <c r="AI32" s="120"/>
-      <c r="AJ32" s="186">
+      <c r="AJ32" s="120">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="120"/>
+      <c r="AL32" s="120"/>
+      <c r="AM32" s="120"/>
+      <c r="AN32" s="120"/>
+      <c r="AO32" s="120"/>
+      <c r="AP32" s="120"/>
+      <c r="AQ32" s="120"/>
+      <c r="AR32" s="120"/>
+      <c r="AS32" s="120"/>
+      <c r="AT32" s="120"/>
+      <c r="AU32" s="120"/>
+      <c r="AV32" s="120"/>
+      <c r="AW32" s="120"/>
+      <c r="AX32" s="120"/>
+      <c r="AY32" s="120"/>
+      <c r="AZ32" s="120"/>
+      <c r="BA32" s="120"/>
+      <c r="BB32" s="120"/>
+      <c r="BC32" s="120"/>
+      <c r="BD32" s="187">
         <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BE32" s="187" cm="1">
+        <f t="array" ref="BE32">SUMPRODUCT(--(B32:BC32=INT(B32:BC32)),--(B32:BC32&gt;0))</f>
         <v>10</v>
       </c>
-      <c r="AK32" s="186" cm="1">
-        <f t="array" ref="AK32">SUMPRODUCT(--(B32:AI32=INT(B32:AI32)),--(B32:AI32&gt;0))</f>
+      <c r="BF32" s="187" cm="1">
+        <f t="array" ref="BF32">MAX(FREQUENCY(IF((B32:BC32=INT(B32:BC32))*(B32:BC32&gt;0),COLUMN(B32:BC32)),IF((B32:BC32&lt;&gt;INT(B32:BC32))+(B32:BC32&lt;=0),COLUMN(B32:BC32))))</f>
+        <v>3</v>
+      </c>
+      <c r="BG32" s="188" cm="1">
+        <f t="array" ref="BG32">SUMPRODUCT(--(B32:AI32=INT(B32:AI32)),--(B32:AI32&gt;0))/34*100%</f>
+        <v>0.264705882352941</v>
+      </c>
+      <c r="BH32" s="189">
+        <f t="shared" ref="BH32:BJ32" si="29">RANK(BD32,BD$3:BD$53,0)</f>
         <v>9</v>
       </c>
-      <c r="AL32" s="186" cm="1">
-        <f t="array" ref="AL32">MAX(FREQUENCY(IF((B32:AI32=INT(B32:AI32))*(B32:AI32&gt;0),COLUMN(B32:AI32)),IF((B32:AI32&lt;&gt;INT(B32:AI32))+(B32:AI32&lt;=0),COLUMN(B32:AI32))))</f>
-        <v>3</v>
-      </c>
-      <c r="AM32" s="187" cm="1">
-        <f t="array" ref="AM32">SUMPRODUCT(--(B32:AI32=INT(B32:AI32)),--(B32:AI32&gt;0))/34*100%</f>
-        <v>0.264705882352941</v>
-      </c>
-      <c r="AN32" s="188">
-        <f t="shared" ref="AN32:AP32" si="29">RANK(AJ32,AJ$3:AJ$53,0)</f>
-        <v>9</v>
-      </c>
-      <c r="AO32" s="188">
+      <c r="BI32" s="189">
         <f t="shared" si="29"/>
         <v>9</v>
       </c>
-      <c r="AP32" s="188">
+      <c r="BJ32" s="189">
         <f t="shared" si="29"/>
         <v>8</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:42">
+    <row r="33" customHeight="1" spans="1:62">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -11768,37 +12439,59 @@
       <c r="AG33" s="120"/>
       <c r="AH33" s="120"/>
       <c r="AI33" s="120"/>
-      <c r="AJ33" s="186">
+      <c r="AJ33" s="120">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="120"/>
+      <c r="AL33" s="120"/>
+      <c r="AM33" s="120"/>
+      <c r="AN33" s="120"/>
+      <c r="AO33" s="120"/>
+      <c r="AP33" s="120"/>
+      <c r="AQ33" s="120"/>
+      <c r="AR33" s="120"/>
+      <c r="AS33" s="120"/>
+      <c r="AT33" s="120"/>
+      <c r="AU33" s="120"/>
+      <c r="AV33" s="120"/>
+      <c r="AW33" s="120"/>
+      <c r="AX33" s="120"/>
+      <c r="AY33" s="120"/>
+      <c r="AZ33" s="120"/>
+      <c r="BA33" s="120"/>
+      <c r="BB33" s="120"/>
+      <c r="BC33" s="120"/>
+      <c r="BD33" s="187">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AK33" s="186" cm="1">
-        <f t="array" ref="AK33">SUMPRODUCT(--(B33:AI33=INT(B33:AI33)),--(B33:AI33&gt;0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL33" s="186" cm="1">
-        <f t="array" ref="AL33">MAX(FREQUENCY(IF((B33:AI33=INT(B33:AI33))*(B33:AI33&gt;0),COLUMN(B33:AI33)),IF((B33:AI33&lt;&gt;INT(B33:AI33))+(B33:AI33&lt;=0),COLUMN(B33:AI33))))</f>
-        <v>1</v>
-      </c>
-      <c r="AM33" s="187" cm="1">
-        <f t="array" ref="AM33">SUMPRODUCT(--(B33:AI33=INT(B33:AI33)),--(B33:AI33&gt;0))/34*100%</f>
+        <v>4</v>
+      </c>
+      <c r="BE33" s="187" cm="1">
+        <f t="array" ref="BE33">SUMPRODUCT(--(B33:BC33=INT(B33:BC33)),--(B33:BC33&gt;0))</f>
+        <v>4</v>
+      </c>
+      <c r="BF33" s="187" cm="1">
+        <f t="array" ref="BF33">MAX(FREQUENCY(IF((B33:BC33=INT(B33:BC33))*(B33:BC33&gt;0),COLUMN(B33:BC33)),IF((B33:BC33&lt;&gt;INT(B33:BC33))+(B33:BC33&lt;=0),COLUMN(B33:BC33))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG33" s="188" cm="1">
+        <f t="array" ref="BG33">SUMPRODUCT(--(B33:AI33=INT(B33:AI33)),--(B33:AI33&gt;0))/34*100%</f>
         <v>0.0882352941176471</v>
       </c>
-      <c r="AN33" s="188">
-        <f t="shared" ref="AN33:AP33" si="30">RANK(AJ33,AJ$3:AJ$53,0)</f>
-        <v>25</v>
-      </c>
-      <c r="AO33" s="188">
+      <c r="BH33" s="189">
+        <f t="shared" ref="BH33:BJ33" si="30">RANK(BD33,BD$3:BD$53,0)</f>
+        <v>23</v>
+      </c>
+      <c r="BI33" s="189">
         <f t="shared" si="30"/>
         <v>23</v>
       </c>
-      <c r="AP33" s="188">
+      <c r="BJ33" s="189">
         <f t="shared" si="30"/>
         <v>19</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:42">
-      <c r="A34" s="189">
+    <row r="34" customHeight="1" spans="1:62">
+      <c r="A34" s="190">
         <v>32</v>
       </c>
       <c r="B34" s="120"/>
@@ -11835,37 +12528,57 @@
       <c r="AG34" s="120"/>
       <c r="AH34" s="120"/>
       <c r="AI34" s="120"/>
-      <c r="AJ34" s="186">
+      <c r="AJ34" s="120"/>
+      <c r="AK34" s="120"/>
+      <c r="AL34" s="120"/>
+      <c r="AM34" s="120"/>
+      <c r="AN34" s="120"/>
+      <c r="AO34" s="120"/>
+      <c r="AP34" s="120"/>
+      <c r="AQ34" s="120"/>
+      <c r="AR34" s="120"/>
+      <c r="AS34" s="120"/>
+      <c r="AT34" s="120"/>
+      <c r="AU34" s="120"/>
+      <c r="AV34" s="120"/>
+      <c r="AW34" s="120"/>
+      <c r="AX34" s="120"/>
+      <c r="AY34" s="120"/>
+      <c r="AZ34" s="120"/>
+      <c r="BA34" s="120"/>
+      <c r="BB34" s="120"/>
+      <c r="BC34" s="120"/>
+      <c r="BD34" s="187">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK34" s="186" cm="1">
-        <f t="array" ref="AK34">SUMPRODUCT(--(B34:AI34=INT(B34:AI34)),--(B34:AI34&gt;0))</f>
+      <c r="BE34" s="187" cm="1">
+        <f t="array" ref="BE34">SUMPRODUCT(--(B34:BC34=INT(B34:BC34)),--(B34:BC34&gt;0))</f>
         <v>0</v>
       </c>
-      <c r="AL34" s="186" cm="1">
-        <f t="array" ref="AL34">MAX(FREQUENCY(IF((B34:AI34=INT(B34:AI34))*(B34:AI34&gt;0),COLUMN(B34:AI34)),IF((B34:AI34&lt;&gt;INT(B34:AI34))+(B34:AI34&lt;=0),COLUMN(B34:AI34))))</f>
+      <c r="BF34" s="187" cm="1">
+        <f t="array" ref="BF34">MAX(FREQUENCY(IF((B34:BC34=INT(B34:BC34))*(B34:BC34&gt;0),COLUMN(B34:BC34)),IF((B34:BC34&lt;&gt;INT(B34:BC34))+(B34:BC34&lt;=0),COLUMN(B34:BC34))))</f>
         <v>0</v>
       </c>
-      <c r="AM34" s="187" cm="1">
-        <f t="array" ref="AM34">SUMPRODUCT(--(B34:AI34=INT(B34:AI34)),--(B34:AI34&gt;0))/34*100%</f>
+      <c r="BG34" s="188" cm="1">
+        <f t="array" ref="BG34">SUMPRODUCT(--(B34:AI34=INT(B34:AI34)),--(B34:AI34&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="AN34" s="188">
-        <f t="shared" ref="AN34:AP34" si="31">RANK(AJ34,AJ$3:AJ$53,0)</f>
-        <v>40</v>
-      </c>
-      <c r="AO34" s="188">
+      <c r="BH34" s="189">
+        <f t="shared" ref="BH34:BJ34" si="31">RANK(BD34,BD$3:BD$53,0)</f>
+        <v>41</v>
+      </c>
+      <c r="BI34" s="189">
         <f t="shared" si="31"/>
-        <v>40</v>
-      </c>
-      <c r="AP34" s="188">
+        <v>41</v>
+      </c>
+      <c r="BJ34" s="189">
         <f t="shared" si="31"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:42">
-      <c r="A35" s="189">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:62">
+      <c r="A35" s="190">
         <v>33</v>
       </c>
       <c r="B35" s="120"/>
@@ -11902,36 +12615,56 @@
       <c r="AG35" s="120"/>
       <c r="AH35" s="120"/>
       <c r="AI35" s="120"/>
-      <c r="AJ35" s="186">
+      <c r="AJ35" s="120"/>
+      <c r="AK35" s="120"/>
+      <c r="AL35" s="120"/>
+      <c r="AM35" s="120"/>
+      <c r="AN35" s="120"/>
+      <c r="AO35" s="120"/>
+      <c r="AP35" s="120"/>
+      <c r="AQ35" s="120"/>
+      <c r="AR35" s="120"/>
+      <c r="AS35" s="120"/>
+      <c r="AT35" s="120"/>
+      <c r="AU35" s="120"/>
+      <c r="AV35" s="120"/>
+      <c r="AW35" s="120"/>
+      <c r="AX35" s="120"/>
+      <c r="AY35" s="120"/>
+      <c r="AZ35" s="120"/>
+      <c r="BA35" s="120"/>
+      <c r="BB35" s="120"/>
+      <c r="BC35" s="120"/>
+      <c r="BD35" s="187">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK35" s="186" cm="1">
-        <f t="array" ref="AK35">SUMPRODUCT(--(B35:AI35=INT(B35:AI35)),--(B35:AI35&gt;0))</f>
+      <c r="BE35" s="187" cm="1">
+        <f t="array" ref="BE35">SUMPRODUCT(--(B35:BC35=INT(B35:BC35)),--(B35:BC35&gt;0))</f>
         <v>0</v>
       </c>
-      <c r="AL35" s="186" cm="1">
-        <f t="array" ref="AL35">MAX(FREQUENCY(IF((B35:AI35=INT(B35:AI35))*(B35:AI35&gt;0),COLUMN(B35:AI35)),IF((B35:AI35&lt;&gt;INT(B35:AI35))+(B35:AI35&lt;=0),COLUMN(B35:AI35))))</f>
+      <c r="BF35" s="187" cm="1">
+        <f t="array" ref="BF35">MAX(FREQUENCY(IF((B35:BC35=INT(B35:BC35))*(B35:BC35&gt;0),COLUMN(B35:BC35)),IF((B35:BC35&lt;&gt;INT(B35:BC35))+(B35:BC35&lt;=0),COLUMN(B35:BC35))))</f>
         <v>0</v>
       </c>
-      <c r="AM35" s="187" cm="1">
-        <f t="array" ref="AM35">SUMPRODUCT(--(B35:AI35=INT(B35:AI35)),--(B35:AI35&gt;0))/34*100%</f>
+      <c r="BG35" s="188" cm="1">
+        <f t="array" ref="BG35">SUMPRODUCT(--(B35:AI35=INT(B35:AI35)),--(B35:AI35&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="AN35" s="188">
-        <f t="shared" ref="AN35:AP35" si="32">RANK(AJ35,AJ$3:AJ$53,0)</f>
-        <v>40</v>
-      </c>
-      <c r="AO35" s="188">
+      <c r="BH35" s="189">
+        <f t="shared" ref="BH35:BJ35" si="32">RANK(BD35,BD$3:BD$53,0)</f>
+        <v>41</v>
+      </c>
+      <c r="BI35" s="189">
         <f t="shared" si="32"/>
-        <v>40</v>
-      </c>
-      <c r="AP35" s="188">
+        <v>41</v>
+      </c>
+      <c r="BJ35" s="189">
         <f t="shared" si="32"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:62">
       <c r="A36" s="120">
         <v>34</v>
       </c>
@@ -11971,36 +12704,56 @@
       <c r="AG36" s="120"/>
       <c r="AH36" s="120"/>
       <c r="AI36" s="120"/>
-      <c r="AJ36" s="186">
-        <f t="shared" ref="AJ36:AJ53" si="33">SUM(B36:AI36)</f>
-        <v>1</v>
-      </c>
-      <c r="AK36" s="186" cm="1">
-        <f t="array" ref="AK36">SUMPRODUCT(--(B36:AI36=INT(B36:AI36)),--(B36:AI36&gt;0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL36" s="186" cm="1">
-        <f t="array" ref="AL36">MAX(FREQUENCY(IF((B36:AI36=INT(B36:AI36))*(B36:AI36&gt;0),COLUMN(B36:AI36)),IF((B36:AI36&lt;&gt;INT(B36:AI36))+(B36:AI36&lt;=0),COLUMN(B36:AI36))))</f>
-        <v>1</v>
-      </c>
-      <c r="AM36" s="187" cm="1">
-        <f t="array" ref="AM36">SUMPRODUCT(--(B36:AI36=INT(B36:AI36)),--(B36:AI36&gt;0))/34*100%</f>
+      <c r="AJ36" s="120"/>
+      <c r="AK36" s="120"/>
+      <c r="AL36" s="120"/>
+      <c r="AM36" s="120"/>
+      <c r="AN36" s="120"/>
+      <c r="AO36" s="120"/>
+      <c r="AP36" s="120"/>
+      <c r="AQ36" s="120"/>
+      <c r="AR36" s="120"/>
+      <c r="AS36" s="120"/>
+      <c r="AT36" s="120"/>
+      <c r="AU36" s="120"/>
+      <c r="AV36" s="120"/>
+      <c r="AW36" s="120"/>
+      <c r="AX36" s="120"/>
+      <c r="AY36" s="120"/>
+      <c r="AZ36" s="120"/>
+      <c r="BA36" s="120"/>
+      <c r="BB36" s="120"/>
+      <c r="BC36" s="120"/>
+      <c r="BD36" s="187">
+        <f t="shared" ref="BD36:BD53" si="33">SUM(B36:BC36)</f>
+        <v>1</v>
+      </c>
+      <c r="BE36" s="187" cm="1">
+        <f t="array" ref="BE36">SUMPRODUCT(--(B36:BC36=INT(B36:BC36)),--(B36:BC36&gt;0))</f>
+        <v>1</v>
+      </c>
+      <c r="BF36" s="187" cm="1">
+        <f t="array" ref="BF36">MAX(FREQUENCY(IF((B36:BC36=INT(B36:BC36))*(B36:BC36&gt;0),COLUMN(B36:BC36)),IF((B36:BC36&lt;&gt;INT(B36:BC36))+(B36:BC36&lt;=0),COLUMN(B36:BC36))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG36" s="188" cm="1">
+        <f t="array" ref="BG36">SUMPRODUCT(--(B36:AI36=INT(B36:AI36)),--(B36:AI36&gt;0))/34*100%</f>
         <v>0.0294117647058824</v>
       </c>
-      <c r="AN36" s="188">
-        <f t="shared" ref="AN36:AP36" si="34">RANK(AJ36,AJ$3:AJ$53,0)</f>
+      <c r="BH36" s="189">
+        <f t="shared" ref="BH36:BJ36" si="34">RANK(BD36,BD$3:BD$53,0)</f>
         <v>34</v>
       </c>
-      <c r="AO36" s="188">
+      <c r="BI36" s="189">
         <f t="shared" si="34"/>
         <v>34</v>
       </c>
-      <c r="AP36" s="188">
+      <c r="BJ36" s="189">
         <f t="shared" si="34"/>
         <v>19</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:42">
+    <row r="37" customHeight="1" spans="1:62">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -12050,36 +12803,56 @@
       <c r="AG37" s="120"/>
       <c r="AH37" s="120"/>
       <c r="AI37" s="120"/>
-      <c r="AJ37" s="186">
+      <c r="AJ37" s="120"/>
+      <c r="AK37" s="120"/>
+      <c r="AL37" s="120"/>
+      <c r="AM37" s="120"/>
+      <c r="AN37" s="120"/>
+      <c r="AO37" s="120"/>
+      <c r="AP37" s="120"/>
+      <c r="AQ37" s="120"/>
+      <c r="AR37" s="120"/>
+      <c r="AS37" s="120"/>
+      <c r="AT37" s="120"/>
+      <c r="AU37" s="120"/>
+      <c r="AV37" s="120"/>
+      <c r="AW37" s="120"/>
+      <c r="AX37" s="120"/>
+      <c r="AY37" s="120"/>
+      <c r="AZ37" s="120"/>
+      <c r="BA37" s="120"/>
+      <c r="BB37" s="120"/>
+      <c r="BC37" s="120"/>
+      <c r="BD37" s="187">
         <f t="shared" si="33"/>
         <v>7</v>
       </c>
-      <c r="AK37" s="186" cm="1">
-        <f t="array" ref="AK37">SUMPRODUCT(--(B37:AI37=INT(B37:AI37)),--(B37:AI37&gt;0))</f>
+      <c r="BE37" s="187" cm="1">
+        <f t="array" ref="BE37">SUMPRODUCT(--(B37:BC37=INT(B37:BC37)),--(B37:BC37&gt;0))</f>
         <v>6</v>
       </c>
-      <c r="AL37" s="186" cm="1">
-        <f t="array" ref="AL37">MAX(FREQUENCY(IF((B37:AI37=INT(B37:AI37))*(B37:AI37&gt;0),COLUMN(B37:AI37)),IF((B37:AI37&lt;&gt;INT(B37:AI37))+(B37:AI37&lt;=0),COLUMN(B37:AI37))))</f>
+      <c r="BF37" s="187" cm="1">
+        <f t="array" ref="BF37">MAX(FREQUENCY(IF((B37:BC37=INT(B37:BC37))*(B37:BC37&gt;0),COLUMN(B37:BC37)),IF((B37:BC37&lt;&gt;INT(B37:BC37))+(B37:BC37&lt;=0),COLUMN(B37:BC37))))</f>
         <v>3</v>
       </c>
-      <c r="AM37" s="187" cm="1">
-        <f t="array" ref="AM37">SUMPRODUCT(--(B37:AI37=INT(B37:AI37)),--(B37:AI37&gt;0))/34*100%</f>
+      <c r="BG37" s="188" cm="1">
+        <f t="array" ref="BG37">SUMPRODUCT(--(B37:AI37=INT(B37:AI37)),--(B37:AI37&gt;0))/34*100%</f>
         <v>0.176470588235294</v>
       </c>
-      <c r="AN37" s="188">
-        <f t="shared" ref="AN37:AP37" si="35">RANK(AJ37,AJ$3:AJ$53,0)</f>
+      <c r="BH37" s="189">
+        <f t="shared" ref="BH37:BJ37" si="35">RANK(BD37,BD$3:BD$53,0)</f>
         <v>18</v>
       </c>
-      <c r="AO37" s="188">
+      <c r="BI37" s="189">
         <f t="shared" si="35"/>
         <v>19</v>
       </c>
-      <c r="AP37" s="188">
+      <c r="BJ37" s="189">
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:42">
+    <row r="38" customHeight="1" spans="1:62">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -12123,36 +12896,56 @@
       <c r="AG38" s="120"/>
       <c r="AH38" s="120"/>
       <c r="AI38" s="120"/>
-      <c r="AJ38" s="186">
+      <c r="AJ38" s="120"/>
+      <c r="AK38" s="120"/>
+      <c r="AL38" s="120"/>
+      <c r="AM38" s="120"/>
+      <c r="AN38" s="120"/>
+      <c r="AO38" s="120"/>
+      <c r="AP38" s="120"/>
+      <c r="AQ38" s="120"/>
+      <c r="AR38" s="120"/>
+      <c r="AS38" s="120"/>
+      <c r="AT38" s="120"/>
+      <c r="AU38" s="120"/>
+      <c r="AV38" s="120"/>
+      <c r="AW38" s="120"/>
+      <c r="AX38" s="120"/>
+      <c r="AY38" s="120"/>
+      <c r="AZ38" s="120"/>
+      <c r="BA38" s="120"/>
+      <c r="BB38" s="120"/>
+      <c r="BC38" s="120"/>
+      <c r="BD38" s="187">
         <f t="shared" si="33"/>
         <v>4</v>
       </c>
-      <c r="AK38" s="186" cm="1">
-        <f t="array" ref="AK38">SUMPRODUCT(--(B38:AI38=INT(B38:AI38)),--(B38:AI38&gt;0))</f>
+      <c r="BE38" s="187" cm="1">
+        <f t="array" ref="BE38">SUMPRODUCT(--(B38:BC38=INT(B38:BC38)),--(B38:BC38&gt;0))</f>
         <v>3</v>
       </c>
-      <c r="AL38" s="186" cm="1">
-        <f t="array" ref="AL38">MAX(FREQUENCY(IF((B38:AI38=INT(B38:AI38))*(B38:AI38&gt;0),COLUMN(B38:AI38)),IF((B38:AI38&lt;&gt;INT(B38:AI38))+(B38:AI38&lt;=0),COLUMN(B38:AI38))))</f>
-        <v>1</v>
-      </c>
-      <c r="AM38" s="187" cm="1">
-        <f t="array" ref="AM38">SUMPRODUCT(--(B38:AI38=INT(B38:AI38)),--(B38:AI38&gt;0))/34*100%</f>
+      <c r="BF38" s="187" cm="1">
+        <f t="array" ref="BF38">MAX(FREQUENCY(IF((B38:BC38=INT(B38:BC38))*(B38:BC38&gt;0),COLUMN(B38:BC38)),IF((B38:BC38&lt;&gt;INT(B38:BC38))+(B38:BC38&lt;=0),COLUMN(B38:BC38))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG38" s="188" cm="1">
+        <f t="array" ref="BG38">SUMPRODUCT(--(B38:AI38=INT(B38:AI38)),--(B38:AI38&gt;0))/34*100%</f>
         <v>0.0882352941176471</v>
       </c>
-      <c r="AN38" s="188">
-        <f t="shared" ref="AN38:AP38" si="36">RANK(AJ38,AJ$3:AJ$53,0)</f>
-        <v>21</v>
-      </c>
-      <c r="AO38" s="188">
+      <c r="BH38" s="189">
+        <f t="shared" ref="BH38:BJ38" si="36">RANK(BD38,BD$3:BD$53,0)</f>
+        <v>23</v>
+      </c>
+      <c r="BI38" s="189">
         <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="AP38" s="188">
+        <v>26</v>
+      </c>
+      <c r="BJ38" s="189">
         <f t="shared" si="36"/>
         <v>19</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:42">
+    <row r="39" customHeight="1" spans="1:62">
       <c r="A39" s="175">
         <v>37</v>
       </c>
@@ -12190,36 +12983,56 @@
       <c r="AG39" s="175"/>
       <c r="AH39" s="175"/>
       <c r="AI39" s="175"/>
-      <c r="AJ39" s="186">
+      <c r="AJ39" s="175"/>
+      <c r="AK39" s="175"/>
+      <c r="AL39" s="175"/>
+      <c r="AM39" s="175"/>
+      <c r="AN39" s="175"/>
+      <c r="AO39" s="175"/>
+      <c r="AP39" s="175"/>
+      <c r="AQ39" s="175"/>
+      <c r="AR39" s="175"/>
+      <c r="AS39" s="175"/>
+      <c r="AT39" s="175"/>
+      <c r="AU39" s="175"/>
+      <c r="AV39" s="175"/>
+      <c r="AW39" s="175"/>
+      <c r="AX39" s="175"/>
+      <c r="AY39" s="175"/>
+      <c r="AZ39" s="175"/>
+      <c r="BA39" s="175"/>
+      <c r="BB39" s="175"/>
+      <c r="BC39" s="175"/>
+      <c r="BD39" s="187">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AK39" s="186" cm="1">
-        <f t="array" ref="AK39">SUMPRODUCT(--(B39:AI39=INT(B39:AI39)),--(B39:AI39&gt;0))</f>
+      <c r="BE39" s="187" cm="1">
+        <f t="array" ref="BE39">SUMPRODUCT(--(B39:BC39=INT(B39:BC39)),--(B39:BC39&gt;0))</f>
         <v>0</v>
       </c>
-      <c r="AL39" s="186" cm="1">
-        <f t="array" ref="AL39">MAX(FREQUENCY(IF((B39:AI39=INT(B39:AI39))*(B39:AI39&gt;0),COLUMN(B39:AI39)),IF((B39:AI39&lt;&gt;INT(B39:AI39))+(B39:AI39&lt;=0),COLUMN(B39:AI39))))</f>
+      <c r="BF39" s="187" cm="1">
+        <f t="array" ref="BF39">MAX(FREQUENCY(IF((B39:BC39=INT(B39:BC39))*(B39:BC39&gt;0),COLUMN(B39:BC39)),IF((B39:BC39&lt;&gt;INT(B39:BC39))+(B39:BC39&lt;=0),COLUMN(B39:BC39))))</f>
         <v>0</v>
       </c>
-      <c r="AM39" s="187" cm="1">
-        <f t="array" ref="AM39">SUMPRODUCT(--(B39:AI39=INT(B39:AI39)),--(B39:AI39&gt;0))/34*100%</f>
+      <c r="BG39" s="188" cm="1">
+        <f t="array" ref="BG39">SUMPRODUCT(--(B39:AI39=INT(B39:AI39)),--(B39:AI39&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="AN39" s="190">
-        <f t="shared" ref="AN39:AP39" si="37">RANK(AJ39,AJ$3:AJ$53,0)</f>
-        <v>40</v>
-      </c>
-      <c r="AO39" s="190">
+      <c r="BH39" s="191">
+        <f t="shared" ref="BH39:BJ39" si="37">RANK(BD39,BD$3:BD$53,0)</f>
+        <v>41</v>
+      </c>
+      <c r="BI39" s="191">
         <f t="shared" si="37"/>
-        <v>40</v>
-      </c>
-      <c r="AP39" s="190">
+        <v>41</v>
+      </c>
+      <c r="BJ39" s="191">
         <f t="shared" si="37"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:62">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -12299,36 +13112,58 @@
       <c r="AG40" s="120"/>
       <c r="AH40" s="120"/>
       <c r="AI40" s="120"/>
-      <c r="AJ40" s="186">
+      <c r="AJ40" s="120">
+        <v>2</v>
+      </c>
+      <c r="AK40" s="120"/>
+      <c r="AL40" s="120"/>
+      <c r="AM40" s="120"/>
+      <c r="AN40" s="120"/>
+      <c r="AO40" s="120"/>
+      <c r="AP40" s="120"/>
+      <c r="AQ40" s="120"/>
+      <c r="AR40" s="120"/>
+      <c r="AS40" s="120"/>
+      <c r="AT40" s="120"/>
+      <c r="AU40" s="120"/>
+      <c r="AV40" s="120"/>
+      <c r="AW40" s="120"/>
+      <c r="AX40" s="120"/>
+      <c r="AY40" s="120"/>
+      <c r="AZ40" s="120"/>
+      <c r="BA40" s="120"/>
+      <c r="BB40" s="120"/>
+      <c r="BC40" s="120"/>
+      <c r="BD40" s="187">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="AK40" s="186" cm="1">
-        <f t="array" ref="AK40">SUMPRODUCT(--(B40:AI40=INT(B40:AI40)),--(B40:AI40&gt;0))</f>
-        <v>21</v>
-      </c>
-      <c r="AL40" s="186" cm="1">
-        <f t="array" ref="AL40">MAX(FREQUENCY(IF((B40:AI40=INT(B40:AI40))*(B40:AI40&gt;0),COLUMN(B40:AI40)),IF((B40:AI40&lt;&gt;INT(B40:AI40))+(B40:AI40&lt;=0),COLUMN(B40:AI40))))</f>
+        <v>25</v>
+      </c>
+      <c r="BE40" s="187" cm="1">
+        <f t="array" ref="BE40">SUMPRODUCT(--(B40:BC40=INT(B40:BC40)),--(B40:BC40&gt;0))</f>
+        <v>22</v>
+      </c>
+      <c r="BF40" s="187" cm="1">
+        <f t="array" ref="BF40">MAX(FREQUENCY(IF((B40:BC40=INT(B40:BC40))*(B40:BC40&gt;0),COLUMN(B40:BC40)),IF((B40:BC40&lt;&gt;INT(B40:BC40))+(B40:BC40&lt;=0),COLUMN(B40:BC40))))</f>
         <v>12</v>
       </c>
-      <c r="AM40" s="187" cm="1">
-        <f t="array" ref="AM40">SUMPRODUCT(--(B40:AI40=INT(B40:AI40)),--(B40:AI40&gt;0))/34*100%</f>
+      <c r="BG40" s="188" cm="1">
+        <f t="array" ref="BG40">SUMPRODUCT(--(B40:AI40=INT(B40:AI40)),--(B40:AI40&gt;0))/34*100%</f>
         <v>0.617647058823529</v>
       </c>
-      <c r="AN40" s="188">
-        <f t="shared" ref="AN40:AP40" si="38">RANK(AJ40,AJ$3:AJ$53,0)</f>
+      <c r="BH40" s="189">
+        <f t="shared" ref="BH40:BJ40" si="38">RANK(BD40,BD$3:BD$53,0)</f>
         <v>2</v>
       </c>
-      <c r="AO40" s="188">
+      <c r="BI40" s="189">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="AP40" s="188">
+      <c r="BJ40" s="189">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:42">
+    <row r="41" customHeight="1" spans="1:62">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -12382,36 +13217,58 @@
       </c>
       <c r="AH41" s="120"/>
       <c r="AI41" s="120"/>
-      <c r="AJ41" s="186">
+      <c r="AJ41" s="120">
+        <v>1</v>
+      </c>
+      <c r="AK41" s="120"/>
+      <c r="AL41" s="120"/>
+      <c r="AM41" s="120"/>
+      <c r="AN41" s="120"/>
+      <c r="AO41" s="120"/>
+      <c r="AP41" s="120"/>
+      <c r="AQ41" s="120"/>
+      <c r="AR41" s="120"/>
+      <c r="AS41" s="120"/>
+      <c r="AT41" s="120"/>
+      <c r="AU41" s="120"/>
+      <c r="AV41" s="120"/>
+      <c r="AW41" s="120"/>
+      <c r="AX41" s="120"/>
+      <c r="AY41" s="120"/>
+      <c r="AZ41" s="120"/>
+      <c r="BA41" s="120"/>
+      <c r="BB41" s="120"/>
+      <c r="BC41" s="120"/>
+      <c r="BD41" s="187">
         <f t="shared" si="33"/>
-        <v>11</v>
-      </c>
-      <c r="AK41" s="186" cm="1">
-        <f t="array" ref="AK41">SUMPRODUCT(--(B41:AI41=INT(B41:AI41)),--(B41:AI41&gt;0))</f>
-        <v>8</v>
-      </c>
-      <c r="AL41" s="186" cm="1">
-        <f t="array" ref="AL41">MAX(FREQUENCY(IF((B41:AI41=INT(B41:AI41))*(B41:AI41&gt;0),COLUMN(B41:AI41)),IF((B41:AI41&lt;&gt;INT(B41:AI41))+(B41:AI41&lt;=0),COLUMN(B41:AI41))))</f>
+        <v>12</v>
+      </c>
+      <c r="BE41" s="187" cm="1">
+        <f t="array" ref="BE41">SUMPRODUCT(--(B41:BC41=INT(B41:BC41)),--(B41:BC41&gt;0))</f>
+        <v>9</v>
+      </c>
+      <c r="BF41" s="187" cm="1">
+        <f t="array" ref="BF41">MAX(FREQUENCY(IF((B41:BC41=INT(B41:BC41))*(B41:BC41&gt;0),COLUMN(B41:BC41)),IF((B41:BC41&lt;&gt;INT(B41:BC41))+(B41:BC41&lt;=0),COLUMN(B41:BC41))))</f>
         <v>2</v>
       </c>
-      <c r="AM41" s="187" cm="1">
-        <f t="array" ref="AM41">SUMPRODUCT(--(B41:AI41=INT(B41:AI41)),--(B41:AI41&gt;0))/34*100%</f>
+      <c r="BG41" s="188" cm="1">
+        <f t="array" ref="BG41">SUMPRODUCT(--(B41:AI41=INT(B41:AI41)),--(B41:AI41&gt;0))/34*100%</f>
         <v>0.235294117647059</v>
       </c>
-      <c r="AN41" s="188">
-        <f t="shared" ref="AN41:AP41" si="39">RANK(AJ41,AJ$3:AJ$53,0)</f>
-        <v>8</v>
-      </c>
-      <c r="AO41" s="188">
+      <c r="BH41" s="189">
+        <f t="shared" ref="BH41:BJ41" si="39">RANK(BD41,BD$3:BD$53,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BI41" s="189">
         <f t="shared" si="39"/>
-        <v>12</v>
-      </c>
-      <c r="AP41" s="188">
+        <v>10</v>
+      </c>
+      <c r="BJ41" s="189">
         <f t="shared" si="39"/>
         <v>13</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:42">
+    <row r="42" customHeight="1" spans="1:62">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -12473,37 +13330,59 @@
       <c r="AG42" s="120"/>
       <c r="AH42" s="120"/>
       <c r="AI42" s="120"/>
-      <c r="AJ42" s="186">
+      <c r="AJ42" s="120">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="120"/>
+      <c r="AL42" s="120"/>
+      <c r="AM42" s="120"/>
+      <c r="AN42" s="120"/>
+      <c r="AO42" s="120"/>
+      <c r="AP42" s="120"/>
+      <c r="AQ42" s="120"/>
+      <c r="AR42" s="120"/>
+      <c r="AS42" s="120"/>
+      <c r="AT42" s="120"/>
+      <c r="AU42" s="120"/>
+      <c r="AV42" s="120"/>
+      <c r="AW42" s="120"/>
+      <c r="AX42" s="120"/>
+      <c r="AY42" s="120"/>
+      <c r="AZ42" s="120"/>
+      <c r="BA42" s="120"/>
+      <c r="BB42" s="120"/>
+      <c r="BC42" s="120"/>
+      <c r="BD42" s="187">
         <f t="shared" si="33"/>
-        <v>15</v>
-      </c>
-      <c r="AK42" s="186" cm="1">
-        <f t="array" ref="AK42">SUMPRODUCT(--(B42:AI42=INT(B42:AI42)),--(B42:AI42&gt;0))</f>
-        <v>12</v>
-      </c>
-      <c r="AL42" s="186" cm="1">
-        <f t="array" ref="AL42">MAX(FREQUENCY(IF((B42:AI42=INT(B42:AI42))*(B42:AI42&gt;0),COLUMN(B42:AI42)),IF((B42:AI42&lt;&gt;INT(B42:AI42))+(B42:AI42&lt;=0),COLUMN(B42:AI42))))</f>
+        <v>16</v>
+      </c>
+      <c r="BE42" s="187" cm="1">
+        <f t="array" ref="BE42">SUMPRODUCT(--(B42:BC42=INT(B42:BC42)),--(B42:BC42&gt;0))</f>
+        <v>13</v>
+      </c>
+      <c r="BF42" s="187" cm="1">
+        <f t="array" ref="BF42">MAX(FREQUENCY(IF((B42:BC42=INT(B42:BC42))*(B42:BC42&gt;0),COLUMN(B42:BC42)),IF((B42:BC42&lt;&gt;INT(B42:BC42))+(B42:BC42&lt;=0),COLUMN(B42:BC42))))</f>
         <v>5</v>
       </c>
-      <c r="AM42" s="187" cm="1">
-        <f t="array" ref="AM42">SUMPRODUCT(--(B42:AI42=INT(B42:AI42)),--(B42:AI42&gt;0))/34*100%</f>
+      <c r="BG42" s="188" cm="1">
+        <f t="array" ref="BG42">SUMPRODUCT(--(B42:AI42=INT(B42:AI42)),--(B42:AI42&gt;0))/34*100%</f>
         <v>0.352941176470588</v>
       </c>
-      <c r="AN42" s="188">
-        <f t="shared" ref="AN42:AP42" si="40">RANK(AJ42,AJ$3:AJ$53,0)</f>
+      <c r="BH42" s="189">
+        <f t="shared" ref="BH42:BJ42" si="40">RANK(BD42,BD$3:BD$53,0)</f>
         <v>5</v>
       </c>
-      <c r="AO42" s="188">
+      <c r="BI42" s="189">
         <f t="shared" si="40"/>
         <v>5</v>
       </c>
-      <c r="AP42" s="188">
+      <c r="BJ42" s="189">
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:42">
-      <c r="A43" s="189">
+    <row r="43" customHeight="1" spans="1:62">
+      <c r="A43" s="190">
         <v>41</v>
       </c>
       <c r="B43" s="120"/>
@@ -12540,36 +13419,56 @@
       <c r="AG43" s="120"/>
       <c r="AH43" s="120"/>
       <c r="AI43" s="120"/>
-      <c r="AJ43" s="186">
+      <c r="AJ43" s="120"/>
+      <c r="AK43" s="120"/>
+      <c r="AL43" s="120"/>
+      <c r="AM43" s="120"/>
+      <c r="AN43" s="120"/>
+      <c r="AO43" s="120"/>
+      <c r="AP43" s="120"/>
+      <c r="AQ43" s="120"/>
+      <c r="AR43" s="120"/>
+      <c r="AS43" s="120"/>
+      <c r="AT43" s="120"/>
+      <c r="AU43" s="120"/>
+      <c r="AV43" s="120"/>
+      <c r="AW43" s="120"/>
+      <c r="AX43" s="120"/>
+      <c r="AY43" s="120"/>
+      <c r="AZ43" s="120"/>
+      <c r="BA43" s="120"/>
+      <c r="BB43" s="120"/>
+      <c r="BC43" s="120"/>
+      <c r="BD43" s="187">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AK43" s="186" cm="1">
-        <f t="array" ref="AK43">SUMPRODUCT(--(B43:AI43=INT(B43:AI43)),--(B43:AI43&gt;0))</f>
+      <c r="BE43" s="187" cm="1">
+        <f t="array" ref="BE43">SUMPRODUCT(--(B43:BC43=INT(B43:BC43)),--(B43:BC43&gt;0))</f>
         <v>0</v>
       </c>
-      <c r="AL43" s="186" cm="1">
-        <f t="array" ref="AL43">MAX(FREQUENCY(IF((B43:AI43=INT(B43:AI43))*(B43:AI43&gt;0),COLUMN(B43:AI43)),IF((B43:AI43&lt;&gt;INT(B43:AI43))+(B43:AI43&lt;=0),COLUMN(B43:AI43))))</f>
+      <c r="BF43" s="187" cm="1">
+        <f t="array" ref="BF43">MAX(FREQUENCY(IF((B43:BC43=INT(B43:BC43))*(B43:BC43&gt;0),COLUMN(B43:BC43)),IF((B43:BC43&lt;&gt;INT(B43:BC43))+(B43:BC43&lt;=0),COLUMN(B43:BC43))))</f>
         <v>0</v>
       </c>
-      <c r="AM43" s="187" cm="1">
-        <f t="array" ref="AM43">SUMPRODUCT(--(B43:AI43=INT(B43:AI43)),--(B43:AI43&gt;0))/34*100%</f>
+      <c r="BG43" s="188" cm="1">
+        <f t="array" ref="BG43">SUMPRODUCT(--(B43:AI43=INT(B43:AI43)),--(B43:AI43&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="AN43" s="188">
-        <f t="shared" ref="AN43:AP43" si="41">RANK(AJ43,AJ$3:AJ$53,0)</f>
-        <v>40</v>
-      </c>
-      <c r="AO43" s="188">
+      <c r="BH43" s="189">
+        <f t="shared" ref="BH43:BJ43" si="41">RANK(BD43,BD$3:BD$53,0)</f>
+        <v>41</v>
+      </c>
+      <c r="BI43" s="189">
         <f t="shared" si="41"/>
-        <v>40</v>
-      </c>
-      <c r="AP43" s="188">
+        <v>41</v>
+      </c>
+      <c r="BJ43" s="189">
         <f t="shared" si="41"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:62">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -12635,37 +13534,57 @@
       <c r="AG44" s="120"/>
       <c r="AH44" s="120"/>
       <c r="AI44" s="120"/>
-      <c r="AJ44" s="186">
+      <c r="AJ44" s="120"/>
+      <c r="AK44" s="120"/>
+      <c r="AL44" s="120"/>
+      <c r="AM44" s="120"/>
+      <c r="AN44" s="120"/>
+      <c r="AO44" s="120"/>
+      <c r="AP44" s="120"/>
+      <c r="AQ44" s="120"/>
+      <c r="AR44" s="120"/>
+      <c r="AS44" s="120"/>
+      <c r="AT44" s="120"/>
+      <c r="AU44" s="120"/>
+      <c r="AV44" s="120"/>
+      <c r="AW44" s="120"/>
+      <c r="AX44" s="120"/>
+      <c r="AY44" s="120"/>
+      <c r="AZ44" s="120"/>
+      <c r="BA44" s="120"/>
+      <c r="BB44" s="120"/>
+      <c r="BC44" s="120"/>
+      <c r="BD44" s="187">
         <f t="shared" si="33"/>
         <v>17</v>
       </c>
-      <c r="AK44" s="186" cm="1">
-        <f t="array" ref="AK44">SUMPRODUCT(--(B44:AI44=INT(B44:AI44)),--(B44:AI44&gt;0))</f>
+      <c r="BE44" s="187" cm="1">
+        <f t="array" ref="BE44">SUMPRODUCT(--(B44:BC44=INT(B44:BC44)),--(B44:BC44&gt;0))</f>
         <v>14</v>
       </c>
-      <c r="AL44" s="186" cm="1">
-        <f t="array" ref="AL44">MAX(FREQUENCY(IF((B44:AI44=INT(B44:AI44))*(B44:AI44&gt;0),COLUMN(B44:AI44)),IF((B44:AI44&lt;&gt;INT(B44:AI44))+(B44:AI44&lt;=0),COLUMN(B44:AI44))))</f>
+      <c r="BF44" s="187" cm="1">
+        <f t="array" ref="BF44">MAX(FREQUENCY(IF((B44:BC44=INT(B44:BC44))*(B44:BC44&gt;0),COLUMN(B44:BC44)),IF((B44:BC44&lt;&gt;INT(B44:BC44))+(B44:BC44&lt;=0),COLUMN(B44:BC44))))</f>
         <v>5</v>
       </c>
-      <c r="AM44" s="187" cm="1">
-        <f t="array" ref="AM44">SUMPRODUCT(--(B44:AI44=INT(B44:AI44)),--(B44:AI44&gt;0))/34*100%</f>
+      <c r="BG44" s="188" cm="1">
+        <f t="array" ref="BG44">SUMPRODUCT(--(B44:AI44=INT(B44:AI44)),--(B44:AI44&gt;0))/34*100%</f>
         <v>0.411764705882353</v>
       </c>
-      <c r="AN44" s="188">
-        <f t="shared" ref="AN44:AP44" si="42">RANK(AJ44,AJ$3:AJ$53,0)</f>
+      <c r="BH44" s="189">
+        <f t="shared" ref="BH44:BJ44" si="42">RANK(BD44,BD$3:BD$53,0)</f>
         <v>3</v>
       </c>
-      <c r="AO44" s="188">
+      <c r="BI44" s="189">
         <f t="shared" si="42"/>
         <v>4</v>
       </c>
-      <c r="AP44" s="188">
+      <c r="BJ44" s="189">
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:42">
-      <c r="A45" s="189">
+    <row r="45" customHeight="1" spans="1:62">
+      <c r="A45" s="190">
         <v>43</v>
       </c>
       <c r="B45" s="120"/>
@@ -12702,36 +13621,56 @@
       <c r="AG45" s="120"/>
       <c r="AH45" s="120"/>
       <c r="AI45" s="120"/>
-      <c r="AJ45" s="186">
+      <c r="AJ45" s="120"/>
+      <c r="AK45" s="120"/>
+      <c r="AL45" s="120"/>
+      <c r="AM45" s="120"/>
+      <c r="AN45" s="120"/>
+      <c r="AO45" s="120"/>
+      <c r="AP45" s="120"/>
+      <c r="AQ45" s="120"/>
+      <c r="AR45" s="120"/>
+      <c r="AS45" s="120"/>
+      <c r="AT45" s="120"/>
+      <c r="AU45" s="120"/>
+      <c r="AV45" s="120"/>
+      <c r="AW45" s="120"/>
+      <c r="AX45" s="120"/>
+      <c r="AY45" s="120"/>
+      <c r="AZ45" s="120"/>
+      <c r="BA45" s="120"/>
+      <c r="BB45" s="120"/>
+      <c r="BC45" s="120"/>
+      <c r="BD45" s="187">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AK45" s="186" cm="1">
-        <f t="array" ref="AK45">SUMPRODUCT(--(B45:AI45=INT(B45:AI45)),--(B45:AI45&gt;0))</f>
+      <c r="BE45" s="187" cm="1">
+        <f t="array" ref="BE45">SUMPRODUCT(--(B45:BC45=INT(B45:BC45)),--(B45:BC45&gt;0))</f>
         <v>0</v>
       </c>
-      <c r="AL45" s="186" cm="1">
-        <f t="array" ref="AL45">MAX(FREQUENCY(IF((B45:AI45=INT(B45:AI45))*(B45:AI45&gt;0),COLUMN(B45:AI45)),IF((B45:AI45&lt;&gt;INT(B45:AI45))+(B45:AI45&lt;=0),COLUMN(B45:AI45))))</f>
+      <c r="BF45" s="187" cm="1">
+        <f t="array" ref="BF45">MAX(FREQUENCY(IF((B45:BC45=INT(B45:BC45))*(B45:BC45&gt;0),COLUMN(B45:BC45)),IF((B45:BC45&lt;&gt;INT(B45:BC45))+(B45:BC45&lt;=0),COLUMN(B45:BC45))))</f>
         <v>0</v>
       </c>
-      <c r="AM45" s="187" cm="1">
-        <f t="array" ref="AM45">SUMPRODUCT(--(B45:AI45=INT(B45:AI45)),--(B45:AI45&gt;0))/34*100%</f>
+      <c r="BG45" s="188" cm="1">
+        <f t="array" ref="BG45">SUMPRODUCT(--(B45:AI45=INT(B45:AI45)),--(B45:AI45&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="AN45" s="188">
-        <f t="shared" ref="AN45:AP45" si="43">RANK(AJ45,AJ$3:AJ$53,0)</f>
-        <v>40</v>
-      </c>
-      <c r="AO45" s="188">
+      <c r="BH45" s="189">
+        <f t="shared" ref="BH45:BJ45" si="43">RANK(BD45,BD$3:BD$53,0)</f>
+        <v>41</v>
+      </c>
+      <c r="BI45" s="189">
         <f t="shared" si="43"/>
-        <v>40</v>
-      </c>
-      <c r="AP45" s="188">
+        <v>41</v>
+      </c>
+      <c r="BJ45" s="189">
         <f t="shared" si="43"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:62">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -12811,37 +13750,59 @@
       <c r="AG46" s="120"/>
       <c r="AH46" s="120"/>
       <c r="AI46" s="120"/>
-      <c r="AJ46" s="186">
+      <c r="AJ46" s="120">
+        <v>1</v>
+      </c>
+      <c r="AK46" s="120"/>
+      <c r="AL46" s="120"/>
+      <c r="AM46" s="120"/>
+      <c r="AN46" s="120"/>
+      <c r="AO46" s="120"/>
+      <c r="AP46" s="120"/>
+      <c r="AQ46" s="120"/>
+      <c r="AR46" s="120"/>
+      <c r="AS46" s="120"/>
+      <c r="AT46" s="120"/>
+      <c r="AU46" s="120"/>
+      <c r="AV46" s="120"/>
+      <c r="AW46" s="120"/>
+      <c r="AX46" s="120"/>
+      <c r="AY46" s="120"/>
+      <c r="AZ46" s="120"/>
+      <c r="BA46" s="120"/>
+      <c r="BB46" s="120"/>
+      <c r="BC46" s="120"/>
+      <c r="BD46" s="187">
         <f t="shared" si="33"/>
-        <v>30</v>
-      </c>
-      <c r="AK46" s="186" cm="1">
-        <f t="array" ref="AK46">SUMPRODUCT(--(B46:AI46=INT(B46:AI46)),--(B46:AI46&gt;0))</f>
-        <v>21</v>
-      </c>
-      <c r="AL46" s="186" cm="1">
-        <f t="array" ref="AL46">MAX(FREQUENCY(IF((B46:AI46=INT(B46:AI46))*(B46:AI46&gt;0),COLUMN(B46:AI46)),IF((B46:AI46&lt;&gt;INT(B46:AI46))+(B46:AI46&lt;=0),COLUMN(B46:AI46))))</f>
+        <v>31</v>
+      </c>
+      <c r="BE46" s="187" cm="1">
+        <f t="array" ref="BE46">SUMPRODUCT(--(B46:BC46=INT(B46:BC46)),--(B46:BC46&gt;0))</f>
+        <v>22</v>
+      </c>
+      <c r="BF46" s="187" cm="1">
+        <f t="array" ref="BF46">MAX(FREQUENCY(IF((B46:BC46=INT(B46:BC46))*(B46:BC46&gt;0),COLUMN(B46:BC46)),IF((B46:BC46&lt;&gt;INT(B46:BC46))+(B46:BC46&lt;=0),COLUMN(B46:BC46))))</f>
         <v>8</v>
       </c>
-      <c r="AM46" s="187" cm="1">
-        <f t="array" ref="AM46">SUMPRODUCT(--(B46:AI46=INT(B46:AI46)),--(B46:AI46&gt;0))/34*100%</f>
+      <c r="BG46" s="188" cm="1">
+        <f t="array" ref="BG46">SUMPRODUCT(--(B46:AI46=INT(B46:AI46)),--(B46:AI46&gt;0))/34*100%</f>
         <v>0.617647058823529</v>
       </c>
-      <c r="AN46" s="188">
-        <f t="shared" ref="AN46:AP46" si="44">RANK(AJ46,AJ$3:AJ$53,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AO46" s="188">
+      <c r="BH46" s="189">
+        <f t="shared" ref="BH46:BJ46" si="44">RANK(BD46,BD$3:BD$53,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BI46" s="189">
         <f t="shared" si="44"/>
         <v>1</v>
       </c>
-      <c r="AP46" s="188">
+      <c r="BJ46" s="189">
         <f t="shared" si="44"/>
         <v>2</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:42">
-      <c r="A47" s="189">
+    <row r="47" customHeight="1" spans="1:62">
+      <c r="A47" s="190">
         <v>45</v>
       </c>
       <c r="B47" s="120"/>
@@ -12878,36 +13839,56 @@
       <c r="AG47" s="120"/>
       <c r="AH47" s="120"/>
       <c r="AI47" s="120"/>
-      <c r="AJ47" s="186">
+      <c r="AJ47" s="120"/>
+      <c r="AK47" s="120"/>
+      <c r="AL47" s="120"/>
+      <c r="AM47" s="120"/>
+      <c r="AN47" s="120"/>
+      <c r="AO47" s="120"/>
+      <c r="AP47" s="120"/>
+      <c r="AQ47" s="120"/>
+      <c r="AR47" s="120"/>
+      <c r="AS47" s="120"/>
+      <c r="AT47" s="120"/>
+      <c r="AU47" s="120"/>
+      <c r="AV47" s="120"/>
+      <c r="AW47" s="120"/>
+      <c r="AX47" s="120"/>
+      <c r="AY47" s="120"/>
+      <c r="AZ47" s="120"/>
+      <c r="BA47" s="120"/>
+      <c r="BB47" s="120"/>
+      <c r="BC47" s="120"/>
+      <c r="BD47" s="187">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AK47" s="186" cm="1">
-        <f t="array" ref="AK47">SUMPRODUCT(--(B47:AI47=INT(B47:AI47)),--(B47:AI47&gt;0))</f>
+      <c r="BE47" s="187" cm="1">
+        <f t="array" ref="BE47">SUMPRODUCT(--(B47:BC47=INT(B47:BC47)),--(B47:BC47&gt;0))</f>
         <v>0</v>
       </c>
-      <c r="AL47" s="186" cm="1">
-        <f t="array" ref="AL47">MAX(FREQUENCY(IF((B47:AI47=INT(B47:AI47))*(B47:AI47&gt;0),COLUMN(B47:AI47)),IF((B47:AI47&lt;&gt;INT(B47:AI47))+(B47:AI47&lt;=0),COLUMN(B47:AI47))))</f>
+      <c r="BF47" s="187" cm="1">
+        <f t="array" ref="BF47">MAX(FREQUENCY(IF((B47:BC47=INT(B47:BC47))*(B47:BC47&gt;0),COLUMN(B47:BC47)),IF((B47:BC47&lt;&gt;INT(B47:BC47))+(B47:BC47&lt;=0),COLUMN(B47:BC47))))</f>
         <v>0</v>
       </c>
-      <c r="AM47" s="187" cm="1">
-        <f t="array" ref="AM47">SUMPRODUCT(--(B47:AI47=INT(B47:AI47)),--(B47:AI47&gt;0))/34*100%</f>
+      <c r="BG47" s="188" cm="1">
+        <f t="array" ref="BG47">SUMPRODUCT(--(B47:AI47=INT(B47:AI47)),--(B47:AI47&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="AN47" s="188">
-        <f t="shared" ref="AN47:AP47" si="45">RANK(AJ47,AJ$3:AJ$53,0)</f>
-        <v>40</v>
-      </c>
-      <c r="AO47" s="188">
+      <c r="BH47" s="189">
+        <f t="shared" ref="BH47:BJ47" si="45">RANK(BD47,BD$3:BD$53,0)</f>
+        <v>41</v>
+      </c>
+      <c r="BI47" s="189">
         <f t="shared" si="45"/>
-        <v>40</v>
-      </c>
-      <c r="AP47" s="188">
+        <v>41</v>
+      </c>
+      <c r="BJ47" s="189">
         <f t="shared" si="45"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:62">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -12963,36 +13944,56 @@
       <c r="AG48" s="120"/>
       <c r="AH48" s="120"/>
       <c r="AI48" s="120"/>
-      <c r="AJ48" s="186">
+      <c r="AJ48" s="120"/>
+      <c r="AK48" s="120"/>
+      <c r="AL48" s="120"/>
+      <c r="AM48" s="120"/>
+      <c r="AN48" s="120"/>
+      <c r="AO48" s="120"/>
+      <c r="AP48" s="120"/>
+      <c r="AQ48" s="120"/>
+      <c r="AR48" s="120"/>
+      <c r="AS48" s="120"/>
+      <c r="AT48" s="120"/>
+      <c r="AU48" s="120"/>
+      <c r="AV48" s="120"/>
+      <c r="AW48" s="120"/>
+      <c r="AX48" s="120"/>
+      <c r="AY48" s="120"/>
+      <c r="AZ48" s="120"/>
+      <c r="BA48" s="120"/>
+      <c r="BB48" s="120"/>
+      <c r="BC48" s="120"/>
+      <c r="BD48" s="187">
         <f t="shared" si="33"/>
         <v>9</v>
       </c>
-      <c r="AK48" s="186" cm="1">
-        <f t="array" ref="AK48">SUMPRODUCT(--(B48:AI48=INT(B48:AI48)),--(B48:AI48&gt;0))</f>
+      <c r="BE48" s="187" cm="1">
+        <f t="array" ref="BE48">SUMPRODUCT(--(B48:BC48=INT(B48:BC48)),--(B48:BC48&gt;0))</f>
         <v>9</v>
       </c>
-      <c r="AL48" s="186" cm="1">
-        <f t="array" ref="AL48">MAX(FREQUENCY(IF((B48:AI48=INT(B48:AI48))*(B48:AI48&gt;0),COLUMN(B48:AI48)),IF((B48:AI48&lt;&gt;INT(B48:AI48))+(B48:AI48&lt;=0),COLUMN(B48:AI48))))</f>
+      <c r="BF48" s="187" cm="1">
+        <f t="array" ref="BF48">MAX(FREQUENCY(IF((B48:BC48=INT(B48:BC48))*(B48:BC48&gt;0),COLUMN(B48:BC48)),IF((B48:BC48&lt;&gt;INT(B48:BC48))+(B48:BC48&lt;=0),COLUMN(B48:BC48))))</f>
         <v>2</v>
       </c>
-      <c r="AM48" s="187" cm="1">
-        <f t="array" ref="AM48">SUMPRODUCT(--(B48:AI48=INT(B48:AI48)),--(B48:AI48&gt;0))/34*100%</f>
+      <c r="BG48" s="188" cm="1">
+        <f t="array" ref="BG48">SUMPRODUCT(--(B48:AI48=INT(B48:AI48)),--(B48:AI48&gt;0))/34*100%</f>
         <v>0.264705882352941</v>
       </c>
-      <c r="AN48" s="188">
-        <f t="shared" ref="AN48:AP48" si="46">RANK(AJ48,AJ$3:AJ$53,0)</f>
+      <c r="BH48" s="189">
+        <f t="shared" ref="BH48:BJ48" si="46">RANK(BD48,BD$3:BD$53,0)</f>
         <v>12</v>
       </c>
-      <c r="AO48" s="188">
+      <c r="BI48" s="189">
         <f t="shared" si="46"/>
-        <v>9</v>
-      </c>
-      <c r="AP48" s="188">
+        <v>10</v>
+      </c>
+      <c r="BJ48" s="189">
         <f t="shared" si="46"/>
         <v>13</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:42">
+    <row r="49" customHeight="1" spans="1:62">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -13036,36 +14037,58 @@
       <c r="AG49" s="120"/>
       <c r="AH49" s="120"/>
       <c r="AI49" s="120"/>
-      <c r="AJ49" s="186">
+      <c r="AJ49" s="120">
+        <v>1</v>
+      </c>
+      <c r="AK49" s="120"/>
+      <c r="AL49" s="120"/>
+      <c r="AM49" s="120"/>
+      <c r="AN49" s="120"/>
+      <c r="AO49" s="120"/>
+      <c r="AP49" s="120"/>
+      <c r="AQ49" s="120"/>
+      <c r="AR49" s="120"/>
+      <c r="AS49" s="120"/>
+      <c r="AT49" s="120"/>
+      <c r="AU49" s="120"/>
+      <c r="AV49" s="120"/>
+      <c r="AW49" s="120"/>
+      <c r="AX49" s="120"/>
+      <c r="AY49" s="120"/>
+      <c r="AZ49" s="120"/>
+      <c r="BA49" s="120"/>
+      <c r="BB49" s="120"/>
+      <c r="BC49" s="120"/>
+      <c r="BD49" s="187">
         <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="AK49" s="186" cm="1">
-        <f t="array" ref="AK49">SUMPRODUCT(--(B49:AI49=INT(B49:AI49)),--(B49:AI49&gt;0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL49" s="186" cm="1">
-        <f t="array" ref="AL49">MAX(FREQUENCY(IF((B49:AI49=INT(B49:AI49))*(B49:AI49&gt;0),COLUMN(B49:AI49)),IF((B49:AI49&lt;&gt;INT(B49:AI49))+(B49:AI49&lt;=0),COLUMN(B49:AI49))))</f>
-        <v>1</v>
-      </c>
-      <c r="AM49" s="187" cm="1">
-        <f t="array" ref="AM49">SUMPRODUCT(--(B49:AI49=INT(B49:AI49)),--(B49:AI49&gt;0))/34*100%</f>
+        <v>4</v>
+      </c>
+      <c r="BE49" s="187" cm="1">
+        <f t="array" ref="BE49">SUMPRODUCT(--(B49:BC49=INT(B49:BC49)),--(B49:BC49&gt;0))</f>
+        <v>4</v>
+      </c>
+      <c r="BF49" s="187" cm="1">
+        <f t="array" ref="BF49">MAX(FREQUENCY(IF((B49:BC49=INT(B49:BC49))*(B49:BC49&gt;0),COLUMN(B49:BC49)),IF((B49:BC49&lt;&gt;INT(B49:BC49))+(B49:BC49&lt;=0),COLUMN(B49:BC49))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG49" s="188" cm="1">
+        <f t="array" ref="BG49">SUMPRODUCT(--(B49:AI49=INT(B49:AI49)),--(B49:AI49&gt;0))/34*100%</f>
         <v>0.0882352941176471</v>
       </c>
-      <c r="AN49" s="188">
-        <f t="shared" ref="AN49:AP49" si="47">RANK(AJ49,AJ$3:AJ$53,0)</f>
-        <v>25</v>
-      </c>
-      <c r="AO49" s="188">
+      <c r="BH49" s="189">
+        <f t="shared" ref="BH49:BJ49" si="47">RANK(BD49,BD$3:BD$53,0)</f>
+        <v>23</v>
+      </c>
+      <c r="BI49" s="189">
         <f t="shared" si="47"/>
         <v>23</v>
       </c>
-      <c r="AP49" s="188">
+      <c r="BJ49" s="189">
         <f t="shared" si="47"/>
         <v>19</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:42">
+    <row r="50" customHeight="1" spans="1:62">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -13111,37 +14134,59 @@
       <c r="AG50" s="120"/>
       <c r="AH50" s="120"/>
       <c r="AI50" s="120"/>
-      <c r="AJ50" s="186">
+      <c r="AJ50" s="120">
+        <v>1</v>
+      </c>
+      <c r="AK50" s="120"/>
+      <c r="AL50" s="120"/>
+      <c r="AM50" s="120"/>
+      <c r="AN50" s="120"/>
+      <c r="AO50" s="120"/>
+      <c r="AP50" s="120"/>
+      <c r="AQ50" s="120"/>
+      <c r="AR50" s="120"/>
+      <c r="AS50" s="120"/>
+      <c r="AT50" s="120"/>
+      <c r="AU50" s="120"/>
+      <c r="AV50" s="120"/>
+      <c r="AW50" s="120"/>
+      <c r="AX50" s="120"/>
+      <c r="AY50" s="120"/>
+      <c r="AZ50" s="120"/>
+      <c r="BA50" s="120"/>
+      <c r="BB50" s="120"/>
+      <c r="BC50" s="120"/>
+      <c r="BD50" s="187">
         <f t="shared" si="33"/>
-        <v>4</v>
-      </c>
-      <c r="AK50" s="186" cm="1">
-        <f t="array" ref="AK50">SUMPRODUCT(--(B50:AI50=INT(B50:AI50)),--(B50:AI50&gt;0))</f>
-        <v>4</v>
-      </c>
-      <c r="AL50" s="186" cm="1">
-        <f t="array" ref="AL50">MAX(FREQUENCY(IF((B50:AI50=INT(B50:AI50))*(B50:AI50&gt;0),COLUMN(B50:AI50)),IF((B50:AI50&lt;&gt;INT(B50:AI50))+(B50:AI50&lt;=0),COLUMN(B50:AI50))))</f>
-        <v>1</v>
-      </c>
-      <c r="AM50" s="187" cm="1">
-        <f t="array" ref="AM50">SUMPRODUCT(--(B50:AI50=INT(B50:AI50)),--(B50:AI50&gt;0))/34*100%</f>
+        <v>5</v>
+      </c>
+      <c r="BE50" s="187" cm="1">
+        <f t="array" ref="BE50">SUMPRODUCT(--(B50:BC50=INT(B50:BC50)),--(B50:BC50&gt;0))</f>
+        <v>5</v>
+      </c>
+      <c r="BF50" s="187" cm="1">
+        <f t="array" ref="BF50">MAX(FREQUENCY(IF((B50:BC50=INT(B50:BC50))*(B50:BC50&gt;0),COLUMN(B50:BC50)),IF((B50:BC50&lt;&gt;INT(B50:BC50))+(B50:BC50&lt;=0),COLUMN(B50:BC50))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG50" s="188" cm="1">
+        <f t="array" ref="BG50">SUMPRODUCT(--(B50:AI50=INT(B50:AI50)),--(B50:AI50&gt;0))/34*100%</f>
         <v>0.117647058823529</v>
       </c>
-      <c r="AN50" s="188">
-        <f t="shared" ref="AN50:AP50" si="48">RANK(AJ50,AJ$3:AJ$53,0)</f>
-        <v>21</v>
-      </c>
-      <c r="AO50" s="188">
+      <c r="BH50" s="189">
+        <f t="shared" ref="BH50:BJ50" si="48">RANK(BD50,BD$3:BD$53,0)</f>
+        <v>20</v>
+      </c>
+      <c r="BI50" s="189">
         <f t="shared" si="48"/>
-        <v>21</v>
-      </c>
-      <c r="AP50" s="188">
+        <v>20</v>
+      </c>
+      <c r="BJ50" s="189">
         <f t="shared" si="48"/>
         <v>19</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:42">
-      <c r="A51" s="189">
+    <row r="51" customHeight="1" spans="1:62">
+      <c r="A51" s="190">
         <v>49</v>
       </c>
       <c r="B51" s="120"/>
@@ -13178,37 +14223,57 @@
       <c r="AG51" s="120"/>
       <c r="AH51" s="120"/>
       <c r="AI51" s="120"/>
-      <c r="AJ51" s="186">
+      <c r="AJ51" s="120"/>
+      <c r="AK51" s="120"/>
+      <c r="AL51" s="120"/>
+      <c r="AM51" s="120"/>
+      <c r="AN51" s="120"/>
+      <c r="AO51" s="120"/>
+      <c r="AP51" s="120"/>
+      <c r="AQ51" s="120"/>
+      <c r="AR51" s="120"/>
+      <c r="AS51" s="120"/>
+      <c r="AT51" s="120"/>
+      <c r="AU51" s="120"/>
+      <c r="AV51" s="120"/>
+      <c r="AW51" s="120"/>
+      <c r="AX51" s="120"/>
+      <c r="AY51" s="120"/>
+      <c r="AZ51" s="120"/>
+      <c r="BA51" s="120"/>
+      <c r="BB51" s="120"/>
+      <c r="BC51" s="120"/>
+      <c r="BD51" s="187">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AK51" s="186" cm="1">
-        <f t="array" ref="AK51">SUMPRODUCT(--(B51:AI51=INT(B51:AI51)),--(B51:AI51&gt;0))</f>
+      <c r="BE51" s="187" cm="1">
+        <f t="array" ref="BE51">SUMPRODUCT(--(B51:BC51=INT(B51:BC51)),--(B51:BC51&gt;0))</f>
         <v>0</v>
       </c>
-      <c r="AL51" s="186" cm="1">
-        <f t="array" ref="AL51">MAX(FREQUENCY(IF((B51:AI51=INT(B51:AI51))*(B51:AI51&gt;0),COLUMN(B51:AI51)),IF((B51:AI51&lt;&gt;INT(B51:AI51))+(B51:AI51&lt;=0),COLUMN(B51:AI51))))</f>
+      <c r="BF51" s="187" cm="1">
+        <f t="array" ref="BF51">MAX(FREQUENCY(IF((B51:BC51=INT(B51:BC51))*(B51:BC51&gt;0),COLUMN(B51:BC51)),IF((B51:BC51&lt;&gt;INT(B51:BC51))+(B51:BC51&lt;=0),COLUMN(B51:BC51))))</f>
         <v>0</v>
       </c>
-      <c r="AM51" s="187" cm="1">
-        <f t="array" ref="AM51">SUMPRODUCT(--(B51:AI51=INT(B51:AI51)),--(B51:AI51&gt;0))/34*100%</f>
+      <c r="BG51" s="188" cm="1">
+        <f t="array" ref="BG51">SUMPRODUCT(--(B51:AI51=INT(B51:AI51)),--(B51:AI51&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="AN51" s="188">
-        <f t="shared" ref="AN51:AP51" si="49">RANK(AJ51,AJ$3:AJ$53,0)</f>
-        <v>40</v>
-      </c>
-      <c r="AO51" s="188">
+      <c r="BH51" s="189">
+        <f t="shared" ref="BH51:BJ51" si="49">RANK(BD51,BD$3:BD$53,0)</f>
+        <v>41</v>
+      </c>
+      <c r="BI51" s="189">
         <f t="shared" si="49"/>
-        <v>40</v>
-      </c>
-      <c r="AP51" s="188">
+        <v>41</v>
+      </c>
+      <c r="BJ51" s="189">
         <f t="shared" si="49"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:42">
-      <c r="A52" s="189">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:62">
+      <c r="A52" s="190">
         <v>50</v>
       </c>
       <c r="B52" s="120"/>
@@ -13245,37 +14310,57 @@
       <c r="AG52" s="120"/>
       <c r="AH52" s="120"/>
       <c r="AI52" s="120"/>
-      <c r="AJ52" s="186">
+      <c r="AJ52" s="120"/>
+      <c r="AK52" s="120"/>
+      <c r="AL52" s="120"/>
+      <c r="AM52" s="120"/>
+      <c r="AN52" s="120"/>
+      <c r="AO52" s="120"/>
+      <c r="AP52" s="120"/>
+      <c r="AQ52" s="120"/>
+      <c r="AR52" s="120"/>
+      <c r="AS52" s="120"/>
+      <c r="AT52" s="120"/>
+      <c r="AU52" s="120"/>
+      <c r="AV52" s="120"/>
+      <c r="AW52" s="120"/>
+      <c r="AX52" s="120"/>
+      <c r="AY52" s="120"/>
+      <c r="AZ52" s="120"/>
+      <c r="BA52" s="120"/>
+      <c r="BB52" s="120"/>
+      <c r="BC52" s="120"/>
+      <c r="BD52" s="187">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AK52" s="186" cm="1">
-        <f t="array" ref="AK52">SUMPRODUCT(--(B52:AI52=INT(B52:AI52)),--(B52:AI52&gt;0))</f>
+      <c r="BE52" s="187" cm="1">
+        <f t="array" ref="BE52">SUMPRODUCT(--(B52:BC52=INT(B52:BC52)),--(B52:BC52&gt;0))</f>
         <v>0</v>
       </c>
-      <c r="AL52" s="186" cm="1">
-        <f t="array" ref="AL52">MAX(FREQUENCY(IF((B52:AI52=INT(B52:AI52))*(B52:AI52&gt;0),COLUMN(B52:AI52)),IF((B52:AI52&lt;&gt;INT(B52:AI52))+(B52:AI52&lt;=0),COLUMN(B52:AI52))))</f>
+      <c r="BF52" s="187" cm="1">
+        <f t="array" ref="BF52">MAX(FREQUENCY(IF((B52:BC52=INT(B52:BC52))*(B52:BC52&gt;0),COLUMN(B52:BC52)),IF((B52:BC52&lt;&gt;INT(B52:BC52))+(B52:BC52&lt;=0),COLUMN(B52:BC52))))</f>
         <v>0</v>
       </c>
-      <c r="AM52" s="187" cm="1">
-        <f t="array" ref="AM52">SUMPRODUCT(--(B52:AI52=INT(B52:AI52)),--(B52:AI52&gt;0))/34*100%</f>
+      <c r="BG52" s="188" cm="1">
+        <f t="array" ref="BG52">SUMPRODUCT(--(B52:AI52=INT(B52:AI52)),--(B52:AI52&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="AN52" s="188">
-        <f t="shared" ref="AN52:AP52" si="50">RANK(AJ52,AJ$3:AJ$53,0)</f>
-        <v>40</v>
-      </c>
-      <c r="AO52" s="188">
+      <c r="BH52" s="189">
+        <f t="shared" ref="BH52:BJ52" si="50">RANK(BD52,BD$3:BD$53,0)</f>
+        <v>41</v>
+      </c>
+      <c r="BI52" s="189">
         <f t="shared" si="50"/>
-        <v>40</v>
-      </c>
-      <c r="AP52" s="188">
+        <v>41</v>
+      </c>
+      <c r="BJ52" s="189">
         <f t="shared" si="50"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:42">
-      <c r="A53" s="189">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:62">
+      <c r="A53" s="192">
         <v>51</v>
       </c>
       <c r="B53" s="120"/>
@@ -13312,44 +14397,67 @@
       <c r="AG53" s="120"/>
       <c r="AH53" s="120"/>
       <c r="AI53" s="120"/>
-      <c r="AJ53" s="186">
+      <c r="AJ53" s="120">
+        <v>1</v>
+      </c>
+      <c r="AK53" s="120"/>
+      <c r="AL53" s="120"/>
+      <c r="AM53" s="120"/>
+      <c r="AN53" s="120"/>
+      <c r="AO53" s="120"/>
+      <c r="AP53" s="120"/>
+      <c r="AQ53" s="120"/>
+      <c r="AR53" s="120"/>
+      <c r="AS53" s="120"/>
+      <c r="AT53" s="120"/>
+      <c r="AU53" s="120"/>
+      <c r="AV53" s="120"/>
+      <c r="AW53" s="120"/>
+      <c r="AX53" s="120"/>
+      <c r="AY53" s="120"/>
+      <c r="AZ53" s="120"/>
+      <c r="BA53" s="120"/>
+      <c r="BB53" s="120"/>
+      <c r="BC53" s="120"/>
+      <c r="BD53" s="187">
         <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="BE53" s="187" cm="1">
+        <f t="array" ref="BE53">SUMPRODUCT(--(B53:BC53=INT(B53:BC53)),--(B53:BC53&gt;0))</f>
+        <v>1</v>
+      </c>
+      <c r="BF53" s="187" cm="1">
+        <f t="array" ref="BF53">MAX(FREQUENCY(IF((B53:BC53=INT(B53:BC53))*(B53:BC53&gt;0),COLUMN(B53:BC53)),IF((B53:BC53&lt;&gt;INT(B53:BC53))+(B53:BC53&lt;=0),COLUMN(B53:BC53))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG53" s="188" cm="1">
+        <f t="array" ref="BG53">SUMPRODUCT(--(B53:AI53=INT(B53:AI53)),--(B53:AI53&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="AK53" s="186" cm="1">
-        <f t="array" ref="AK53">SUMPRODUCT(--(B53:AI53=INT(B53:AI53)),--(B53:AI53&gt;0))</f>
-        <v>0</v>
-      </c>
-      <c r="AL53" s="186" cm="1">
-        <f t="array" ref="AL53">MAX(FREQUENCY(IF((B53:AI53=INT(B53:AI53))*(B53:AI53&gt;0),COLUMN(B53:AI53)),IF((B53:AI53&lt;&gt;INT(B53:AI53))+(B53:AI53&lt;=0),COLUMN(B53:AI53))))</f>
-        <v>0</v>
-      </c>
-      <c r="AM53" s="187" cm="1">
-        <f t="array" ref="AM53">SUMPRODUCT(--(B53:AI53=INT(B53:AI53)),--(B53:AI53&gt;0))/34*100%</f>
-        <v>0</v>
-      </c>
-      <c r="AN53" s="188">
-        <f t="shared" ref="AN53:AP53" si="51">RANK(AJ53,AJ$3:AJ$53,0)</f>
-        <v>40</v>
-      </c>
-      <c r="AO53" s="188">
+      <c r="BH53" s="189">
+        <f t="shared" ref="BH53:BJ53" si="51">RANK(BD53,BD$3:BD$53,0)</f>
+        <v>34</v>
+      </c>
+      <c r="BI53" s="189">
         <f t="shared" si="51"/>
-        <v>40</v>
-      </c>
-      <c r="AP53" s="188">
+        <v>34</v>
+      </c>
+      <c r="BJ53" s="189">
         <f t="shared" si="51"/>
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="T1:AI1"/>
-    <mergeCell ref="AJ1:AP1"/>
+    <mergeCell ref="AJ1:BC1"/>
+    <mergeCell ref="BD1:BJ1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <conditionalFormatting sqref="T3:T53">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13357,7 +14465,7 @@
         <color theme="4" tint="-0.25"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13367,7 +14475,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U53">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13375,7 +14483,7 @@
         <color theme="4" tint="-0.25"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13385,7 +14493,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V53">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13393,7 +14501,7 @@
         <color theme="4" tint="-0.25"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13403,7 +14511,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W53">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13411,7 +14519,7 @@
         <color theme="4" tint="-0.25"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13421,7 +14529,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X53">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13429,7 +14537,7 @@
         <color theme="4" tint="-0.25"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13439,7 +14547,261 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y53">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.25"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:Z53">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.25"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3:AA53">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.25"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB3:AB53">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.25"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC3:AC53">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.25"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD3:AD53">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.25"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE3:AE53">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.25"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF3:AF53">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.25"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG3:AG53">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.25"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH3:AH53">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.25"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI3:AI53">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.25"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ3:AJ53">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.25"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13451,13 +14813,29 @@
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK3:AK53">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color theme="4" tint="-0.25"/>
         <color theme="4" tint="0.8"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z53">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13469,13 +14847,29 @@
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL3:AL53">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color theme="4" tint="-0.25"/>
         <color theme="4" tint="0.8"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AA53">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13487,13 +14881,29 @@
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM3:AM53">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color theme="4" tint="-0.25"/>
         <color theme="4" tint="0.8"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB53">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13505,13 +14915,29 @@
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN3:AN53">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color theme="4" tint="-0.25"/>
         <color theme="4" tint="0.8"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC3:AC53">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13523,13 +14949,29 @@
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO3:AO53">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color theme="4" tint="-0.25"/>
         <color theme="4" tint="0.8"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD3:AD53">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13541,13 +14983,29 @@
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP3:AP53">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color theme="4" tint="-0.25"/>
         <color theme="4" tint="0.8"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE53">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13559,13 +15017,29 @@
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ3:AQ53">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color theme="4" tint="-0.25"/>
         <color theme="4" tint="0.8"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF3:AF53">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13577,17 +15051,109 @@
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR3:AR53">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color theme="4" tint="-0.25"/>
         <color theme="4" tint="0.8"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AG53">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="AS3:AS53">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color theme="4" tint="-0.25"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT3:AT53">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.25"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
         <color theme="4" tint="0.8"/>
       </colorScale>
     </cfRule>
@@ -13596,10 +15162,266 @@
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color theme="4" tint="0.8"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU3:AU53">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.25"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
         <color theme="4" tint="-0.25"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV3:AV53">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.25"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW3:AW53">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.25"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX3:AX53">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.25"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY3:AY53">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.25"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ3:AZ53">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.25"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA3:BA53">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.25"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB3:BB53">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.25"/>
+        <color theme="4" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13616,8 +15438,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH53">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="BC3:BC53">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13625,7 +15447,7 @@
         <color theme="4" tint="0.8"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13633,7 +15455,7 @@
         <color theme="4" tint="-0.25"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13650,8 +15472,54 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI3:AI53">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="BH3:BH53">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="-0.5"/>
+        <color theme="9" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI3:BI53">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="-0.5"/>
+        <color theme="9" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ3:BJ53">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="-0.5"/>
+        <color theme="9" tint="0.8"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:S53">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13659,15 +15527,17 @@
         <color theme="4" tint="0.8"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="10">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:AF53">
+    <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color theme="4" tint="0.8"/>
-        <color theme="4" tint="-0.25"/>
+        <color theme="4"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13675,6 +15545,18 @@
         <color theme="4" tint="0.8"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:BC53">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="3"/>
+        <color theme="4" tint="0.8"/>
+        <color theme="4" tint="-0.25"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:BC53">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -13684,87 +15566,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN3:AN53">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="9" tint="-0.5"/>
-        <color theme="9" tint="0.8"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO3:AO53">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="9" tint="-0.5"/>
-        <color theme="9" tint="0.8"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP3:AP53">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="9" tint="-0.5"/>
-        <color theme="9" tint="0.8"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:S53">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.8"/>
-        <color theme="4" tint="-0.25"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="-0.25"/>
-        <color theme="4" tint="0.8"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:AF53">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.8"/>
-        <color theme="4"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="4" tint="0.8"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="0" bottom="0" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="AF11:AM11 Y15 AF48:AM48 AG43:AM47 AG49:AM53 AF42:AM42 AH41:AM41 AG5:AM8 Y12:Y13 AG37:AM39 AA11:AC11 AD11 AF15:AM15 AA15 Y14 AG14:AM14 Z13:AA13 AG13:AM13 AG12:AM12 AG16:AM16 Y17:AM18 A19:AM36 Y38:AB38 AC38 Y3:Y4 AG1:AI2 AG3:AP3 A40:AB40 Y42 X44:AF44 Y46:AF46 A47:AF47 Y48:Y49 AC48:AE48 AE50:AF50 A8:W8 AF4:AM4" formulaRange="1"/>
-    <ignoredError sqref="A11:Z11 AB11:AC11 AE11 AB15:AE15 Z15 Z14:AF14 AB13:AF13 Z13 Z12:AF12 A16:AF16 A17:X18 Z17:AF18 A19:AF21 A22:X22 AA22:AD22 AF22 A23:AF23 A24:X25 Z24:AF25 A26:AF27 A28:X33 Z28:AF33 A34:AF35 A36:X36 Z36:AF36 A38:X38 Z38:AB38 AD38:AF38 A3:X4 AJ1:AP2 AO3:AP3 AC40:AD40 A40:V40 A42:X42 A45:AF45 A44:W44 Z44:AD44 AF44 A43:AF43 A46:X46 AA46 AC46:AD46 AF46 A47:AF47 A48:X49 Z48:AB48 AE48 A51:AF53 A50:AD50 AF50 X8:AF8 A8:V8 A5:AF7 Z4:AE4 A10:X10 Z41:AE42 AN4:AP8 AO9:AP9 Z10:AF10 AN11:AP39 Z49:AF49 A12:X15 A37:AF37 A39:AF39 A1:AF2 Z3:AF3" formulaRange="1" unlockedFormula="1"/>
-    <ignoredError sqref="X41 AD9:AF9 Z9:AB9 A9:X9" unlockedFormula="1"/>
+    <ignoredError sqref="Z9:AB9 AD9:AF9 X41 A9:X9" unlockedFormula="1"/>
+    <ignoredError sqref="A10:X10 Z3:AF3 A1:AF2 A39:AF39 A37:AF37 A12:X15 Z49:AF49 BH11:BJ39 Z10:AF10 BI9:BJ9 BH4:BJ8 Z41:AE42 Z4:AE4 A5:AF7 A8:V8 X8:AF8 AF50 A50:AD50 A51:AF53 AE48 Z48:AB48 A48:X49 A47:AF47 AF46 AC46:AD46 AC46:AD46 AA46 AA46 A46:X46 A43:AF43 AF44 Z44:AD44 Z44:AD44 A44:W44 A45:AF45 A42:X42 A40:V40 AC40:AD40 BI3 BD1:BJ2 A3:X4 AD38:AF38 Z38:AB38 A38:X38 Z36:AF36 A36:X36 A36:X36 A34:AF35 Z28:AF33 Z28:AF33 A28:X33 A28:X33 A26:AF27 A26:AF27 Z24:AF25 Z24:AF25 A24:X25 A24:X25 A23:AF23 A23:AF23 AF22 AF22 AA22:AD22 AA22:AD22 A22:X22 A22:X22 A19:AF21 A19:AF21 Z17:AF18 A17:X18 A16:AF16 Z12:AF12 Z13 AB13:AF13 Z14:AF14 Z15 AB15:AE15 AE11 AB11:AC11 A11:Z11" formulaRange="1" unlockedFormula="1"/>
+    <ignoredError sqref="BG11:BG18 BG41:BG53 BG19:BG39 AG12:AI14 AG34:AI39 Y12:Y15 AG5:AI8 AH41:AI41 AF42:AI42 AG49:AI53 AG43:AI47 AG1:AI3 BG4:BG8 AF4:AI4 W8 AE50 AC48:AD48 AF48:AI48 Y48:Y49 Y46:AE46 X44:AE44 Y42 W40:AB40 Y3:Y4 AC38 Y38 A36:Y36 A19:AI33 Y17:Y18 AG16:AI18 AA13 AA15 AF15:AI15 AD11 AF11:AI11 AA11" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/c/materials.xlsx
+++ b/c/materials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20750" windowHeight="10480" tabRatio="724" activeTab="4"/>
+    <workbookView windowWidth="20750" windowHeight="10480" tabRatio="724"/>
   </bookViews>
   <sheets>
     <sheet name="师生" sheetId="5" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="645">
   <si>
     <t>姓名</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>名言：男人不能被女人左右，但可以左右女人。</t>
+  </si>
+  <si>
+    <t>初二寒假三条美女朋友圈配文：
+臭小狗
+我也想要
+早安</t>
   </si>
   <si>
     <t>游武毅</t>
@@ -2951,7 +2957,7 @@
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="54">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -3117,6 +3123,11 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="阿里妈妈方圆体 VF Medium"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="黑体"/>
       <charset val="134"/>
@@ -3273,11 +3284,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <strike/>
       <sz val="11"/>
       <name val="黑体"/>
@@ -3287,13 +3293,18 @@
       <sz val="11"/>
       <name val="黑体"/>
       <charset val="134"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="黑体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3916,155 +3927,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="47" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4607,9 +4618,6 @@
     <xf numFmtId="57" fontId="24" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4644,9 +4652,6 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4737,25 +4742,46 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -5087,765 +5113,772 @@
   <sheetPr>
     <tabColor theme="7" tint="0.8"/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="7.59090909090909" style="71" customWidth="1"/>
-    <col min="2" max="7" width="25.8727272727273" style="223" customWidth="1"/>
-    <col min="9" max="9" width="18.9181818181818" customWidth="1"/>
+    <col min="1" max="1" width="7.59090909090909" style="221" customWidth="1"/>
+    <col min="2" max="7" width="25.8727272727273" style="222" customWidth="1"/>
+    <col min="8" max="10" width="16.6818181818182" style="223" customWidth="1"/>
+    <col min="11" max="16384" width="8.72727272727273" style="224"/>
   </cols>
   <sheetData>
-    <row r="1" s="222" customFormat="1" spans="1:7">
-      <c r="A1" s="68" t="s">
+    <row r="1" s="220" customFormat="1" spans="1:10">
+      <c r="A1" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="224" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="224" t="s">
+      <c r="B1" s="226" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="226" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="224" t="s">
+      <c r="D1" s="226" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="224" t="s">
+      <c r="E1" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="224" t="s">
+      <c r="F1" s="226" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="224" t="s">
+      <c r="G1" s="226" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="72" t="s">
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="228" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="223" t="s">
+      <c r="B2" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="223" t="s">
+      <c r="C2" s="222" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="52" spans="1:7">
-      <c r="A3" s="72" t="s">
+    <row r="3" ht="52" spans="1:10">
+      <c r="A3" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="223" t="s">
+      <c r="C3" s="222" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="223" t="s">
+      <c r="D3" s="222" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="26" spans="1:7">
-      <c r="A4" s="72" t="s">
+    <row r="4" ht="26" spans="1:10">
+      <c r="A4" s="228" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="223" t="s">
+      <c r="D4" s="222" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="228" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="223" t="s">
+      <c r="C5" s="222" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="223" t="s">
+      <c r="D5" s="222" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="228" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="223" t="s">
+      <c r="C6" s="222" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" ht="221" spans="1:7">
-      <c r="A7" s="72" t="s">
+    <row r="7" ht="221" spans="1:10">
+      <c r="A7" s="228" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="223" t="s">
+      <c r="B7" s="222" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="223" t="s">
+      <c r="C7" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="223" t="s">
+      <c r="D7" s="222" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" ht="26" spans="1:7">
-      <c r="A8" s="72" t="s">
+    <row r="8" ht="26" spans="1:10">
+      <c r="A8" s="228" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="223" t="s">
+      <c r="D8" s="222" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="72" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="228" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="72" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="223" t="s">
+      <c r="B10" s="222" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="72" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="228" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="72" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="228" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="39" spans="1:7">
-      <c r="A13" s="72" t="s">
+    <row r="13" ht="39" spans="1:10">
+      <c r="A13" s="228" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="223" t="s">
+      <c r="D13" s="222" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="72" t="s">
+    <row r="14" spans="1:10">
+      <c r="A14" s="228" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="223" t="s">
+      <c r="B14" s="222" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="72" t="s">
+    <row r="15" spans="1:10">
+      <c r="A15" s="228" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="72" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" s="228" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="223" t="s">
+      <c r="C16" s="222" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" ht="26" spans="1:4">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="228" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="223" t="s">
+      <c r="C17" s="222" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="228" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="223" t="s">
+      <c r="D18" s="222" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" ht="26" spans="1:4">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="223" t="s">
+      <c r="D19" s="222" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" ht="26" spans="1:4">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="228" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="223" t="s">
+      <c r="B20" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="223" t="s">
+      <c r="C20" s="222" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" ht="52" spans="1:4">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="228" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="223" t="s">
+      <c r="B21" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="223" t="s">
+      <c r="C21" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="223" t="s">
+      <c r="D21" s="222" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="228" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" ht="26" spans="1:4">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="228" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="223" t="s">
+      <c r="B23" s="222" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" ht="52" spans="1:4">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="228" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="223" t="s">
+      <c r="B24" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="223" t="s">
+      <c r="C24" s="222" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="223" t="s">
+      <c r="D24" s="222" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="228" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="228" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="228" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="223" t="s">
+      <c r="B27" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="223" t="s">
+      <c r="C27" s="222" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" ht="91" spans="1:4">
-      <c r="A28" s="72" t="s">
+      <c r="A28" s="228" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="223" t="s">
+      <c r="B28" s="222" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="223" t="s">
+      <c r="C28" s="222" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="223" t="s">
+      <c r="D28" s="222" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="228" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="228" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="223" t="s">
+      <c r="B30" s="222" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="223" t="s">
+      <c r="C30" s="222" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="228" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="228" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="72" t="s">
+    <row r="33" spans="1:10">
+      <c r="A33" s="228" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="72" t="s">
+    <row r="34" spans="1:10">
+      <c r="A34" s="228" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="72" t="s">
+    <row r="35" spans="1:10">
+      <c r="A35" s="228" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="72" t="s">
+    <row r="36" spans="1:10">
+      <c r="A36" s="228" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="223" t="s">
+      <c r="B36" s="222" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" ht="26" spans="1:9">
-      <c r="A37" s="72" t="s">
+    <row r="37" ht="26" spans="1:10">
+      <c r="A37" s="228" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="223" t="s">
+      <c r="C37" s="222" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="223" t="s">
+      <c r="D37" s="222" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="72" t="s">
+    <row r="38" spans="1:10">
+      <c r="A38" s="228" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="223" t="s">
+      <c r="B38" s="222" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="225"/>
-      <c r="D38" s="225"/>
-      <c r="E38" s="225"/>
-      <c r="F38" s="225"/>
-      <c r="G38" s="225"/>
-    </row>
-    <row r="39" ht="26" spans="1:9">
-      <c r="A39" s="72" t="s">
+      <c r="C38" s="229"/>
+      <c r="D38" s="229"/>
+      <c r="E38" s="229"/>
+      <c r="F38" s="229"/>
+      <c r="G38" s="229"/>
+    </row>
+    <row r="39" ht="26" spans="1:10">
+      <c r="A39" s="228" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="223" t="s">
+      <c r="C39" s="222" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="223" t="s">
+      <c r="D39" s="222" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="72" t="s">
+    <row r="40" spans="1:10">
+      <c r="A40" s="228" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="223" t="s">
+      <c r="B40" s="222" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="223" t="s">
+      <c r="C40" s="222" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="223" t="s">
+      <c r="D40" s="222" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" ht="238" spans="1:9">
-      <c r="A41" s="72" t="s">
+    <row r="41" ht="208" spans="1:10">
+      <c r="A41" s="228" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="223" t="s">
+      <c r="C41" s="222" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="223" t="s">
+      <c r="D41" s="222" t="s">
         <v>92</v>
       </c>
-      <c r="H41" s="226" t="s">
+      <c r="H41" s="230" t="s">
         <v>93</v>
       </c>
-      <c r="I41" s="226" t="s">
+      <c r="I41" s="230" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="72" t="s">
+      <c r="J41" s="231" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="72" t="s">
+    <row r="42" spans="1:10">
+      <c r="A42" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="223" t="s">
+    </row>
+    <row r="43" ht="28" spans="1:10">
+      <c r="A43" s="228" t="s">
         <v>97</v>
       </c>
-      <c r="H43" t="s">
+      <c r="B43" s="222" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="44" ht="26" spans="1:9">
-      <c r="A44" s="72" t="s">
+      <c r="H43" s="231" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="223" t="s">
+    </row>
+    <row r="44" ht="26" spans="1:10">
+      <c r="A44" s="228" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" ht="26" spans="1:9">
-      <c r="A45" s="72" t="s">
+      <c r="B44" s="222" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="223" t="s">
+    </row>
+    <row r="45" ht="26" spans="1:10">
+      <c r="A45" s="228" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="223" t="s">
+      <c r="C45" s="222" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="72" t="s">
+      <c r="D45" s="222" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="72" t="s">
+    <row r="46" spans="1:10">
+      <c r="A46" s="228" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="223" t="s">
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="228" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="72" t="s">
+      <c r="D47" s="222" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="223" t="s">
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="228" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="223" t="s">
+      <c r="C48" s="222" t="s">
         <v>109</v>
       </c>
+      <c r="D48" s="222" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="72" t="s">
-        <v>110</v>
+      <c r="A49" s="228" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="50" ht="78" spans="1:7">
-      <c r="A50" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="223" t="s">
+      <c r="A50" s="228" t="s">
         <v>112</v>
       </c>
+      <c r="C50" s="222" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="72" t="s">
-        <v>113</v>
+      <c r="A51" s="228" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="52" ht="26" spans="1:7">
-      <c r="A52" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" s="223" t="s">
+      <c r="A52" s="228" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="223" t="s">
+      <c r="B52" s="222" t="s">
         <v>116</v>
       </c>
+      <c r="C52" s="222" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="53" ht="26" spans="1:7">
-      <c r="A53" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="223" t="s">
+      <c r="A53" s="221" t="s">
         <v>118</v>
       </c>
-      <c r="D53" s="225"/>
-      <c r="E53" s="225"/>
-      <c r="F53" s="225"/>
-      <c r="G53" s="225"/>
+      <c r="B53" s="222" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="229"/>
+      <c r="E53" s="229"/>
+      <c r="F53" s="229"/>
+      <c r="G53" s="229"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="B54" s="223" t="s">
+      <c r="A54" s="221" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="223" t="s">
+      <c r="B54" s="222" t="s">
         <v>121</v>
       </c>
-      <c r="D54" s="225"/>
-      <c r="E54" s="225"/>
-      <c r="F54" s="225"/>
-      <c r="G54" s="225"/>
+      <c r="C54" s="222" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="229"/>
+      <c r="E54" s="229"/>
+      <c r="F54" s="229"/>
+      <c r="G54" s="229"/>
     </row>
     <row r="55" ht="65" spans="1:7">
-      <c r="A55" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" s="225"/>
-      <c r="C55" s="225"/>
-      <c r="D55" s="223" t="s">
+      <c r="A55" s="221" t="s">
         <v>123</v>
       </c>
+      <c r="B55" s="229"/>
+      <c r="C55" s="229"/>
+      <c r="D55" s="222" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="56" ht="65" spans="1:7">
-      <c r="A56" s="71" t="s">
-        <v>124</v>
+      <c r="A56" s="221" t="s">
+        <v>125</v>
       </c>
       <c r="B56" s="78" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C56" s="78"/>
-      <c r="D56" s="223" t="s">
-        <v>126</v>
+      <c r="D56" s="222" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="57" ht="117" spans="1:7">
-      <c r="A57" s="71" t="s">
-        <v>127</v>
+      <c r="A57" s="221" t="s">
+        <v>128</v>
       </c>
       <c r="B57" s="78" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C57" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="D57" s="223" t="s">
         <v>130</v>
       </c>
+      <c r="D57" s="222" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" s="223" t="s">
+      <c r="A58" s="221" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="225"/>
-      <c r="D58" s="225"/>
-      <c r="E58" s="225"/>
-      <c r="F58" s="225"/>
-      <c r="G58" s="225"/>
+      <c r="B58" s="222" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="229"/>
+      <c r="D58" s="229"/>
+      <c r="E58" s="229"/>
+      <c r="F58" s="229"/>
+      <c r="G58" s="229"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="B59" s="225"/>
-      <c r="C59" s="223" t="s">
+      <c r="A59" s="221" t="s">
         <v>134</v>
       </c>
-      <c r="D59" s="225"/>
-      <c r="E59" s="225"/>
-      <c r="F59" s="225"/>
-      <c r="G59" s="225"/>
+      <c r="B59" s="229"/>
+      <c r="C59" s="222" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="229"/>
+      <c r="E59" s="229"/>
+      <c r="F59" s="229"/>
+      <c r="G59" s="229"/>
     </row>
     <row r="60" ht="52" spans="1:7">
-      <c r="A60" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" s="225" t="s">
+      <c r="A60" s="221" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="225"/>
-      <c r="D60" s="223" t="s">
+      <c r="B60" s="229" t="s">
         <v>137</v>
       </c>
+      <c r="C60" s="229"/>
+      <c r="D60" s="222" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="71" t="s">
-        <v>138</v>
+      <c r="A61" s="221" t="s">
+        <v>139</v>
       </c>
       <c r="B61" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C61" s="78"/>
-      <c r="D61" s="225"/>
-      <c r="E61" s="225"/>
-      <c r="F61" s="225"/>
-      <c r="G61" s="225"/>
+      <c r="D61" s="229"/>
+      <c r="E61" s="229"/>
+      <c r="F61" s="229"/>
+      <c r="G61" s="229"/>
     </row>
     <row r="62" ht="39" spans="1:7">
-      <c r="A62" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="B62" s="225"/>
-      <c r="C62" s="225"/>
-      <c r="D62" s="223" t="s">
+      <c r="A62" s="221" t="s">
         <v>141</v>
       </c>
+      <c r="B62" s="229"/>
+      <c r="C62" s="229"/>
+      <c r="D62" s="222" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="63" ht="26" spans="1:7">
-      <c r="A63" s="71" t="s">
-        <v>142</v>
+      <c r="A63" s="221" t="s">
+        <v>143</v>
       </c>
       <c r="B63" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C63" s="78" t="s">
-        <v>144</v>
-      </c>
-      <c r="D63" s="225"/>
-      <c r="E63" s="225"/>
-      <c r="F63" s="225"/>
-      <c r="G63" s="225"/>
+        <v>145</v>
+      </c>
+      <c r="D63" s="229"/>
+      <c r="E63" s="229"/>
+      <c r="F63" s="229"/>
+      <c r="G63" s="229"/>
     </row>
     <row r="64" ht="26" spans="1:7">
-      <c r="A64" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="B64" s="225"/>
-      <c r="C64" s="225"/>
-      <c r="D64" s="223" t="s">
+      <c r="A64" s="221" t="s">
         <v>146</v>
       </c>
+      <c r="B64" s="229"/>
+      <c r="C64" s="229"/>
+      <c r="D64" s="222" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="65" ht="26" spans="1:7">
-      <c r="A65" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="B65" s="227" t="s">
+      <c r="A65" s="221" t="s">
         <v>148</v>
       </c>
-      <c r="C65" s="225"/>
-      <c r="D65" s="225"/>
-      <c r="E65" s="225"/>
-      <c r="F65" s="225"/>
-      <c r="G65" s="225"/>
+      <c r="B65" s="232" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="229"/>
+      <c r="D65" s="229"/>
+      <c r="E65" s="229"/>
+      <c r="F65" s="229"/>
+      <c r="G65" s="229"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66" s="225"/>
-      <c r="C66" s="223" t="s">
+      <c r="A66" s="221" t="s">
         <v>150</v>
       </c>
-      <c r="D66" s="225"/>
-      <c r="E66" s="225"/>
-      <c r="F66" s="225"/>
-      <c r="G66" s="225"/>
+      <c r="B66" s="229"/>
+      <c r="C66" s="222" t="s">
+        <v>151</v>
+      </c>
+      <c r="D66" s="229"/>
+      <c r="E66" s="229"/>
+      <c r="F66" s="229"/>
+      <c r="G66" s="229"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="B67" s="225"/>
-      <c r="C67" s="225"/>
+      <c r="A67" s="221" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="229"/>
+      <c r="C67" s="229"/>
     </row>
     <row r="68" ht="65" spans="1:7">
-      <c r="A68" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="B68" s="225"/>
-      <c r="C68" s="225"/>
-      <c r="D68" s="223" t="s">
+      <c r="A68" s="221" t="s">
         <v>153</v>
       </c>
+      <c r="B68" s="229"/>
+      <c r="C68" s="229"/>
+      <c r="D68" s="222" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="71" t="s">
-        <v>154</v>
+      <c r="A69" s="221" t="s">
+        <v>155</v>
       </c>
       <c r="B69" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C69" s="78"/>
     </row>
     <row r="70" ht="26" spans="1:7">
-      <c r="A70" s="71" t="s">
-        <v>156</v>
+      <c r="A70" s="221" t="s">
+        <v>157</v>
       </c>
       <c r="B70" s="78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C70" s="78"/>
-      <c r="D70" s="225"/>
-      <c r="E70" s="225"/>
-      <c r="F70" s="225"/>
-      <c r="G70" s="225"/>
+      <c r="D70" s="229"/>
+      <c r="E70" s="229"/>
+      <c r="F70" s="229"/>
+      <c r="G70" s="229"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="B71" s="225"/>
-      <c r="C71" s="225"/>
+      <c r="A71" s="221" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" s="229"/>
+      <c r="C71" s="229"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="71" t="s">
-        <v>159</v>
-      </c>
-      <c r="B72" s="223" t="s">
+      <c r="A72" s="221" t="s">
         <v>160</v>
       </c>
-      <c r="C72" s="223" t="s">
+      <c r="B72" s="222" t="s">
         <v>161</v>
       </c>
-      <c r="D72" s="225"/>
-      <c r="E72" s="225"/>
-      <c r="F72" s="225"/>
-      <c r="G72" s="225"/>
+      <c r="C72" s="222" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72" s="229"/>
+      <c r="E72" s="229"/>
+      <c r="F72" s="229"/>
+      <c r="G72" s="229"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="B73" s="225"/>
-      <c r="C73" s="223" t="s">
+      <c r="A73" s="221" t="s">
         <v>163</v>
       </c>
-      <c r="D73" s="225"/>
-      <c r="E73" s="225"/>
-      <c r="F73" s="225"/>
-      <c r="G73" s="225"/>
+      <c r="B73" s="229"/>
+      <c r="C73" s="222" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" s="229"/>
+      <c r="E73" s="229"/>
+      <c r="F73" s="229"/>
+      <c r="G73" s="229"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="71" t="s">
-        <v>164</v>
+      <c r="A74" s="221" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="71" t="s">
-        <v>165</v>
-      </c>
-      <c r="D75" s="225"/>
-      <c r="E75" s="225"/>
-      <c r="F75" s="225"/>
-      <c r="G75" s="225"/>
+      <c r="A75" s="221" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" s="229"/>
+      <c r="E75" s="229"/>
+      <c r="F75" s="229"/>
+      <c r="G75" s="229"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="71" t="s">
-        <v>166</v>
-      </c>
-      <c r="B76" s="225"/>
-      <c r="C76" s="225"/>
-      <c r="D76" s="223" t="s">
+      <c r="A76" s="221" t="s">
         <v>167</v>
       </c>
+      <c r="B76" s="229"/>
+      <c r="C76" s="229"/>
+      <c r="D76" s="222" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="71" t="s">
-        <v>168</v>
+      <c r="A77" s="221" t="s">
+        <v>169</v>
       </c>
       <c r="B77" s="78"/>
       <c r="C77" s="78"/>
     </row>
     <row r="78" ht="26" spans="1:7">
-      <c r="A78" s="228" t="s">
-        <v>169</v>
-      </c>
-      <c r="B78" s="223" t="s">
+      <c r="A78" s="233" t="s">
         <v>170</v>
+      </c>
+      <c r="B78" s="222" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5903,16 +5936,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="67" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B1" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5926,7 +5959,7 @@
         <v>20111216</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5940,7 +5973,7 @@
         <v>20111227</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5954,7 +5987,7 @@
         <v>20120518</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:4">
@@ -5982,7 +6015,7 @@
         <v>20120504</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5996,7 +6029,7 @@
         <v>20120809</v>
       </c>
       <c r="D7" s="66" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6010,7 +6043,7 @@
         <v>20120227</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6024,7 +6057,7 @@
         <v>20120127</v>
       </c>
       <c r="D9" s="66" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6038,7 +6071,7 @@
         <v>20111202</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:4">
@@ -6064,7 +6097,7 @@
         <v>20111024</v>
       </c>
       <c r="D12" s="66" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6078,7 +6111,7 @@
         <v>20110908</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6092,7 +6125,7 @@
         <v>20120228</v>
       </c>
       <c r="D14" s="66" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:4">
@@ -6118,7 +6151,7 @@
         <v>20111201</v>
       </c>
       <c r="D16" s="66" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6132,7 +6165,7 @@
         <v>20120722</v>
       </c>
       <c r="D17" s="66" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:4">
@@ -6170,7 +6203,7 @@
         <v>20120530</v>
       </c>
       <c r="D20" s="66" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6184,7 +6217,7 @@
         <v>20120827</v>
       </c>
       <c r="D21" s="66" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:4">
@@ -6210,7 +6243,7 @@
         <v>20120518</v>
       </c>
       <c r="D23" s="66" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6224,7 +6257,7 @@
         <v>20120413</v>
       </c>
       <c r="D24" s="66" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6238,7 +6271,7 @@
         <v>20120629</v>
       </c>
       <c r="D25" s="66" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6252,7 +6285,7 @@
         <v>20111105</v>
       </c>
       <c r="D26" s="66" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6266,7 +6299,7 @@
         <v>20120112</v>
       </c>
       <c r="D27" s="66" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6280,7 +6313,7 @@
         <v>20111119</v>
       </c>
       <c r="D28" s="66" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:4">
@@ -6306,7 +6339,7 @@
         <v>20120331</v>
       </c>
       <c r="D30" s="66" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6320,7 +6353,7 @@
         <v>20111109</v>
       </c>
       <c r="D31" s="66" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6334,7 +6367,7 @@
         <v>20120824</v>
       </c>
       <c r="D32" s="66" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:5">
@@ -6360,7 +6393,7 @@
         <v>20120624</v>
       </c>
       <c r="D34" s="66" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:5">
@@ -6386,7 +6419,7 @@
         <v>20120603</v>
       </c>
       <c r="D36" s="66" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -6400,7 +6433,7 @@
         <v>20120326</v>
       </c>
       <c r="D37" s="66" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6414,10 +6447,10 @@
         <v>20111106</v>
       </c>
       <c r="D38" s="77" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E38" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -6431,7 +6464,7 @@
         <v>20120811</v>
       </c>
       <c r="D39" s="78" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -6445,7 +6478,7 @@
         <v>20111217</v>
       </c>
       <c r="D40" s="78" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -6459,10 +6492,10 @@
         <v>20111013</v>
       </c>
       <c r="D41" s="66" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E41" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:5">
@@ -6470,7 +6503,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="72" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C42" s="74">
         <v>20111027</v>
@@ -6482,13 +6515,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="72" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C43" s="74">
         <v>20120207</v>
       </c>
       <c r="D43" s="66" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:5">
@@ -6496,7 +6529,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C44" s="73">
         <v>20120508</v>
@@ -6508,13 +6541,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="72" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" s="74">
         <v>20110929</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:5">
@@ -6522,7 +6555,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="72" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C46" s="74">
         <v>20111205</v>
@@ -6534,16 +6567,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" s="74">
         <v>20120108</v>
       </c>
       <c r="D47" s="66" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E47" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -6551,13 +6584,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="72" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" s="74">
         <v>20120311</v>
       </c>
       <c r="D48" s="66" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:4">
@@ -6565,7 +6598,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="72" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C49" s="74">
         <v>20110902</v>
@@ -6577,13 +6610,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="72" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C50" s="74">
         <v>20120723</v>
       </c>
       <c r="D50" s="66" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:4">
@@ -6591,7 +6624,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="72" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C51" s="74">
         <v>20120101</v>
@@ -6603,13 +6636,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="72" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C52" s="74">
         <v>20111220</v>
       </c>
       <c r="D52" s="66" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -6647,34 +6680,34 @@
   <sheetData>
     <row r="1" s="27" customFormat="1" spans="1:5">
       <c r="A1" s="34" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" s="28" customFormat="1" ht="409" customHeight="1" spans="1:5">
       <c r="A2" s="39" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" s="28" customFormat="1" ht="56" spans="1:5">
@@ -6682,10 +6715,10 @@
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="32" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" s="28" customFormat="1" spans="1:5">
@@ -6693,10 +6726,10 @@
       <c r="B4" s="43"/>
       <c r="C4" s="44"/>
       <c r="D4" s="32" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" s="28" customFormat="1" ht="56" spans="1:5">
@@ -6704,10 +6737,10 @@
       <c r="B5" s="43"/>
       <c r="C5" s="44"/>
       <c r="D5" s="32" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" s="28" customFormat="1" ht="238" spans="1:5">
@@ -6715,23 +6748,23 @@
       <c r="B6" s="43"/>
       <c r="C6" s="44"/>
       <c r="D6" s="32" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" s="28" customFormat="1" ht="238" spans="1:5">
       <c r="A7" s="42"/>
       <c r="B7" s="43"/>
       <c r="C7" s="41" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" s="28" customFormat="1" ht="56" spans="1:5">
@@ -6739,10 +6772,10 @@
       <c r="B8" s="43"/>
       <c r="C8" s="44"/>
       <c r="D8" s="32" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" s="28" customFormat="1" ht="84" spans="1:5">
@@ -6750,10 +6783,10 @@
       <c r="B9" s="43"/>
       <c r="C9" s="44"/>
       <c r="D9" s="32" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" s="28" customFormat="1" ht="28" spans="1:5">
@@ -6761,10 +6794,10 @@
       <c r="B10" s="43"/>
       <c r="C10" s="44"/>
       <c r="D10" s="32" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" s="28" customFormat="1" spans="1:5">
@@ -6772,10 +6805,10 @@
       <c r="B11" s="43"/>
       <c r="C11" s="45"/>
       <c r="D11" s="32" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" s="28" customFormat="1" ht="154" spans="1:5">
@@ -6783,50 +6816,50 @@
       <c r="B12" s="43"/>
       <c r="C12" s="31"/>
       <c r="D12" s="32" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" s="28" customFormat="1" ht="56" spans="1:5">
       <c r="A13" s="42"/>
       <c r="B13" s="43"/>
       <c r="C13" s="46" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="33" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" s="28" customFormat="1" ht="84" spans="1:5">
       <c r="A14" s="42"/>
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="33" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" s="28" customFormat="1" ht="28" spans="1:5">
       <c r="A15" s="42"/>
       <c r="B15" s="43"/>
       <c r="C15" s="46" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="33" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16" s="28" customFormat="1" spans="1:5">
       <c r="A16" s="42"/>
       <c r="B16" s="43"/>
       <c r="C16" s="46" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="33"/>
@@ -6835,24 +6868,24 @@
       <c r="A17" s="42"/>
       <c r="B17" s="43"/>
       <c r="C17" s="46" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="33" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" s="28" customFormat="1" spans="1:5">
       <c r="A18" s="42"/>
       <c r="B18" s="43"/>
       <c r="C18" s="41" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" s="28" customFormat="1" spans="1:5">
@@ -6860,17 +6893,17 @@
       <c r="B19" s="43"/>
       <c r="C19" s="45"/>
       <c r="D19" s="32" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20" s="28" customFormat="1" spans="1:5">
       <c r="A20" s="42"/>
       <c r="B20" s="43"/>
       <c r="C20" s="46" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="33"/>
@@ -6879,61 +6912,61 @@
       <c r="A21" s="42"/>
       <c r="B21" s="43"/>
       <c r="C21" s="46" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="33" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" s="28" customFormat="1" ht="28" spans="1:5">
       <c r="A22" s="42"/>
       <c r="B22" s="43"/>
       <c r="C22" s="46" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D22" s="47"/>
       <c r="E22" s="33" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" s="28" customFormat="1" spans="1:5">
       <c r="A23" s="42"/>
       <c r="B23" s="43"/>
       <c r="C23" s="31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="33" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24" s="28" customFormat="1" spans="1:5">
       <c r="A24" s="42"/>
       <c r="B24" s="43"/>
       <c r="C24" s="31" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="33" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" s="28" customFormat="1" ht="28" spans="1:5">
       <c r="A25" s="39" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" s="28" customFormat="1" spans="1:5">
@@ -6941,10 +6974,10 @@
       <c r="B26" s="43"/>
       <c r="C26" s="44"/>
       <c r="D26" s="32" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" s="28" customFormat="1" ht="28" spans="1:5">
@@ -6952,10 +6985,10 @@
       <c r="B27" s="43"/>
       <c r="C27" s="44"/>
       <c r="D27" s="32" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="28" s="28" customFormat="1" ht="42" spans="1:5">
@@ -6963,27 +6996,27 @@
       <c r="B28" s="43"/>
       <c r="C28" s="44"/>
       <c r="D28" s="32" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" s="28" customFormat="1" ht="42" spans="1:5">
       <c r="A29" s="39" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="30" s="28" customFormat="1" ht="70" spans="1:5">
@@ -6991,10 +7024,10 @@
       <c r="B30" s="43"/>
       <c r="C30" s="44"/>
       <c r="D30" s="32" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" s="28" customFormat="1" spans="1:5">
@@ -7002,10 +7035,10 @@
       <c r="B31" s="43"/>
       <c r="C31" s="44"/>
       <c r="D31" s="32" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="32" s="28" customFormat="1" ht="28" spans="1:5">
@@ -7013,99 +7046,99 @@
       <c r="B32" s="43"/>
       <c r="C32" s="45"/>
       <c r="D32" s="32" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="33" s="28" customFormat="1" ht="42" spans="1:5">
       <c r="A33" s="42"/>
       <c r="B33" s="49"/>
       <c r="C33" s="46" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D33" s="47"/>
       <c r="E33" s="33" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" s="28" customFormat="1" ht="42" spans="1:5">
       <c r="A34" s="42"/>
       <c r="B34" s="50" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D34" s="51"/>
       <c r="E34" s="52" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" s="28" customFormat="1" ht="42" spans="1:5">
       <c r="A35" s="53"/>
       <c r="B35" s="54"/>
       <c r="C35" s="36" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D35" s="51"/>
       <c r="E35" s="52" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="36" s="28" customFormat="1" spans="1:5">
       <c r="A36" s="39" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C36" s="56"/>
       <c r="D36" s="57"/>
       <c r="E36" s="52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" s="28" customFormat="1" spans="1:5">
       <c r="A37" s="53"/>
       <c r="B37" s="58" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C37" s="59"/>
       <c r="D37" s="60"/>
       <c r="E37" s="33" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="38" s="28" customFormat="1" spans="1:5">
       <c r="A38" s="29" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B38" s="58" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C38" s="59"/>
       <c r="D38" s="60"/>
       <c r="E38" s="33" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" s="28" customFormat="1" spans="1:5">
       <c r="A39" s="39" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="40" s="28" customFormat="1" spans="1:5">
@@ -7113,83 +7146,83 @@
       <c r="B40" s="43"/>
       <c r="C40" s="45"/>
       <c r="D40" s="32" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="41" s="28" customFormat="1" spans="1:5">
       <c r="A41" s="42"/>
       <c r="B41" s="43"/>
       <c r="C41" s="46" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D41" s="47"/>
       <c r="E41" s="33" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42" s="28" customFormat="1" spans="1:5">
       <c r="A42" s="53"/>
       <c r="B42" s="49"/>
       <c r="C42" s="46" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D42" s="47"/>
       <c r="E42" s="33" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="43" s="28" customFormat="1" spans="1:5">
       <c r="A43" s="39" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D43" s="62"/>
       <c r="E43" s="52" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="44" s="28" customFormat="1" ht="28" spans="1:5">
       <c r="A44" s="42"/>
       <c r="B44" s="54"/>
       <c r="C44" s="61" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D44" s="62"/>
       <c r="E44" s="52" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="45" s="28" customFormat="1" spans="1:5">
       <c r="A45" s="53"/>
       <c r="B45" s="58" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C45" s="59"/>
       <c r="D45" s="60"/>
       <c r="E45" s="33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" s="28" customFormat="1" spans="1:5">
       <c r="A46" s="39" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E46" s="33"/>
     </row>
@@ -7198,7 +7231,7 @@
       <c r="B47" s="43"/>
       <c r="C47" s="44"/>
       <c r="D47" s="32" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E47" s="33"/>
     </row>
@@ -7207,55 +7240,55 @@
       <c r="B48" s="49"/>
       <c r="C48" s="45"/>
       <c r="D48" s="32" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="49" s="28" customFormat="1" spans="1:5">
       <c r="A49" s="29" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B49" s="58" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60"/>
       <c r="E49" s="33" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="50" s="28" customFormat="1" spans="1:5">
       <c r="A50" s="39" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B50" s="58" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60"/>
       <c r="E50" s="33" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="51" s="28" customFormat="1" spans="1:5">
       <c r="A51" s="53"/>
       <c r="B51" s="58" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60"/>
       <c r="E51" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" s="28" customFormat="1" spans="1:5">
       <c r="A52" s="29" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B52" s="58" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60"/>
@@ -7263,10 +7296,10 @@
     </row>
     <row r="53" s="28" customFormat="1" spans="1:5">
       <c r="A53" s="39" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B53" s="58" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60"/>
@@ -7278,18 +7311,18 @@
       <c r="C54" s="59"/>
       <c r="D54" s="60"/>
       <c r="E54" s="33" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="55" s="28" customFormat="1" spans="1:5">
       <c r="A55" s="29" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B55" s="30"/>
       <c r="C55" s="31"/>
       <c r="D55" s="32"/>
       <c r="E55" s="33" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -7402,7 +7435,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
@@ -7416,7 +7449,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
@@ -7440,7 +7473,7 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
@@ -7453,7 +7486,7 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="22" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
@@ -7466,7 +7499,7 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
@@ -7500,7 +7533,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
@@ -7546,7 +7579,7 @@
         <v>33</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
@@ -7582,7 +7615,7 @@
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="22" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
@@ -7616,10 +7649,10 @@
         <v>44</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11"/>
@@ -7631,10 +7664,10 @@
         <v>47</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
@@ -7657,7 +7690,7 @@
         <v>52</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
@@ -7670,10 +7703,10 @@
         <v>54</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
@@ -7707,10 +7740,10 @@
         <v>60</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="11"/>
@@ -7722,10 +7755,10 @@
         <v>63</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
@@ -7749,7 +7782,7 @@
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="22" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
@@ -7816,7 +7849,7 @@
         <v>76</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
@@ -7830,7 +7863,7 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="22" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
@@ -7842,7 +7875,7 @@
         <v>81</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="26"/>
@@ -7856,7 +7889,7 @@
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="22" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
@@ -7868,10 +7901,10 @@
         <v>86</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
@@ -7884,7 +7917,7 @@
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="22" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
@@ -7893,7 +7926,7 @@
     </row>
     <row r="42" s="6" customFormat="1" spans="1:7">
       <c r="A42" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
@@ -7904,10 +7937,10 @@
     </row>
     <row r="43" s="6" customFormat="1" spans="1:7">
       <c r="A43" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
@@ -7917,7 +7950,7 @@
     </row>
     <row r="44" s="6" customFormat="1" spans="1:7">
       <c r="A44" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
@@ -7928,10 +7961,10 @@
     </row>
     <row r="45" s="6" customFormat="1" ht="387" spans="1:7">
       <c r="A45" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -7941,7 +7974,7 @@
     </row>
     <row r="46" s="6" customFormat="1" spans="1:7">
       <c r="A46" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
@@ -7952,7 +7985,7 @@
     </row>
     <row r="47" s="6" customFormat="1" spans="1:7">
       <c r="A47" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
@@ -7963,11 +7996,11 @@
     </row>
     <row r="48" s="6" customFormat="1" spans="1:7">
       <c r="A48" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="22" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
@@ -7976,7 +8009,7 @@
     </row>
     <row r="49" s="6" customFormat="1" spans="1:7">
       <c r="A49" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
@@ -7987,11 +8020,11 @@
     </row>
     <row r="50" s="6" customFormat="1" ht="322" spans="1:7">
       <c r="A50" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="22" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="11"/>
@@ -8000,7 +8033,7 @@
     </row>
     <row r="51" s="6" customFormat="1" spans="1:7">
       <c r="A51" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
@@ -8011,13 +8044,13 @@
     </row>
     <row r="52" s="6" customFormat="1" ht="224" spans="1:7">
       <c r="A52" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="11"/>
@@ -8058,27 +8091,27 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C2" s="4">
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F2" s="4">
         <v>6</v>
@@ -8086,13 +8119,13 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C3" s="4">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F3" s="4">
         <v>13</v>
@@ -8100,13 +8133,13 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C4" s="4">
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F4" s="4">
         <v>4</v>
@@ -8114,13 +8147,13 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F5" s="4">
         <v>6</v>
@@ -8128,13 +8161,13 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F6" s="4">
         <v>4</v>
@@ -8142,13 +8175,13 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -8156,13 +8189,13 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F8" s="4">
         <v>3</v>
@@ -8170,7 +8203,7 @@
     </row>
     <row r="9" spans="2:6">
       <c r="E9" s="4" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -8178,7 +8211,7 @@
     </row>
     <row r="10" spans="2:6">
       <c r="E10" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F10" s="4">
         <v>5</v>
@@ -8186,7 +8219,7 @@
     </row>
     <row r="11" spans="2:6">
       <c r="E11" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -8194,7 +8227,7 @@
     </row>
     <row r="12" spans="2:6">
       <c r="E12" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F12" s="4">
         <v>2</v>
@@ -8219,14 +8252,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.64545454545455" style="217" customWidth="1"/>
+    <col min="1" max="1" width="6.64545454545455" style="215" customWidth="1"/>
     <col min="2" max="2" width="32.6181818181818" style="66" customWidth="1"/>
     <col min="3" max="7" width="16.4909090909091" style="66" customWidth="1"/>
-    <col min="8" max="16384" width="8.72727272727273" style="218"/>
+    <col min="8" max="16384" width="8.72727272727273" style="216"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="219"/>
+      <c r="A1" s="217"/>
       <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
@@ -8246,187 +8279,187 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="216" customFormat="1" ht="39" spans="1:7">
-      <c r="A2" s="220" t="s">
-        <v>171</v>
+    <row r="2" s="214" customFormat="1" ht="39" spans="1:7">
+      <c r="A2" s="218" t="s">
+        <v>172</v>
       </c>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
       <c r="D2" s="78" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E2" s="78"/>
       <c r="F2" s="78"/>
       <c r="G2" s="78"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="221" t="s">
-        <v>173</v>
+      <c r="A3" s="219" t="s">
+        <v>174</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="221" t="s">
-        <v>175</v>
+      <c r="A4" s="219" t="s">
+        <v>176</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="221" t="s">
-        <v>178</v>
+      <c r="A5" s="219" t="s">
+        <v>179</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="221" t="s">
-        <v>181</v>
+      <c r="A6" s="219" t="s">
+        <v>182</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="221" t="s">
-        <v>184</v>
+      <c r="A7" s="219" t="s">
+        <v>185</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="221"/>
+      <c r="A8" s="219"/>
       <c r="D8" s="66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="221"/>
+      <c r="A9" s="219"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="221"/>
+      <c r="A10" s="219"/>
       <c r="B10" s="66" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="221"/>
+      <c r="A11" s="219"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="221"/>
+      <c r="A12" s="219"/>
       <c r="B12" s="66" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="221"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="221"/>
+      <c r="A14" s="219"/>
       <c r="B14" s="66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="221"/>
+      <c r="A15" s="219"/>
       <c r="B15" s="66" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="221"/>
+      <c r="A16" s="219"/>
       <c r="B16" s="66" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="221"/>
+      <c r="A17" s="219"/>
       <c r="B17" s="66" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="221"/>
+      <c r="A18" s="219"/>
       <c r="B18" s="66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="221"/>
+      <c r="A19" s="219"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="221"/>
+      <c r="A20" s="219"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="221"/>
+      <c r="A21" s="219"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="221"/>
+      <c r="A22" s="219"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="221"/>
+      <c r="A23" s="219"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="221"/>
+      <c r="A24" s="219"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="221"/>
+      <c r="A25" s="219"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="221"/>
+      <c r="A26" s="219"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="221"/>
+      <c r="A27" s="219"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="221"/>
+      <c r="A28" s="219"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="221"/>
+      <c r="A29" s="219"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="221"/>
+      <c r="A30" s="219"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="221"/>
+      <c r="A31" s="219"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="221"/>
+      <c r="A32" s="219"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="221"/>
+      <c r="A33" s="219"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="221"/>
+      <c r="A34" s="219"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="221"/>
+      <c r="A35" s="219"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="221"/>
+      <c r="A36" s="219"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="221"/>
+      <c r="A37" s="219"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="221"/>
+      <c r="A38" s="219"/>
       <c r="B38" s="78"/>
       <c r="C38" s="78"/>
       <c r="D38" s="78"/>
@@ -8435,7 +8468,7 @@
       <c r="G38" s="78"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="221"/>
+      <c r="A39" s="219"/>
       <c r="B39" s="78"/>
       <c r="C39" s="78"/>
       <c r="D39" s="78"/>
@@ -8444,40 +8477,40 @@
       <c r="G39" s="78"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="221"/>
+      <c r="A40" s="219"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="221"/>
+      <c r="A41" s="219"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="221"/>
+      <c r="A42" s="219"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="221"/>
+      <c r="A43" s="219"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="221"/>
+      <c r="A44" s="219"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="221"/>
+      <c r="A45" s="219"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="221"/>
+      <c r="A46" s="219"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="221"/>
+      <c r="A47" s="219"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="221"/>
+      <c r="A48" s="219"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="221"/>
+      <c r="A49" s="219"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="221"/>
+      <c r="A50" s="219"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="221"/>
+      <c r="A51" s="219"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8500,477 +8533,477 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="24" style="207" customWidth="1"/>
-    <col min="2" max="2" width="10.6363636363636" style="207" customWidth="1"/>
-    <col min="3" max="3" width="91.3636363636364" style="207" customWidth="1"/>
+    <col min="1" max="1" width="24" style="205" customWidth="1"/>
+    <col min="2" max="2" width="10.6363636363636" style="205" customWidth="1"/>
+    <col min="3" max="3" width="91.3636363636364" style="205" customWidth="1"/>
     <col min="4" max="16384" width="8.72727272727273" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" s="206" customFormat="1" ht="15" spans="1:3">
-      <c r="A1" s="208" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="208" t="s">
+    <row r="1" s="204" customFormat="1" ht="15" spans="1:3">
+      <c r="A1" s="206" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="208" t="s">
+      <c r="B1" s="206" t="s">
         <v>197</v>
       </c>
+      <c r="C1" s="206" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="209" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="209" t="s">
+      <c r="A2" s="207" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="209" t="s">
+      <c r="B2" s="207" t="s">
         <v>200</v>
       </c>
+      <c r="C2" s="207" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="209" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="209" t="s">
+      <c r="A3" s="207" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="209" t="s">
+      <c r="B3" s="207" t="s">
         <v>203</v>
       </c>
+      <c r="C3" s="207" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="209" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" s="209" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4" s="209" t="s">
+      <c r="A4" s="207" t="s">
         <v>205</v>
       </c>
+      <c r="B4" s="207" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="207" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="5" ht="56" spans="1:3">
-      <c r="A5" s="210" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="209" t="s">
+      <c r="A5" s="208" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="209" t="s">
+      <c r="B5" s="207" t="s">
         <v>208</v>
       </c>
+      <c r="C5" s="207" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="6" ht="28" spans="1:3">
-      <c r="A6" s="211"/>
-      <c r="B6" s="209" t="s">
-        <v>209</v>
-      </c>
-      <c r="C6" s="209" t="s">
+      <c r="A6" s="209"/>
+      <c r="B6" s="207" t="s">
         <v>210</v>
       </c>
+      <c r="C6" s="207" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="209" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="209" t="s">
+      <c r="A7" s="207" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="209" t="s">
+      <c r="B7" s="207" t="s">
         <v>213</v>
       </c>
+      <c r="C7" s="207" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="212" t="s">
+      <c r="A8" s="210" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="209" t="s">
-        <v>214</v>
-      </c>
-      <c r="C8" s="209" t="s">
+      <c r="B8" s="207" t="s">
         <v>215</v>
       </c>
+      <c r="C8" s="207" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="213"/>
-      <c r="B9" s="209" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="209" t="s">
+      <c r="A9" s="211"/>
+      <c r="B9" s="207" t="s">
         <v>217</v>
       </c>
+      <c r="C9" s="207" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="213"/>
-      <c r="B10" s="209" t="s">
-        <v>218</v>
-      </c>
-      <c r="C10" s="209" t="s">
+      <c r="A10" s="211"/>
+      <c r="B10" s="207" t="s">
         <v>219</v>
       </c>
+      <c r="C10" s="207" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="213"/>
-      <c r="B11" s="209" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="209" t="s">
-        <v>220</v>
+      <c r="A11" s="211"/>
+      <c r="B11" s="207" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="207" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="213"/>
-      <c r="B12" s="209" t="s">
-        <v>221</v>
-      </c>
-      <c r="C12" s="209" t="s">
+      <c r="A12" s="211"/>
+      <c r="B12" s="207" t="s">
         <v>222</v>
       </c>
+      <c r="C12" s="207" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="13" ht="140" spans="1:3">
-      <c r="A13" s="213"/>
-      <c r="B13" s="209" t="s">
-        <v>223</v>
-      </c>
-      <c r="C13" s="209" t="s">
+      <c r="A13" s="211"/>
+      <c r="B13" s="207" t="s">
         <v>224</v>
       </c>
+      <c r="C13" s="207" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="213"/>
-      <c r="B14" s="209" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" s="209" t="s">
+      <c r="A14" s="211"/>
+      <c r="B14" s="207" t="s">
         <v>226</v>
       </c>
+      <c r="C14" s="207" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="213"/>
-      <c r="B15" s="209" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="209" t="s">
+      <c r="A15" s="211"/>
+      <c r="B15" s="207" t="s">
         <v>228</v>
       </c>
+      <c r="C15" s="207" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="213"/>
-      <c r="B16" s="209" t="s">
-        <v>229</v>
-      </c>
-      <c r="C16" s="209" t="s">
+      <c r="A16" s="211"/>
+      <c r="B16" s="207" t="s">
         <v>230</v>
       </c>
+      <c r="C16" s="207" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="214"/>
-      <c r="B17" s="209"/>
-      <c r="C17" s="209"/>
+      <c r="A17" s="212"/>
+      <c r="B17" s="207"/>
+      <c r="C17" s="207"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="209" t="s">
-        <v>231</v>
-      </c>
-      <c r="B18" s="209" t="s">
+      <c r="A18" s="207" t="s">
         <v>232</v>
       </c>
-      <c r="C18" s="209" t="s">
+      <c r="B18" s="207" t="s">
         <v>233</v>
       </c>
+      <c r="C18" s="207" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="209" t="s">
-        <v>234</v>
-      </c>
-      <c r="B19" s="209" t="s">
+      <c r="A19" s="207" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="209" t="s">
+      <c r="B19" s="207" t="s">
         <v>236</v>
       </c>
+      <c r="C19" s="207" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="209" t="s">
-        <v>237</v>
-      </c>
-      <c r="B20" s="209" t="s">
+      <c r="A20" s="207" t="s">
         <v>238</v>
       </c>
-      <c r="C20" s="215">
+      <c r="B20" s="207" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="213">
         <v>0.440972222222222</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="212" t="s">
+      <c r="A21" s="210" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="209" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="209" t="s">
+      <c r="B21" s="207" t="s">
         <v>240</v>
       </c>
+      <c r="C21" s="207" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="213"/>
-      <c r="B22" s="209" t="s">
-        <v>241</v>
-      </c>
-      <c r="C22" s="209" t="s">
+      <c r="A22" s="211"/>
+      <c r="B22" s="207" t="s">
         <v>242</v>
       </c>
+      <c r="C22" s="207" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="213"/>
-      <c r="B23" s="209" t="s">
-        <v>243</v>
-      </c>
-      <c r="C23" s="209" t="s">
+      <c r="A23" s="211"/>
+      <c r="B23" s="207" t="s">
         <v>244</v>
       </c>
+      <c r="C23" s="207" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="24" ht="56" spans="1:3">
-      <c r="A24" s="213"/>
-      <c r="B24" s="209" t="s">
-        <v>245</v>
-      </c>
-      <c r="C24" s="209" t="s">
+      <c r="A24" s="211"/>
+      <c r="B24" s="207" t="s">
         <v>246</v>
       </c>
+      <c r="C24" s="207" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="210" t="s">
-        <v>247</v>
-      </c>
-      <c r="B25" s="209" t="s">
-        <v>241</v>
-      </c>
-      <c r="C25" s="209" t="s">
+      <c r="A25" s="208" t="s">
         <v>248</v>
       </c>
+      <c r="B25" s="207" t="s">
+        <v>242</v>
+      </c>
+      <c r="C25" s="207" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="211"/>
-      <c r="B26" s="209" t="s">
-        <v>249</v>
-      </c>
-      <c r="C26" s="209" t="s">
+      <c r="A26" s="209"/>
+      <c r="B26" s="207" t="s">
         <v>250</v>
       </c>
+      <c r="C26" s="207" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="27" ht="28" spans="1:3">
-      <c r="A27" s="212" t="s">
-        <v>251</v>
-      </c>
-      <c r="B27" s="209" t="s">
+      <c r="A27" s="210" t="s">
         <v>252</v>
       </c>
-      <c r="C27" s="209" t="s">
+      <c r="B27" s="207" t="s">
         <v>253</v>
       </c>
+      <c r="C27" s="207" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="213"/>
-      <c r="B28" s="209" t="s">
-        <v>223</v>
-      </c>
-      <c r="C28" s="209" t="s">
-        <v>254</v>
+      <c r="A28" s="211"/>
+      <c r="B28" s="207" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="207" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="213"/>
-      <c r="B29" s="209" t="s">
-        <v>227</v>
-      </c>
-      <c r="C29" s="209" t="s">
-        <v>255</v>
+      <c r="A29" s="211"/>
+      <c r="B29" s="207" t="s">
+        <v>228</v>
+      </c>
+      <c r="C29" s="207" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="213"/>
-      <c r="B30" s="209"/>
-      <c r="C30" s="209"/>
+      <c r="A30" s="211"/>
+      <c r="B30" s="207"/>
+      <c r="C30" s="207"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="210" t="s">
-        <v>256</v>
-      </c>
-      <c r="B31" s="209" t="s">
+      <c r="A31" s="208" t="s">
         <v>257</v>
       </c>
-      <c r="C31" s="209" t="s">
+      <c r="B31" s="207" t="s">
         <v>258</v>
       </c>
+      <c r="C31" s="207" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="211"/>
-      <c r="B32" s="209" t="s">
-        <v>218</v>
-      </c>
-      <c r="C32" s="209" t="s">
-        <v>259</v>
+      <c r="A32" s="209"/>
+      <c r="B32" s="207" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="207" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="33" ht="28" spans="1:3">
-      <c r="A33" s="212" t="s">
+      <c r="A33" s="210" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="209" t="s">
-        <v>218</v>
-      </c>
-      <c r="C33" s="209" t="s">
-        <v>260</v>
+      <c r="B33" s="207" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="207" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="214"/>
-      <c r="B34" s="207" t="s">
-        <v>261</v>
-      </c>
-      <c r="C34" s="207" t="s">
+      <c r="A34" s="212"/>
+      <c r="B34" s="205" t="s">
         <v>262</v>
       </c>
+      <c r="C34" s="205" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="35" ht="98" spans="1:3">
-      <c r="A35" s="212" t="s">
-        <v>263</v>
-      </c>
-      <c r="B35" s="207" t="s">
-        <v>218</v>
-      </c>
-      <c r="C35" s="207" t="s">
+      <c r="A35" s="210" t="s">
         <v>264</v>
       </c>
+      <c r="B35" s="205" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="205" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="36" ht="84" spans="1:3">
-      <c r="A36" s="214"/>
-      <c r="B36" s="207" t="s">
-        <v>265</v>
-      </c>
-      <c r="C36" s="207" t="s">
+      <c r="A36" s="212"/>
+      <c r="B36" s="205" t="s">
         <v>266</v>
       </c>
+      <c r="C36" s="205" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="207" t="s">
+      <c r="A37" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="207" t="s">
-        <v>267</v>
-      </c>
-      <c r="C37" s="207" t="s">
+      <c r="B37" s="205" t="s">
         <v>268</v>
       </c>
+      <c r="C37" s="205" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="38" ht="28" spans="1:3">
-      <c r="A38" s="207" t="s">
-        <v>269</v>
-      </c>
-      <c r="B38" s="207" t="s">
-        <v>261</v>
-      </c>
-      <c r="C38" s="207" t="s">
+      <c r="A38" s="205" t="s">
         <v>270</v>
       </c>
+      <c r="B38" s="205" t="s">
+        <v>262</v>
+      </c>
+      <c r="C38" s="205" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="212" t="s">
-        <v>271</v>
-      </c>
-      <c r="B39" s="207" t="s">
-        <v>223</v>
-      </c>
-      <c r="C39" s="207" t="s">
+      <c r="A39" s="210" t="s">
         <v>272</v>
       </c>
+      <c r="B39" s="205" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" s="205" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="214"/>
-      <c r="B40" s="207" t="s">
-        <v>265</v>
-      </c>
-      <c r="C40" s="207" t="s">
-        <v>273</v>
+      <c r="A40" s="212"/>
+      <c r="B40" s="205" t="s">
+        <v>266</v>
+      </c>
+      <c r="C40" s="205" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="207" t="s">
+      <c r="A41" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="207" t="s">
-        <v>225</v>
-      </c>
-      <c r="C41" s="207" t="s">
-        <v>274</v>
+      <c r="B41" s="205" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" s="205" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="207" t="s">
-        <v>275</v>
-      </c>
-      <c r="B42" s="207" t="s">
+      <c r="A42" s="205" t="s">
         <v>276</v>
       </c>
-      <c r="C42" s="207" t="s">
+      <c r="B42" s="205" t="s">
         <v>277</v>
       </c>
+      <c r="C42" s="205" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="207" t="s">
-        <v>278</v>
-      </c>
-      <c r="B43" s="207" t="s">
-        <v>229</v>
-      </c>
-      <c r="C43" s="207" t="s">
+      <c r="A43" s="205" t="s">
         <v>279</v>
       </c>
+      <c r="B43" s="205" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" s="205" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="207" t="s">
+      <c r="A44" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="207" t="s">
-        <v>265</v>
-      </c>
-      <c r="C44" s="207" t="s">
-        <v>280</v>
+      <c r="B44" s="205" t="s">
+        <v>266</v>
+      </c>
+      <c r="C44" s="205" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="207" t="s">
-        <v>281</v>
-      </c>
-      <c r="B45" s="207" t="s">
-        <v>243</v>
-      </c>
-      <c r="C45" s="207" t="s">
+      <c r="A45" s="205" t="s">
         <v>282</v>
       </c>
+      <c r="B45" s="205" t="s">
+        <v>244</v>
+      </c>
+      <c r="C45" s="205" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="207" t="s">
-        <v>283</v>
-      </c>
-      <c r="B46" s="207" t="s">
+      <c r="A46" s="205" t="s">
         <v>284</v>
       </c>
-      <c r="C46" s="207" t="s">
+      <c r="B46" s="205" t="s">
         <v>285</v>
       </c>
+      <c r="C46" s="205" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="207" t="s">
-        <v>286</v>
-      </c>
-      <c r="B47" s="207" t="s">
-        <v>284</v>
-      </c>
-      <c r="C47" s="207" t="s">
+      <c r="A47" s="205" t="s">
         <v>287</v>
+      </c>
+      <c r="B47" s="205" t="s">
+        <v>285</v>
+      </c>
+      <c r="C47" s="205" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -9009,45 +9042,45 @@
     <col min="2" max="2" width="3.54545454545455" style="4" customWidth="1"/>
     <col min="3" max="3" width="4.27272727272727" style="4" customWidth="1"/>
     <col min="4" max="4" width="3.45454545454545" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.72727272727273" style="195"/>
+    <col min="5" max="5" width="8.72727272727273" style="193"/>
     <col min="6" max="6" width="9.52727272727273" style="4" customWidth="1"/>
     <col min="7" max="7" width="22.8181818181818" style="4" customWidth="1"/>
     <col min="8" max="16384" width="8.72727272727273" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="193" customFormat="1" ht="15" spans="1:7">
-      <c r="A1" s="196" t="s">
-        <v>288</v>
-      </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="193" t="s">
+    <row r="1" s="191" customFormat="1" ht="15" spans="1:7">
+      <c r="A1" s="194" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="2" s="194" customFormat="1" spans="1:7">
-      <c r="A2" s="200" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="194" t="s">
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="191" t="s">
         <v>290</v>
       </c>
-      <c r="D2" s="194" t="s">
+    </row>
+    <row r="2" s="192" customFormat="1" spans="1:7">
+      <c r="A2" s="198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="199"/>
+      <c r="C2" s="192" t="s">
         <v>291</v>
       </c>
+      <c r="D2" s="192" t="s">
+        <v>292</v>
+      </c>
       <c r="E2" s="141"/>
-      <c r="F2" s="194" t="s">
-        <v>196</v>
-      </c>
-      <c r="G2" s="194" t="s">
-        <v>292</v>
+      <c r="F2" s="192" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="192" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="202">
+      <c r="A3" s="200">
         <v>2025.1</v>
       </c>
       <c r="B3" s="119">
@@ -9058,14 +9091,14 @@
       </c>
       <c r="D3" s="119"/>
       <c r="F3" s="119" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G3" s="119" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="203"/>
+      <c r="A4" s="201"/>
       <c r="B4" s="119">
         <v>15</v>
       </c>
@@ -9074,14 +9107,14 @@
       </c>
       <c r="D4" s="119"/>
       <c r="F4" s="119" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G4" s="119" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="203"/>
+      <c r="A5" s="201"/>
       <c r="B5" s="119">
         <v>17</v>
       </c>
@@ -9090,14 +9123,14 @@
       </c>
       <c r="D5" s="119"/>
       <c r="F5" s="119" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G5" s="119" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="203"/>
+      <c r="A6" s="201"/>
       <c r="B6" s="119">
         <v>22</v>
       </c>
@@ -9105,15 +9138,15 @@
         <v>70</v>
       </c>
       <c r="D6" s="119"/>
-      <c r="F6" s="204" t="s">
-        <v>299</v>
+      <c r="F6" s="202" t="s">
+        <v>300</v>
       </c>
       <c r="G6" s="119" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="203"/>
+      <c r="A7" s="201"/>
       <c r="B7" s="119">
         <v>24</v>
       </c>
@@ -9121,13 +9154,13 @@
         <v>180</v>
       </c>
       <c r="D7" s="119"/>
-      <c r="F7" s="205"/>
+      <c r="F7" s="203"/>
       <c r="G7" s="119" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="203"/>
+      <c r="A8" s="201"/>
       <c r="B8" s="119">
         <v>29</v>
       </c>
@@ -9139,7 +9172,7 @@
       <c r="G8" s="119"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="205"/>
+      <c r="A9" s="203"/>
       <c r="B9" s="119">
         <v>31</v>
       </c>
@@ -9151,7 +9184,7 @@
       <c r="G9" s="119"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="204">
+      <c r="A10" s="202">
         <v>2025.11</v>
       </c>
       <c r="B10" s="119">
@@ -9165,7 +9198,7 @@
       <c r="G10" s="119"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="203"/>
+      <c r="A11" s="201"/>
       <c r="B11" s="119">
         <v>7</v>
       </c>
@@ -9177,7 +9210,7 @@
       <c r="G11" s="119"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="205"/>
+      <c r="A12" s="203"/>
       <c r="B12" s="119">
         <v>14</v>
       </c>
@@ -9189,7 +9222,7 @@
       <c r="G12" s="119"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="204">
+      <c r="A13" s="202">
         <v>2025.12</v>
       </c>
       <c r="B13" s="119">
@@ -9205,7 +9238,7 @@
       <c r="G13" s="119"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="205"/>
+      <c r="A14" s="203"/>
       <c r="B14" s="119">
         <v>31</v>
       </c>
@@ -9241,19 +9274,18 @@
   </sheetPr>
   <dimension ref="A1:BJ53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="O27" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP10" sqref="AP10"/>
+      <selection pane="bottomRight" activeCell="AG44" sqref="AG44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="4.07272727272727" customWidth="1"/>
-    <col min="2" max="35" width="3.23636363636364" customWidth="1"/>
-    <col min="36" max="55" width="3.23636363636364" customWidth="1"/>
+    <col min="2" max="55" width="3.23636363636364" customWidth="1"/>
     <col min="56" max="58" width="4.81818181818182" style="174" customWidth="1"/>
     <col min="59" max="59" width="7.18181818181818" style="174" customWidth="1"/>
     <col min="60" max="62" width="4.81818181818182" style="174" customWidth="1"/>
@@ -9261,7 +9293,7 @@
   <sheetData>
     <row r="1" spans="1:62">
       <c r="A1" s="175" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B1" s="176">
         <v>45992</v>
@@ -9301,184 +9333,184 @@
       <c r="AG1" s="179"/>
       <c r="AH1" s="179"/>
       <c r="AI1" s="179"/>
-      <c r="AJ1" s="180">
+      <c r="AJ1" s="176">
         <v>46054</v>
       </c>
-      <c r="AK1" s="180"/>
-      <c r="AL1" s="180"/>
-      <c r="AM1" s="180"/>
-      <c r="AN1" s="180"/>
-      <c r="AO1" s="180"/>
-      <c r="AP1" s="180"/>
-      <c r="AQ1" s="180"/>
-      <c r="AR1" s="180"/>
-      <c r="AS1" s="180"/>
-      <c r="AT1" s="180"/>
-      <c r="AU1" s="180"/>
-      <c r="AV1" s="180"/>
-      <c r="AW1" s="180"/>
-      <c r="AX1" s="180"/>
-      <c r="AY1" s="180"/>
-      <c r="AZ1" s="180"/>
-      <c r="BA1" s="180"/>
-      <c r="BB1" s="180"/>
-      <c r="BC1" s="180"/>
-      <c r="BD1" s="181" t="s">
-        <v>303</v>
-      </c>
-      <c r="BE1" s="182"/>
-      <c r="BF1" s="182"/>
-      <c r="BG1" s="182"/>
-      <c r="BH1" s="182"/>
-      <c r="BI1" s="182"/>
-      <c r="BJ1" s="183"/>
+      <c r="AK1" s="176"/>
+      <c r="AL1" s="176"/>
+      <c r="AM1" s="176"/>
+      <c r="AN1" s="176"/>
+      <c r="AO1" s="176"/>
+      <c r="AP1" s="176"/>
+      <c r="AQ1" s="176"/>
+      <c r="AR1" s="176"/>
+      <c r="AS1" s="176"/>
+      <c r="AT1" s="176"/>
+      <c r="AU1" s="176"/>
+      <c r="AV1" s="176"/>
+      <c r="AW1" s="176"/>
+      <c r="AX1" s="176"/>
+      <c r="AY1" s="176"/>
+      <c r="AZ1" s="176"/>
+      <c r="BA1" s="176"/>
+      <c r="BB1" s="176"/>
+      <c r="BC1" s="176"/>
+      <c r="BD1" s="180" t="s">
+        <v>304</v>
+      </c>
+      <c r="BE1" s="181"/>
+      <c r="BF1" s="181"/>
+      <c r="BG1" s="181"/>
+      <c r="BH1" s="181"/>
+      <c r="BI1" s="181"/>
+      <c r="BJ1" s="182"/>
     </row>
     <row r="2" s="173" customFormat="1" ht="28" spans="1:62">
       <c r="A2" s="175"/>
-      <c r="B2" s="184">
+      <c r="B2" s="183">
         <v>5</v>
       </c>
-      <c r="C2" s="184">
+      <c r="C2" s="183">
         <v>6</v>
       </c>
-      <c r="D2" s="184">
+      <c r="D2" s="183">
         <v>9</v>
       </c>
-      <c r="E2" s="184">
+      <c r="E2" s="183">
         <v>10</v>
       </c>
-      <c r="F2" s="184">
+      <c r="F2" s="183">
         <v>11</v>
       </c>
-      <c r="G2" s="184">
+      <c r="G2" s="183">
         <v>12</v>
       </c>
-      <c r="H2" s="184">
+      <c r="H2" s="183">
         <v>15</v>
       </c>
-      <c r="I2" s="184">
+      <c r="I2" s="183">
         <v>16</v>
       </c>
-      <c r="J2" s="184">
+      <c r="J2" s="183">
         <v>17</v>
       </c>
-      <c r="K2" s="184">
+      <c r="K2" s="183">
         <v>18</v>
       </c>
-      <c r="L2" s="184">
+      <c r="L2" s="183">
         <v>19</v>
       </c>
-      <c r="M2" s="184">
+      <c r="M2" s="183">
         <v>22</v>
       </c>
-      <c r="N2" s="184">
+      <c r="N2" s="183">
         <v>23</v>
       </c>
-      <c r="O2" s="184">
+      <c r="O2" s="183">
         <v>25</v>
       </c>
-      <c r="P2" s="184">
+      <c r="P2" s="183">
         <v>26</v>
       </c>
-      <c r="Q2" s="184">
+      <c r="Q2" s="183">
         <v>29</v>
       </c>
-      <c r="R2" s="184">
+      <c r="R2" s="183">
         <v>30</v>
       </c>
-      <c r="S2" s="184">
+      <c r="S2" s="183">
         <v>31</v>
       </c>
-      <c r="T2" s="184">
+      <c r="T2" s="183">
         <v>4</v>
       </c>
-      <c r="U2" s="184">
+      <c r="U2" s="183">
         <v>5</v>
       </c>
-      <c r="V2" s="184">
+      <c r="V2" s="183">
         <v>6</v>
       </c>
-      <c r="W2" s="184">
+      <c r="W2" s="183">
         <v>7</v>
       </c>
-      <c r="X2" s="184">
+      <c r="X2" s="183">
         <v>8</v>
       </c>
-      <c r="Y2" s="184">
+      <c r="Y2" s="183">
         <v>11</v>
       </c>
-      <c r="Z2" s="184">
+      <c r="Z2" s="183">
         <v>12</v>
       </c>
-      <c r="AA2" s="184">
+      <c r="AA2" s="183">
         <v>13</v>
       </c>
-      <c r="AB2" s="184">
+      <c r="AB2" s="183">
         <v>14</v>
       </c>
-      <c r="AC2" s="184">
+      <c r="AC2" s="183">
         <v>15</v>
       </c>
-      <c r="AD2" s="184">
+      <c r="AD2" s="183">
         <v>16</v>
       </c>
-      <c r="AE2" s="184">
+      <c r="AE2" s="183">
         <v>19</v>
       </c>
-      <c r="AF2" s="184">
+      <c r="AF2" s="183">
         <v>20</v>
       </c>
-      <c r="AG2" s="184">
+      <c r="AG2" s="183">
         <v>21</v>
       </c>
-      <c r="AH2" s="184">
+      <c r="AH2" s="183">
         <v>22</v>
       </c>
-      <c r="AI2" s="184">
+      <c r="AI2" s="183">
         <v>23</v>
       </c>
-      <c r="AJ2" s="184">
+      <c r="AJ2" s="183">
         <v>26</v>
       </c>
-      <c r="AK2" s="184"/>
-      <c r="AL2" s="184"/>
-      <c r="AM2" s="184"/>
-      <c r="AN2" s="184"/>
-      <c r="AO2" s="184"/>
-      <c r="AP2" s="184"/>
-      <c r="AQ2" s="184"/>
-      <c r="AR2" s="184"/>
-      <c r="AS2" s="184"/>
-      <c r="AT2" s="184"/>
-      <c r="AU2" s="184"/>
-      <c r="AV2" s="184"/>
-      <c r="AW2" s="184"/>
-      <c r="AX2" s="184"/>
-      <c r="AY2" s="184"/>
-      <c r="AZ2" s="184"/>
-      <c r="BA2" s="184"/>
-      <c r="BB2" s="184"/>
-      <c r="BC2" s="184"/>
-      <c r="BD2" s="185" t="s">
-        <v>304</v>
-      </c>
-      <c r="BE2" s="185" t="s">
+      <c r="AK2" s="183"/>
+      <c r="AL2" s="183"/>
+      <c r="AM2" s="183"/>
+      <c r="AN2" s="183"/>
+      <c r="AO2" s="183"/>
+      <c r="AP2" s="183"/>
+      <c r="AQ2" s="183"/>
+      <c r="AR2" s="183"/>
+      <c r="AS2" s="183"/>
+      <c r="AT2" s="183"/>
+      <c r="AU2" s="183"/>
+      <c r="AV2" s="183"/>
+      <c r="AW2" s="183"/>
+      <c r="AX2" s="183"/>
+      <c r="AY2" s="183"/>
+      <c r="AZ2" s="183"/>
+      <c r="BA2" s="183"/>
+      <c r="BB2" s="183"/>
+      <c r="BC2" s="183"/>
+      <c r="BD2" s="184" t="s">
         <v>305</v>
       </c>
-      <c r="BF2" s="185" t="s">
+      <c r="BE2" s="184" t="s">
         <v>306</v>
       </c>
-      <c r="BG2" s="185" t="s">
+      <c r="BF2" s="184" t="s">
         <v>307</v>
       </c>
-      <c r="BH2" s="186" t="s">
+      <c r="BG2" s="184" t="s">
         <v>308</v>
       </c>
-      <c r="BI2" s="186" t="s">
+      <c r="BH2" s="185" t="s">
         <v>309</v>
       </c>
-      <c r="BJ2" s="186" t="s">
+      <c r="BI2" s="185" t="s">
         <v>310</v>
+      </c>
+      <c r="BJ2" s="185" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:62">
@@ -9541,31 +9573,31 @@
       <c r="BA3" s="120"/>
       <c r="BB3" s="120"/>
       <c r="BC3" s="120"/>
-      <c r="BD3" s="187">
+      <c r="BD3" s="186">
         <f>SUM(B3:BC3)</f>
         <v>1</v>
       </c>
-      <c r="BE3" s="187" cm="1">
+      <c r="BE3" s="186" cm="1">
         <f t="array" ref="BE3">SUMPRODUCT(--(B3:BC3=INT(B3:BC3)),--(B3:BC3&gt;0))</f>
         <v>1</v>
       </c>
-      <c r="BF3" s="187" cm="1">
+      <c r="BF3" s="186" cm="1">
         <f t="array" ref="BF3">MAX(FREQUENCY(IF((B3:BC3=INT(B3:BC3))*(B3:BC3&gt;0),COLUMN(B3:BC3)),IF((B3:BC3&lt;&gt;INT(B3:BC3))+(B3:BC3&lt;=0),COLUMN(B3:BC3))))</f>
         <v>1</v>
       </c>
-      <c r="BG3" s="188" cm="1">
+      <c r="BG3" s="187" cm="1">
         <f t="array" ref="BG3">SUMPRODUCT(--(B3:AI3=INT(B3:AI3)),--(B3:AI3&gt;0))/34*100%</f>
         <v>0.0294117647058824</v>
       </c>
-      <c r="BH3" s="189">
+      <c r="BH3" s="188">
         <f>RANK(BD3,BD$3:BD$53,0)</f>
         <v>34</v>
       </c>
-      <c r="BI3" s="189">
+      <c r="BI3" s="188">
         <f>RANK(BE3,BE$3:BE$53,0)</f>
         <v>34</v>
       </c>
-      <c r="BJ3" s="189">
+      <c r="BJ3" s="188">
         <f>RANK(BF3,BF$3:BF$53,0)</f>
         <v>19</v>
       </c>
@@ -9650,31 +9682,31 @@
       <c r="BA4" s="120"/>
       <c r="BB4" s="120"/>
       <c r="BC4" s="120"/>
-      <c r="BD4" s="187">
+      <c r="BD4" s="186">
         <f t="shared" ref="BD4:BD35" si="0">SUM(B4:BC4)</f>
         <v>12</v>
       </c>
-      <c r="BE4" s="187" cm="1">
+      <c r="BE4" s="186" cm="1">
         <f t="array" ref="BE4">SUMPRODUCT(--(B4:BC4=INT(B4:BC4)),--(B4:BC4&gt;0))</f>
         <v>11</v>
       </c>
-      <c r="BF4" s="187" cm="1">
+      <c r="BF4" s="186" cm="1">
         <f t="array" ref="BF4">MAX(FREQUENCY(IF((B4:BC4=INT(B4:BC4))*(B4:BC4&gt;0),COLUMN(B4:BC4)),IF((B4:BC4&lt;&gt;INT(B4:BC4))+(B4:BC4&lt;=0),COLUMN(B4:BC4))))</f>
         <v>3</v>
       </c>
-      <c r="BG4" s="188" cm="1">
+      <c r="BG4" s="187" cm="1">
         <f t="array" ref="BG4">SUMPRODUCT(--(B4:AI4=INT(B4:AI4)),--(B4:AI4&gt;0))/34*100%</f>
         <v>0.323529411764706</v>
       </c>
-      <c r="BH4" s="189">
+      <c r="BH4" s="188">
         <f t="shared" ref="BH4:BJ4" si="1">RANK(BD4,BD$3:BD$53,0)</f>
         <v>7</v>
       </c>
-      <c r="BI4" s="189">
+      <c r="BI4" s="188">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="BJ4" s="189">
+        <v>7</v>
+      </c>
+      <c r="BJ4" s="188">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -9741,31 +9773,31 @@
       <c r="BA5" s="120"/>
       <c r="BB5" s="120"/>
       <c r="BC5" s="120"/>
-      <c r="BD5" s="187">
+      <c r="BD5" s="186">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="BE5" s="187" cm="1">
+      <c r="BE5" s="186" cm="1">
         <f t="array" ref="BE5">SUMPRODUCT(--(B5:BC5=INT(B5:BC5)),--(B5:BC5&gt;0))</f>
         <v>2</v>
       </c>
-      <c r="BF5" s="187" cm="1">
+      <c r="BF5" s="186" cm="1">
         <f t="array" ref="BF5">MAX(FREQUENCY(IF((B5:BC5=INT(B5:BC5))*(B5:BC5&gt;0),COLUMN(B5:BC5)),IF((B5:BC5&lt;&gt;INT(B5:BC5))+(B5:BC5&lt;=0),COLUMN(B5:BC5))))</f>
         <v>1</v>
       </c>
-      <c r="BG5" s="188" cm="1">
+      <c r="BG5" s="187" cm="1">
         <f t="array" ref="BG5">SUMPRODUCT(--(B5:AI5=INT(B5:AI5)),--(B5:AI5&gt;0))/34*100%</f>
         <v>0.0588235294117647</v>
       </c>
-      <c r="BH5" s="189">
+      <c r="BH5" s="188">
         <f t="shared" ref="BH5:BJ5" si="2">RANK(BD5,BD$3:BD$53,0)</f>
         <v>29</v>
       </c>
-      <c r="BI5" s="189">
+      <c r="BI5" s="188">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="BJ5" s="189">
+      <c r="BJ5" s="188">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
@@ -9834,31 +9866,31 @@
       <c r="BA6" s="120"/>
       <c r="BB6" s="120"/>
       <c r="BC6" s="120"/>
-      <c r="BD6" s="187">
+      <c r="BD6" s="186">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="BE6" s="187" cm="1">
+      <c r="BE6" s="186" cm="1">
         <f t="array" ref="BE6">SUMPRODUCT(--(B6:BC6=INT(B6:BC6)),--(B6:BC6&gt;0))</f>
         <v>3</v>
       </c>
-      <c r="BF6" s="187" cm="1">
+      <c r="BF6" s="186" cm="1">
         <f t="array" ref="BF6">MAX(FREQUENCY(IF((B6:BC6=INT(B6:BC6))*(B6:BC6&gt;0),COLUMN(B6:BC6)),IF((B6:BC6&lt;&gt;INT(B6:BC6))+(B6:BC6&lt;=0),COLUMN(B6:BC6))))</f>
         <v>1</v>
       </c>
-      <c r="BG6" s="188" cm="1">
+      <c r="BG6" s="187" cm="1">
         <f t="array" ref="BG6">SUMPRODUCT(--(B6:AI6=INT(B6:AI6)),--(B6:AI6&gt;0))/34*100%</f>
         <v>0.0588235294117647</v>
       </c>
-      <c r="BH6" s="189">
+      <c r="BH6" s="188">
         <f t="shared" ref="BH6:BJ6" si="3">RANK(BD6,BD$3:BD$53,0)</f>
         <v>28</v>
       </c>
-      <c r="BI6" s="189">
+      <c r="BI6" s="188">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="BJ6" s="189">
+      <c r="BJ6" s="188">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -9927,31 +9959,31 @@
       <c r="BA7" s="120"/>
       <c r="BB7" s="120"/>
       <c r="BC7" s="120"/>
-      <c r="BD7" s="187">
+      <c r="BD7" s="186">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="BE7" s="187" cm="1">
+      <c r="BE7" s="186" cm="1">
         <f t="array" ref="BE7">SUMPRODUCT(--(B7:BC7=INT(B7:BC7)),--(B7:BC7&gt;0))</f>
         <v>3</v>
       </c>
-      <c r="BF7" s="187" cm="1">
+      <c r="BF7" s="186" cm="1">
         <f t="array" ref="BF7">MAX(FREQUENCY(IF((B7:BC7=INT(B7:BC7))*(B7:BC7&gt;0),COLUMN(B7:BC7)),IF((B7:BC7&lt;&gt;INT(B7:BC7))+(B7:BC7&lt;=0),COLUMN(B7:BC7))))</f>
         <v>1</v>
       </c>
-      <c r="BG7" s="188" cm="1">
+      <c r="BG7" s="187" cm="1">
         <f t="array" ref="BG7">SUMPRODUCT(--(B7:AI7=INT(B7:AI7)),--(B7:AI7&gt;0))/34*100%</f>
         <v>0.0882352941176471</v>
       </c>
-      <c r="BH7" s="189">
+      <c r="BH7" s="188">
         <f t="shared" ref="BH7:BJ7" si="4">RANK(BD7,BD$3:BD$53,0)</f>
         <v>23</v>
       </c>
-      <c r="BI7" s="189">
+      <c r="BI7" s="188">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="BJ7" s="189">
+      <c r="BJ7" s="188">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
@@ -10029,7 +10061,9 @@
       <c r="AJ8" s="120">
         <v>1</v>
       </c>
-      <c r="AK8" s="120"/>
+      <c r="AK8" s="120">
+        <v>1</v>
+      </c>
       <c r="AL8" s="120"/>
       <c r="AM8" s="120"/>
       <c r="AN8" s="120"/>
@@ -10048,31 +10082,31 @@
       <c r="BA8" s="120"/>
       <c r="BB8" s="120"/>
       <c r="BC8" s="120"/>
-      <c r="BD8" s="187">
+      <c r="BD8" s="186">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="BE8" s="187" cm="1">
+        <v>18</v>
+      </c>
+      <c r="BE8" s="186" cm="1">
         <f t="array" ref="BE8">SUMPRODUCT(--(B8:BC8=INT(B8:BC8)),--(B8:BC8&gt;0))</f>
-        <v>17</v>
-      </c>
-      <c r="BF8" s="187" cm="1">
+        <v>18</v>
+      </c>
+      <c r="BF8" s="186" cm="1">
         <f t="array" ref="BF8">MAX(FREQUENCY(IF((B8:BC8=INT(B8:BC8))*(B8:BC8&gt;0),COLUMN(B8:BC8)),IF((B8:BC8&lt;&gt;INT(B8:BC8))+(B8:BC8&lt;=0),COLUMN(B8:BC8))))</f>
         <v>5</v>
       </c>
-      <c r="BG8" s="188" cm="1">
+      <c r="BG8" s="187" cm="1">
         <f t="array" ref="BG8">SUMPRODUCT(--(B8:AI8=INT(B8:AI8)),--(B8:AI8&gt;0))/34*100%</f>
         <v>0.470588235294118</v>
       </c>
-      <c r="BH8" s="189">
+      <c r="BH8" s="188">
         <f t="shared" ref="BH8:BJ8" si="5">RANK(BD8,BD$3:BD$53,0)</f>
         <v>3</v>
       </c>
-      <c r="BI8" s="189">
+      <c r="BI8" s="188">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="BJ8" s="189">
+      <c r="BJ8" s="188">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -10138,7 +10172,9 @@
       <c r="AJ9" s="120">
         <v>1</v>
       </c>
-      <c r="AK9" s="120"/>
+      <c r="AK9" s="120">
+        <v>1</v>
+      </c>
       <c r="AL9" s="120"/>
       <c r="AM9" s="120"/>
       <c r="AN9" s="120"/>
@@ -10157,31 +10193,31 @@
       <c r="BA9" s="120"/>
       <c r="BB9" s="120"/>
       <c r="BC9" s="120"/>
-      <c r="BD9" s="187">
+      <c r="BD9" s="186">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="BE9" s="187" cm="1">
+        <v>12</v>
+      </c>
+      <c r="BE9" s="186" cm="1">
         <f t="array" ref="BE9">SUMPRODUCT(--(B9:BC9=INT(B9:BC9)),--(B9:BC9&gt;0))</f>
-        <v>11</v>
-      </c>
-      <c r="BF9" s="187" cm="1">
+        <v>12</v>
+      </c>
+      <c r="BF9" s="186" cm="1">
         <f t="array" ref="BF9">MAX(FREQUENCY(IF((B9:BC9=INT(B9:BC9))*(B9:BC9&gt;0),COLUMN(B9:BC9)),IF((B9:BC9&lt;&gt;INT(B9:BC9))+(B9:BC9&lt;=0),COLUMN(B9:BC9))))</f>
         <v>3</v>
       </c>
-      <c r="BG9" s="188" cm="1">
+      <c r="BG9" s="187" cm="1">
         <f t="array" ref="BG9">SUMPRODUCT(--(B9:AI9=INT(B9:AI9)),--(B9:AI9&gt;0))/34*100%</f>
         <v>0.294117647058824</v>
       </c>
-      <c r="BH9" s="189">
+      <c r="BH9" s="188">
         <f>RANK(BD9,BD$3:BD$53,0)</f>
-        <v>9</v>
-      </c>
-      <c r="BI9" s="189">
+        <v>7</v>
+      </c>
+      <c r="BI9" s="188">
         <f t="shared" ref="BH9:BJ9" si="6">RANK(BE9,BE$3:BE$53,0)</f>
         <v>6</v>
       </c>
-      <c r="BJ9" s="189">
+      <c r="BJ9" s="188">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
@@ -10246,31 +10282,31 @@
       <c r="BA10" s="120"/>
       <c r="BB10" s="120"/>
       <c r="BC10" s="120"/>
-      <c r="BD10" s="187">
+      <c r="BD10" s="186">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BE10" s="187" cm="1">
+      <c r="BE10" s="186" cm="1">
         <f t="array" ref="BE10">SUMPRODUCT(--(B10:BC10=INT(B10:BC10)),--(B10:BC10&gt;0))</f>
         <v>1</v>
       </c>
-      <c r="BF10" s="187" cm="1">
+      <c r="BF10" s="186" cm="1">
         <f t="array" ref="BF10">MAX(FREQUENCY(IF((B10:BC10=INT(B10:BC10))*(B10:BC10&gt;0),COLUMN(B10:BC10)),IF((B10:BC10&lt;&gt;INT(B10:BC10))+(B10:BC10&lt;=0),COLUMN(B10:BC10))))</f>
         <v>1</v>
       </c>
-      <c r="BG10" s="188" cm="1">
+      <c r="BG10" s="187" cm="1">
         <f t="array" ref="BG10">SUMPRODUCT(--(B10:AI10=INT(B10:AI10)),--(B10:AI10&gt;0))/34*100%</f>
         <v>0.0294117647058824</v>
       </c>
-      <c r="BH10" s="189">
+      <c r="BH10" s="188">
         <f t="shared" ref="BH10:BJ10" si="7">RANK(BD10,BD$3:BD$53,0)</f>
         <v>34</v>
       </c>
-      <c r="BI10" s="189">
+      <c r="BI10" s="188">
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="BJ10" s="189">
+      <c r="BJ10" s="188">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
@@ -10347,31 +10383,31 @@
       <c r="BA11" s="120"/>
       <c r="BB11" s="120"/>
       <c r="BC11" s="120"/>
-      <c r="BD11" s="187">
+      <c r="BD11" s="186">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="BE11" s="187" cm="1">
+      <c r="BE11" s="186" cm="1">
         <f t="array" ref="BE11">SUMPRODUCT(--(B11:BC11=INT(B11:BC11)),--(B11:BC11&gt;0))</f>
         <v>7</v>
       </c>
-      <c r="BF11" s="187" cm="1">
+      <c r="BF11" s="186" cm="1">
         <f t="array" ref="BF11">MAX(FREQUENCY(IF((B11:BC11=INT(B11:BC11))*(B11:BC11&gt;0),COLUMN(B11:BC11)),IF((B11:BC11&lt;&gt;INT(B11:BC11))+(B11:BC11&lt;=0),COLUMN(B11:BC11))))</f>
         <v>1</v>
       </c>
-      <c r="BG11" s="188" cm="1">
+      <c r="BG11" s="187" cm="1">
         <f t="array" ref="BG11">SUMPRODUCT(--(B11:AI11=INT(B11:AI11)),--(B11:AI11&gt;0))/34*100%</f>
         <v>0.205882352941176</v>
       </c>
-      <c r="BH11" s="189">
+      <c r="BH11" s="188">
         <f t="shared" ref="BH11:BJ11" si="8">RANK(BD11,BD$3:BD$53,0)</f>
         <v>18</v>
       </c>
-      <c r="BI11" s="189">
+      <c r="BI11" s="188">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="BJ11" s="189">
+      <c r="BJ11" s="188">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
@@ -10438,31 +10474,31 @@
       <c r="BA12" s="120"/>
       <c r="BB12" s="120"/>
       <c r="BC12" s="120"/>
-      <c r="BD12" s="187">
+      <c r="BD12" s="186">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="BE12" s="187" cm="1">
+      <c r="BE12" s="186" cm="1">
         <f t="array" ref="BE12">SUMPRODUCT(--(B12:BC12=INT(B12:BC12)),--(B12:BC12&gt;0))</f>
         <v>2</v>
       </c>
-      <c r="BF12" s="187" cm="1">
+      <c r="BF12" s="186" cm="1">
         <f t="array" ref="BF12">MAX(FREQUENCY(IF((B12:BC12=INT(B12:BC12))*(B12:BC12&gt;0),COLUMN(B12:BC12)),IF((B12:BC12&lt;&gt;INT(B12:BC12))+(B12:BC12&lt;=0),COLUMN(B12:BC12))))</f>
         <v>1</v>
       </c>
-      <c r="BG12" s="188" cm="1">
+      <c r="BG12" s="187" cm="1">
         <f t="array" ref="BG12">SUMPRODUCT(--(B12:AI12=INT(B12:AI12)),--(B12:AI12&gt;0))/34*100%</f>
         <v>0.0588235294117647</v>
       </c>
-      <c r="BH12" s="189">
+      <c r="BH12" s="188">
         <f t="shared" ref="BH12:BJ12" si="9">RANK(BD12,BD$3:BD$53,0)</f>
         <v>29</v>
       </c>
-      <c r="BI12" s="189">
+      <c r="BI12" s="188">
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="BJ12" s="189">
+      <c r="BJ12" s="188">
         <f t="shared" si="9"/>
         <v>19</v>
       </c>
@@ -10543,31 +10579,31 @@
       <c r="BA13" s="120"/>
       <c r="BB13" s="120"/>
       <c r="BC13" s="120"/>
-      <c r="BD13" s="187">
+      <c r="BD13" s="186">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="BE13" s="187" cm="1">
+      <c r="BE13" s="186" cm="1">
         <f t="array" ref="BE13">SUMPRODUCT(--(B13:BC13=INT(B13:BC13)),--(B13:BC13&gt;0))</f>
         <v>9</v>
       </c>
-      <c r="BF13" s="187" cm="1">
+      <c r="BF13" s="186" cm="1">
         <f t="array" ref="BF13">MAX(FREQUENCY(IF((B13:BC13=INT(B13:BC13))*(B13:BC13&gt;0),COLUMN(B13:BC13)),IF((B13:BC13&lt;&gt;INT(B13:BC13))+(B13:BC13&lt;=0),COLUMN(B13:BC13))))</f>
         <v>1</v>
       </c>
-      <c r="BG13" s="188" cm="1">
+      <c r="BG13" s="187" cm="1">
         <f t="array" ref="BG13">SUMPRODUCT(--(B13:AI13=INT(B13:AI13)),--(B13:AI13&gt;0))/34*100%</f>
         <v>0.235294117647059</v>
       </c>
-      <c r="BH13" s="189">
+      <c r="BH13" s="188">
         <f t="shared" ref="BH13:BJ13" si="10">RANK(BD13,BD$3:BD$53,0)</f>
-        <v>12</v>
-      </c>
-      <c r="BI13" s="189">
+        <v>14</v>
+      </c>
+      <c r="BI13" s="188">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="BJ13" s="189">
+        <v>11</v>
+      </c>
+      <c r="BJ13" s="188">
         <f t="shared" si="10"/>
         <v>19</v>
       </c>
@@ -10634,31 +10670,31 @@
       <c r="BA14" s="120"/>
       <c r="BB14" s="120"/>
       <c r="BC14" s="120"/>
-      <c r="BD14" s="187">
+      <c r="BD14" s="186">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="BE14" s="187" cm="1">
+      <c r="BE14" s="186" cm="1">
         <f t="array" ref="BE14">SUMPRODUCT(--(B14:BC14=INT(B14:BC14)),--(B14:BC14&gt;0))</f>
         <v>2</v>
       </c>
-      <c r="BF14" s="187" cm="1">
+      <c r="BF14" s="186" cm="1">
         <f t="array" ref="BF14">MAX(FREQUENCY(IF((B14:BC14=INT(B14:BC14))*(B14:BC14&gt;0),COLUMN(B14:BC14)),IF((B14:BC14&lt;&gt;INT(B14:BC14))+(B14:BC14&lt;=0),COLUMN(B14:BC14))))</f>
         <v>1</v>
       </c>
-      <c r="BG14" s="188" cm="1">
+      <c r="BG14" s="187" cm="1">
         <f t="array" ref="BG14">SUMPRODUCT(--(B14:AI14=INT(B14:AI14)),--(B14:AI14&gt;0))/34*100%</f>
         <v>0.0588235294117647</v>
       </c>
-      <c r="BH14" s="189">
+      <c r="BH14" s="188">
         <f t="shared" ref="BH14:BJ14" si="11">RANK(BD14,BD$3:BD$53,0)</f>
         <v>29</v>
       </c>
-      <c r="BI14" s="189">
+      <c r="BI14" s="188">
         <f t="shared" si="11"/>
         <v>29</v>
       </c>
-      <c r="BJ14" s="189">
+      <c r="BJ14" s="188">
         <f t="shared" si="11"/>
         <v>19</v>
       </c>
@@ -10739,31 +10775,31 @@
       <c r="BA15" s="120"/>
       <c r="BB15" s="120"/>
       <c r="BC15" s="120"/>
-      <c r="BD15" s="187">
+      <c r="BD15" s="186">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="BE15" s="187" cm="1">
+      <c r="BE15" s="186" cm="1">
         <f t="array" ref="BE15">SUMPRODUCT(--(B15:BC15=INT(B15:BC15)),--(B15:BC15&gt;0))</f>
         <v>9</v>
       </c>
-      <c r="BF15" s="187" cm="1">
+      <c r="BF15" s="186" cm="1">
         <f t="array" ref="BF15">MAX(FREQUENCY(IF((B15:BC15=INT(B15:BC15))*(B15:BC15&gt;0),COLUMN(B15:BC15)),IF((B15:BC15&lt;&gt;INT(B15:BC15))+(B15:BC15&lt;=0),COLUMN(B15:BC15))))</f>
         <v>2</v>
       </c>
-      <c r="BG15" s="188" cm="1">
+      <c r="BG15" s="187" cm="1">
         <f t="array" ref="BG15">SUMPRODUCT(--(B15:AI15=INT(B15:AI15)),--(B15:AI15&gt;0))/34*100%</f>
         <v>0.264705882352941</v>
       </c>
-      <c r="BH15" s="189">
+      <c r="BH15" s="188">
         <f t="shared" ref="BH15:BJ15" si="12">RANK(BD15,BD$3:BD$53,0)</f>
         <v>11</v>
       </c>
-      <c r="BI15" s="189">
+      <c r="BI15" s="188">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="BJ15" s="189">
+        <v>11</v>
+      </c>
+      <c r="BJ15" s="188">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
@@ -10830,31 +10866,31 @@
       <c r="BA16" s="120"/>
       <c r="BB16" s="120"/>
       <c r="BC16" s="120"/>
-      <c r="BD16" s="187">
+      <c r="BD16" s="186">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="BE16" s="187" cm="1">
+      <c r="BE16" s="186" cm="1">
         <f t="array" ref="BE16">SUMPRODUCT(--(B16:BC16=INT(B16:BC16)),--(B16:BC16&gt;0))</f>
         <v>2</v>
       </c>
-      <c r="BF16" s="187" cm="1">
+      <c r="BF16" s="186" cm="1">
         <f t="array" ref="BF16">MAX(FREQUENCY(IF((B16:BC16=INT(B16:BC16))*(B16:BC16&gt;0),COLUMN(B16:BC16)),IF((B16:BC16&lt;&gt;INT(B16:BC16))+(B16:BC16&lt;=0),COLUMN(B16:BC16))))</f>
         <v>1</v>
       </c>
-      <c r="BG16" s="188" cm="1">
+      <c r="BG16" s="187" cm="1">
         <f t="array" ref="BG16">SUMPRODUCT(--(B16:AI16=INT(B16:AI16)),--(B16:AI16&gt;0))/34*100%</f>
         <v>0.0588235294117647</v>
       </c>
-      <c r="BH16" s="189">
+      <c r="BH16" s="188">
         <f t="shared" ref="BH16:BJ16" si="13">RANK(BD16,BD$3:BD$53,0)</f>
         <v>29</v>
       </c>
-      <c r="BI16" s="189">
+      <c r="BI16" s="188">
         <f t="shared" si="13"/>
         <v>29</v>
       </c>
-      <c r="BJ16" s="189">
+      <c r="BJ16" s="188">
         <f t="shared" si="13"/>
         <v>19</v>
       </c>
@@ -10925,31 +10961,31 @@
       <c r="BA17" s="120"/>
       <c r="BB17" s="120"/>
       <c r="BC17" s="120"/>
-      <c r="BD17" s="187">
+      <c r="BD17" s="186">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="BE17" s="187" cm="1">
+      <c r="BE17" s="186" cm="1">
         <f t="array" ref="BE17">SUMPRODUCT(--(B17:BC17=INT(B17:BC17)),--(B17:BC17&gt;0))</f>
         <v>4</v>
       </c>
-      <c r="BF17" s="187" cm="1">
+      <c r="BF17" s="186" cm="1">
         <f t="array" ref="BF17">MAX(FREQUENCY(IF((B17:BC17=INT(B17:BC17))*(B17:BC17&gt;0),COLUMN(B17:BC17)),IF((B17:BC17&lt;&gt;INT(B17:BC17))+(B17:BC17&lt;=0),COLUMN(B17:BC17))))</f>
         <v>1</v>
       </c>
-      <c r="BG17" s="188" cm="1">
+      <c r="BG17" s="187" cm="1">
         <f t="array" ref="BG17">SUMPRODUCT(--(B17:AI17=INT(B17:AI17)),--(B17:AI17&gt;0))/34*100%</f>
         <v>0.0882352941176471</v>
       </c>
-      <c r="BH17" s="189">
+      <c r="BH17" s="188">
         <f t="shared" ref="BH17:BJ17" si="14">RANK(BD17,BD$3:BD$53,0)</f>
         <v>23</v>
       </c>
-      <c r="BI17" s="189">
+      <c r="BI17" s="188">
         <f t="shared" si="14"/>
         <v>23</v>
       </c>
-      <c r="BJ17" s="189">
+      <c r="BJ17" s="188">
         <f t="shared" si="14"/>
         <v>19</v>
       </c>
@@ -11014,31 +11050,31 @@
       <c r="BA18" s="120"/>
       <c r="BB18" s="120"/>
       <c r="BC18" s="120"/>
-      <c r="BD18" s="187">
+      <c r="BD18" s="186">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BE18" s="187" cm="1">
+      <c r="BE18" s="186" cm="1">
         <f t="array" ref="BE18">SUMPRODUCT(--(B18:BC18=INT(B18:BC18)),--(B18:BC18&gt;0))</f>
         <v>1</v>
       </c>
-      <c r="BF18" s="187" cm="1">
+      <c r="BF18" s="186" cm="1">
         <f t="array" ref="BF18">MAX(FREQUENCY(IF((B18:BC18=INT(B18:BC18))*(B18:BC18&gt;0),COLUMN(B18:BC18)),IF((B18:BC18&lt;&gt;INT(B18:BC18))+(B18:BC18&lt;=0),COLUMN(B18:BC18))))</f>
         <v>1</v>
       </c>
-      <c r="BG18" s="188" cm="1">
+      <c r="BG18" s="187" cm="1">
         <f t="array" ref="BG18">SUMPRODUCT(--(B18:AI18=INT(B18:AI18)),--(B18:AI18&gt;0))/34*100%</f>
         <v>0.0294117647058824</v>
       </c>
-      <c r="BH18" s="189">
+      <c r="BH18" s="188">
         <f t="shared" ref="BH18:BJ18" si="15">RANK(BD18,BD$3:BD$53,0)</f>
         <v>34</v>
       </c>
-      <c r="BI18" s="189">
+      <c r="BI18" s="188">
         <f t="shared" si="15"/>
         <v>34</v>
       </c>
-      <c r="BJ18" s="189">
+      <c r="BJ18" s="188">
         <f t="shared" si="15"/>
         <v>19</v>
       </c>
@@ -11111,31 +11147,31 @@
       <c r="BA19" s="120"/>
       <c r="BB19" s="120"/>
       <c r="BC19" s="120"/>
-      <c r="BD19" s="187">
+      <c r="BD19" s="186">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="BE19" s="187" cm="1">
+      <c r="BE19" s="186" cm="1">
         <f t="array" ref="BE19">SUMPRODUCT(--(B19:BC19=INT(B19:BC19)),--(B19:BC19&gt;0))</f>
         <v>5</v>
       </c>
-      <c r="BF19" s="187" cm="1">
+      <c r="BF19" s="186" cm="1">
         <f t="array" ref="BF19">MAX(FREQUENCY(IF((B19:BC19=INT(B19:BC19))*(B19:BC19&gt;0),COLUMN(B19:BC19)),IF((B19:BC19&lt;&gt;INT(B19:BC19))+(B19:BC19&lt;=0),COLUMN(B19:BC19))))</f>
         <v>2</v>
       </c>
-      <c r="BG19" s="188" cm="1">
+      <c r="BG19" s="187" cm="1">
         <f t="array" ref="BG19">SUMPRODUCT(--(B19:AI19=INT(B19:AI19)),--(B19:AI19&gt;0))/34*100%</f>
         <v>0.147058823529412</v>
       </c>
-      <c r="BH19" s="189">
+      <c r="BH19" s="188">
         <f t="shared" ref="BH19:BJ19" si="16">RANK(BD19,BD$3:BD$53,0)</f>
         <v>20</v>
       </c>
-      <c r="BI19" s="189">
+      <c r="BI19" s="188">
         <f t="shared" si="16"/>
         <v>20</v>
       </c>
-      <c r="BJ19" s="189">
+      <c r="BJ19" s="188">
         <f t="shared" si="16"/>
         <v>13</v>
       </c>
@@ -11200,31 +11236,31 @@
       <c r="BA20" s="120"/>
       <c r="BB20" s="120"/>
       <c r="BC20" s="120"/>
-      <c r="BD20" s="187">
+      <c r="BD20" s="186">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BE20" s="187" cm="1">
+      <c r="BE20" s="186" cm="1">
         <f t="array" ref="BE20">SUMPRODUCT(--(B20:BC20=INT(B20:BC20)),--(B20:BC20&gt;0))</f>
         <v>1</v>
       </c>
-      <c r="BF20" s="187" cm="1">
+      <c r="BF20" s="186" cm="1">
         <f t="array" ref="BF20">MAX(FREQUENCY(IF((B20:BC20=INT(B20:BC20))*(B20:BC20&gt;0),COLUMN(B20:BC20)),IF((B20:BC20&lt;&gt;INT(B20:BC20))+(B20:BC20&lt;=0),COLUMN(B20:BC20))))</f>
         <v>1</v>
       </c>
-      <c r="BG20" s="188" cm="1">
+      <c r="BG20" s="187" cm="1">
         <f t="array" ref="BG20">SUMPRODUCT(--(B20:AI20=INT(B20:AI20)),--(B20:AI20&gt;0))/34*100%</f>
         <v>0.0294117647058824</v>
       </c>
-      <c r="BH20" s="189">
+      <c r="BH20" s="188">
         <f t="shared" ref="BH20:BJ20" si="17">RANK(BD20,BD$3:BD$53,0)</f>
         <v>34</v>
       </c>
-      <c r="BI20" s="189">
+      <c r="BI20" s="188">
         <f t="shared" si="17"/>
         <v>34</v>
       </c>
-      <c r="BJ20" s="189">
+      <c r="BJ20" s="188">
         <f t="shared" si="17"/>
         <v>19</v>
       </c>
@@ -11291,31 +11327,31 @@
       <c r="BA21" s="120"/>
       <c r="BB21" s="120"/>
       <c r="BC21" s="120"/>
-      <c r="BD21" s="187">
+      <c r="BD21" s="186">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="BE21" s="187" cm="1">
+      <c r="BE21" s="186" cm="1">
         <f t="array" ref="BE21">SUMPRODUCT(--(B21:BC21=INT(B21:BC21)),--(B21:BC21&gt;0))</f>
         <v>2</v>
       </c>
-      <c r="BF21" s="187" cm="1">
+      <c r="BF21" s="186" cm="1">
         <f t="array" ref="BF21">MAX(FREQUENCY(IF((B21:BC21=INT(B21:BC21))*(B21:BC21&gt;0),COLUMN(B21:BC21)),IF((B21:BC21&lt;&gt;INT(B21:BC21))+(B21:BC21&lt;=0),COLUMN(B21:BC21))))</f>
         <v>1</v>
       </c>
-      <c r="BG21" s="188" cm="1">
+      <c r="BG21" s="187" cm="1">
         <f t="array" ref="BG21">SUMPRODUCT(--(B21:AI21=INT(B21:AI21)),--(B21:AI21&gt;0))/34*100%</f>
         <v>0.0588235294117647</v>
       </c>
-      <c r="BH21" s="189">
+      <c r="BH21" s="188">
         <f t="shared" ref="BH21:BJ21" si="18">RANK(BD21,BD$3:BD$53,0)</f>
         <v>29</v>
       </c>
-      <c r="BI21" s="189">
+      <c r="BI21" s="188">
         <f t="shared" si="18"/>
         <v>29</v>
       </c>
-      <c r="BJ21" s="189">
+      <c r="BJ21" s="188">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
@@ -11400,37 +11436,37 @@
       <c r="BA22" s="120"/>
       <c r="BB22" s="120"/>
       <c r="BC22" s="120"/>
-      <c r="BD22" s="187">
+      <c r="BD22" s="186">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="BE22" s="187" cm="1">
+      <c r="BE22" s="186" cm="1">
         <f t="array" ref="BE22">SUMPRODUCT(--(B22:BC22=INT(B22:BC22)),--(B22:BC22&gt;0))</f>
         <v>11</v>
       </c>
-      <c r="BF22" s="187" cm="1">
+      <c r="BF22" s="186" cm="1">
         <f t="array" ref="BF22">MAX(FREQUENCY(IF((B22:BC22=INT(B22:BC22))*(B22:BC22&gt;0),COLUMN(B22:BC22)),IF((B22:BC22&lt;&gt;INT(B22:BC22))+(B22:BC22&lt;=0),COLUMN(B22:BC22))))</f>
         <v>4</v>
       </c>
-      <c r="BG22" s="188" cm="1">
+      <c r="BG22" s="187" cm="1">
         <f t="array" ref="BG22">SUMPRODUCT(--(B22:AI22=INT(B22:AI22)),--(B22:AI22&gt;0))/34*100%</f>
         <v>0.294117647058824</v>
       </c>
-      <c r="BH22" s="189">
+      <c r="BH22" s="188">
         <f t="shared" ref="BH22:BJ22" si="19">RANK(BD22,BD$3:BD$53,0)</f>
         <v>6</v>
       </c>
-      <c r="BI22" s="189">
+      <c r="BI22" s="188">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="BJ22" s="188">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="BJ22" s="189">
-        <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
     </row>
     <row r="23" customHeight="1" spans="1:62">
-      <c r="A23" s="190">
+      <c r="A23" s="189">
         <v>21</v>
       </c>
       <c r="B23" s="120"/>
@@ -11487,31 +11523,31 @@
       <c r="BA23" s="120"/>
       <c r="BB23" s="120"/>
       <c r="BC23" s="120"/>
-      <c r="BD23" s="187">
+      <c r="BD23" s="186">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BE23" s="187" cm="1">
+      <c r="BE23" s="186" cm="1">
         <f t="array" ref="BE23">SUMPRODUCT(--(B23:BC23=INT(B23:BC23)),--(B23:BC23&gt;0))</f>
         <v>0</v>
       </c>
-      <c r="BF23" s="187" cm="1">
+      <c r="BF23" s="186" cm="1">
         <f t="array" ref="BF23">MAX(FREQUENCY(IF((B23:BC23=INT(B23:BC23))*(B23:BC23&gt;0),COLUMN(B23:BC23)),IF((B23:BC23&lt;&gt;INT(B23:BC23))+(B23:BC23&lt;=0),COLUMN(B23:BC23))))</f>
         <v>0</v>
       </c>
-      <c r="BG23" s="188" cm="1">
+      <c r="BG23" s="187" cm="1">
         <f t="array" ref="BG23">SUMPRODUCT(--(B23:AI23=INT(B23:AI23)),--(B23:AI23&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="BH23" s="189">
+      <c r="BH23" s="188">
         <f t="shared" ref="BH23:BJ23" si="20">RANK(BD23,BD$3:BD$53,0)</f>
         <v>41</v>
       </c>
-      <c r="BI23" s="189">
+      <c r="BI23" s="188">
         <f t="shared" si="20"/>
         <v>41</v>
       </c>
-      <c r="BJ23" s="189">
+      <c r="BJ23" s="188">
         <f t="shared" si="20"/>
         <v>41</v>
       </c>
@@ -11590,31 +11626,31 @@
       <c r="BA24" s="120"/>
       <c r="BB24" s="120"/>
       <c r="BC24" s="120"/>
-      <c r="BD24" s="187">
+      <c r="BD24" s="186">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="BE24" s="187" cm="1">
+      <c r="BE24" s="186" cm="1">
         <f t="array" ref="BE24">SUMPRODUCT(--(B24:BC24=INT(B24:BC24)),--(B24:BC24&gt;0))</f>
         <v>8</v>
       </c>
-      <c r="BF24" s="187" cm="1">
+      <c r="BF24" s="186" cm="1">
         <f t="array" ref="BF24">MAX(FREQUENCY(IF((B24:BC24=INT(B24:BC24))*(B24:BC24&gt;0),COLUMN(B24:BC24)),IF((B24:BC24&lt;&gt;INT(B24:BC24))+(B24:BC24&lt;=0),COLUMN(B24:BC24))))</f>
         <v>3</v>
       </c>
-      <c r="BG24" s="188" cm="1">
+      <c r="BG24" s="187" cm="1">
         <f t="array" ref="BG24">SUMPRODUCT(--(B24:AI24=INT(B24:AI24)),--(B24:AI24&gt;0))/34*100%</f>
         <v>0.235294117647059</v>
       </c>
-      <c r="BH24" s="189">
+      <c r="BH24" s="188">
         <f t="shared" ref="BH24:BJ24" si="21">RANK(BD24,BD$3:BD$53,0)</f>
         <v>16</v>
       </c>
-      <c r="BI24" s="189">
+      <c r="BI24" s="188">
         <f t="shared" si="21"/>
-        <v>15</v>
-      </c>
-      <c r="BJ24" s="189">
+        <v>16</v>
+      </c>
+      <c r="BJ24" s="188">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
@@ -11679,37 +11715,37 @@
       <c r="BA25" s="120"/>
       <c r="BB25" s="120"/>
       <c r="BC25" s="120"/>
-      <c r="BD25" s="187">
+      <c r="BD25" s="186">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BE25" s="187" cm="1">
+      <c r="BE25" s="186" cm="1">
         <f t="array" ref="BE25">SUMPRODUCT(--(B25:BC25=INT(B25:BC25)),--(B25:BC25&gt;0))</f>
         <v>1</v>
       </c>
-      <c r="BF25" s="187" cm="1">
+      <c r="BF25" s="186" cm="1">
         <f t="array" ref="BF25">MAX(FREQUENCY(IF((B25:BC25=INT(B25:BC25))*(B25:BC25&gt;0),COLUMN(B25:BC25)),IF((B25:BC25&lt;&gt;INT(B25:BC25))+(B25:BC25&lt;=0),COLUMN(B25:BC25))))</f>
         <v>1</v>
       </c>
-      <c r="BG25" s="188" cm="1">
+      <c r="BG25" s="187" cm="1">
         <f t="array" ref="BG25">SUMPRODUCT(--(B25:AI25=INT(B25:AI25)),--(B25:AI25&gt;0))/34*100%</f>
         <v>0.0294117647058824</v>
       </c>
-      <c r="BH25" s="189">
+      <c r="BH25" s="188">
         <f t="shared" ref="BH25:BJ25" si="22">RANK(BD25,BD$3:BD$53,0)</f>
         <v>34</v>
       </c>
-      <c r="BI25" s="189">
+      <c r="BI25" s="188">
         <f t="shared" si="22"/>
         <v>34</v>
       </c>
-      <c r="BJ25" s="189">
+      <c r="BJ25" s="188">
         <f t="shared" si="22"/>
         <v>19</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:62">
-      <c r="A26" s="190">
+      <c r="A26" s="189">
         <v>24</v>
       </c>
       <c r="B26" s="120"/>
@@ -11766,37 +11802,37 @@
       <c r="BA26" s="120"/>
       <c r="BB26" s="120"/>
       <c r="BC26" s="120"/>
-      <c r="BD26" s="187">
+      <c r="BD26" s="186">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BE26" s="187" cm="1">
+      <c r="BE26" s="186" cm="1">
         <f t="array" ref="BE26">SUMPRODUCT(--(B26:BC26=INT(B26:BC26)),--(B26:BC26&gt;0))</f>
         <v>0</v>
       </c>
-      <c r="BF26" s="187" cm="1">
+      <c r="BF26" s="186" cm="1">
         <f t="array" ref="BF26">MAX(FREQUENCY(IF((B26:BC26=INT(B26:BC26))*(B26:BC26&gt;0),COLUMN(B26:BC26)),IF((B26:BC26&lt;&gt;INT(B26:BC26))+(B26:BC26&lt;=0),COLUMN(B26:BC26))))</f>
         <v>0</v>
       </c>
-      <c r="BG26" s="188" cm="1">
+      <c r="BG26" s="187" cm="1">
         <f t="array" ref="BG26">SUMPRODUCT(--(B26:AI26=INT(B26:AI26)),--(B26:AI26&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="BH26" s="189">
+      <c r="BH26" s="188">
         <f t="shared" ref="BH26:BJ26" si="23">RANK(BD26,BD$3:BD$53,0)</f>
         <v>41</v>
       </c>
-      <c r="BI26" s="189">
+      <c r="BI26" s="188">
         <f t="shared" si="23"/>
         <v>41</v>
       </c>
-      <c r="BJ26" s="189">
+      <c r="BJ26" s="188">
         <f t="shared" si="23"/>
         <v>41</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:62">
-      <c r="A27" s="190">
+      <c r="A27" s="189">
         <v>25</v>
       </c>
       <c r="B27" s="120"/>
@@ -11853,31 +11889,31 @@
       <c r="BA27" s="120"/>
       <c r="BB27" s="120"/>
       <c r="BC27" s="120"/>
-      <c r="BD27" s="187">
+      <c r="BD27" s="186">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BE27" s="187" cm="1">
+      <c r="BE27" s="186" cm="1">
         <f t="array" ref="BE27">SUMPRODUCT(--(B27:BC27=INT(B27:BC27)),--(B27:BC27&gt;0))</f>
         <v>0</v>
       </c>
-      <c r="BF27" s="187" cm="1">
+      <c r="BF27" s="186" cm="1">
         <f t="array" ref="BF27">MAX(FREQUENCY(IF((B27:BC27=INT(B27:BC27))*(B27:BC27&gt;0),COLUMN(B27:BC27)),IF((B27:BC27&lt;&gt;INT(B27:BC27))+(B27:BC27&lt;=0),COLUMN(B27:BC27))))</f>
         <v>0</v>
       </c>
-      <c r="BG27" s="188" cm="1">
+      <c r="BG27" s="187" cm="1">
         <f t="array" ref="BG27">SUMPRODUCT(--(B27:AI27=INT(B27:AI27)),--(B27:AI27&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="BH27" s="189">
+      <c r="BH27" s="188">
         <f t="shared" ref="BH27:BJ27" si="24">RANK(BD27,BD$3:BD$53,0)</f>
         <v>41</v>
       </c>
-      <c r="BI27" s="189">
+      <c r="BI27" s="188">
         <f t="shared" si="24"/>
         <v>41</v>
       </c>
-      <c r="BJ27" s="189">
+      <c r="BJ27" s="188">
         <f t="shared" si="24"/>
         <v>41</v>
       </c>
@@ -11958,31 +11994,31 @@
       <c r="BA28" s="120"/>
       <c r="BB28" s="120"/>
       <c r="BC28" s="120"/>
-      <c r="BD28" s="187">
+      <c r="BD28" s="186">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="BE28" s="187" cm="1">
+      <c r="BE28" s="186" cm="1">
         <f t="array" ref="BE28">SUMPRODUCT(--(B28:BC28=INT(B28:BC28)),--(B28:BC28&gt;0))</f>
         <v>9</v>
       </c>
-      <c r="BF28" s="187" cm="1">
+      <c r="BF28" s="186" cm="1">
         <f t="array" ref="BF28">MAX(FREQUENCY(IF((B28:BC28=INT(B28:BC28))*(B28:BC28&gt;0),COLUMN(B28:BC28)),IF((B28:BC28&lt;&gt;INT(B28:BC28))+(B28:BC28&lt;=0),COLUMN(B28:BC28))))</f>
         <v>2</v>
       </c>
-      <c r="BG28" s="188" cm="1">
+      <c r="BG28" s="187" cm="1">
         <f t="array" ref="BG28">SUMPRODUCT(--(B28:AI28=INT(B28:AI28)),--(B28:AI28&gt;0))/34*100%</f>
         <v>0.235294117647059</v>
       </c>
-      <c r="BH28" s="189">
+      <c r="BH28" s="188">
         <f t="shared" ref="BH28:BJ28" si="25">RANK(BD28,BD$3:BD$53,0)</f>
-        <v>12</v>
-      </c>
-      <c r="BI28" s="189">
+        <v>14</v>
+      </c>
+      <c r="BI28" s="188">
         <f t="shared" si="25"/>
-        <v>10</v>
-      </c>
-      <c r="BJ28" s="189">
+        <v>11</v>
+      </c>
+      <c r="BJ28" s="188">
         <f t="shared" si="25"/>
         <v>13</v>
       </c>
@@ -12055,31 +12091,31 @@
       <c r="BA29" s="120"/>
       <c r="BB29" s="120"/>
       <c r="BC29" s="120"/>
-      <c r="BD29" s="187">
+      <c r="BD29" s="186">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="BE29" s="187" cm="1">
+      <c r="BE29" s="186" cm="1">
         <f t="array" ref="BE29">SUMPRODUCT(--(B29:BC29=INT(B29:BC29)),--(B29:BC29&gt;0))</f>
         <v>5</v>
       </c>
-      <c r="BF29" s="187" cm="1">
+      <c r="BF29" s="186" cm="1">
         <f t="array" ref="BF29">MAX(FREQUENCY(IF((B29:BC29=INT(B29:BC29))*(B29:BC29&gt;0),COLUMN(B29:BC29)),IF((B29:BC29&lt;&gt;INT(B29:BC29))+(B29:BC29&lt;=0),COLUMN(B29:BC29))))</f>
         <v>1</v>
       </c>
-      <c r="BG29" s="188" cm="1">
+      <c r="BG29" s="187" cm="1">
         <f t="array" ref="BG29">SUMPRODUCT(--(B29:AI29=INT(B29:AI29)),--(B29:AI29&gt;0))/34*100%</f>
         <v>0.117647058823529</v>
       </c>
-      <c r="BH29" s="189">
+      <c r="BH29" s="188">
         <f t="shared" ref="BH29:BJ29" si="26">RANK(BD29,BD$3:BD$53,0)</f>
         <v>20</v>
       </c>
-      <c r="BI29" s="189">
+      <c r="BI29" s="188">
         <f t="shared" si="26"/>
         <v>20</v>
       </c>
-      <c r="BJ29" s="189">
+      <c r="BJ29" s="188">
         <f t="shared" si="26"/>
         <v>19</v>
       </c>
@@ -12156,31 +12192,31 @@
       <c r="BA30" s="120"/>
       <c r="BB30" s="120"/>
       <c r="BC30" s="120"/>
-      <c r="BD30" s="187">
+      <c r="BD30" s="186">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="BE30" s="187" cm="1">
+      <c r="BE30" s="186" cm="1">
         <f t="array" ref="BE30">SUMPRODUCT(--(B30:BC30=INT(B30:BC30)),--(B30:BC30&gt;0))</f>
         <v>7</v>
       </c>
-      <c r="BF30" s="187" cm="1">
+      <c r="BF30" s="186" cm="1">
         <f t="array" ref="BF30">MAX(FREQUENCY(IF((B30:BC30=INT(B30:BC30))*(B30:BC30&gt;0),COLUMN(B30:BC30)),IF((B30:BC30&lt;&gt;INT(B30:BC30))+(B30:BC30&lt;=0),COLUMN(B30:BC30))))</f>
         <v>4</v>
       </c>
-      <c r="BG30" s="188" cm="1">
+      <c r="BG30" s="187" cm="1">
         <f t="array" ref="BG30">SUMPRODUCT(--(B30:AI30=INT(B30:AI30)),--(B30:AI30&gt;0))/34*100%</f>
         <v>0.205882352941176</v>
       </c>
-      <c r="BH30" s="189">
+      <c r="BH30" s="188">
         <f t="shared" ref="BH30:BJ30" si="27">RANK(BD30,BD$3:BD$53,0)</f>
         <v>16</v>
       </c>
-      <c r="BI30" s="189">
+      <c r="BI30" s="188">
         <f t="shared" si="27"/>
         <v>17</v>
       </c>
-      <c r="BJ30" s="189">
+      <c r="BJ30" s="188">
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
@@ -12240,7 +12276,9 @@
       <c r="AJ31" s="120">
         <v>1</v>
       </c>
-      <c r="AK31" s="120"/>
+      <c r="AK31" s="120">
+        <v>1</v>
+      </c>
       <c r="AL31" s="120"/>
       <c r="AM31" s="120"/>
       <c r="AN31" s="120"/>
@@ -12259,31 +12297,31 @@
       <c r="BA31" s="120"/>
       <c r="BB31" s="120"/>
       <c r="BC31" s="120"/>
-      <c r="BD31" s="187">
+      <c r="BD31" s="186">
         <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="BE31" s="186" cm="1">
+        <f t="array" ref="BE31">SUMPRODUCT(--(B31:BC31=INT(B31:BC31)),--(B31:BC31&gt;0))</f>
         <v>9</v>
       </c>
-      <c r="BE31" s="187" cm="1">
-        <f t="array" ref="BE31">SUMPRODUCT(--(B31:BC31=INT(B31:BC31)),--(B31:BC31&gt;0))</f>
-        <v>8</v>
-      </c>
-      <c r="BF31" s="187" cm="1">
+      <c r="BF31" s="186" cm="1">
         <f t="array" ref="BF31">MAX(FREQUENCY(IF((B31:BC31=INT(B31:BC31))*(B31:BC31&gt;0),COLUMN(B31:BC31)),IF((B31:BC31&lt;&gt;INT(B31:BC31))+(B31:BC31&lt;=0),COLUMN(B31:BC31))))</f>
         <v>2</v>
       </c>
-      <c r="BG31" s="188" cm="1">
+      <c r="BG31" s="187" cm="1">
         <f t="array" ref="BG31">SUMPRODUCT(--(B31:AI31=INT(B31:AI31)),--(B31:AI31&gt;0))/34*100%</f>
         <v>0.205882352941176</v>
       </c>
-      <c r="BH31" s="189">
+      <c r="BH31" s="188">
         <f t="shared" ref="BH31:BJ31" si="28">RANK(BD31,BD$3:BD$53,0)</f>
-        <v>12</v>
-      </c>
-      <c r="BI31" s="189">
+        <v>11</v>
+      </c>
+      <c r="BI31" s="188">
         <f t="shared" si="28"/>
-        <v>15</v>
-      </c>
-      <c r="BJ31" s="189">
+        <v>11</v>
+      </c>
+      <c r="BJ31" s="188">
         <f t="shared" si="28"/>
         <v>13</v>
       </c>
@@ -12366,31 +12404,31 @@
       <c r="BA32" s="120"/>
       <c r="BB32" s="120"/>
       <c r="BC32" s="120"/>
-      <c r="BD32" s="187">
+      <c r="BD32" s="186">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="BE32" s="187" cm="1">
+      <c r="BE32" s="186" cm="1">
         <f t="array" ref="BE32">SUMPRODUCT(--(B32:BC32=INT(B32:BC32)),--(B32:BC32&gt;0))</f>
         <v>10</v>
       </c>
-      <c r="BF32" s="187" cm="1">
+      <c r="BF32" s="186" cm="1">
         <f t="array" ref="BF32">MAX(FREQUENCY(IF((B32:BC32=INT(B32:BC32))*(B32:BC32&gt;0),COLUMN(B32:BC32)),IF((B32:BC32&lt;&gt;INT(B32:BC32))+(B32:BC32&lt;=0),COLUMN(B32:BC32))))</f>
         <v>3</v>
       </c>
-      <c r="BG32" s="188" cm="1">
+      <c r="BG32" s="187" cm="1">
         <f t="array" ref="BG32">SUMPRODUCT(--(B32:AI32=INT(B32:AI32)),--(B32:AI32&gt;0))/34*100%</f>
         <v>0.264705882352941</v>
       </c>
-      <c r="BH32" s="189">
+      <c r="BH32" s="188">
         <f t="shared" ref="BH32:BJ32" si="29">RANK(BD32,BD$3:BD$53,0)</f>
-        <v>9</v>
-      </c>
-      <c r="BI32" s="189">
+        <v>10</v>
+      </c>
+      <c r="BI32" s="188">
         <f t="shared" si="29"/>
         <v>9</v>
       </c>
-      <c r="BJ32" s="189">
+      <c r="BJ32" s="188">
         <f t="shared" si="29"/>
         <v>8</v>
       </c>
@@ -12461,37 +12499,37 @@
       <c r="BA33" s="120"/>
       <c r="BB33" s="120"/>
       <c r="BC33" s="120"/>
-      <c r="BD33" s="187">
+      <c r="BD33" s="186">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="BE33" s="187" cm="1">
+      <c r="BE33" s="186" cm="1">
         <f t="array" ref="BE33">SUMPRODUCT(--(B33:BC33=INT(B33:BC33)),--(B33:BC33&gt;0))</f>
         <v>4</v>
       </c>
-      <c r="BF33" s="187" cm="1">
+      <c r="BF33" s="186" cm="1">
         <f t="array" ref="BF33">MAX(FREQUENCY(IF((B33:BC33=INT(B33:BC33))*(B33:BC33&gt;0),COLUMN(B33:BC33)),IF((B33:BC33&lt;&gt;INT(B33:BC33))+(B33:BC33&lt;=0),COLUMN(B33:BC33))))</f>
         <v>1</v>
       </c>
-      <c r="BG33" s="188" cm="1">
+      <c r="BG33" s="187" cm="1">
         <f t="array" ref="BG33">SUMPRODUCT(--(B33:AI33=INT(B33:AI33)),--(B33:AI33&gt;0))/34*100%</f>
         <v>0.0882352941176471</v>
       </c>
-      <c r="BH33" s="189">
+      <c r="BH33" s="188">
         <f t="shared" ref="BH33:BJ33" si="30">RANK(BD33,BD$3:BD$53,0)</f>
         <v>23</v>
       </c>
-      <c r="BI33" s="189">
+      <c r="BI33" s="188">
         <f t="shared" si="30"/>
         <v>23</v>
       </c>
-      <c r="BJ33" s="189">
+      <c r="BJ33" s="188">
         <f t="shared" si="30"/>
         <v>19</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:62">
-      <c r="A34" s="190">
+      <c r="A34" s="189">
         <v>32</v>
       </c>
       <c r="B34" s="120"/>
@@ -12548,37 +12586,37 @@
       <c r="BA34" s="120"/>
       <c r="BB34" s="120"/>
       <c r="BC34" s="120"/>
-      <c r="BD34" s="187">
+      <c r="BD34" s="186">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BE34" s="187" cm="1">
+      <c r="BE34" s="186" cm="1">
         <f t="array" ref="BE34">SUMPRODUCT(--(B34:BC34=INT(B34:BC34)),--(B34:BC34&gt;0))</f>
         <v>0</v>
       </c>
-      <c r="BF34" s="187" cm="1">
+      <c r="BF34" s="186" cm="1">
         <f t="array" ref="BF34">MAX(FREQUENCY(IF((B34:BC34=INT(B34:BC34))*(B34:BC34&gt;0),COLUMN(B34:BC34)),IF((B34:BC34&lt;&gt;INT(B34:BC34))+(B34:BC34&lt;=0),COLUMN(B34:BC34))))</f>
         <v>0</v>
       </c>
-      <c r="BG34" s="188" cm="1">
+      <c r="BG34" s="187" cm="1">
         <f t="array" ref="BG34">SUMPRODUCT(--(B34:AI34=INT(B34:AI34)),--(B34:AI34&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="BH34" s="189">
+      <c r="BH34" s="188">
         <f t="shared" ref="BH34:BJ34" si="31">RANK(BD34,BD$3:BD$53,0)</f>
         <v>41</v>
       </c>
-      <c r="BI34" s="189">
+      <c r="BI34" s="188">
         <f t="shared" si="31"/>
         <v>41</v>
       </c>
-      <c r="BJ34" s="189">
+      <c r="BJ34" s="188">
         <f t="shared" si="31"/>
         <v>41</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:62">
-      <c r="A35" s="190">
+      <c r="A35" s="189">
         <v>33</v>
       </c>
       <c r="B35" s="120"/>
@@ -12635,31 +12673,31 @@
       <c r="BA35" s="120"/>
       <c r="BB35" s="120"/>
       <c r="BC35" s="120"/>
-      <c r="BD35" s="187">
+      <c r="BD35" s="186">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BE35" s="187" cm="1">
+      <c r="BE35" s="186" cm="1">
         <f t="array" ref="BE35">SUMPRODUCT(--(B35:BC35=INT(B35:BC35)),--(B35:BC35&gt;0))</f>
         <v>0</v>
       </c>
-      <c r="BF35" s="187" cm="1">
+      <c r="BF35" s="186" cm="1">
         <f t="array" ref="BF35">MAX(FREQUENCY(IF((B35:BC35=INT(B35:BC35))*(B35:BC35&gt;0),COLUMN(B35:BC35)),IF((B35:BC35&lt;&gt;INT(B35:BC35))+(B35:BC35&lt;=0),COLUMN(B35:BC35))))</f>
         <v>0</v>
       </c>
-      <c r="BG35" s="188" cm="1">
+      <c r="BG35" s="187" cm="1">
         <f t="array" ref="BG35">SUMPRODUCT(--(B35:AI35=INT(B35:AI35)),--(B35:AI35&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="BH35" s="189">
+      <c r="BH35" s="188">
         <f t="shared" ref="BH35:BJ35" si="32">RANK(BD35,BD$3:BD$53,0)</f>
         <v>41</v>
       </c>
-      <c r="BI35" s="189">
+      <c r="BI35" s="188">
         <f t="shared" si="32"/>
         <v>41</v>
       </c>
-      <c r="BJ35" s="189">
+      <c r="BJ35" s="188">
         <f t="shared" si="32"/>
         <v>41</v>
       </c>
@@ -12724,31 +12762,31 @@
       <c r="BA36" s="120"/>
       <c r="BB36" s="120"/>
       <c r="BC36" s="120"/>
-      <c r="BD36" s="187">
+      <c r="BD36" s="186">
         <f t="shared" ref="BD36:BD53" si="33">SUM(B36:BC36)</f>
         <v>1</v>
       </c>
-      <c r="BE36" s="187" cm="1">
+      <c r="BE36" s="186" cm="1">
         <f t="array" ref="BE36">SUMPRODUCT(--(B36:BC36=INT(B36:BC36)),--(B36:BC36&gt;0))</f>
         <v>1</v>
       </c>
-      <c r="BF36" s="187" cm="1">
+      <c r="BF36" s="186" cm="1">
         <f t="array" ref="BF36">MAX(FREQUENCY(IF((B36:BC36=INT(B36:BC36))*(B36:BC36&gt;0),COLUMN(B36:BC36)),IF((B36:BC36&lt;&gt;INT(B36:BC36))+(B36:BC36&lt;=0),COLUMN(B36:BC36))))</f>
         <v>1</v>
       </c>
-      <c r="BG36" s="188" cm="1">
+      <c r="BG36" s="187" cm="1">
         <f t="array" ref="BG36">SUMPRODUCT(--(B36:AI36=INT(B36:AI36)),--(B36:AI36&gt;0))/34*100%</f>
         <v>0.0294117647058824</v>
       </c>
-      <c r="BH36" s="189">
+      <c r="BH36" s="188">
         <f t="shared" ref="BH36:BJ36" si="34">RANK(BD36,BD$3:BD$53,0)</f>
         <v>34</v>
       </c>
-      <c r="BI36" s="189">
+      <c r="BI36" s="188">
         <f t="shared" si="34"/>
         <v>34</v>
       </c>
-      <c r="BJ36" s="189">
+      <c r="BJ36" s="188">
         <f t="shared" si="34"/>
         <v>19</v>
       </c>
@@ -12823,31 +12861,31 @@
       <c r="BA37" s="120"/>
       <c r="BB37" s="120"/>
       <c r="BC37" s="120"/>
-      <c r="BD37" s="187">
+      <c r="BD37" s="186">
         <f t="shared" si="33"/>
         <v>7</v>
       </c>
-      <c r="BE37" s="187" cm="1">
+      <c r="BE37" s="186" cm="1">
         <f t="array" ref="BE37">SUMPRODUCT(--(B37:BC37=INT(B37:BC37)),--(B37:BC37&gt;0))</f>
         <v>6</v>
       </c>
-      <c r="BF37" s="187" cm="1">
+      <c r="BF37" s="186" cm="1">
         <f t="array" ref="BF37">MAX(FREQUENCY(IF((B37:BC37=INT(B37:BC37))*(B37:BC37&gt;0),COLUMN(B37:BC37)),IF((B37:BC37&lt;&gt;INT(B37:BC37))+(B37:BC37&lt;=0),COLUMN(B37:BC37))))</f>
         <v>3</v>
       </c>
-      <c r="BG37" s="188" cm="1">
+      <c r="BG37" s="187" cm="1">
         <f t="array" ref="BG37">SUMPRODUCT(--(B37:AI37=INT(B37:AI37)),--(B37:AI37&gt;0))/34*100%</f>
         <v>0.176470588235294</v>
       </c>
-      <c r="BH37" s="189">
+      <c r="BH37" s="188">
         <f t="shared" ref="BH37:BJ37" si="35">RANK(BD37,BD$3:BD$53,0)</f>
         <v>18</v>
       </c>
-      <c r="BI37" s="189">
+      <c r="BI37" s="188">
         <f t="shared" si="35"/>
         <v>19</v>
       </c>
-      <c r="BJ37" s="189">
+      <c r="BJ37" s="188">
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
@@ -12916,31 +12954,31 @@
       <c r="BA38" s="120"/>
       <c r="BB38" s="120"/>
       <c r="BC38" s="120"/>
-      <c r="BD38" s="187">
+      <c r="BD38" s="186">
         <f t="shared" si="33"/>
         <v>4</v>
       </c>
-      <c r="BE38" s="187" cm="1">
+      <c r="BE38" s="186" cm="1">
         <f t="array" ref="BE38">SUMPRODUCT(--(B38:BC38=INT(B38:BC38)),--(B38:BC38&gt;0))</f>
         <v>3</v>
       </c>
-      <c r="BF38" s="187" cm="1">
+      <c r="BF38" s="186" cm="1">
         <f t="array" ref="BF38">MAX(FREQUENCY(IF((B38:BC38=INT(B38:BC38))*(B38:BC38&gt;0),COLUMN(B38:BC38)),IF((B38:BC38&lt;&gt;INT(B38:BC38))+(B38:BC38&lt;=0),COLUMN(B38:BC38))))</f>
         <v>1</v>
       </c>
-      <c r="BG38" s="188" cm="1">
+      <c r="BG38" s="187" cm="1">
         <f t="array" ref="BG38">SUMPRODUCT(--(B38:AI38=INT(B38:AI38)),--(B38:AI38&gt;0))/34*100%</f>
         <v>0.0882352941176471</v>
       </c>
-      <c r="BH38" s="189">
+      <c r="BH38" s="188">
         <f t="shared" ref="BH38:BJ38" si="36">RANK(BD38,BD$3:BD$53,0)</f>
         <v>23</v>
       </c>
-      <c r="BI38" s="189">
+      <c r="BI38" s="188">
         <f t="shared" si="36"/>
         <v>26</v>
       </c>
-      <c r="BJ38" s="189">
+      <c r="BJ38" s="188">
         <f t="shared" si="36"/>
         <v>19</v>
       </c>
@@ -13003,31 +13041,31 @@
       <c r="BA39" s="175"/>
       <c r="BB39" s="175"/>
       <c r="BC39" s="175"/>
-      <c r="BD39" s="187">
+      <c r="BD39" s="186">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="BE39" s="187" cm="1">
+      <c r="BE39" s="186" cm="1">
         <f t="array" ref="BE39">SUMPRODUCT(--(B39:BC39=INT(B39:BC39)),--(B39:BC39&gt;0))</f>
         <v>0</v>
       </c>
-      <c r="BF39" s="187" cm="1">
+      <c r="BF39" s="186" cm="1">
         <f t="array" ref="BF39">MAX(FREQUENCY(IF((B39:BC39=INT(B39:BC39))*(B39:BC39&gt;0),COLUMN(B39:BC39)),IF((B39:BC39&lt;&gt;INT(B39:BC39))+(B39:BC39&lt;=0),COLUMN(B39:BC39))))</f>
         <v>0</v>
       </c>
-      <c r="BG39" s="188" cm="1">
+      <c r="BG39" s="187" cm="1">
         <f t="array" ref="BG39">SUMPRODUCT(--(B39:AI39=INT(B39:AI39)),--(B39:AI39&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="BH39" s="191">
+      <c r="BH39" s="190">
         <f t="shared" ref="BH39:BJ39" si="37">RANK(BD39,BD$3:BD$53,0)</f>
         <v>41</v>
       </c>
-      <c r="BI39" s="191">
+      <c r="BI39" s="190">
         <f t="shared" si="37"/>
         <v>41</v>
       </c>
-      <c r="BJ39" s="191">
+      <c r="BJ39" s="190">
         <f t="shared" si="37"/>
         <v>41</v>
       </c>
@@ -13115,7 +13153,9 @@
       <c r="AJ40" s="120">
         <v>2</v>
       </c>
-      <c r="AK40" s="120"/>
+      <c r="AK40" s="120">
+        <v>2</v>
+      </c>
       <c r="AL40" s="120"/>
       <c r="AM40" s="120"/>
       <c r="AN40" s="120"/>
@@ -13134,31 +13174,31 @@
       <c r="BA40" s="120"/>
       <c r="BB40" s="120"/>
       <c r="BC40" s="120"/>
-      <c r="BD40" s="187">
+      <c r="BD40" s="186">
         <f t="shared" si="33"/>
-        <v>25</v>
-      </c>
-      <c r="BE40" s="187" cm="1">
+        <v>27</v>
+      </c>
+      <c r="BE40" s="186" cm="1">
         <f t="array" ref="BE40">SUMPRODUCT(--(B40:BC40=INT(B40:BC40)),--(B40:BC40&gt;0))</f>
-        <v>22</v>
-      </c>
-      <c r="BF40" s="187" cm="1">
+        <v>23</v>
+      </c>
+      <c r="BF40" s="186" cm="1">
         <f t="array" ref="BF40">MAX(FREQUENCY(IF((B40:BC40=INT(B40:BC40))*(B40:BC40&gt;0),COLUMN(B40:BC40)),IF((B40:BC40&lt;&gt;INT(B40:BC40))+(B40:BC40&lt;=0),COLUMN(B40:BC40))))</f>
         <v>12</v>
       </c>
-      <c r="BG40" s="188" cm="1">
+      <c r="BG40" s="187" cm="1">
         <f t="array" ref="BG40">SUMPRODUCT(--(B40:AI40=INT(B40:AI40)),--(B40:AI40&gt;0))/34*100%</f>
         <v>0.617647058823529</v>
       </c>
-      <c r="BH40" s="189">
+      <c r="BH40" s="188">
         <f t="shared" ref="BH40:BJ40" si="38">RANK(BD40,BD$3:BD$53,0)</f>
         <v>2</v>
       </c>
-      <c r="BI40" s="189">
+      <c r="BI40" s="188">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="BJ40" s="189">
+      <c r="BJ40" s="188">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
@@ -13239,31 +13279,31 @@
       <c r="BA41" s="120"/>
       <c r="BB41" s="120"/>
       <c r="BC41" s="120"/>
-      <c r="BD41" s="187">
+      <c r="BD41" s="186">
         <f t="shared" si="33"/>
         <v>12</v>
       </c>
-      <c r="BE41" s="187" cm="1">
+      <c r="BE41" s="186" cm="1">
         <f t="array" ref="BE41">SUMPRODUCT(--(B41:BC41=INT(B41:BC41)),--(B41:BC41&gt;0))</f>
         <v>9</v>
       </c>
-      <c r="BF41" s="187" cm="1">
+      <c r="BF41" s="186" cm="1">
         <f t="array" ref="BF41">MAX(FREQUENCY(IF((B41:BC41=INT(B41:BC41))*(B41:BC41&gt;0),COLUMN(B41:BC41)),IF((B41:BC41&lt;&gt;INT(B41:BC41))+(B41:BC41&lt;=0),COLUMN(B41:BC41))))</f>
         <v>2</v>
       </c>
-      <c r="BG41" s="188" cm="1">
+      <c r="BG41" s="187" cm="1">
         <f t="array" ref="BG41">SUMPRODUCT(--(B41:AI41=INT(B41:AI41)),--(B41:AI41&gt;0))/34*100%</f>
         <v>0.235294117647059</v>
       </c>
-      <c r="BH41" s="189">
+      <c r="BH41" s="188">
         <f t="shared" ref="BH41:BJ41" si="39">RANK(BD41,BD$3:BD$53,0)</f>
         <v>7</v>
       </c>
-      <c r="BI41" s="189">
+      <c r="BI41" s="188">
         <f t="shared" si="39"/>
-        <v>10</v>
-      </c>
-      <c r="BJ41" s="189">
+        <v>11</v>
+      </c>
+      <c r="BJ41" s="188">
         <f t="shared" si="39"/>
         <v>13</v>
       </c>
@@ -13333,7 +13373,9 @@
       <c r="AJ42" s="120">
         <v>1</v>
       </c>
-      <c r="AK42" s="120"/>
+      <c r="AK42" s="120">
+        <v>1</v>
+      </c>
       <c r="AL42" s="120"/>
       <c r="AM42" s="120"/>
       <c r="AN42" s="120"/>
@@ -13352,37 +13394,37 @@
       <c r="BA42" s="120"/>
       <c r="BB42" s="120"/>
       <c r="BC42" s="120"/>
-      <c r="BD42" s="187">
+      <c r="BD42" s="186">
         <f t="shared" si="33"/>
-        <v>16</v>
-      </c>
-      <c r="BE42" s="187" cm="1">
+        <v>17</v>
+      </c>
+      <c r="BE42" s="186" cm="1">
         <f t="array" ref="BE42">SUMPRODUCT(--(B42:BC42=INT(B42:BC42)),--(B42:BC42&gt;0))</f>
-        <v>13</v>
-      </c>
-      <c r="BF42" s="187" cm="1">
+        <v>14</v>
+      </c>
+      <c r="BF42" s="186" cm="1">
         <f t="array" ref="BF42">MAX(FREQUENCY(IF((B42:BC42=INT(B42:BC42))*(B42:BC42&gt;0),COLUMN(B42:BC42)),IF((B42:BC42&lt;&gt;INT(B42:BC42))+(B42:BC42&lt;=0),COLUMN(B42:BC42))))</f>
         <v>5</v>
       </c>
-      <c r="BG42" s="188" cm="1">
+      <c r="BG42" s="187" cm="1">
         <f t="array" ref="BG42">SUMPRODUCT(--(B42:AI42=INT(B42:AI42)),--(B42:AI42&gt;0))/34*100%</f>
         <v>0.352941176470588</v>
       </c>
-      <c r="BH42" s="189">
+      <c r="BH42" s="188">
         <f t="shared" ref="BH42:BJ42" si="40">RANK(BD42,BD$3:BD$53,0)</f>
-        <v>5</v>
-      </c>
-      <c r="BI42" s="189">
+        <v>4</v>
+      </c>
+      <c r="BI42" s="188">
         <f t="shared" si="40"/>
-        <v>5</v>
-      </c>
-      <c r="BJ42" s="189">
+        <v>4</v>
+      </c>
+      <c r="BJ42" s="188">
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:62">
-      <c r="A43" s="190">
+      <c r="A43" s="189">
         <v>41</v>
       </c>
       <c r="B43" s="120"/>
@@ -13439,31 +13481,31 @@
       <c r="BA43" s="120"/>
       <c r="BB43" s="120"/>
       <c r="BC43" s="120"/>
-      <c r="BD43" s="187">
+      <c r="BD43" s="186">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="BE43" s="187" cm="1">
+      <c r="BE43" s="186" cm="1">
         <f t="array" ref="BE43">SUMPRODUCT(--(B43:BC43=INT(B43:BC43)),--(B43:BC43&gt;0))</f>
         <v>0</v>
       </c>
-      <c r="BF43" s="187" cm="1">
+      <c r="BF43" s="186" cm="1">
         <f t="array" ref="BF43">MAX(FREQUENCY(IF((B43:BC43=INT(B43:BC43))*(B43:BC43&gt;0),COLUMN(B43:BC43)),IF((B43:BC43&lt;&gt;INT(B43:BC43))+(B43:BC43&lt;=0),COLUMN(B43:BC43))))</f>
         <v>0</v>
       </c>
-      <c r="BG43" s="188" cm="1">
+      <c r="BG43" s="187" cm="1">
         <f t="array" ref="BG43">SUMPRODUCT(--(B43:AI43=INT(B43:AI43)),--(B43:AI43&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="BH43" s="189">
+      <c r="BH43" s="188">
         <f t="shared" ref="BH43:BJ43" si="41">RANK(BD43,BD$3:BD$53,0)</f>
         <v>41</v>
       </c>
-      <c r="BI43" s="189">
+      <c r="BI43" s="188">
         <f t="shared" si="41"/>
         <v>41</v>
       </c>
-      <c r="BJ43" s="189">
+      <c r="BJ43" s="188">
         <f t="shared" si="41"/>
         <v>41</v>
       </c>
@@ -13554,37 +13596,37 @@
       <c r="BA44" s="120"/>
       <c r="BB44" s="120"/>
       <c r="BC44" s="120"/>
-      <c r="BD44" s="187">
+      <c r="BD44" s="186">
         <f t="shared" si="33"/>
         <v>17</v>
       </c>
-      <c r="BE44" s="187" cm="1">
+      <c r="BE44" s="186" cm="1">
         <f t="array" ref="BE44">SUMPRODUCT(--(B44:BC44=INT(B44:BC44)),--(B44:BC44&gt;0))</f>
         <v>14</v>
       </c>
-      <c r="BF44" s="187" cm="1">
+      <c r="BF44" s="186" cm="1">
         <f t="array" ref="BF44">MAX(FREQUENCY(IF((B44:BC44=INT(B44:BC44))*(B44:BC44&gt;0),COLUMN(B44:BC44)),IF((B44:BC44&lt;&gt;INT(B44:BC44))+(B44:BC44&lt;=0),COLUMN(B44:BC44))))</f>
         <v>5</v>
       </c>
-      <c r="BG44" s="188" cm="1">
+      <c r="BG44" s="187" cm="1">
         <f t="array" ref="BG44">SUMPRODUCT(--(B44:AI44=INT(B44:AI44)),--(B44:AI44&gt;0))/34*100%</f>
         <v>0.411764705882353</v>
       </c>
-      <c r="BH44" s="189">
+      <c r="BH44" s="188">
         <f t="shared" ref="BH44:BJ44" si="42">RANK(BD44,BD$3:BD$53,0)</f>
-        <v>3</v>
-      </c>
-      <c r="BI44" s="189">
+        <v>4</v>
+      </c>
+      <c r="BI44" s="188">
         <f t="shared" si="42"/>
         <v>4</v>
       </c>
-      <c r="BJ44" s="189">
+      <c r="BJ44" s="188">
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:62">
-      <c r="A45" s="190">
+      <c r="A45" s="189">
         <v>43</v>
       </c>
       <c r="B45" s="120"/>
@@ -13641,31 +13683,31 @@
       <c r="BA45" s="120"/>
       <c r="BB45" s="120"/>
       <c r="BC45" s="120"/>
-      <c r="BD45" s="187">
+      <c r="BD45" s="186">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="BE45" s="187" cm="1">
+      <c r="BE45" s="186" cm="1">
         <f t="array" ref="BE45">SUMPRODUCT(--(B45:BC45=INT(B45:BC45)),--(B45:BC45&gt;0))</f>
         <v>0</v>
       </c>
-      <c r="BF45" s="187" cm="1">
+      <c r="BF45" s="186" cm="1">
         <f t="array" ref="BF45">MAX(FREQUENCY(IF((B45:BC45=INT(B45:BC45))*(B45:BC45&gt;0),COLUMN(B45:BC45)),IF((B45:BC45&lt;&gt;INT(B45:BC45))+(B45:BC45&lt;=0),COLUMN(B45:BC45))))</f>
         <v>0</v>
       </c>
-      <c r="BG45" s="188" cm="1">
+      <c r="BG45" s="187" cm="1">
         <f t="array" ref="BG45">SUMPRODUCT(--(B45:AI45=INT(B45:AI45)),--(B45:AI45&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="BH45" s="189">
+      <c r="BH45" s="188">
         <f t="shared" ref="BH45:BJ45" si="43">RANK(BD45,BD$3:BD$53,0)</f>
         <v>41</v>
       </c>
-      <c r="BI45" s="189">
+      <c r="BI45" s="188">
         <f t="shared" si="43"/>
         <v>41</v>
       </c>
-      <c r="BJ45" s="189">
+      <c r="BJ45" s="188">
         <f t="shared" si="43"/>
         <v>41</v>
       </c>
@@ -13772,37 +13814,37 @@
       <c r="BA46" s="120"/>
       <c r="BB46" s="120"/>
       <c r="BC46" s="120"/>
-      <c r="BD46" s="187">
+      <c r="BD46" s="186">
         <f t="shared" si="33"/>
         <v>31</v>
       </c>
-      <c r="BE46" s="187" cm="1">
+      <c r="BE46" s="186" cm="1">
         <f t="array" ref="BE46">SUMPRODUCT(--(B46:BC46=INT(B46:BC46)),--(B46:BC46&gt;0))</f>
         <v>22</v>
       </c>
-      <c r="BF46" s="187" cm="1">
+      <c r="BF46" s="186" cm="1">
         <f t="array" ref="BF46">MAX(FREQUENCY(IF((B46:BC46=INT(B46:BC46))*(B46:BC46&gt;0),COLUMN(B46:BC46)),IF((B46:BC46&lt;&gt;INT(B46:BC46))+(B46:BC46&lt;=0),COLUMN(B46:BC46))))</f>
         <v>8</v>
       </c>
-      <c r="BG46" s="188" cm="1">
+      <c r="BG46" s="187" cm="1">
         <f t="array" ref="BG46">SUMPRODUCT(--(B46:AI46=INT(B46:AI46)),--(B46:AI46&gt;0))/34*100%</f>
         <v>0.617647058823529</v>
       </c>
-      <c r="BH46" s="189">
+      <c r="BH46" s="188">
         <f t="shared" ref="BH46:BJ46" si="44">RANK(BD46,BD$3:BD$53,0)</f>
         <v>1</v>
       </c>
-      <c r="BI46" s="189">
-        <f t="shared" si="44"/>
-        <v>1</v>
-      </c>
-      <c r="BJ46" s="189">
+      <c r="BI46" s="188">
         <f t="shared" si="44"/>
         <v>2</v>
       </c>
+      <c r="BJ46" s="188">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="47" customHeight="1" spans="1:62">
-      <c r="A47" s="190">
+      <c r="A47" s="189">
         <v>45</v>
       </c>
       <c r="B47" s="120"/>
@@ -13859,31 +13901,31 @@
       <c r="BA47" s="120"/>
       <c r="BB47" s="120"/>
       <c r="BC47" s="120"/>
-      <c r="BD47" s="187">
+      <c r="BD47" s="186">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="BE47" s="187" cm="1">
+      <c r="BE47" s="186" cm="1">
         <f t="array" ref="BE47">SUMPRODUCT(--(B47:BC47=INT(B47:BC47)),--(B47:BC47&gt;0))</f>
         <v>0</v>
       </c>
-      <c r="BF47" s="187" cm="1">
+      <c r="BF47" s="186" cm="1">
         <f t="array" ref="BF47">MAX(FREQUENCY(IF((B47:BC47=INT(B47:BC47))*(B47:BC47&gt;0),COLUMN(B47:BC47)),IF((B47:BC47&lt;&gt;INT(B47:BC47))+(B47:BC47&lt;=0),COLUMN(B47:BC47))))</f>
         <v>0</v>
       </c>
-      <c r="BG47" s="188" cm="1">
+      <c r="BG47" s="187" cm="1">
         <f t="array" ref="BG47">SUMPRODUCT(--(B47:AI47=INT(B47:AI47)),--(B47:AI47&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="BH47" s="189">
+      <c r="BH47" s="188">
         <f t="shared" ref="BH47:BJ47" si="45">RANK(BD47,BD$3:BD$53,0)</f>
         <v>41</v>
       </c>
-      <c r="BI47" s="189">
+      <c r="BI47" s="188">
         <f t="shared" si="45"/>
         <v>41</v>
       </c>
-      <c r="BJ47" s="189">
+      <c r="BJ47" s="188">
         <f t="shared" si="45"/>
         <v>41</v>
       </c>
@@ -13945,7 +13987,9 @@
       <c r="AH48" s="120"/>
       <c r="AI48" s="120"/>
       <c r="AJ48" s="120"/>
-      <c r="AK48" s="120"/>
+      <c r="AK48" s="120">
+        <v>1</v>
+      </c>
       <c r="AL48" s="120"/>
       <c r="AM48" s="120"/>
       <c r="AN48" s="120"/>
@@ -13964,31 +14008,31 @@
       <c r="BA48" s="120"/>
       <c r="BB48" s="120"/>
       <c r="BC48" s="120"/>
-      <c r="BD48" s="187">
+      <c r="BD48" s="186">
         <f t="shared" si="33"/>
-        <v>9</v>
-      </c>
-      <c r="BE48" s="187" cm="1">
+        <v>10</v>
+      </c>
+      <c r="BE48" s="186" cm="1">
         <f t="array" ref="BE48">SUMPRODUCT(--(B48:BC48=INT(B48:BC48)),--(B48:BC48&gt;0))</f>
-        <v>9</v>
-      </c>
-      <c r="BF48" s="187" cm="1">
+        <v>10</v>
+      </c>
+      <c r="BF48" s="186" cm="1">
         <f t="array" ref="BF48">MAX(FREQUENCY(IF((B48:BC48=INT(B48:BC48))*(B48:BC48&gt;0),COLUMN(B48:BC48)),IF((B48:BC48&lt;&gt;INT(B48:BC48))+(B48:BC48&lt;=0),COLUMN(B48:BC48))))</f>
         <v>2</v>
       </c>
-      <c r="BG48" s="188" cm="1">
+      <c r="BG48" s="187" cm="1">
         <f t="array" ref="BG48">SUMPRODUCT(--(B48:AI48=INT(B48:AI48)),--(B48:AI48&gt;0))/34*100%</f>
         <v>0.264705882352941</v>
       </c>
-      <c r="BH48" s="189">
+      <c r="BH48" s="188">
         <f t="shared" ref="BH48:BJ48" si="46">RANK(BD48,BD$3:BD$53,0)</f>
-        <v>12</v>
-      </c>
-      <c r="BI48" s="189">
+        <v>11</v>
+      </c>
+      <c r="BI48" s="188">
         <f t="shared" si="46"/>
-        <v>10</v>
-      </c>
-      <c r="BJ48" s="189">
+        <v>9</v>
+      </c>
+      <c r="BJ48" s="188">
         <f t="shared" si="46"/>
         <v>13</v>
       </c>
@@ -14059,31 +14103,31 @@
       <c r="BA49" s="120"/>
       <c r="BB49" s="120"/>
       <c r="BC49" s="120"/>
-      <c r="BD49" s="187">
+      <c r="BD49" s="186">
         <f t="shared" si="33"/>
         <v>4</v>
       </c>
-      <c r="BE49" s="187" cm="1">
+      <c r="BE49" s="186" cm="1">
         <f t="array" ref="BE49">SUMPRODUCT(--(B49:BC49=INT(B49:BC49)),--(B49:BC49&gt;0))</f>
         <v>4</v>
       </c>
-      <c r="BF49" s="187" cm="1">
+      <c r="BF49" s="186" cm="1">
         <f t="array" ref="BF49">MAX(FREQUENCY(IF((B49:BC49=INT(B49:BC49))*(B49:BC49&gt;0),COLUMN(B49:BC49)),IF((B49:BC49&lt;&gt;INT(B49:BC49))+(B49:BC49&lt;=0),COLUMN(B49:BC49))))</f>
         <v>1</v>
       </c>
-      <c r="BG49" s="188" cm="1">
+      <c r="BG49" s="187" cm="1">
         <f t="array" ref="BG49">SUMPRODUCT(--(B49:AI49=INT(B49:AI49)),--(B49:AI49&gt;0))/34*100%</f>
         <v>0.0882352941176471</v>
       </c>
-      <c r="BH49" s="189">
+      <c r="BH49" s="188">
         <f t="shared" ref="BH49:BJ49" si="47">RANK(BD49,BD$3:BD$53,0)</f>
         <v>23</v>
       </c>
-      <c r="BI49" s="189">
+      <c r="BI49" s="188">
         <f t="shared" si="47"/>
         <v>23</v>
       </c>
-      <c r="BJ49" s="189">
+      <c r="BJ49" s="188">
         <f t="shared" si="47"/>
         <v>19</v>
       </c>
@@ -14156,37 +14200,37 @@
       <c r="BA50" s="120"/>
       <c r="BB50" s="120"/>
       <c r="BC50" s="120"/>
-      <c r="BD50" s="187">
+      <c r="BD50" s="186">
         <f t="shared" si="33"/>
         <v>5</v>
       </c>
-      <c r="BE50" s="187" cm="1">
+      <c r="BE50" s="186" cm="1">
         <f t="array" ref="BE50">SUMPRODUCT(--(B50:BC50=INT(B50:BC50)),--(B50:BC50&gt;0))</f>
         <v>5</v>
       </c>
-      <c r="BF50" s="187" cm="1">
+      <c r="BF50" s="186" cm="1">
         <f t="array" ref="BF50">MAX(FREQUENCY(IF((B50:BC50=INT(B50:BC50))*(B50:BC50&gt;0),COLUMN(B50:BC50)),IF((B50:BC50&lt;&gt;INT(B50:BC50))+(B50:BC50&lt;=0),COLUMN(B50:BC50))))</f>
         <v>1</v>
       </c>
-      <c r="BG50" s="188" cm="1">
+      <c r="BG50" s="187" cm="1">
         <f t="array" ref="BG50">SUMPRODUCT(--(B50:AI50=INT(B50:AI50)),--(B50:AI50&gt;0))/34*100%</f>
         <v>0.117647058823529</v>
       </c>
-      <c r="BH50" s="189">
+      <c r="BH50" s="188">
         <f t="shared" ref="BH50:BJ50" si="48">RANK(BD50,BD$3:BD$53,0)</f>
         <v>20</v>
       </c>
-      <c r="BI50" s="189">
+      <c r="BI50" s="188">
         <f t="shared" si="48"/>
         <v>20</v>
       </c>
-      <c r="BJ50" s="189">
+      <c r="BJ50" s="188">
         <f t="shared" si="48"/>
         <v>19</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:62">
-      <c r="A51" s="190">
+      <c r="A51" s="189">
         <v>49</v>
       </c>
       <c r="B51" s="120"/>
@@ -14243,37 +14287,37 @@
       <c r="BA51" s="120"/>
       <c r="BB51" s="120"/>
       <c r="BC51" s="120"/>
-      <c r="BD51" s="187">
+      <c r="BD51" s="186">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="BE51" s="187" cm="1">
+      <c r="BE51" s="186" cm="1">
         <f t="array" ref="BE51">SUMPRODUCT(--(B51:BC51=INT(B51:BC51)),--(B51:BC51&gt;0))</f>
         <v>0</v>
       </c>
-      <c r="BF51" s="187" cm="1">
+      <c r="BF51" s="186" cm="1">
         <f t="array" ref="BF51">MAX(FREQUENCY(IF((B51:BC51=INT(B51:BC51))*(B51:BC51&gt;0),COLUMN(B51:BC51)),IF((B51:BC51&lt;&gt;INT(B51:BC51))+(B51:BC51&lt;=0),COLUMN(B51:BC51))))</f>
         <v>0</v>
       </c>
-      <c r="BG51" s="188" cm="1">
+      <c r="BG51" s="187" cm="1">
         <f t="array" ref="BG51">SUMPRODUCT(--(B51:AI51=INT(B51:AI51)),--(B51:AI51&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="BH51" s="189">
+      <c r="BH51" s="188">
         <f t="shared" ref="BH51:BJ51" si="49">RANK(BD51,BD$3:BD$53,0)</f>
         <v>41</v>
       </c>
-      <c r="BI51" s="189">
+      <c r="BI51" s="188">
         <f t="shared" si="49"/>
         <v>41</v>
       </c>
-      <c r="BJ51" s="189">
+      <c r="BJ51" s="188">
         <f t="shared" si="49"/>
         <v>41</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:62">
-      <c r="A52" s="190">
+      <c r="A52" s="189">
         <v>50</v>
       </c>
       <c r="B52" s="120"/>
@@ -14330,37 +14374,37 @@
       <c r="BA52" s="120"/>
       <c r="BB52" s="120"/>
       <c r="BC52" s="120"/>
-      <c r="BD52" s="187">
+      <c r="BD52" s="186">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="BE52" s="187" cm="1">
+      <c r="BE52" s="186" cm="1">
         <f t="array" ref="BE52">SUMPRODUCT(--(B52:BC52=INT(B52:BC52)),--(B52:BC52&gt;0))</f>
         <v>0</v>
       </c>
-      <c r="BF52" s="187" cm="1">
+      <c r="BF52" s="186" cm="1">
         <f t="array" ref="BF52">MAX(FREQUENCY(IF((B52:BC52=INT(B52:BC52))*(B52:BC52&gt;0),COLUMN(B52:BC52)),IF((B52:BC52&lt;&gt;INT(B52:BC52))+(B52:BC52&lt;=0),COLUMN(B52:BC52))))</f>
         <v>0</v>
       </c>
-      <c r="BG52" s="188" cm="1">
+      <c r="BG52" s="187" cm="1">
         <f t="array" ref="BG52">SUMPRODUCT(--(B52:AI52=INT(B52:AI52)),--(B52:AI52&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="BH52" s="189">
+      <c r="BH52" s="188">
         <f t="shared" ref="BH52:BJ52" si="50">RANK(BD52,BD$3:BD$53,0)</f>
         <v>41</v>
       </c>
-      <c r="BI52" s="189">
+      <c r="BI52" s="188">
         <f t="shared" si="50"/>
         <v>41</v>
       </c>
-      <c r="BJ52" s="189">
+      <c r="BJ52" s="188">
         <f t="shared" si="50"/>
         <v>41</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:62">
-      <c r="A53" s="192">
+      <c r="A53" s="120">
         <v>51</v>
       </c>
       <c r="B53" s="120"/>
@@ -14419,31 +14463,31 @@
       <c r="BA53" s="120"/>
       <c r="BB53" s="120"/>
       <c r="BC53" s="120"/>
-      <c r="BD53" s="187">
+      <c r="BD53" s="186">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="BE53" s="187" cm="1">
+      <c r="BE53" s="186" cm="1">
         <f t="array" ref="BE53">SUMPRODUCT(--(B53:BC53=INT(B53:BC53)),--(B53:BC53&gt;0))</f>
         <v>1</v>
       </c>
-      <c r="BF53" s="187" cm="1">
+      <c r="BF53" s="186" cm="1">
         <f t="array" ref="BF53">MAX(FREQUENCY(IF((B53:BC53=INT(B53:BC53))*(B53:BC53&gt;0),COLUMN(B53:BC53)),IF((B53:BC53&lt;&gt;INT(B53:BC53))+(B53:BC53&lt;=0),COLUMN(B53:BC53))))</f>
         <v>1</v>
       </c>
-      <c r="BG53" s="188" cm="1">
+      <c r="BG53" s="187" cm="1">
         <f t="array" ref="BG53">SUMPRODUCT(--(B53:AI53=INT(B53:AI53)),--(B53:AI53&gt;0))/34*100%</f>
         <v>0</v>
       </c>
-      <c r="BH53" s="189">
+      <c r="BH53" s="188">
         <f t="shared" ref="BH53:BJ53" si="51">RANK(BD53,BD$3:BD$53,0)</f>
         <v>34</v>
       </c>
-      <c r="BI53" s="189">
+      <c r="BI53" s="188">
         <f t="shared" si="51"/>
         <v>34</v>
       </c>
-      <c r="BJ53" s="189">
+      <c r="BJ53" s="188">
         <f t="shared" si="51"/>
         <v>19</v>
       </c>
@@ -15570,9 +15614,9 @@
   <pageSetup paperSize="9" scale="80" orientation="landscape"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="Z9:AB9 AD9:AF9 X41 A9:X9" unlockedFormula="1"/>
-    <ignoredError sqref="A10:X10 Z3:AF3 A1:AF2 A39:AF39 A37:AF37 A12:X15 Z49:AF49 BH11:BJ39 Z10:AF10 BI9:BJ9 BH4:BJ8 Z41:AE42 Z4:AE4 A5:AF7 A8:V8 X8:AF8 AF50 A50:AD50 A51:AF53 AE48 Z48:AB48 A48:X49 A47:AF47 AF46 AC46:AD46 AC46:AD46 AA46 AA46 A46:X46 A43:AF43 AF44 Z44:AD44 Z44:AD44 A44:W44 A45:AF45 A42:X42 A40:V40 AC40:AD40 BI3 BD1:BJ2 A3:X4 AD38:AF38 Z38:AB38 A38:X38 Z36:AF36 A36:X36 A36:X36 A34:AF35 Z28:AF33 Z28:AF33 A28:X33 A28:X33 A26:AF27 A26:AF27 Z24:AF25 Z24:AF25 A24:X25 A24:X25 A23:AF23 A23:AF23 AF22 AF22 AA22:AD22 AA22:AD22 A22:X22 A22:X22 A19:AF21 A19:AF21 Z17:AF18 A17:X18 A16:AF16 Z12:AF12 Z13 AB13:AF13 Z14:AF14 Z15 AB15:AE15 AE11 AB11:AC11 A11:Z11" formulaRange="1" unlockedFormula="1"/>
-    <ignoredError sqref="BG11:BG18 BG41:BG53 BG19:BG39 AG12:AI14 AG34:AI39 Y12:Y15 AG5:AI8 AH41:AI41 AF42:AI42 AG49:AI53 AG43:AI47 AG1:AI3 BG4:BG8 AF4:AI4 W8 AE50 AC48:AD48 AF48:AI48 Y48:Y49 Y46:AE46 X44:AE44 Y42 W40:AB40 Y3:Y4 AC38 Y38 A36:Y36 A19:AI33 Y17:Y18 AG16:AI18 AA13 AA15 AF15:AI15 AD11 AF11:AI11 AA11" formulaRange="1"/>
+    <ignoredError sqref="X41 AD9:AF9 Z9:AB9 A9:X9" unlockedFormula="1"/>
+    <ignoredError sqref="A11:Z11 AB11:AC11 AE11 AB15:AE15 Z15 Z14:AF14 AB13:AF13 Z13 Z12:AF12 A16:AF16 A17:X18 Z17:AF18 A19:AF21 A22:X22 AA22:AD22 AF22 A23:AF23 A24:X25 Z24:AF25 A26:AF27 A28:X33 Z28:AF33 A34:AF35 A36:X36 Z36:AF36 A38:X38 Z38:AB38 AD38:AF38 A3:X4 BD1:BJ2 BI3 AC40:AD40 A40:V40 A42:X42 A45:AF45 A44:W44 Z44:AD44 AF44 A43:AF43 A46:X46 AA46 AC46:AD46 AF46 A47:AF47 A48:X49 Z48:AB48 AE48 A51:AF53 A50:AD50 AF50 X8:AF8 A8:V8 A5:AF7 Z4:AE4 Z41:AE42 BH4:BJ8 BI9:BJ9 Z10:AF10 BH11:BJ39 Z49:AF49 A12:X15 A37:AF37 A39:AF39 A1:AF2 Z3:AF3 A10:X10" formulaRange="1" unlockedFormula="1"/>
+    <ignoredError sqref="AA11:AD11 AG16:AI21 AG1:AI3 AG43:AI47 AG49:AI53 AF42:AI42 AH41:AI41 AG5:AI8 AG34:AI39 AG12:AI14 BG41:BG53 AF11:AI11 AF15:AI15 AA15 Z12:AF12 Z13:AA13 Y17:AF18 A22:AI33 Y36:AF36 A37:AF37 Y38:AC38 Y3:Y4 A40:AB40 Y42 A43:AF43 X44:AF44 Y46:AF46 A47:AF47 Y48:Y49 AC48:AD48 AF48:AI48 AE50:AF50 A5:AF7 A8:W8 AF4:AI4 BG4:BG8 BG11:BG39 Y12:Y15" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -15624,21 +15668,21 @@
     </row>
     <row r="2" ht="16.5" spans="1:10">
       <c r="A2" s="148" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B2" s="152" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C2" s="153" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D2" s="154"/>
       <c r="E2" s="152" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F2" s="152"/>
       <c r="G2" s="155" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H2" s="147"/>
       <c r="I2" s="147"/>
@@ -15646,10 +15690,10 @@
     </row>
     <row r="3" ht="16.5" spans="1:10">
       <c r="A3" s="148" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B3" s="157" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C3" s="157"/>
       <c r="D3" s="157"/>
@@ -15662,10 +15706,10 @@
     </row>
     <row r="4" ht="16.5" spans="1:10">
       <c r="A4" s="148" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B4" s="158" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C4" s="158"/>
       <c r="D4" s="158"/>
@@ -15678,7 +15722,7 @@
     </row>
     <row r="5" ht="16.5" spans="1:10">
       <c r="A5" s="148" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B5" s="159">
         <v>1</v>
@@ -15698,7 +15742,7 @@
     </row>
     <row r="6" ht="16.5" spans="1:10">
       <c r="A6" s="148" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B6" s="161">
         <v>1</v>
@@ -15708,7 +15752,7 @@
       <c r="E6" s="161"/>
       <c r="F6" s="161"/>
       <c r="G6" s="162" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H6" s="147"/>
       <c r="I6" s="147"/>
@@ -15716,10 +15760,10 @@
     </row>
     <row r="7" ht="16.5" spans="1:10">
       <c r="A7" s="148" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B7" s="163" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C7" s="163"/>
       <c r="D7" s="163"/>
@@ -15734,14 +15778,14 @@
     </row>
     <row r="8" ht="16.5" spans="1:10">
       <c r="A8" s="148" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B8" s="165">
         <v>1</v>
       </c>
       <c r="C8" s="165"/>
       <c r="D8" s="166" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E8" s="166"/>
       <c r="F8" s="166"/>
@@ -15752,10 +15796,10 @@
     </row>
     <row r="9" ht="16.5" spans="1:10">
       <c r="A9" s="148" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B9" s="152" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C9" s="152"/>
       <c r="D9" s="152"/>
@@ -15768,23 +15812,23 @@
     </row>
     <row r="10" ht="16.5" spans="1:10">
       <c r="A10" s="148" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B10" s="157">
         <v>1</v>
       </c>
       <c r="C10" s="157"/>
       <c r="D10" s="167" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E10" s="157">
         <v>1</v>
       </c>
       <c r="F10" s="167" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G10" s="147" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H10" s="147"/>
       <c r="I10" s="147"/>
@@ -15792,7 +15836,7 @@
     </row>
     <row r="11" ht="16.5" spans="1:10">
       <c r="A11" s="148" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B11" s="158">
         <v>1</v>
@@ -15808,7 +15852,7 @@
     </row>
     <row r="12" ht="16.5" spans="1:10">
       <c r="A12" s="148" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B12" s="159">
         <v>1</v>
@@ -15826,17 +15870,17 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" spans="1:10">
       <c r="A13" s="148" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="168" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -15844,10 +15888,10 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="16.5" spans="1:10">
       <c r="A14" s="148" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B14" s="170" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C14" s="170"/>
       <c r="D14" s="170"/>
@@ -15927,7 +15971,7 @@
   <sheetData>
     <row r="1" s="117" customFormat="1" spans="1:9">
       <c r="A1" s="121" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B1" s="122"/>
       <c r="C1" s="117" t="s">
@@ -15952,10 +15996,10 @@
     </row>
     <row r="2" s="118" customFormat="1" spans="1:9">
       <c r="A2" s="125" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B2" s="126" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C2" s="127" t="s">
         <v>7</v>
@@ -15967,7 +16011,7 @@
     <row r="3" s="118" customFormat="1" spans="1:9">
       <c r="A3" s="130"/>
       <c r="B3" s="126" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C3" s="127" t="s">
         <v>30</v>
@@ -15989,7 +16033,7 @@
     <row r="5" s="118" customFormat="1" spans="1:9">
       <c r="A5" s="130"/>
       <c r="B5" s="126" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C5" s="127" t="s">
         <v>33</v>
@@ -16001,13 +16045,13 @@
     <row r="6" s="118" customFormat="1" spans="1:9">
       <c r="A6" s="130"/>
       <c r="B6" s="126" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="131" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E6" s="132"/>
       <c r="F6" s="133"/>
@@ -16029,7 +16073,7 @@
     <row r="8" s="118" customFormat="1" spans="1:9">
       <c r="A8" s="130"/>
       <c r="B8" s="126" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>15</v>
@@ -16043,7 +16087,7 @@
     <row r="9" s="118" customFormat="1" spans="1:9">
       <c r="A9" s="130"/>
       <c r="B9" s="126" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C9" s="127" t="s">
         <v>26</v>
@@ -16055,7 +16099,7 @@
     <row r="10" s="118" customFormat="1" spans="1:9">
       <c r="A10" s="130"/>
       <c r="B10" s="126" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C10" s="127" t="s">
         <v>36</v>
@@ -16067,7 +16111,7 @@
     <row r="11" s="118" customFormat="1" spans="1:9">
       <c r="A11" s="134"/>
       <c r="B11" s="126" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C11" s="127" t="s">
         <v>71</v>
@@ -16078,10 +16122,10 @@
     </row>
     <row r="12" s="119" customFormat="1" spans="1:9">
       <c r="A12" s="135" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B12" s="136" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C12" s="137" t="s">
         <v>90</v>
@@ -16105,10 +16149,10 @@
     <row r="14" s="119" customFormat="1" spans="1:9">
       <c r="A14" s="141"/>
       <c r="B14" s="136" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C14" s="137" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D14" s="142"/>
       <c r="E14" s="138"/>
@@ -16119,7 +16163,7 @@
     <row r="15" s="119" customFormat="1" spans="1:9">
       <c r="A15" s="141"/>
       <c r="B15" s="136" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C15" s="137" t="s">
         <v>10</v>
@@ -16141,7 +16185,7 @@
     <row r="17" s="119" customFormat="1" spans="1:7">
       <c r="A17" s="141"/>
       <c r="B17" s="136" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C17" s="137" t="s">
         <v>29</v>
@@ -16153,7 +16197,7 @@
     <row r="18" s="119" customFormat="1" spans="1:7">
       <c r="A18" s="141"/>
       <c r="B18" s="136" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C18" s="137" t="s">
         <v>44</v>
@@ -16165,7 +16209,7 @@
     <row r="19" s="119" customFormat="1" spans="1:7">
       <c r="A19" s="141"/>
       <c r="B19" s="136" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C19" s="137" t="s">
         <v>83</v>
@@ -16177,7 +16221,7 @@
     <row r="20" s="119" customFormat="1" spans="1:7">
       <c r="A20" s="141"/>
       <c r="B20" s="136" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C20" s="137" t="s">
         <v>86</v>
@@ -16189,7 +16233,7 @@
     <row r="21" s="119" customFormat="1" spans="1:7">
       <c r="A21" s="141"/>
       <c r="B21" s="136" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C21" s="143"/>
       <c r="D21" s="144"/>
@@ -16201,7 +16245,7 @@
     <row r="22" s="119" customFormat="1" spans="1:7">
       <c r="A22" s="145"/>
       <c r="B22" s="136" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C22" s="143"/>
       <c r="D22" s="146"/>
@@ -16268,7 +16312,7 @@
   <sheetData>
     <row r="1" s="91" customFormat="1" customHeight="1" spans="1:16">
       <c r="A1" s="94" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -16299,7 +16343,7 @@
     </row>
     <row r="3" s="93" customFormat="1" customHeight="1" spans="1:16">
       <c r="A3" s="100" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B3" s="101"/>
       <c r="C3" s="102"/>
@@ -16307,7 +16351,7 @@
         <v>44</v>
       </c>
       <c r="E3" s="103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F3" s="104"/>
       <c r="G3" s="104"/>
@@ -16335,7 +16379,7 @@
         <v>78</v>
       </c>
       <c r="H4" s="105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I4" s="105" t="s">
         <v>90</v>
@@ -16350,7 +16394,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="103" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E5" s="103" t="s">
         <v>81</v>
@@ -16392,7 +16436,7 @@
         <v>36</v>
       </c>
       <c r="I6" s="105" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" s="93" customFormat="1" customHeight="1" spans="1:16">
@@ -16413,7 +16457,7 @@
         <v>86</v>
       </c>
       <c r="G7" s="104" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H7" s="105" t="s">
         <v>63</v>
@@ -16425,7 +16469,7 @@
     <row r="8" s="93" customFormat="1" customHeight="1" spans="1:16">
       <c r="A8" s="106"/>
       <c r="B8" s="102" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C8" s="102" t="s">
         <v>33</v>
@@ -16437,7 +16481,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="104" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G8" s="104" t="s">
         <v>52</v>
@@ -16446,13 +16490,13 @@
         <v>76</v>
       </c>
       <c r="I8" s="105" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" s="93" customFormat="1" customHeight="1" spans="1:16">
       <c r="A9" s="106"/>
       <c r="B9" s="102" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C9" s="102" t="s">
         <v>58</v>
@@ -16461,13 +16505,13 @@
         <v>68</v>
       </c>
       <c r="E9" s="103" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F9" s="104" t="s">
         <v>47</v>
       </c>
       <c r="G9" s="104" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H9" s="105" t="s">
         <v>54</v>
@@ -16481,7 +16525,7 @@
       <c r="B10" s="108"/>
       <c r="C10" s="109"/>
       <c r="D10" s="110" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="112"/>
@@ -16491,7 +16535,7 @@
     </row>
     <row r="11" s="93" customFormat="1" customHeight="1" spans="1:16">
       <c r="A11" s="100" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B11" s="101"/>
       <c r="C11" s="102"/>
@@ -16499,7 +16543,7 @@
         <v>44</v>
       </c>
       <c r="E11" s="103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F11" s="104"/>
       <c r="G11" s="104"/>
@@ -16518,7 +16562,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="103" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F12" s="104" t="s">
         <v>15</v>
@@ -16572,10 +16616,10 @@
         <v>36</v>
       </c>
       <c r="E14" s="103" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F14" s="104" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G14" s="104" t="s">
         <v>73</v>
@@ -16620,13 +16664,13 @@
         <v>33</v>
       </c>
       <c r="C16" s="102" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D16" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="103" t="s">
         <v>96</v>
-      </c>
-      <c r="E16" s="103" t="s">
-        <v>95</v>
       </c>
       <c r="F16" s="104" t="s">
         <v>13</v>
@@ -16644,16 +16688,16 @@
     <row r="17" s="93" customFormat="1" customHeight="1" spans="1:9">
       <c r="A17" s="106"/>
       <c r="B17" s="102" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C17" s="102" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="103" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E17" s="103" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F17" s="104" t="s">
         <v>47</v>
@@ -16662,7 +16706,7 @@
         <v>68</v>
       </c>
       <c r="H17" s="105" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I17" s="105" t="s">
         <v>83</v>
@@ -16683,7 +16727,7 @@
     </row>
     <row r="19" s="93" customFormat="1" customHeight="1" spans="1:9">
       <c r="A19" s="100" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B19" s="101"/>
       <c r="C19" s="102"/>
@@ -16692,7 +16736,7 @@
       </c>
       <c r="E19" s="103"/>
       <c r="F19" s="104" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G19" s="104"/>
       <c r="H19" s="105"/>
@@ -16707,7 +16751,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="103" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E20" s="103" t="s">
         <v>78</v>
@@ -16794,10 +16838,10 @@
         <v>63</v>
       </c>
       <c r="F23" s="104" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G23" s="104" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H23" s="105" t="s">
         <v>18</v>
@@ -16812,7 +16856,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D24" s="103" t="s">
         <v>74</v>
@@ -16821,7 +16865,7 @@
         <v>33</v>
       </c>
       <c r="F24" s="104" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G24" s="104" t="s">
         <v>10</v>
@@ -16836,7 +16880,7 @@
     <row r="25" s="93" customFormat="1" customHeight="1" spans="1:9">
       <c r="A25" s="106"/>
       <c r="B25" s="102" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C25" s="102" t="s">
         <v>83</v>
@@ -16851,10 +16895,10 @@
         <v>74</v>
       </c>
       <c r="G25" s="104" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H25" s="105" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I25" s="105" t="s">
         <v>47</v>
@@ -16865,7 +16909,7 @@
       <c r="B26" s="115"/>
       <c r="C26" s="116"/>
       <c r="D26" s="110" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E26" s="111"/>
       <c r="F26" s="112"/>
@@ -16915,13 +16959,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="82" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C1" s="84" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -16929,208 +16973,208 @@
         <v>1</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="85"/>
       <c r="B3" s="80" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="85"/>
       <c r="B4" s="80" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="85"/>
       <c r="B5" s="80" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C5" s="81" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="85"/>
       <c r="B6" s="80" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C6" s="81" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="85"/>
       <c r="B7" s="80" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="85"/>
       <c r="B8" s="80" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C8" s="81" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="85"/>
       <c r="B9" s="80" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="85"/>
       <c r="B10" s="80" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C10" s="81" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="85"/>
       <c r="B11" s="80" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="85"/>
       <c r="B12" s="80" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C12" s="81" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="85"/>
       <c r="B13" s="80" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C13" s="81" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="85"/>
       <c r="B14" s="80" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C14" s="81" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="85"/>
       <c r="B15" s="80" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C15" s="81" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="85"/>
       <c r="B16" s="80" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C16" s="81" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="85"/>
       <c r="B17" s="80" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="85"/>
       <c r="B18" s="80" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C18" s="81" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="85"/>
       <c r="B19" s="80" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C19" s="81" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="85"/>
       <c r="B20" s="80" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C20" s="81" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="85"/>
       <c r="B21" s="80" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C21" s="81" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="85"/>
       <c r="B22" s="80" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C22" s="81" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="85"/>
       <c r="B23" s="80" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C23" s="81" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="85"/>
       <c r="B24" s="80" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C24" s="81" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -17138,118 +17182,118 @@
         <v>2</v>
       </c>
       <c r="B25" s="80" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C25" s="81" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="86"/>
       <c r="B26" s="80" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C26" s="81" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="86"/>
       <c r="B27" s="80" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C27" s="81" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="86"/>
       <c r="B28" s="80" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="86"/>
       <c r="B29" s="80" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C29" s="81" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="86"/>
       <c r="B30" s="80" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C30" s="81" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="86"/>
       <c r="B31" s="80" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C31" s="81" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="86"/>
       <c r="B32" s="80" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C32" s="81" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="86"/>
       <c r="B33" s="80" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C33" s="81" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="86"/>
       <c r="B34" s="80" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C34" s="81" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="86"/>
       <c r="B35" s="80" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C35" s="81" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="86"/>
       <c r="B36" s="80" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C36" s="81" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="87"/>
       <c r="B37" s="80" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C37" s="81" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -17257,138 +17301,138 @@
         <v>3</v>
       </c>
       <c r="B38" s="80" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C38" s="81" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="89"/>
       <c r="B39" s="80" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C39" s="81" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="89"/>
       <c r="B40" s="80" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C40" s="81" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="89"/>
       <c r="B41" s="80" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C41" s="81" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="89"/>
       <c r="B42" s="80" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C42" s="81" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="89"/>
       <c r="B43" s="80" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C43" s="81" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="89"/>
       <c r="B44" s="80" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C44" s="81" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="89"/>
       <c r="B45" s="80" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C45" s="81" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="89"/>
       <c r="B46" s="80" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C46" s="81" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="89"/>
       <c r="B47" s="80" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C47" s="81" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="89"/>
       <c r="B48" s="80" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C48" s="81" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="89"/>
       <c r="B49" s="80" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C49" s="81" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="90"/>
       <c r="B50" s="80" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C50" s="81" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:3">
       <c r="A51" s="79"/>
       <c r="B51" s="80" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C51" s="81"/>
     </row>
     <row r="52" customFormat="1" spans="1:3">
       <c r="A52" s="79"/>
       <c r="B52" s="80" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C52" s="81"/>
     </row>
     <row r="53" customFormat="1" spans="1:3">
       <c r="A53" s="79"/>
       <c r="B53" s="80" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C53" s="81"/>
     </row>

--- a/c/materials.xlsx
+++ b/c/materials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20750" windowHeight="10480" tabRatio="724"/>
+    <workbookView windowWidth="20750" windowHeight="10480" tabRatio="724" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="师生" sheetId="5" r:id="rId1"/>
@@ -3284,6 +3284,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <strike/>
       <sz val="11"/>
       <name val="黑体"/>
@@ -3291,25 +3302,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="黑体"/>
+      <name val="华文仿宋"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="黑体"/>
       <charset val="134"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="华文仿宋"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="57">
@@ -4075,7 +4075,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4770,12 +4770,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5115,7 +5109,7 @@
   </sheetPr>
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A55" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
@@ -5495,13 +5489,13 @@
       <c r="D41" s="222" t="s">
         <v>92</v>
       </c>
-      <c r="H41" s="230" t="s">
+      <c r="H41" s="223" t="s">
         <v>93</v>
       </c>
-      <c r="I41" s="230" t="s">
+      <c r="I41" s="223" t="s">
         <v>94</v>
       </c>
-      <c r="J41" s="231" t="s">
+      <c r="J41" s="223" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5517,7 +5511,7 @@
       <c r="B43" s="222" t="s">
         <v>98</v>
       </c>
-      <c r="H43" s="231" t="s">
+      <c r="H43" s="223" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5746,7 +5740,7 @@
       <c r="A65" s="221" t="s">
         <v>148</v>
       </c>
-      <c r="B65" s="232" t="s">
+      <c r="B65" s="230" t="s">
         <v>149</v>
       </c>
       <c r="C65" s="229"/>
@@ -5874,7 +5868,7 @@
       <c r="C77" s="78"/>
     </row>
     <row r="78" ht="26" spans="1:7">
-      <c r="A78" s="233" t="s">
+      <c r="A78" s="231" t="s">
         <v>170</v>
       </c>
       <c r="B78" s="222" t="s">
@@ -9274,12 +9268,12 @@
   </sheetPr>
   <dimension ref="A1:BJ53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="O27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="O18" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG44" sqref="AG44"/>
+      <selection pane="bottomRight" activeCell="AS42" sqref="AS42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -9472,8 +9466,12 @@
       <c r="AJ2" s="183">
         <v>26</v>
       </c>
-      <c r="AK2" s="183"/>
-      <c r="AL2" s="183"/>
+      <c r="AK2" s="183">
+        <v>27</v>
+      </c>
+      <c r="AL2" s="183">
+        <v>28</v>
+      </c>
       <c r="AM2" s="183"/>
       <c r="AN2" s="183"/>
       <c r="AO2" s="183"/>
@@ -9700,7 +9698,7 @@
       </c>
       <c r="BH4" s="188">
         <f t="shared" ref="BH4:BJ4" si="1">RANK(BD4,BD$3:BD$53,0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI4" s="188">
         <f t="shared" si="1"/>
@@ -10211,7 +10209,7 @@
       </c>
       <c r="BH9" s="188">
         <f>RANK(BD9,BD$3:BD$53,0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI9" s="188">
         <f t="shared" ref="BH9:BJ9" si="6">RANK(BE9,BE$3:BE$53,0)</f>
@@ -10401,7 +10399,7 @@
       </c>
       <c r="BH11" s="188">
         <f t="shared" ref="BH11:BJ11" si="8">RANK(BD11,BD$3:BD$53,0)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BI11" s="188">
         <f t="shared" si="8"/>
@@ -10601,7 +10599,7 @@
       </c>
       <c r="BI13" s="188">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BJ13" s="188">
         <f t="shared" si="10"/>
@@ -10797,7 +10795,7 @@
       </c>
       <c r="BI15" s="188">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BJ15" s="188">
         <f t="shared" si="12"/>
@@ -12016,7 +12014,7 @@
       </c>
       <c r="BI28" s="188">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BJ28" s="188">
         <f t="shared" si="25"/>
@@ -12319,7 +12317,7 @@
       </c>
       <c r="BI31" s="188">
         <f t="shared" si="28"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BJ31" s="188">
         <f t="shared" si="28"/>
@@ -12843,7 +12841,9 @@
       <c r="AI37" s="120"/>
       <c r="AJ37" s="120"/>
       <c r="AK37" s="120"/>
-      <c r="AL37" s="120"/>
+      <c r="AL37" s="120">
+        <v>1</v>
+      </c>
       <c r="AM37" s="120"/>
       <c r="AN37" s="120"/>
       <c r="AO37" s="120"/>
@@ -12863,11 +12863,11 @@
       <c r="BC37" s="120"/>
       <c r="BD37" s="186">
         <f t="shared" si="33"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE37" s="186" cm="1">
         <f t="array" ref="BE37">SUMPRODUCT(--(B37:BC37=INT(B37:BC37)),--(B37:BC37&gt;0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF37" s="186" cm="1">
         <f t="array" ref="BF37">MAX(FREQUENCY(IF((B37:BC37=INT(B37:BC37))*(B37:BC37&gt;0),COLUMN(B37:BC37)),IF((B37:BC37&lt;&gt;INT(B37:BC37))+(B37:BC37&lt;=0),COLUMN(B37:BC37))))</f>
@@ -12879,11 +12879,11 @@
       </c>
       <c r="BH37" s="188">
         <f t="shared" ref="BH37:BJ37" si="35">RANK(BD37,BD$3:BD$53,0)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BI37" s="188">
         <f t="shared" si="35"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BJ37" s="188">
         <f t="shared" si="35"/>
@@ -13261,7 +13261,9 @@
         <v>1</v>
       </c>
       <c r="AK41" s="120"/>
-      <c r="AL41" s="120"/>
+      <c r="AL41" s="120">
+        <v>1</v>
+      </c>
       <c r="AM41" s="120"/>
       <c r="AN41" s="120"/>
       <c r="AO41" s="120"/>
@@ -13281,11 +13283,11 @@
       <c r="BC41" s="120"/>
       <c r="BD41" s="186">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BE41" s="186" cm="1">
         <f t="array" ref="BE41">SUMPRODUCT(--(B41:BC41=INT(B41:BC41)),--(B41:BC41&gt;0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BF41" s="186" cm="1">
         <f t="array" ref="BF41">MAX(FREQUENCY(IF((B41:BC41=INT(B41:BC41))*(B41:BC41&gt;0),COLUMN(B41:BC41)),IF((B41:BC41&lt;&gt;INT(B41:BC41))+(B41:BC41&lt;=0),COLUMN(B41:BC41))))</f>
@@ -13301,7 +13303,7 @@
       </c>
       <c r="BI41" s="188">
         <f t="shared" si="39"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BJ41" s="188">
         <f t="shared" si="39"/>
@@ -15614,9 +15616,9 @@
   <pageSetup paperSize="9" scale="80" orientation="landscape"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="X41 AD9:AF9 Z9:AB9 A9:X9" unlockedFormula="1"/>
-    <ignoredError sqref="A11:Z11 AB11:AC11 AE11 AB15:AE15 Z15 Z14:AF14 AB13:AF13 Z13 Z12:AF12 A16:AF16 A17:X18 Z17:AF18 A19:AF21 A22:X22 AA22:AD22 AF22 A23:AF23 A24:X25 Z24:AF25 A26:AF27 A28:X33 Z28:AF33 A34:AF35 A36:X36 Z36:AF36 A38:X38 Z38:AB38 AD38:AF38 A3:X4 BD1:BJ2 BI3 AC40:AD40 A40:V40 A42:X42 A45:AF45 A44:W44 Z44:AD44 AF44 A43:AF43 A46:X46 AA46 AC46:AD46 AF46 A47:AF47 A48:X49 Z48:AB48 AE48 A51:AF53 A50:AD50 AF50 X8:AF8 A8:V8 A5:AF7 Z4:AE4 Z41:AE42 BH4:BJ8 BI9:BJ9 Z10:AF10 BH11:BJ39 Z49:AF49 A12:X15 A37:AF37 A39:AF39 A1:AF2 Z3:AF3 A10:X10" formulaRange="1" unlockedFormula="1"/>
-    <ignoredError sqref="AA11:AD11 AG16:AI21 AG1:AI3 AG43:AI47 AG49:AI53 AF42:AI42 AH41:AI41 AG5:AI8 AG34:AI39 AG12:AI14 BG41:BG53 AF11:AI11 AF15:AI15 AA15 Z12:AF12 Z13:AA13 Y17:AF18 A22:AI33 Y36:AF36 A37:AF37 Y38:AC38 Y3:Y4 A40:AB40 Y42 A43:AF43 X44:AF44 Y46:AF46 A47:AF47 Y48:Y49 AC48:AD48 AF48:AI48 AE50:AF50 A5:AF7 A8:W8 AF4:AI4 BG4:BG8 BG11:BG39 Y12:Y15" formulaRange="1"/>
+    <ignoredError sqref="Z9:AB9 AD9:AF9 X41 A9:X9" unlockedFormula="1"/>
+    <ignoredError sqref="A10:X10 Z3:AF3 A1:AF2 A39:AF39 A37:AF37 A12:X15 Z49:AF49 BH11:BJ39 Z10:AF10 BI9:BJ9 BH4:BJ8 Z41:AE42 Z4:AE4 A5:AF7 A8:V8 X8:AF8 AF50 A50:AD50 A51:AF53 AE48 Z48:AB48 A48:X49 A47:AF47 AF46 AC46:AD46 AA46 A46:X46 A43:AF43 AF44 Z44:AD44 A44:W44 A45:AF45 A42:X42 A40:V40 AC40:AD40 BI3 BD1:BJ2 A3:X4 AD38:AF38 Z38:AB38 A38:X38 Z36:AF36 A36:X36 A34:AF35 Z28:AF33 A28:X33 A26:AF27 Z24:AF25 A24:X25 A23:AF23 AF22 AA22:AD22 A22:X22 A19:AF21 Z17:AF18 A17:X18 A16:AF16 Z12:AF12 Z13 AB13:AF13 Z14:AF14 Z15 AB15:AE15 AE11 AB11:AC11 A11:Z11" formulaRange="1" unlockedFormula="1"/>
+    <ignoredError sqref="AA15:AI15 BG41:BG53 AG12:AI14 AG28:AI39 AG5:AI8 AH41:AI41 AF42:AI42 AG49:AI53 AG43:AI47 AG1:AI3 AG16:AI21 Y12:Y15 BG11:BG39 BG4:BG8 AF4:AI4 W8:AF8 A50:AE50 A51:AF53 AF48:AI48 AC48:AD48 Y48:Y49 A45:AF45 A46:AE46 A44:AE44 Y42 W40:AD40 Y3:Y4 A38:AC38 A34:AF35 A36:Y36 A22:AI27 A28:Y33 A16:AF16 A17:Y18 AA13:AF13 Z14:AF14 AF11:AI11 A11:AA11 AD11" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
